--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C548E2-C25B-0F41-B6FA-05025A35F427}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C8A041-3D17-3E40-AE2E-3B9A33395D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="21140" activeTab="5" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19500" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -352,27 +352,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +378,27 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,9 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3:K22"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,20 +727,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -781,34 +781,34 @@
       <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="34">
         <v>1.5E-5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>1.0900000000000001E-4</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="36">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="37">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="36">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="37">
         <v>1.2E-5</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="38">
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
@@ -816,34 +816,34 @@
       <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="34">
         <v>1.5E-5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>3.2239999999999999E-3</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>1.4E-5</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <v>1.2E-5</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>1.2E-5</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="36">
         <v>1.2E-5</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="37">
         <v>1.2E-5</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="38">
         <v>2.4000000000000001E-5</v>
       </c>
     </row>
@@ -851,34 +851,34 @@
       <c r="A5" s="7">
         <v>20</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="34">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="35">
         <v>6.3075000000000006E-2</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="36">
         <v>1.5E-5</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>1.4E-5</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <v>1.2E-5</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="34">
         <v>1.1E-5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="36">
         <v>1.4E-5</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="37">
         <v>1.4E-5</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="38">
         <v>1.4E-5</v>
       </c>
     </row>
@@ -886,34 +886,34 @@
       <c r="A6" s="7">
         <v>25</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="34">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="35">
         <v>1.6400779999999999</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="36">
         <v>1.7E-5</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="37">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="38">
         <v>1.5E-5</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="36">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="37">
         <v>1.5E-5</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="38">
         <v>1.4E-5</v>
       </c>
     </row>
@@ -921,34 +921,34 @@
       <c r="A7" s="7">
         <v>30</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <v>2.8E-5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="35">
         <v>53.193013999999998</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="36">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="36">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="37">
         <v>1.5E-5</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="38">
         <v>1.2E-5</v>
       </c>
     </row>
@@ -956,32 +956,32 @@
       <c r="A8" s="7">
         <v>50</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="34">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="35">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="36">
         <v>2.3E-5</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="37">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="38">
         <v>1.5E-5</v>
       </c>
     </row>
@@ -989,32 +989,32 @@
       <c r="A9" s="7">
         <v>100</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="34">
         <v>1.9900000000000001E-4</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="34">
         <v>1.8E-5</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="35">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="36">
         <v>2.8E-5</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="37">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="38">
         <v>2.6999999999999999E-5</v>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       <c r="A10" s="7">
         <v>200</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="34">
         <v>6.9899999999999997E-4</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36">
         <v>2.5099999999999998E-4</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="37">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="34">
         <v>2.8E-5</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="35">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="36">
         <v>4.1E-5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="37">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="38">
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
@@ -1055,32 +1055,32 @@
       <c r="A11" s="7">
         <v>500</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="34">
         <v>4.0239999999999998E-3</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <v>1.423E-3</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <v>1.35E-4</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="34">
         <v>6.8999999999999997E-5</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="35">
         <v>9.7E-5</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="36">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="37">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="38">
         <v>1.08E-4</v>
       </c>
     </row>
@@ -1088,32 +1088,32 @@
       <c r="A12" s="7">
         <v>1000</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="34">
         <v>1.5433000000000001E-2</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36">
         <v>5.2319999999999997E-3</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="37">
         <v>2.7300000000000002E-4</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="34">
         <v>1.47E-4</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="35">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="36">
         <v>2.2599999999999999E-4</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="37">
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="38">
         <v>2.31E-4</v>
       </c>
     </row>
@@ -1121,32 +1121,32 @@
       <c r="A13" s="7">
         <v>1500</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="34">
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36">
         <v>1.1247E-2</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="37">
         <v>4.4799999999999999E-4</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <v>4.35E-4</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="34">
         <v>2.04E-4</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="35">
         <v>2.7399999999999999E-4</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="36">
         <v>3.79E-4</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="37">
         <v>4.6500000000000003E-4</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="38">
         <v>3.4299999999999999E-4</v>
       </c>
     </row>
@@ -1154,32 +1154,32 @@
       <c r="A14" s="7">
         <v>2000</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="34">
         <v>5.0650000000000001E-2</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36">
         <v>1.7212000000000002E-2</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="37">
         <v>5.4600000000000004E-4</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <v>5.2400000000000005E-4</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="35">
         <v>3.9599999999999998E-4</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="36">
         <v>4.3399999999999998E-4</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="37">
         <v>5.8699999999999996E-4</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="38">
         <v>4.1800000000000002E-4</v>
       </c>
     </row>
@@ -1187,32 +1187,32 @@
       <c r="A15" s="7">
         <v>2500</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="34">
         <v>8.0116000000000007E-2</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36">
         <v>3.0630999999999999E-2</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="37">
         <v>6.3299999999999999E-4</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <v>6.4300000000000002E-4</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <v>3.3599999999999998E-4</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="35">
         <v>4.46E-4</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="36">
         <v>5.1599999999999997E-4</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="37">
         <v>7.8100000000000001E-4</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="38">
         <v>5.1500000000000005E-4</v>
       </c>
     </row>
@@ -1220,32 +1220,32 @@
       <c r="A16" s="7">
         <v>5000</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="34">
         <v>0.31412499999999999</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36">
         <v>0.107991</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="37">
         <v>1.256E-3</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="38">
         <v>1.2329999999999999E-3</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="34">
         <v>6.7900000000000002E-4</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="35">
         <v>9.01E-4</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="36">
         <v>1.026E-3</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="37">
         <v>1.366E-3</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="38">
         <v>1.0169999999999999E-3</v>
       </c>
     </row>
@@ -1253,32 +1253,32 @@
       <c r="A17" s="7">
         <v>10000</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="34">
         <v>1.2714209999999999</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36">
         <v>0.41018399999999999</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="37">
         <v>2.5639999999999999E-3</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="38">
         <v>2.5089999999999999E-3</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="34">
         <v>1.3730000000000001E-3</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="35">
         <v>1.745E-3</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="36">
         <v>1.9919999999999998E-3</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="37">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="38">
         <v>1.9940000000000001E-3</v>
       </c>
     </row>
@@ -1286,32 +1286,32 @@
       <c r="A18" s="7">
         <v>20000</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="34">
         <v>5.1085269999999996</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36">
         <v>1.6348259999999999</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="37">
         <v>6.2430000000000003E-3</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="38">
         <v>6.2599999999999999E-3</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <v>2.7179999999999999E-3</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="35">
         <v>3.4150000000000001E-3</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="36">
         <v>5.8079999999999998E-3</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="37">
         <v>9.0229999999999998E-3</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="38">
         <v>6.9649999999999998E-3</v>
       </c>
     </row>
@@ -1319,32 +1319,32 @@
       <c r="A19" s="7">
         <v>30000</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="34">
         <v>11.609833999999999</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36">
         <v>3.7100110000000002</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="37">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="38">
         <v>1.0289E-2</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="34">
         <v>4.6230000000000004E-3</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="35">
         <v>7.5249999999999996E-3</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="36">
         <v>1.1389E-2</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="37">
         <v>1.3358999999999999E-2</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="38">
         <v>8.8229999999999992E-3</v>
       </c>
     </row>
@@ -1352,32 +1352,32 @@
       <c r="A20" s="7">
         <v>40000</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="34">
         <v>20.746922999999999</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36">
         <v>6.8202280000000002</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="37">
         <v>1.4557E-2</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="38">
         <v>1.5880999999999999E-2</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="34">
         <v>5.5149999999999999E-3</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="35">
         <v>1.1381E-2</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="36">
         <v>1.3158E-2</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="37">
         <v>1.6435999999999999E-2</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="38">
         <v>1.3035E-2</v>
       </c>
     </row>
@@ -1385,32 +1385,32 @@
       <c r="A21" s="7">
         <v>50000</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="34">
         <v>32.536045999999999</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36">
         <v>10.419302</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="37">
         <v>2.1023E-2</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="38">
         <v>2.1510000000000001E-2</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="34">
         <v>6.4440000000000001E-3</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="35">
         <v>1.2572E-2</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="36">
         <v>1.7793E-2</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="37">
         <v>2.3348000000000001E-2</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="38">
         <v>1.426E-2</v>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       <c r="A22" s="7">
         <v>100000</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="34">
         <v>131.11543900000001</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36">
         <v>42.134400999999997</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="34">
         <v>1.5545E-2</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="35">
         <v>2.2577E-2</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="40">
         <v>3.3466999999999997E-2</v>
       </c>
     </row>
@@ -1921,8 +1921,8 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView zoomScale="131" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P3" sqref="P3:P21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1933,34 +1933,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="34" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
     </row>
     <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -2031,64 +2031,64 @@
       <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="34">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="36">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="37">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="35">
         <v>1.5E-5</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="36">
         <v>2.9E-5</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="37">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="38">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="34">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="35">
         <v>6.2299999999999996E-4</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="36">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="37">
         <v>2.8E-5</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="38">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="34">
         <v>1.7E-5</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="35">
         <v>1.5E-5</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="36">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="T3" s="44">
+      <c r="T3" s="37">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="U3" s="45">
+      <c r="U3" s="38">
         <v>2.3E-5</v>
       </c>
     </row>
@@ -2096,64 +2096,64 @@
       <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="34">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>1.272E-2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>1.03E-4</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="36">
         <v>3.4E-5</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="37">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="38">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="34">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="35">
         <v>1.3254E-2</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="36">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="37">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="38">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="34">
         <v>1.7E-5</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="35">
         <v>1.8E-5</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="36">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="37">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="U4" s="45">
+      <c r="U4" s="38">
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
@@ -2161,64 +2161,64 @@
       <c r="A5" s="7">
         <v>20</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="34">
         <v>4.6E-5</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="35">
         <v>0.266239</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="36">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="34">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="35">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="36">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="37">
         <v>5.1E-5</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="38">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="34">
         <v>5.1E-5</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="35">
         <v>0.35253299999999999</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="36">
         <v>1.75E-4</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="37">
         <v>5.1E-5</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="38">
         <v>1.05E-4</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="34">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="35">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="36">
         <v>4.6E-5</v>
       </c>
-      <c r="T5" s="44">
+      <c r="T5" s="37">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="38">
         <v>3.1999999999999999E-5</v>
       </c>
     </row>
@@ -2226,64 +2226,64 @@
       <c r="A6" s="7">
         <v>25</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="34">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="35">
         <v>8.4287159999999997</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="36">
         <v>3.5500000000000001E-4</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="37">
         <v>7.1000000000000005E-5</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="38">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="34">
         <v>1.8E-5</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="35">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="36">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="37">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="38">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="34">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="35">
         <v>9.2946539999999995</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="36">
         <v>3.21E-4</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="37">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="38">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="34">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="35">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="36">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="37">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="38">
         <v>3.4999999999999997E-5</v>
       </c>
     </row>
@@ -2291,64 +2291,64 @@
       <c r="A7" s="7">
         <v>30</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="35">
         <v>268.11392599999999</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="36">
         <v>5.2300000000000003E-4</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <v>8.2000000000000001E-5</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="34">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="35">
         <v>2.3E-5</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="36">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="37">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="38">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="34">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="35">
         <v>306.167394</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="36">
         <v>5.2800000000000004E-4</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="37">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="38">
         <v>1.1E-4</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="34">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="35">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="36">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="37">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="38">
         <v>3.8999999999999999E-5</v>
       </c>
     </row>
@@ -2356,60 +2356,60 @@
       <c r="A8" s="7">
         <v>50</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="34">
         <v>1.93E-4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>2.3010000000000001E-3</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <v>1.83E-4</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <v>2.0599999999999999E-4</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="34">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="35">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="36">
         <v>1.7100000000000001E-4</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="37">
         <v>1.8799999999999999E-4</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="38">
         <v>5.5999999999999999E-5</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="34">
         <v>2.31E-4</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43">
+      <c r="M8" s="35"/>
+      <c r="N8" s="36">
         <v>2.2659999999999998E-3</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="37">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="38">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="34">
         <v>2.8E-5</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="35">
         <v>3.4E-5</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="36">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="37">
         <v>1.85E-4</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="38">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
@@ -2417,60 +2417,60 @@
       <c r="A9" s="7">
         <v>100</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="34">
         <v>7.4399999999999998E-4</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
         <v>1.4171E-2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>6.4099999999999997E-4</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <v>6.1300000000000005E-4</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="34">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="35">
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="36">
         <v>6.2699999999999995E-4</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="37">
         <v>6.29E-4</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="38">
         <v>1.02E-4</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="34">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43">
+      <c r="M9" s="35"/>
+      <c r="N9" s="36">
         <v>1.3723000000000001E-2</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="37">
         <v>6.3699999999999998E-4</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="38">
         <v>6.5799999999999995E-4</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="34">
         <v>5.1E-5</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="35">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="36">
         <v>6.3599999999999996E-4</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="37">
         <v>6.5499999999999998E-4</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="38">
         <v>1.05E-4</v>
       </c>
     </row>
@@ -2478,60 +2478,60 @@
       <c r="A10" s="7">
         <v>200</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="34">
         <v>2.7100000000000002E-3</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36">
         <v>8.8472999999999996E-2</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="37">
         <v>2.4489999999999998E-3</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <v>2.336E-3</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="34">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="35">
         <v>1.08E-4</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="36">
         <v>2.2060000000000001E-3</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="37">
         <v>2.2279999999999999E-3</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="38">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="34">
         <v>3.2160000000000001E-3</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43">
+      <c r="M10" s="35"/>
+      <c r="N10" s="36">
         <v>8.8058999999999998E-2</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="37">
         <v>2.343E-3</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="38">
         <v>2.382E-3</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="34">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="35">
         <v>1.36E-4</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="36">
         <v>2.2230000000000001E-3</v>
       </c>
-      <c r="T10" s="44">
+      <c r="T10" s="37">
         <v>2.3809999999999999E-3</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="38">
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
@@ -2539,60 +2539,60 @@
       <c r="A11" s="7">
         <v>500</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="34">
         <v>1.5873999999999999E-2</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <v>1.334487</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <v>1.1698999999999999E-2</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <v>1.1237E-2</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="34">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="35">
         <v>3.0299999999999999E-4</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="36">
         <v>1.1476999999999999E-2</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="37">
         <v>1.1681E-2</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="38">
         <v>4.7800000000000002E-4</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="34">
         <v>1.8371999999999999E-2</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43">
+      <c r="M11" s="35"/>
+      <c r="N11" s="36">
         <v>1.3161579999999999</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="37">
         <v>1.1082E-2</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="38">
         <v>1.1736999999999999E-2</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="34">
         <v>2.03E-4</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="35">
         <v>2.8600000000000001E-4</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="36">
         <v>1.1309E-2</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="37">
         <v>1.1424E-2</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="38">
         <v>5.3700000000000004E-4</v>
       </c>
     </row>
@@ -2600,60 +2600,60 @@
       <c r="A12" s="7">
         <v>1000</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="34">
         <v>5.1770999999999998E-2</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36">
         <v>11.795381000000001</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="37">
         <v>3.7864000000000002E-2</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <v>3.5764999999999998E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="34">
         <v>3.9199999999999999E-4</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="35">
         <v>5.7499999999999999E-4</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="36">
         <v>3.9509000000000002E-2</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="37">
         <v>3.6583999999999998E-2</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="38">
         <v>9.2800000000000001E-4</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="34">
         <v>5.9317000000000002E-2</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43">
+      <c r="M12" s="35"/>
+      <c r="N12" s="36">
         <v>11.279191000000001</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="37">
         <v>3.5202999999999998E-2</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="38">
         <v>3.7241999999999997E-2</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="34">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="35">
         <v>5.7200000000000003E-4</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="36">
         <v>3.8273000000000001E-2</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="37">
         <v>3.9696000000000002E-2</v>
       </c>
-      <c r="U12" s="45">
+      <c r="U12" s="38">
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
@@ -2661,60 +2661,60 @@
       <c r="A13" s="7">
         <v>1500</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="34">
         <v>0.114147</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36">
         <v>41.537905000000002</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="37">
         <v>7.5550999999999993E-2</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <v>7.4244000000000004E-2</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="34">
         <v>5.1800000000000001E-4</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="35">
         <v>7.76E-4</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="36">
         <v>7.4894000000000002E-2</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="37">
         <v>7.4805999999999997E-2</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="38">
         <v>1.3209999999999999E-3</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="34">
         <v>0.13069500000000001</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43">
+      <c r="M13" s="35"/>
+      <c r="N13" s="36">
         <v>42.014606000000001</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="37">
         <v>7.8506000000000006E-2</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="38">
         <v>7.6338000000000003E-2</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="34">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="35">
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="36">
         <v>7.5379000000000002E-2</v>
       </c>
-      <c r="T13" s="44">
+      <c r="T13" s="37">
         <v>7.3265999999999998E-2</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="38">
         <v>1.3359999999999999E-3</v>
       </c>
     </row>
@@ -2722,60 +2722,60 @@
       <c r="A14" s="7">
         <v>2000</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="34">
         <v>0.19637299999999999</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36">
         <v>103.629572</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="37">
         <v>0.129053</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <v>0.130217</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <v>7.3200000000000001E-4</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="35">
         <v>1.031E-3</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="36">
         <v>0.12806200000000001</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="37">
         <v>0.130102</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="38">
         <v>1.7149999999999999E-3</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="34">
         <v>0.22454299999999999</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43">
+      <c r="M14" s="35"/>
+      <c r="N14" s="36">
         <v>104.487927</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="37">
         <v>0.12934499999999999</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="38">
         <v>0.130025</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="34">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="35">
         <v>1.1440000000000001E-3</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="36">
         <v>0.13262099999999999</v>
       </c>
-      <c r="T14" s="44">
+      <c r="T14" s="37">
         <v>0.129354</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U14" s="38">
         <v>1.81E-3</v>
       </c>
     </row>
@@ -2783,60 +2783,60 @@
       <c r="A15" s="7">
         <v>2500</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="34">
         <v>0.30165399999999998</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36">
         <v>205.59171699999999</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="37">
         <v>0.193717</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <v>0.20021700000000001</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="35">
         <v>1.3010000000000001E-3</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="36">
         <v>0.205566</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="37">
         <v>0.21185300000000001</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="38">
         <v>3.7039999999999998E-3</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="34">
         <v>0.35364499999999999</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43">
+      <c r="M15" s="35"/>
+      <c r="N15" s="36">
         <v>209.443647</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="37">
         <v>0.19637399999999999</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="38">
         <v>0.20038600000000001</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="34">
         <v>9.68E-4</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="35">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="36">
         <v>0.206875</v>
       </c>
-      <c r="T15" s="44">
+      <c r="T15" s="37">
         <v>0.20899400000000001</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="38">
         <v>3.9399999999999999E-3</v>
       </c>
     </row>
@@ -2844,56 +2844,56 @@
       <c r="A16" s="7">
         <v>5000</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="34">
         <v>1.225249</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37">
         <v>0.788659</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="38">
         <v>0.80695600000000001</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="34">
         <v>1.7440000000000001E-3</v>
       </c>
-      <c r="H16" s="42">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="43">
+      <c r="H16" s="35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="36">
         <v>0.86813200000000001</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="37">
         <v>0.93411599999999995</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="38">
         <v>7.1219999999999999E-3</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="34">
         <v>1.4324870000000001</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44">
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37">
         <v>0.76894600000000002</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="38">
         <v>0.78488899999999995</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="34">
         <v>1.939E-3</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="35">
         <v>3.5409999999999999E-3</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="36">
         <v>0.84693600000000002</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="37">
         <v>0.83301099999999995</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="38">
         <v>7.5430000000000002E-3</v>
       </c>
     </row>
@@ -2901,56 +2901,56 @@
       <c r="A17" s="7">
         <v>10000</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="34">
         <v>4.8713670000000002</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37">
         <v>3.215808</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="38">
         <v>3.39628</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="34">
         <v>3.3769999999999998E-3</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="35">
         <v>6.5459999999999997E-3</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="36">
         <v>3.908436</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="37">
         <v>3.5893860000000002</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="38">
         <v>1.4829E-2</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="34">
         <v>5.7851239999999997</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44">
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37">
         <v>3.2021199999999999</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="38">
         <v>3.2389929999999998</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="34">
         <v>3.852E-3</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="35">
         <v>7.162E-3</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="36">
         <v>3.567259</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="37">
         <v>3.5445669999999998</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="38">
         <v>1.3786E-2</v>
       </c>
     </row>
@@ -2958,56 +2958,56 @@
       <c r="A18" s="7">
         <v>20000</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="34">
         <v>20.206564</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37">
         <v>13.235194999999999</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="38">
         <v>14.003446</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <v>8.4860000000000005E-3</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="35">
         <v>1.2212000000000001E-2</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="36">
         <v>16.849065</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="37">
         <v>18.633184</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="38">
         <v>3.3230999999999997E-2</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="34">
         <v>23.226838000000001</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="44">
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37">
         <v>13.479113999999999</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="38">
         <v>14.220385</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="34">
         <v>8.1370000000000001E-3</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="35">
         <v>1.3244000000000001E-2</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="36">
         <v>16.383706</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="37">
         <v>16.299562000000002</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="38">
         <v>3.1668000000000002E-2</v>
       </c>
     </row>
@@ -3015,56 +3015,56 @@
       <c r="A19" s="7">
         <v>30000</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="34">
         <v>46.319502</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37">
         <v>31.721802</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="38">
         <v>33.620404999999998</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="34">
         <v>1.3455E-2</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="35">
         <v>1.9609999999999999E-2</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="36">
         <v>43.680990000000001</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="37">
         <v>46.174770000000002</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="38">
         <v>5.2789999999999997E-2</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="34">
         <v>52.748072000000001</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44">
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37">
         <v>33.281880000000001</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="38">
         <v>34.369891000000003</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="34">
         <v>1.3747000000000001E-2</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="35">
         <v>2.0348999999999999E-2</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="36">
         <v>40.840294999999998</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="37">
         <v>46.926304000000002</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="38">
         <v>5.2180999999999998E-2</v>
       </c>
     </row>
@@ -3072,52 +3072,52 @@
       <c r="A20" s="7">
         <v>40000</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="34">
         <v>82.298096999999999</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37">
         <v>66.507579000000007</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="38">
         <v>66.225010999999995</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="34">
         <v>1.7045000000000001E-2</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="35">
         <v>2.8849E-2</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44">
+      <c r="I20" s="36"/>
+      <c r="J20" s="37">
         <v>93.513334</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="38">
         <v>6.6697000000000006E-2</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="34">
         <v>95.904543000000004</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44">
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37">
         <v>66.772433000000007</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="38">
         <v>66.522424999999998</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="34">
         <v>1.8932999999999998E-2</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="35">
         <v>2.7401999999999999E-2</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44">
+      <c r="S20" s="36"/>
+      <c r="T20" s="37">
         <v>92.836652000000001</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="38">
         <v>7.4124999999999996E-2</v>
       </c>
     </row>
@@ -3125,50 +3125,50 @@
       <c r="A21" s="7">
         <v>50000</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="34">
         <v>129.26165</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37">
         <v>111.864406</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="38">
         <v>112.97528699999999</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="34">
         <v>1.9095000000000001E-2</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="35">
         <v>3.4917999999999998E-2</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45">
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38">
         <v>9.0634000000000006E-2</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="34">
         <v>149.20957200000001</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44">
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37">
         <v>110.650992</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="38">
         <v>112.161743</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="34">
         <v>2.2712E-2</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="35">
         <v>3.2217999999999997E-2</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44">
+      <c r="S21" s="36"/>
+      <c r="T21" s="37">
         <v>159.119361</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="38">
         <v>9.4209000000000001E-2</v>
       </c>
     </row>
@@ -3176,44 +3176,44 @@
       <c r="A22" s="7">
         <v>100000</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="34">
         <v>526.33710099999996</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="34">
         <v>4.0576000000000001E-2</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="35">
         <v>7.6601000000000002E-2</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="47">
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="40">
         <v>0.21273700000000001</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="34">
         <v>618.711634</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="41">
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="34">
         <v>4.7566999999999998E-2</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="35">
         <v>7.9657000000000006E-2</v>
       </c>
-      <c r="S22" s="43"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="47">
+      <c r="S22" s="36"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="40">
         <v>0.21244199999999999</v>
       </c>
     </row>
@@ -3221,28 +3221,28 @@
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="38"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I25" s="25"/>
@@ -3703,34 +3703,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="34" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="34" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -5005,7 +5005,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -5021,34 +5021,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="37" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="48"/>
     </row>
     <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -6483,13 +6483,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -6515,19 +6515,19 @@
       <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="34">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>1.6100000000000001E-3</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="36">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="37">
         <v>7.3999999999999996E-5</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
@@ -6535,19 +6535,19 @@
       <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="34">
         <v>2.31E-4</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>3.5514999999999998E-2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>2.23E-4</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <v>1.3300000000000001E-4</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
@@ -6555,19 +6555,19 @@
       <c r="A5" s="7">
         <v>20</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="34">
         <v>4.17E-4</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="35">
         <v>0.829847</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="36">
         <v>5.6599999999999999E-4</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
@@ -6575,19 +6575,19 @@
       <c r="A6" s="7">
         <v>25</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="34">
         <v>9.6500000000000004E-4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="35">
         <v>26.777332000000001</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="36">
         <v>8.9599999999999999E-4</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="37">
         <v>3.6200000000000002E-4</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="38">
         <v>3.4400000000000001E-4</v>
       </c>
     </row>
@@ -6595,19 +6595,19 @@
       <c r="A7" s="7">
         <v>30</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <v>1.271E-3</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="35">
         <v>878.10427600000003</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="36">
         <v>1.4220000000000001E-3</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <v>4.9899999999999999E-4</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
@@ -6615,17 +6615,17 @@
       <c r="A8" s="7">
         <v>50</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="34">
         <v>5.1469999999999997E-3</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>7.1989999999999997E-3</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <v>1.4729999999999999E-3</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <v>1.3749999999999999E-3</v>
       </c>
     </row>
@@ -6633,17 +6633,17 @@
       <c r="A9" s="7">
         <v>100</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="34">
         <v>3.0351E-2</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
         <v>6.2894000000000005E-2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>7.5259999999999997E-3</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <v>7.3419999999999996E-3</v>
       </c>
     </row>
@@ -6651,17 +6651,17 @@
       <c r="A10" s="7">
         <v>200</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="34">
         <v>0.19198799999999999</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36">
         <v>0.78042100000000003</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="37">
         <v>3.3986000000000002E-2</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <v>3.8025000000000003E-2</v>
       </c>
     </row>
@@ -6669,17 +6669,17 @@
       <c r="A11" s="7">
         <v>500</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="34">
         <v>3.0291260000000002</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <v>28.027449000000001</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <v>0.358321</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <v>0.35870299999999999</v>
       </c>
     </row>
@@ -6687,15 +6687,15 @@
       <c r="A12" s="7">
         <v>1000</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="34">
         <v>23.855533999999999</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37">
         <v>2.4473569999999998</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <v>2.4422429999999999</v>
       </c>
     </row>
@@ -6703,15 +6703,15 @@
       <c r="A13" s="7">
         <v>1500</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="34">
         <v>81.591841000000002</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37">
         <v>7.8728100000000003</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <v>7.9397279999999997</v>
       </c>
     </row>
@@ -6719,15 +6719,15 @@
       <c r="A14" s="7">
         <v>2000</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="34">
         <v>196.160619</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37">
         <v>18.893447999999999</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <v>18.762761999999999</v>
       </c>
     </row>
@@ -6735,15 +6735,15 @@
       <c r="A15" s="7">
         <v>2500</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="34">
         <v>421.31636099999997</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37">
         <v>38.298901999999998</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <v>37.168374</v>
       </c>
     </row>
@@ -6751,71 +6751,71 @@
       <c r="A16" s="7">
         <v>5000</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10000</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>20000</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>30000</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>40000</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>50000</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>100000</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
@@ -7136,9 +7136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="135" zoomScaleNormal="168" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7147,20 +7147,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -7201,34 +7201,34 @@
       <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="34">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>1.1820000000000001E-3</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="36">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="37">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="38">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="34">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="35">
         <v>1.4450000000000001E-3</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="36">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="37">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="38">
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
@@ -7236,34 +7236,34 @@
       <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="34">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>2.7238999999999999E-2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>1.1E-4</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="35">
         <v>2.93E-2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="36">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="37">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="38">
         <v>5.1E-5</v>
       </c>
     </row>
@@ -7271,34 +7271,34 @@
       <c r="A5" s="7">
         <v>20</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="34">
         <v>1.2E-4</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="35">
         <v>0.61957499999999999</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="36">
         <v>1.63E-4</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>5.5999999999999999E-5</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="34">
         <v>1.2799999999999999E-4</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="35">
         <v>0.67658799999999997</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="36">
         <v>1.22E-4</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="37">
         <v>6.6000000000000005E-5</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="38">
         <v>6.0999999999999999E-5</v>
       </c>
     </row>
@@ -7306,34 +7306,34 @@
       <c r="A6" s="7">
         <v>25</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="34">
         <v>1.7699999999999999E-4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="35">
         <v>19.820468000000002</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="36">
         <v>2.1699999999999999E-4</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="37">
         <v>6.8999999999999997E-5</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="38">
         <v>6.8999999999999997E-5</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="34">
         <v>1.85E-4</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="35">
         <v>21.308031</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="36">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="37">
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="38">
         <v>7.7000000000000001E-5</v>
       </c>
     </row>
@@ -7341,30 +7341,30 @@
       <c r="A7" s="7">
         <v>30</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="34">
         <v>2.4499999999999999E-4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36">
         <v>2.6499999999999999E-4</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="38">
         <v>8.7999999999999998E-5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="34">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="37">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="38">
         <v>8.1000000000000004E-5</v>
       </c>
     </row>
@@ -7372,30 +7372,30 @@
       <c r="A8" s="7">
         <v>50</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="34">
         <v>6.4499999999999996E-4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36">
         <v>6.3599999999999996E-4</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <v>1.27E-4</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="38">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="34">
         <v>6.5700000000000003E-4</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43">
+      <c r="H8" s="35"/>
+      <c r="I8" s="36">
         <v>6.2100000000000002E-4</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="37">
         <v>1.35E-4</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="38">
         <v>1.66E-4</v>
       </c>
     </row>
@@ -7403,30 +7403,30 @@
       <c r="A9" s="7">
         <v>100</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="34">
         <v>2.464E-3</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36">
         <v>2.2880000000000001E-3</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="34">
         <v>2.503E-3</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43">
+      <c r="H9" s="35"/>
+      <c r="I9" s="36">
         <v>2.3809999999999999E-3</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="37">
         <v>2.72E-4</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="38">
         <v>2.5900000000000001E-4</v>
       </c>
     </row>
@@ -7434,30 +7434,30 @@
       <c r="A10" s="7">
         <v>200</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="34">
         <v>8.5699999999999995E-3</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36">
         <v>7.2350000000000001E-3</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="37">
         <v>5.04E-4</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <v>5.1699999999999999E-4</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="34">
         <v>9.0189999999999992E-3</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43">
+      <c r="H10" s="35"/>
+      <c r="I10" s="36">
         <v>7.2389999999999998E-3</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="37">
         <v>5.2899999999999996E-4</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="38">
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
@@ -7465,30 +7465,30 @@
       <c r="A11" s="7">
         <v>500</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="34">
         <v>4.1662999999999999E-2</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <v>3.9236E-2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <v>1.186E-3</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="38">
         <v>1.2019999999999999E-3</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="34">
         <v>4.4017000000000001E-2</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43">
+      <c r="H11" s="35"/>
+      <c r="I11" s="36">
         <v>3.6609999999999997E-2</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="37">
         <v>1.3320000000000001E-3</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="38">
         <v>1.291E-3</v>
       </c>
     </row>
@@ -7496,30 +7496,30 @@
       <c r="A12" s="7">
         <v>1000</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="34">
         <v>0.153999</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36">
         <v>0.13058500000000001</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="37">
         <v>2.3389999999999999E-3</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <v>2.3900000000000002E-3</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="34">
         <v>0.16484299999999999</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43">
+      <c r="H12" s="35"/>
+      <c r="I12" s="36">
         <v>0.129884</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="37">
         <v>2.7070000000000002E-3</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="38">
         <v>2.4450000000000001E-3</v>
       </c>
     </row>
@@ -7527,30 +7527,30 @@
       <c r="A13" s="7">
         <v>1500</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="34">
         <v>0.33938800000000002</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36">
         <v>0.28642099999999998</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="37">
         <v>4.7029999999999997E-3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="34">
         <v>0.36136499999999999</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43">
+      <c r="H13" s="35"/>
+      <c r="I13" s="36">
         <v>0.29385600000000001</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="37">
         <v>4.7450000000000001E-3</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="38">
         <v>4.5880000000000001E-3</v>
       </c>
     </row>
@@ -7558,30 +7558,30 @@
       <c r="A14" s="7">
         <v>2000</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="34">
         <v>0.61071699999999995</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36">
         <v>0.53176800000000002</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="37">
         <v>6.3769999999999999E-3</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <v>6.2659999999999999E-3</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <v>0.64885599999999999</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43">
+      <c r="H14" s="35"/>
+      <c r="I14" s="36">
         <v>0.54424099999999997</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="37">
         <v>6.489E-3</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="38">
         <v>6.5319999999999996E-3</v>
       </c>
     </row>
@@ -7589,30 +7589,30 @@
       <c r="A15" s="7">
         <v>2500</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="34">
         <v>0.97750300000000001</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36">
         <v>0.86493799999999998</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="37">
         <v>9.5659999999999999E-3</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <v>8.8430000000000002E-3</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <v>1.0129189999999999</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36">
         <v>0.87890800000000002</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="37">
         <v>8.8760000000000002E-3</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="38">
         <v>8.8389999999999996E-3</v>
       </c>
     </row>
@@ -7620,30 +7620,30 @@
       <c r="A16" s="7">
         <v>5000</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="34">
         <v>4.1303929999999998</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36">
         <v>4.0708440000000001</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="37">
         <v>1.8766000000000001E-2</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="38">
         <v>1.8377999999999999E-2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="34">
         <v>4.3582539999999996</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36">
         <v>4.4264099999999997</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="37">
         <v>1.9236E-2</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="38">
         <v>1.8855E-2</v>
       </c>
     </row>
@@ -7651,30 +7651,30 @@
       <c r="A17" s="7">
         <v>10000</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="34">
         <v>19.747812</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36">
         <v>26.535975000000001</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="37">
         <v>4.4896999999999999E-2</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="38">
         <v>4.5297999999999998E-2</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="34">
         <v>19.800357999999999</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43">
+      <c r="H17" s="35"/>
+      <c r="I17" s="36">
         <v>30.353268</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="37">
         <v>4.4692999999999997E-2</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="38">
         <v>4.9625000000000002E-2</v>
       </c>
     </row>
@@ -7682,26 +7682,26 @@
       <c r="A18" s="7">
         <v>20000</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="34">
         <v>91.198870999999997</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <v>97.715318999999994</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7709,61 +7709,61 @@
       <c r="A19" s="7">
         <v>30000</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>40000</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>50000</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>100000</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">

--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8903A-8C91-9743-8F64-DC189A9F3F67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFD1AD-AFC6-4640-B340-1CDF0FD98C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="21140" activeTab="1" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="59200" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="2" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>nComp</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>&gt; 10000</t>
   </si>
+  <si>
+    <t>minbigul_m</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +383,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>breverse!$E$3:$E$50</c:f>
+              <c:f>breverse!$F$3:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1243,7 +1264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>breverse!$D$3:$D$40</c:f>
+              <c:f>breverse!$E$3:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1475,7 +1496,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>breverse!$C$3:$C$24</c:f>
+              <c:f>breverse!$D$3:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2302,13 +2323,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>405466</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>49867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>547614</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>186422</xdr:rowOff>
@@ -2636,11 +2657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:K44"/>
+      <selection pane="topRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2648,1525 +2669,1759 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3" s="31">
         <v>1.2E-5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="48">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D3" s="32">
         <v>1.0900000000000001E-4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="E3" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E3" s="34">
+      <c r="F3" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="G3" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="H3" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H3" s="32">
+      <c r="I3" s="48">
+        <v>1.5E-5</v>
+      </c>
+      <c r="J3" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I3" s="33">
+      <c r="K3" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J3" s="34">
+      <c r="L3" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K3" s="35">
+      <c r="M3" s="35">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
       <c r="B4" s="31">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="48">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D4" s="32">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="D4" s="33">
+      <c r="E4" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="E4" s="34">
+      <c r="F4" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="G4" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="H4" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H4" s="32">
+      <c r="I4" s="48">
+        <v>1.5E-5</v>
+      </c>
+      <c r="J4" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I4" s="33">
+      <c r="K4" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J4" s="34">
+      <c r="L4" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K4" s="35">
+      <c r="M4" s="35">
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
       <c r="B5" s="31">
         <v>1.2E-5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="48">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="D5" s="32">
         <v>3.9100000000000002E-4</v>
       </c>
-      <c r="D5" s="33">
+      <c r="E5" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E5" s="34">
+      <c r="F5" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F5" s="35">
+      <c r="G5" s="35">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="G5" s="31">
+      <c r="H5" s="31">
         <v>1.1E-5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="I5" s="48">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="J5" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I5" s="33">
+      <c r="K5" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J5" s="34">
+      <c r="L5" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K5" s="35">
+      <c r="M5" s="35">
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
       <c r="B6" s="31">
         <v>1.4E-5</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="48">
+        <v>2.9E-5</v>
+      </c>
+      <c r="D6" s="32">
         <v>8.1800000000000004E-4</v>
       </c>
-      <c r="D6" s="33">
+      <c r="E6" s="33">
         <v>1.4E-5</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="G6" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G6" s="31">
+      <c r="H6" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H6" s="32">
+      <c r="I6" s="48">
+        <v>1.5E-5</v>
+      </c>
+      <c r="J6" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="K6" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J6" s="34">
+      <c r="L6" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K6" s="35">
+      <c r="M6" s="35">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
       <c r="B7" s="31">
         <v>1.4E-5</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="48">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D7" s="32">
         <v>1.4970000000000001E-3</v>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33">
         <v>1.4E-5</v>
       </c>
-      <c r="E7" s="34">
+      <c r="F7" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="H7" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H7" s="32">
+      <c r="I7" s="48">
+        <v>1.7E-5</v>
+      </c>
+      <c r="J7" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I7" s="33">
+      <c r="K7" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J7" s="34">
+      <c r="L7" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K7" s="35">
+      <c r="M7" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
       <c r="B8" s="31">
         <v>1.4E-5</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="48">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="D8" s="32">
         <v>3.0240000000000002E-3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="E8" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F8" s="35">
+      <c r="G8" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G8" s="31">
+      <c r="H8" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H8" s="32">
+      <c r="I8" s="48">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J8" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I8" s="33">
+      <c r="K8" s="33">
         <v>1.1E-5</v>
       </c>
-      <c r="J8" s="34">
+      <c r="L8" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="M8" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
       <c r="B9" s="31">
         <v>1.5E-5</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="48">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="D9" s="32">
         <v>4.9439999999999996E-3</v>
       </c>
-      <c r="D9" s="33">
+      <c r="E9" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E9" s="34">
+      <c r="F9" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F9" s="35">
+      <c r="G9" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G9" s="31">
+      <c r="H9" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H9" s="32">
+      <c r="I9" s="48">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="J9" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I9" s="33">
+      <c r="K9" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J9" s="34">
+      <c r="L9" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K9" s="35">
+      <c r="M9" s="35">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
       <c r="B10" s="31">
         <v>1.5E-5</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="48">
+        <v>4.1E-5</v>
+      </c>
+      <c r="D10" s="32">
         <v>8.5559999999999994E-3</v>
       </c>
-      <c r="D10" s="33">
+      <c r="E10" s="33">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="F10" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F10" s="35">
+      <c r="G10" s="35">
         <v>1.8E-5</v>
       </c>
-      <c r="G10" s="31">
+      <c r="H10" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H10" s="32">
+      <c r="I10" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J10" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I10" s="33">
+      <c r="K10" s="33">
         <v>2.9E-5</v>
       </c>
-      <c r="J10" s="34">
+      <c r="L10" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="K10" s="35">
+      <c r="M10" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
       <c r="B11" s="31">
         <v>1.5E-5</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="48">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="D11" s="32">
         <v>1.6362999999999999E-2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="E11" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="E11" s="34">
+      <c r="F11" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G11" s="31">
+      <c r="H11" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H11" s="32">
+      <c r="I11" s="48">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J11" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I11" s="33">
+      <c r="K11" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J11" s="34">
+      <c r="L11" s="34">
         <v>1.1E-5</v>
       </c>
-      <c r="K11" s="35">
+      <c r="M11" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
       <c r="B12" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="48">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="D12" s="32">
         <v>2.8881E-2</v>
       </c>
-      <c r="D12" s="33">
+      <c r="E12" s="33">
         <v>1.4E-5</v>
       </c>
-      <c r="E12" s="34">
+      <c r="F12" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F12" s="35">
+      <c r="G12" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G12" s="31">
+      <c r="H12" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H12" s="32">
+      <c r="I12" s="48">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="J12" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I12" s="33">
+      <c r="K12" s="33">
         <v>1.1E-5</v>
       </c>
-      <c r="J12" s="34">
+      <c r="L12" s="34">
         <v>1.1E-5</v>
       </c>
-      <c r="K12" s="35">
+      <c r="M12" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="48">
+        <v>5.1E-5</v>
+      </c>
+      <c r="D13" s="32">
         <v>6.4103999999999994E-2</v>
       </c>
-      <c r="D13" s="33">
+      <c r="E13" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E13" s="34">
+      <c r="F13" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F13" s="35">
+      <c r="G13" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G13" s="31">
+      <c r="H13" s="31">
         <v>1.1E-5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="I13" s="48">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="J13" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I13" s="33">
+      <c r="K13" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J13" s="34">
+      <c r="L13" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K13" s="35">
+      <c r="M13" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
       <c r="B14" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="48">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D14" s="32">
         <v>0.101607</v>
       </c>
-      <c r="D14" s="33">
+      <c r="E14" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E14" s="34">
+      <c r="F14" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F14" s="35">
+      <c r="G14" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G14" s="31">
+      <c r="H14" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H14" s="32">
+      <c r="I14" s="48">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J14" s="32">
         <v>1.4E-5</v>
       </c>
-      <c r="I14" s="33">
+      <c r="K14" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J14" s="34">
+      <c r="L14" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K14" s="35">
+      <c r="M14" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
       <c r="B15" s="31">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="48">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="D15" s="32">
         <v>0.203321</v>
       </c>
-      <c r="D15" s="33">
+      <c r="E15" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E15" s="34">
+      <c r="F15" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F15" s="35">
+      <c r="G15" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G15" s="31">
+      <c r="H15" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H15" s="32">
+      <c r="I15" s="48">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="J15" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I15" s="33">
+      <c r="K15" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J15" s="34">
+      <c r="L15" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K15" s="35">
+      <c r="M15" s="35">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
       <c r="B16" s="31">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="48">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="D16" s="32">
         <v>0.41028300000000001</v>
       </c>
-      <c r="D16" s="33">
+      <c r="E16" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E16" s="34">
+      <c r="F16" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F16" s="35">
+      <c r="G16" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G16" s="31">
+      <c r="H16" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H16" s="32">
+      <c r="I16" s="48">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="J16" s="32">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I16" s="33">
+      <c r="K16" s="33">
         <v>1.4E-5</v>
       </c>
-      <c r="J16" s="34">
+      <c r="L16" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K16" s="35">
+      <c r="M16" s="35">
         <v>1.2E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
       <c r="B17" s="31">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="48">
+        <v>6.3E-5</v>
+      </c>
+      <c r="D17" s="32">
         <v>0.796983</v>
       </c>
-      <c r="D17" s="33">
+      <c r="E17" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E17" s="34">
+      <c r="F17" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F17" s="35">
+      <c r="G17" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G17" s="31">
+      <c r="H17" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H17" s="32">
+      <c r="I17" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J17" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I17" s="33">
+      <c r="K17" s="33">
         <v>1.4E-5</v>
       </c>
-      <c r="J17" s="34">
+      <c r="L17" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K17" s="35">
+      <c r="M17" s="35">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
       <c r="B18" s="31">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="48">
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="D18" s="32">
         <v>1.6111629999999999</v>
       </c>
-      <c r="D18" s="33">
+      <c r="E18" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E18" s="34">
+      <c r="F18" s="34">
         <v>1.1E-5</v>
       </c>
-      <c r="F18" s="35">
+      <c r="G18" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G18" s="31">
+      <c r="H18" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H18" s="32">
+      <c r="I18" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J18" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I18" s="33">
+      <c r="K18" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J18" s="34">
+      <c r="L18" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K18" s="35">
+      <c r="M18" s="35">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
       <c r="B19" s="31">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="48">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="D19" s="32">
         <v>3.2042419999999998</v>
       </c>
-      <c r="D19" s="33">
+      <c r="E19" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E19" s="34">
+      <c r="F19" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F19" s="35">
+      <c r="G19" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="H19" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H19" s="32">
+      <c r="I19" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J19" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I19" s="33">
+      <c r="K19" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J19" s="34">
+      <c r="L19" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K19" s="35">
+      <c r="M19" s="35">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
       <c r="B20" s="31">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="48">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="D20" s="32">
         <v>6.3893639999999996</v>
       </c>
-      <c r="D20" s="33">
+      <c r="E20" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E20" s="34">
+      <c r="F20" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F20" s="35">
+      <c r="G20" s="35">
         <v>1.2E-5</v>
       </c>
-      <c r="G20" s="31">
+      <c r="H20" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H20" s="32">
+      <c r="I20" s="48">
+        <v>2.3E-5</v>
+      </c>
+      <c r="J20" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I20" s="33">
+      <c r="K20" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="L20" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K20" s="35">
+      <c r="M20" s="35">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
       <c r="B21" s="31">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="48">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="D21" s="32">
         <v>13.035705999999999</v>
       </c>
-      <c r="D21" s="33">
+      <c r="E21" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E21" s="34">
+      <c r="F21" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F21" s="35">
+      <c r="G21" s="35">
         <v>1.4E-5</v>
       </c>
-      <c r="G21" s="31">
+      <c r="H21" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H21" s="32">
+      <c r="I21" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J21" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I21" s="33">
+      <c r="K21" s="33">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="J21" s="34">
+      <c r="L21" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="K21" s="35">
+      <c r="M21" s="35">
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
       <c r="B22" s="31">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="48">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="D22" s="32">
         <v>25.780434</v>
       </c>
-      <c r="D22" s="33">
+      <c r="E22" s="33">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E22" s="34">
+      <c r="F22" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="F22" s="35">
+      <c r="G22" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G22" s="31">
+      <c r="H22" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H22" s="32">
+      <c r="I22" s="48">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="J22" s="32">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I22" s="33">
+      <c r="K22" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J22" s="34">
+      <c r="L22" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K22" s="35">
+      <c r="M22" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
       <c r="B23" s="31">
         <v>2.3E-5</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="48">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="D23" s="32">
         <v>51.793698999999997</v>
       </c>
-      <c r="D23" s="33">
+      <c r="E23" s="33">
         <v>1.5E-5</v>
       </c>
-      <c r="E23" s="34">
+      <c r="F23" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F23" s="35">
+      <c r="G23" s="35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="G23" s="31">
+      <c r="H23" s="31">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H23" s="32">
+      <c r="I23" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J23" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I23" s="33">
+      <c r="K23" s="33">
         <v>1.1E-5</v>
       </c>
-      <c r="J23" s="34">
+      <c r="L23" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="K23" s="35">
+      <c r="M23" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
       <c r="B24" s="31">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="48">
+        <v>1.15E-4</v>
+      </c>
+      <c r="D24" s="32">
         <v>104.913524</v>
       </c>
-      <c r="D24" s="33">
+      <c r="E24" s="33">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="E24" s="34">
+      <c r="F24" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="F24" s="35">
+      <c r="G24" s="35">
         <v>1.4E-5</v>
       </c>
-      <c r="G24" s="31">
+      <c r="H24" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H24" s="32">
+      <c r="I24" s="48">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="J24" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I24" s="33">
+      <c r="K24" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J24" s="34">
+      <c r="L24" s="34">
         <v>1.4E-5</v>
       </c>
-      <c r="K24" s="35">
+      <c r="M24" s="35">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>32</v>
       </c>
       <c r="B25" s="31">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="48">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="D25" s="32">
         <v>209.92964499999999</v>
       </c>
-      <c r="D25" s="33">
+      <c r="E25" s="33">
         <v>1.7E-5</v>
       </c>
-      <c r="E25" s="34">
+      <c r="F25" s="34">
         <v>1.2E-5</v>
       </c>
-      <c r="F25" s="35">
+      <c r="G25" s="35">
         <v>1.4E-5</v>
       </c>
-      <c r="G25" s="31">
+      <c r="H25" s="31">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H25" s="32">
+      <c r="I25" s="48">
+        <v>2.3E-5</v>
+      </c>
+      <c r="J25" s="32">
         <v>1.1E-5</v>
       </c>
-      <c r="I25" s="33">
+      <c r="K25" s="33">
         <v>1.2E-5</v>
       </c>
-      <c r="J25" s="34">
+      <c r="L25" s="34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K25" s="35">
+      <c r="M25" s="35">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>50</v>
       </c>
       <c r="B26" s="31">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33">
+      <c r="C26" s="48">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="E26" s="34">
+      <c r="F26" s="34">
         <v>1.8E-5</v>
       </c>
-      <c r="F26" s="35">
+      <c r="G26" s="35">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G26" s="31">
+      <c r="H26" s="31">
         <v>1.2E-5</v>
       </c>
-      <c r="H26" s="32">
+      <c r="I26" s="48">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="J26" s="32">
         <v>1.2E-5</v>
       </c>
-      <c r="I26" s="33">
+      <c r="K26" s="33">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="J26" s="34">
+      <c r="L26" s="34">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="K26" s="35">
+      <c r="M26" s="35">
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>100</v>
       </c>
       <c r="B27" s="31">
         <v>1.6799999999999999E-4</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33">
+      <c r="C27" s="48">
+        <v>1.9859999999999999E-3</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="E27" s="34">
+      <c r="F27" s="34">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="F27" s="35">
+      <c r="G27" s="35">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G27" s="31">
+      <c r="H27" s="31">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="H27" s="32">
+      <c r="I27" s="48">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="J27" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="I27" s="33">
+      <c r="K27" s="33">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="J27" s="34">
+      <c r="L27" s="34">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="K27" s="35">
+      <c r="M27" s="35">
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>200</v>
       </c>
       <c r="B28" s="31">
         <v>6.3500000000000004E-4</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33">
+      <c r="C28" s="48">
+        <v>1.2690999999999999E-2</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33">
         <v>2.2599999999999999E-4</v>
       </c>
-      <c r="E28" s="34">
+      <c r="F28" s="34">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="F28" s="35">
+      <c r="G28" s="35">
         <v>4.6E-5</v>
       </c>
-      <c r="G28" s="31">
+      <c r="H28" s="31">
         <v>2.8E-5</v>
       </c>
-      <c r="H28" s="32">
+      <c r="I28" s="48">
+        <v>1.44E-4</v>
+      </c>
+      <c r="J28" s="32">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="I28" s="33">
+      <c r="K28" s="33">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="J28" s="34">
+      <c r="L28" s="34">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="K28" s="35">
+      <c r="M28" s="35">
         <v>3.4E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>500</v>
       </c>
       <c r="B29" s="31">
         <v>3.852E-3</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33">
+      <c r="C29" s="48">
+        <v>0.16550200000000001</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="E29" s="34">
+      <c r="F29" s="34">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="F29" s="35">
+      <c r="G29" s="35">
         <v>1.25E-4</v>
       </c>
-      <c r="G29" s="31">
+      <c r="H29" s="31">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="H29" s="32">
+      <c r="I29" s="48">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="J29" s="32">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="I29" s="33">
+      <c r="K29" s="33">
         <v>1.06E-4</v>
       </c>
-      <c r="J29" s="34">
+      <c r="L29" s="34">
         <v>1.18E-4</v>
       </c>
-      <c r="K29" s="35">
+      <c r="M29" s="35">
         <v>9.3999999999999994E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>1000</v>
       </c>
       <c r="B30" s="31">
         <v>1.4615E-2</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33">
+      <c r="C30" s="48">
+        <v>1.159421</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33">
         <v>5.8060000000000004E-3</v>
       </c>
-      <c r="E30" s="34">
+      <c r="F30" s="34">
         <v>2.34E-4</v>
       </c>
-      <c r="F30" s="35">
+      <c r="G30" s="35">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="G30" s="31">
+      <c r="H30" s="31">
         <v>1.54E-4</v>
       </c>
-      <c r="H30" s="32">
+      <c r="I30" s="48">
+        <v>7.4600000000000003E-4</v>
+      </c>
+      <c r="J30" s="32">
         <v>1.76E-4</v>
       </c>
-      <c r="I30" s="33">
+      <c r="K30" s="33">
         <v>2.14E-4</v>
       </c>
-      <c r="J30" s="34">
+      <c r="L30" s="34">
         <v>2.6499999999999999E-4</v>
       </c>
-      <c r="K30" s="35">
+      <c r="M30" s="35">
         <v>1.9900000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1500</v>
       </c>
       <c r="B31" s="31">
         <v>2.8785000000000002E-2</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33">
+      <c r="C31" s="48">
+        <v>3.9128090000000002</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33">
         <v>1.2116999999999999E-2</v>
       </c>
-      <c r="E31" s="34">
+      <c r="F31" s="34">
         <v>3.2699999999999998E-4</v>
       </c>
-      <c r="F31" s="35">
+      <c r="G31" s="35">
         <v>3.9300000000000001E-4</v>
       </c>
-      <c r="G31" s="31">
+      <c r="H31" s="31">
         <v>1.9699999999999999E-4</v>
       </c>
-      <c r="H31" s="32">
+      <c r="I31" s="48">
+        <v>1.1230000000000001E-3</v>
+      </c>
+      <c r="J31" s="32">
         <v>2.7599999999999999E-4</v>
       </c>
-      <c r="I31" s="33">
+      <c r="K31" s="33">
         <v>3.2299999999999999E-4</v>
       </c>
-      <c r="J31" s="34">
+      <c r="L31" s="34">
         <v>4.17E-4</v>
       </c>
-      <c r="K31" s="35">
+      <c r="M31" s="35">
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2000</v>
       </c>
       <c r="B32" s="31">
         <v>5.0974999999999999E-2</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33">
+      <c r="C32" s="48">
+        <v>8.9287360000000007</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33">
         <v>1.6468E-2</v>
       </c>
-      <c r="E32" s="34">
+      <c r="F32" s="34">
         <v>3.8699999999999997E-4</v>
       </c>
-      <c r="F32" s="35">
+      <c r="G32" s="35">
         <v>5.0900000000000001E-4</v>
       </c>
-      <c r="G32" s="31">
+      <c r="H32" s="31">
         <v>2.9599999999999998E-4</v>
       </c>
-      <c r="H32" s="32">
+      <c r="I32" s="48">
+        <v>1.5020000000000001E-3</v>
+      </c>
+      <c r="J32" s="32">
         <v>3.4299999999999999E-4</v>
       </c>
-      <c r="I32" s="33">
+      <c r="K32" s="33">
         <v>3.8900000000000002E-4</v>
       </c>
-      <c r="J32" s="34">
+      <c r="L32" s="34">
         <v>5.0199999999999995E-4</v>
       </c>
-      <c r="K32" s="35">
+      <c r="M32" s="35">
         <v>3.3700000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2500</v>
       </c>
       <c r="B33" s="31">
         <v>8.0087000000000005E-2</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33">
+      <c r="C33" s="48">
+        <v>17.463518000000001</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33">
         <v>2.5533E-2</v>
       </c>
-      <c r="E33" s="34">
+      <c r="F33" s="34">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="F33" s="35">
+      <c r="G33" s="35">
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="G33" s="31">
+      <c r="H33" s="31">
         <v>3.4200000000000002E-4</v>
       </c>
-      <c r="H33" s="32">
+      <c r="I33" s="48">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="J33" s="32">
         <v>4.1800000000000002E-4</v>
       </c>
-      <c r="I33" s="33">
+      <c r="K33" s="33">
         <v>4.15E-4</v>
       </c>
-      <c r="J33" s="34">
+      <c r="L33" s="34">
         <v>7.2599999999999997E-4</v>
       </c>
-      <c r="K33" s="35">
+      <c r="M33" s="35">
         <v>4.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>5000</v>
       </c>
       <c r="B34" s="31">
         <v>0.32008599999999998</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33">
+      <c r="C34" s="48">
+        <v>144.37845899999999</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33">
         <v>0.10338600000000001</v>
       </c>
-      <c r="E34" s="34">
+      <c r="F34" s="34">
         <v>1.021E-3</v>
       </c>
-      <c r="F34" s="35">
+      <c r="G34" s="35">
         <v>1.09E-3</v>
       </c>
-      <c r="G34" s="31">
+      <c r="H34" s="31">
         <v>6.6E-4</v>
       </c>
-      <c r="H34" s="32">
+      <c r="I34" s="48">
+        <v>4.0119999999999999E-3</v>
+      </c>
+      <c r="J34" s="32">
         <v>8.3699999999999996E-4</v>
       </c>
-      <c r="I34" s="33">
+      <c r="K34" s="33">
         <v>7.9199999999999995E-4</v>
       </c>
-      <c r="J34" s="34">
+      <c r="L34" s="34">
         <v>1.3190000000000001E-3</v>
       </c>
-      <c r="K34" s="35">
+      <c r="M34" s="35">
         <v>8.0099999999999995E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>10000</v>
       </c>
       <c r="B35" s="31">
         <v>1.2770280000000001</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33">
+      <c r="C35" s="48"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33">
         <v>0.41007399999999999</v>
       </c>
-      <c r="E35" s="34">
+      <c r="F35" s="34">
         <v>2.0409999999999998E-3</v>
       </c>
-      <c r="F35" s="35">
+      <c r="G35" s="35">
         <v>1.9910000000000001E-3</v>
       </c>
-      <c r="G35" s="31">
+      <c r="H35" s="31">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="H35" s="32">
+      <c r="I35" s="48">
+        <v>8.7849999999999994E-3</v>
+      </c>
+      <c r="J35" s="32">
         <v>1.694E-3</v>
       </c>
-      <c r="I35" s="33">
+      <c r="K35" s="33">
         <v>1.6080000000000001E-3</v>
       </c>
-      <c r="J35" s="34">
+      <c r="L35" s="34">
         <v>2.3700000000000001E-3</v>
       </c>
-      <c r="K35" s="35">
+      <c r="M35" s="35">
         <v>1.5759999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>20000</v>
       </c>
       <c r="B36" s="31">
         <v>5.081518</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33">
+      <c r="C36" s="48"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33">
         <v>1.617794</v>
       </c>
-      <c r="E36" s="34">
+      <c r="F36" s="34">
         <v>5.241E-3</v>
       </c>
-      <c r="F36" s="35">
+      <c r="G36" s="35">
         <v>5.0439999999999999E-3</v>
       </c>
-      <c r="G36" s="31">
+      <c r="H36" s="31">
         <v>2.565E-3</v>
       </c>
-      <c r="H36" s="32">
+      <c r="I36" s="48">
+        <v>1.9251999999999998E-2</v>
+      </c>
+      <c r="J36" s="32">
         <v>3.6579999999999998E-3</v>
       </c>
-      <c r="I36" s="33">
+      <c r="K36" s="33">
         <v>4.6829999999999997E-3</v>
       </c>
-      <c r="J36" s="34">
+      <c r="L36" s="34">
         <v>8.6529999999999992E-3</v>
       </c>
-      <c r="K36" s="35">
+      <c r="M36" s="35">
         <v>5.5129999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>30000</v>
       </c>
       <c r="B37" s="31">
         <v>11.305399</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33">
+      <c r="C37" s="48"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33">
         <v>3.6298979999999998</v>
       </c>
-      <c r="E37" s="34">
+      <c r="F37" s="34">
         <v>9.9170000000000005E-3</v>
       </c>
-      <c r="F37" s="35">
+      <c r="G37" s="35">
         <v>9.0229999999999998E-3</v>
       </c>
-      <c r="G37" s="31">
+      <c r="H37" s="31">
         <v>4.3730000000000002E-3</v>
       </c>
-      <c r="H37" s="32">
+      <c r="I37" s="48">
+        <v>2.5281000000000001E-2</v>
+      </c>
+      <c r="J37" s="32">
         <v>7.5589999999999997E-3</v>
       </c>
-      <c r="I37" s="33">
+      <c r="K37" s="33">
         <v>9.1039999999999992E-3</v>
       </c>
-      <c r="J37" s="34">
+      <c r="L37" s="34">
         <v>1.3186E-2</v>
       </c>
-      <c r="K37" s="35">
+      <c r="M37" s="35">
         <v>6.9610000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>40000</v>
       </c>
       <c r="B38" s="31">
         <v>20.007280999999999</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33">
+      <c r="C38" s="48"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33">
         <v>6.3997210000000004</v>
       </c>
-      <c r="E38" s="34">
+      <c r="F38" s="34">
         <v>1.4749E-2</v>
       </c>
-      <c r="F38" s="35">
+      <c r="G38" s="35">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="G38" s="31">
+      <c r="H38" s="31">
         <v>4.7520000000000001E-3</v>
       </c>
-      <c r="H38" s="32">
+      <c r="I38" s="48">
+        <v>4.0092999999999997E-2</v>
+      </c>
+      <c r="J38" s="32">
         <v>1.111E-2</v>
       </c>
-      <c r="I38" s="33">
+      <c r="K38" s="33">
         <v>1.1048000000000001E-2</v>
       </c>
-      <c r="J38" s="34">
+      <c r="L38" s="34">
         <v>1.6497999999999999E-2</v>
       </c>
-      <c r="K38" s="35">
+      <c r="M38" s="35">
         <v>1.0540000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>50000</v>
       </c>
       <c r="B39" s="31">
         <v>31.373996999999999</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33">
+      <c r="C39" s="48"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33">
         <v>9.9649380000000001</v>
       </c>
-      <c r="E39" s="34">
+      <c r="F39" s="34">
         <v>2.0929E-2</v>
       </c>
-      <c r="F39" s="35">
+      <c r="G39" s="35">
         <v>1.7614999999999999E-2</v>
       </c>
-      <c r="G39" s="31">
+      <c r="H39" s="31">
         <v>5.5579999999999996E-3</v>
       </c>
-      <c r="H39" s="32">
+      <c r="I39" s="48">
+        <v>4.6808000000000002E-2</v>
+      </c>
+      <c r="J39" s="32">
         <v>1.2558E-2</v>
       </c>
-      <c r="I39" s="33">
+      <c r="K39" s="33">
         <v>1.481E-2</v>
       </c>
-      <c r="J39" s="34">
+      <c r="L39" s="34">
         <v>2.2884000000000002E-2</v>
       </c>
-      <c r="K39" s="35">
+      <c r="M39" s="35">
         <v>1.2127000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>60000</v>
       </c>
       <c r="B40" s="31">
         <v>45.356633000000002</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33">
+      <c r="C40" s="48"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33">
         <v>14.41897</v>
       </c>
-      <c r="E40" s="34">
+      <c r="F40" s="34">
         <v>2.5099E-2</v>
       </c>
-      <c r="F40" s="35">
+      <c r="G40" s="35">
         <v>2.2783000000000001E-2</v>
       </c>
-      <c r="G40" s="31">
+      <c r="H40" s="31">
         <v>7.8799999999999999E-3</v>
       </c>
-      <c r="H40" s="32">
+      <c r="I40" s="48">
+        <v>5.6336999999999998E-2</v>
+      </c>
+      <c r="J40" s="32">
         <v>1.4897000000000001E-2</v>
       </c>
-      <c r="I40" s="33">
+      <c r="K40" s="33">
         <v>1.8891000000000002E-2</v>
       </c>
-      <c r="J40" s="34">
+      <c r="L40" s="34">
         <v>2.6905999999999999E-2</v>
       </c>
-      <c r="K40" s="35">
+      <c r="M40" s="35">
         <v>1.5233999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>70000</v>
       </c>
       <c r="B41" s="31">
         <v>61.410266999999997</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33">
+      <c r="C41" s="48"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33">
         <v>19.423210999999998</v>
       </c>
-      <c r="E41" s="34">
+      <c r="F41" s="34">
         <v>2.5551999999999998E-2</v>
       </c>
-      <c r="F41" s="35">
+      <c r="G41" s="35">
         <v>2.4733999999999999E-2</v>
       </c>
-      <c r="G41" s="31">
+      <c r="H41" s="31">
         <v>8.8529999999999998E-3</v>
       </c>
-      <c r="H41" s="32">
+      <c r="I41" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="32">
         <v>1.6483999999999999E-2</v>
       </c>
-      <c r="I41" s="33">
+      <c r="K41" s="33">
         <v>2.1634E-2</v>
       </c>
-      <c r="J41" s="34">
+      <c r="L41" s="34">
         <v>2.9446E-2</v>
       </c>
-      <c r="K41" s="35">
+      <c r="M41" s="35">
         <v>2.0428999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>80000</v>
       </c>
       <c r="B42" s="31">
         <v>80.452415999999999</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33">
+      <c r="C42" s="48"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33">
         <v>25.542325000000002</v>
       </c>
-      <c r="E42" s="34">
+      <c r="F42" s="34">
         <v>3.1278E-2</v>
       </c>
-      <c r="F42" s="35">
+      <c r="G42" s="35">
         <v>2.9940000000000001E-2</v>
       </c>
-      <c r="G42" s="31">
+      <c r="H42" s="31">
         <v>1.1322E-2</v>
       </c>
-      <c r="H42" s="32">
+      <c r="I42" s="48"/>
+      <c r="J42" s="32">
         <v>1.8457000000000001E-2</v>
       </c>
-      <c r="I42" s="33">
+      <c r="K42" s="33">
         <v>2.2984000000000001E-2</v>
       </c>
-      <c r="J42" s="34">
+      <c r="L42" s="34">
         <v>3.3320000000000002E-2</v>
       </c>
-      <c r="K42" s="35">
+      <c r="M42" s="35">
         <v>2.486E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>90000</v>
       </c>
       <c r="B43" s="31">
         <v>102.09251500000001</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33">
+      <c r="C43" s="48"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33">
         <v>32.355969999999999</v>
       </c>
-      <c r="E43" s="34">
+      <c r="F43" s="34">
         <v>3.0779999999999998E-2</v>
       </c>
-      <c r="F43" s="35">
+      <c r="G43" s="35">
         <v>3.1205E-2</v>
       </c>
-      <c r="G43" s="31">
+      <c r="H43" s="31">
         <v>1.4246999999999999E-2</v>
       </c>
-      <c r="H43" s="32">
+      <c r="I43" s="48"/>
+      <c r="J43" s="32">
         <v>1.8924E-2</v>
       </c>
-      <c r="I43" s="33">
+      <c r="K43" s="33">
         <v>2.5139999999999999E-2</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="L43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="35">
+      <c r="M43" s="35">
         <v>2.5260999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>100000</v>
       </c>
       <c r="B44" s="31">
         <v>125.815015</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33">
+      <c r="C44" s="48"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33">
         <v>39.958615999999999</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="G44" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="31">
+      <c r="H44" s="31">
         <v>1.5703999999999999E-2</v>
       </c>
-      <c r="H44" s="32">
+      <c r="I44" s="48"/>
+      <c r="J44" s="32">
         <v>1.9807999999999999E-2</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="K44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="37">
+      <c r="M44" s="37">
         <v>3.4105000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="49"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="30">
+      <c r="F46" s="30">
         <v>95299</v>
       </c>
-      <c r="F46" s="29">
+      <c r="G46" s="29">
         <v>95299</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="H46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="I46" s="49"/>
+      <c r="J46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="28">
+      <c r="K46" s="28">
         <v>95299</v>
       </c>
-      <c r="J46" s="30">
+      <c r="L46" s="30">
         <v>80638</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="M46" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -4179,9 +4434,10 @@
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>
       <c r="V47" s="22"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G48" s="21"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -4196,13 +4452,14 @@
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
-      <c r="V48" s="22"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -4217,15 +4474,15 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="22"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="22"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
@@ -4236,15 +4493,15 @@
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
-      <c r="V50" s="22"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="22"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
@@ -4255,15 +4512,15 @@
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
-      <c r="V51" s="22"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="22"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
@@ -4274,15 +4531,15 @@
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
-      <c r="V52" s="22"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="22"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
@@ -4293,15 +4550,15 @@
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
-      <c r="V53" s="22"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="22"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
@@ -4312,15 +4569,15 @@
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
-      <c r="V54" s="22"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="22"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
@@ -4331,12 +4588,12 @@
       <c r="S55" s="23"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
-      <c r="V55" s="22"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="22"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
@@ -4347,12 +4604,12 @@
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
-      <c r="V56" s="22"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="22"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
@@ -4363,12 +4620,12 @@
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
-      <c r="V57" s="22"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="22"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
@@ -4379,12 +4636,12 @@
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-      <c r="V58" s="22"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="22"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
@@ -4395,12 +4652,12 @@
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
-      <c r="V59" s="22"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="22"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
@@ -4411,12 +4668,12 @@
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
-      <c r="V60" s="22"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="22"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
@@ -4427,12 +4684,12 @@
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
-      <c r="V61" s="22"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="22"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
@@ -4443,12 +4700,12 @@
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
-      <c r="V62" s="22"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="22"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
       <c r="N63" s="23"/>
@@ -4459,12 +4716,12 @@
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
-      <c r="V63" s="22"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="22"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
       <c r="N64" s="23"/>
@@ -4475,12 +4732,12 @@
       <c r="S64" s="23"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
-      <c r="V64" s="22"/>
-    </row>
-    <row r="65" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I65" s="22"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="22"/>
+    </row>
+    <row r="65" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
@@ -4491,12 +4748,12 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-      <c r="V65" s="22"/>
-    </row>
-    <row r="66" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I66" s="22"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="22"/>
+    </row>
+    <row r="66" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
@@ -4507,12 +4764,12 @@
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
-      <c r="V66" s="22"/>
-    </row>
-    <row r="67" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I67" s="22"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="22"/>
+    </row>
+    <row r="67" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
@@ -4523,12 +4780,12 @@
       <c r="S67" s="23"/>
       <c r="T67" s="23"/>
       <c r="U67" s="23"/>
-      <c r="V67" s="22"/>
-    </row>
-    <row r="68" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I68" s="22"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="22"/>
+    </row>
+    <row r="68" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
@@ -4539,12 +4796,12 @@
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="23"/>
-      <c r="V68" s="22"/>
-    </row>
-    <row r="69" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="22"/>
+    </row>
+    <row r="69" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
@@ -4555,12 +4812,12 @@
       <c r="S69" s="23"/>
       <c r="T69" s="23"/>
       <c r="U69" s="23"/>
-      <c r="V69" s="22"/>
-    </row>
-    <row r="70" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I70" s="22"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="22"/>
+    </row>
+    <row r="70" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
@@ -4571,11 +4828,11 @@
       <c r="S70" s="23"/>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
-      <c r="V70" s="22"/>
-    </row>
-    <row r="71" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="22"/>
+    </row>
+    <row r="71" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
@@ -4588,11 +4845,13 @@
       <c r="T71" s="22"/>
       <c r="U71" s="22"/>
       <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4600,2376 +4859,2602 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F1A3-C3C0-3C43-978B-5219F965718F}">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="15.83203125" style="1"/>
-    <col min="12" max="14" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="16384" width="15.83203125" style="1"/>
+    <col min="1" max="13" width="15.83203125" style="1"/>
+    <col min="14" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="40" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
       <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
       <c r="T1" s="44"/>
-      <c r="U1" s="45"/>
-    </row>
-    <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3" s="31">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="48">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="D3" s="32">
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="E3" s="33">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E3" s="34">
+      <c r="F3" s="34">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="G3" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="H3" s="31">
         <v>1.4E-5</v>
       </c>
-      <c r="H3" s="32">
+      <c r="I3" s="48">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="J3" s="32">
         <v>1.5E-5</v>
       </c>
-      <c r="I3" s="33">
+      <c r="K3" s="33">
         <v>2.3E-5</v>
       </c>
-      <c r="J3" s="34">
+      <c r="L3" s="34">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="K3" s="35">
+      <c r="M3" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="L3" s="31">
+      <c r="N3" s="31">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="M3" s="32">
+      <c r="O3" s="32">
         <v>6.2299999999999996E-4</v>
       </c>
-      <c r="N3" s="33">
+      <c r="P3" s="33">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="O3" s="34">
+      <c r="Q3" s="34">
         <v>2.8E-5</v>
       </c>
-      <c r="P3" s="35">
+      <c r="R3" s="35">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="S3" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="R3" s="32">
+      <c r="T3" s="32">
         <v>1.5E-5</v>
       </c>
-      <c r="S3" s="33">
+      <c r="U3" s="33">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="T3" s="34">
+      <c r="V3" s="34">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="U3" s="35">
+      <c r="W3" s="35">
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
       <c r="B4" s="31">
         <v>2.3E-5</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="48">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="D4" s="32">
         <v>9.7900000000000005E-4</v>
       </c>
-      <c r="D4" s="33">
+      <c r="E4" s="33">
         <v>5.1E-5</v>
       </c>
-      <c r="E4" s="34">
+      <c r="F4" s="34">
         <v>3.4E-5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="G4" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="H4" s="31">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="H4" s="32">
+      <c r="I4" s="48">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="J4" s="32">
         <v>1.7E-5</v>
       </c>
-      <c r="I4" s="33">
+      <c r="K4" s="33">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="J4" s="34">
+      <c r="L4" s="34">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="K4" s="35">
+      <c r="M4" s="35">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
       <c r="B5" s="31">
         <v>3.4E-5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="48">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="D5" s="32">
         <v>2.0149999999999999E-3</v>
       </c>
-      <c r="D5" s="33">
+      <c r="E5" s="33">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="E5" s="34">
+      <c r="F5" s="34">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="F5" s="35">
+      <c r="G5" s="35">
         <v>2.9E-5</v>
       </c>
-      <c r="G5" s="31">
+      <c r="H5" s="31">
         <v>1.5E-5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="I5" s="48">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="J5" s="32">
         <v>1.5E-5</v>
       </c>
-      <c r="I5" s="33">
+      <c r="K5" s="33">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="J5" s="34">
+      <c r="L5" s="34">
         <v>2.8E-5</v>
       </c>
-      <c r="K5" s="35">
+      <c r="M5" s="35">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="35"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="35"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
       <c r="B6" s="31">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="48">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D6" s="32">
         <v>3.542E-3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="E6" s="33">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="34">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="G6" s="35">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="G6" s="31">
+      <c r="H6" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H6" s="32">
+      <c r="I6" s="48">
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="J6" s="32">
         <v>1.5E-5</v>
       </c>
-      <c r="I6" s="33">
+      <c r="K6" s="33">
         <v>2.8E-5</v>
       </c>
-      <c r="J6" s="34">
+      <c r="L6" s="34">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="K6" s="35">
+      <c r="M6" s="35">
         <v>2.3E-5</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="35"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
       <c r="B7" s="31">
         <v>2.9E-5</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="48">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="D7" s="32">
         <v>6.2550000000000001E-3</v>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="E7" s="34">
+      <c r="F7" s="34">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="H7" s="31">
         <v>1.5E-5</v>
       </c>
-      <c r="H7" s="32">
+      <c r="I7" s="48">
+        <v>5.8E-5</v>
+      </c>
+      <c r="J7" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="I7" s="33">
+      <c r="K7" s="33">
         <v>2.9E-5</v>
       </c>
-      <c r="J7" s="34">
+      <c r="L7" s="34">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="K7" s="35">
+      <c r="M7" s="35">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="35"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
       <c r="B8" s="31">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="48">
+        <v>9.7E-5</v>
+      </c>
+      <c r="D8" s="32">
         <v>1.1004E-2</v>
       </c>
-      <c r="D8" s="33">
+      <c r="E8" s="33">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="34">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="F8" s="35">
+      <c r="G8" s="35">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="G8" s="31">
+      <c r="H8" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H8" s="32">
+      <c r="I8" s="48">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="J8" s="32">
         <v>1.7E-5</v>
       </c>
-      <c r="I8" s="33">
+      <c r="K8" s="33">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="J8" s="34">
+      <c r="L8" s="34">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="M8" s="35">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="L8" s="31">
+      <c r="N8" s="31">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="M8" s="32">
+      <c r="O8" s="32">
         <v>1.3254E-2</v>
       </c>
-      <c r="N8" s="33">
+      <c r="P8" s="33">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="O8" s="34">
+      <c r="Q8" s="34">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="P8" s="35">
+      <c r="R8" s="35">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="S8" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="R8" s="32">
+      <c r="T8" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="S8" s="33">
+      <c r="U8" s="33">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="T8" s="34">
+      <c r="V8" s="34">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="U8" s="35">
+      <c r="W8" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
       <c r="B9" s="31">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="48">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="D9" s="32">
         <v>2.0298E-2</v>
       </c>
-      <c r="D9" s="33">
+      <c r="E9" s="33">
         <v>9.7E-5</v>
       </c>
-      <c r="E9" s="34">
+      <c r="F9" s="34">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="F9" s="35">
+      <c r="G9" s="35">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="G9" s="31">
+      <c r="H9" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="H9" s="32">
+      <c r="I9" s="48">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="J9" s="32">
         <v>1.7E-5</v>
       </c>
-      <c r="I9" s="33">
+      <c r="K9" s="33">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="J9" s="34">
+      <c r="L9" s="34">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="K9" s="35">
+      <c r="M9" s="35">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
       <c r="B10" s="31">
         <v>3.4E-5</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="48">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="D10" s="32">
         <v>3.4230999999999998E-2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="E10" s="33">
         <v>1.11E-4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="F10" s="34">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="F10" s="35">
+      <c r="G10" s="35">
         <v>6.6000000000000005E-5</v>
       </c>
-      <c r="G10" s="31">
+      <c r="H10" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="H10" s="32">
+      <c r="I10" s="48">
+        <v>9.7E-5</v>
+      </c>
+      <c r="J10" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="I10" s="33">
+      <c r="K10" s="33">
         <v>3.4E-5</v>
       </c>
-      <c r="J10" s="34">
+      <c r="L10" s="34">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="K10" s="35">
+      <c r="M10" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="35"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
       <c r="B11" s="31">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="48">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="D11" s="32">
         <v>6.4860000000000001E-2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="E11" s="33">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="E11" s="34">
+      <c r="F11" s="34">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="G11" s="31">
+      <c r="H11" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H11" s="32">
+      <c r="I11" s="48">
+        <v>1.03E-4</v>
+      </c>
+      <c r="J11" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="I11" s="33">
+      <c r="K11" s="33">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="J11" s="34">
+      <c r="L11" s="34">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="K11" s="35">
+      <c r="M11" s="35">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
       <c r="B12" s="31">
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="48">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="D12" s="32">
         <v>0.13031799999999999</v>
       </c>
-      <c r="D12" s="33">
+      <c r="E12" s="33">
         <v>1.4100000000000001E-4</v>
       </c>
-      <c r="E12" s="34">
+      <c r="F12" s="34">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="F12" s="35">
+      <c r="G12" s="35">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="G12" s="31">
+      <c r="H12" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H12" s="32">
+      <c r="I12" s="48">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J12" s="32">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="I12" s="33">
+      <c r="K12" s="33">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="J12" s="34">
+      <c r="L12" s="34">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="K12" s="35">
+      <c r="M12" s="35">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="35"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="31">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="48">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="D13" s="32">
         <v>0.25741999999999998</v>
       </c>
-      <c r="D13" s="33">
+      <c r="E13" s="33">
         <v>1.5799999999999999E-4</v>
       </c>
-      <c r="E13" s="34">
+      <c r="F13" s="34">
         <v>4.6E-5</v>
       </c>
-      <c r="F13" s="35">
+      <c r="G13" s="35">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="G13" s="31">
+      <c r="H13" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="I13" s="48">
+        <v>1.18E-4</v>
+      </c>
+      <c r="J13" s="32">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="I13" s="33">
+      <c r="K13" s="33">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="J13" s="34">
+      <c r="L13" s="34">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="K13" s="35">
+      <c r="M13" s="35">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="L13" s="31">
+      <c r="N13" s="31">
         <v>5.1E-5</v>
       </c>
-      <c r="M13" s="32">
+      <c r="O13" s="32">
         <v>0.35253299999999999</v>
       </c>
-      <c r="N13" s="33">
+      <c r="P13" s="33">
         <v>1.75E-4</v>
       </c>
-      <c r="O13" s="34">
+      <c r="Q13" s="34">
         <v>5.1E-5</v>
       </c>
-      <c r="P13" s="35">
+      <c r="R13" s="35">
         <v>1.05E-4</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="S13" s="31">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="R13" s="32">
+      <c r="T13" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="S13" s="33">
+      <c r="U13" s="33">
         <v>4.6E-5</v>
       </c>
-      <c r="T13" s="34">
+      <c r="V13" s="34">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="U13" s="35">
+      <c r="W13" s="35">
         <v>3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
       <c r="B14" s="31">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="48">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="D14" s="32">
         <v>0.50699399999999994</v>
       </c>
-      <c r="D14" s="33">
+      <c r="E14" s="33">
         <v>2.03E-4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="F14" s="34">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F14" s="35">
+      <c r="G14" s="35">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="G14" s="31">
+      <c r="H14" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H14" s="32">
+      <c r="I14" s="48">
+        <v>1.25E-4</v>
+      </c>
+      <c r="J14" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="I14" s="33">
+      <c r="K14" s="33">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="J14" s="34">
+      <c r="L14" s="34">
         <v>4.6E-5</v>
       </c>
-      <c r="K14" s="35">
+      <c r="M14" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="35"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
       <c r="B15" s="31">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="48">
+        <v>2.03E-4</v>
+      </c>
+      <c r="D15" s="32">
         <v>1.0418609999999999</v>
       </c>
-      <c r="D15" s="33">
+      <c r="E15" s="33">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="E15" s="34">
+      <c r="F15" s="34">
         <v>4.1E-5</v>
       </c>
-      <c r="F15" s="35">
+      <c r="G15" s="35">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="G15" s="31">
+      <c r="H15" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H15" s="32">
+      <c r="I15" s="48">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="J15" s="32">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="I15" s="33">
+      <c r="K15" s="33">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="J15" s="34">
+      <c r="L15" s="34">
         <v>5.1E-5</v>
       </c>
-      <c r="K15" s="35">
+      <c r="M15" s="35">
         <v>2.8E-5</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="35"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
       <c r="B16" s="31">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="48">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="D16" s="32">
         <v>2.1233010000000001</v>
       </c>
-      <c r="D16" s="33">
+      <c r="E16" s="33">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="E16" s="34">
+      <c r="F16" s="34">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="F16" s="35">
+      <c r="G16" s="35">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G16" s="31">
+      <c r="H16" s="31">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="H16" s="32">
+      <c r="I16" s="48">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="J16" s="32">
         <v>1.8E-5</v>
       </c>
-      <c r="I16" s="33">
+      <c r="K16" s="33">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="J16" s="34">
+      <c r="L16" s="34">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="K16" s="35">
+      <c r="M16" s="35">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="35"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
       <c r="B17" s="31">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="48">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="D17" s="32">
         <v>4.1657299999999999</v>
       </c>
-      <c r="D17" s="33">
+      <c r="E17" s="33">
         <v>2.5399999999999999E-4</v>
       </c>
-      <c r="E17" s="34">
+      <c r="F17" s="34">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="F17" s="35">
+      <c r="G17" s="35">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G17" s="31">
+      <c r="H17" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="H17" s="32">
+      <c r="I17" s="48">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="J17" s="32">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="I17" s="33">
+      <c r="K17" s="33">
         <v>5.1E-5</v>
       </c>
-      <c r="J17" s="34">
+      <c r="L17" s="34">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="K17" s="35">
+      <c r="M17" s="35">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="35"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
       <c r="B18" s="31">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="48">
+        <v>2.6800000000000001E-4</v>
+      </c>
+      <c r="D18" s="32">
         <v>8.1889489999999991</v>
       </c>
-      <c r="D18" s="33">
+      <c r="E18" s="33">
         <v>2.7900000000000001E-4</v>
       </c>
-      <c r="E18" s="34">
+      <c r="F18" s="34">
         <v>4.6E-5</v>
       </c>
-      <c r="F18" s="35">
+      <c r="G18" s="35">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="G18" s="31">
+      <c r="H18" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="H18" s="32">
+      <c r="I18" s="48">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="J18" s="32">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="I18" s="33">
+      <c r="K18" s="33">
         <v>8.3999999999999995E-5</v>
       </c>
-      <c r="J18" s="34">
+      <c r="L18" s="34">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="K18" s="35">
+      <c r="M18" s="35">
         <v>2.8E-5</v>
       </c>
-      <c r="L18" s="31">
+      <c r="N18" s="31">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="M18" s="32">
+      <c r="O18" s="32">
         <v>9.2946539999999995</v>
       </c>
-      <c r="N18" s="33">
+      <c r="P18" s="33">
         <v>3.21E-4</v>
       </c>
-      <c r="O18" s="34">
+      <c r="Q18" s="34">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="P18" s="35">
+      <c r="R18" s="35">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="S18" s="31">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="R18" s="32">
+      <c r="T18" s="32">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="S18" s="33">
+      <c r="U18" s="33">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="T18" s="34">
+      <c r="V18" s="34">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="U18" s="35">
+      <c r="W18" s="35">
         <v>3.4999999999999997E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
       <c r="B19" s="31">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="48">
+        <v>2.6899999999999998E-4</v>
+      </c>
+      <c r="D19" s="32">
         <v>16.218233000000001</v>
       </c>
-      <c r="D19" s="33">
+      <c r="E19" s="33">
         <v>3.3399999999999999E-4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="F19" s="34">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="F19" s="35">
+      <c r="G19" s="35">
         <v>5.8E-5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="H19" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H19" s="32">
+      <c r="I19" s="48">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="J19" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="I19" s="33">
+      <c r="K19" s="33">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="J19" s="34">
+      <c r="L19" s="34">
         <v>5.8E-5</v>
       </c>
-      <c r="K19" s="35">
+      <c r="M19" s="35">
         <v>2.9E-5</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="35"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
       <c r="B20" s="31">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="48">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="D20" s="32">
         <v>33.102645000000003</v>
       </c>
-      <c r="D20" s="33">
+      <c r="E20" s="33">
         <v>3.6099999999999999E-4</v>
       </c>
-      <c r="E20" s="34">
+      <c r="F20" s="34">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="F20" s="35">
+      <c r="G20" s="35">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="G20" s="31">
+      <c r="H20" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H20" s="32">
+      <c r="I20" s="48">
+        <v>1.84E-4</v>
+      </c>
+      <c r="J20" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="I20" s="33">
+      <c r="K20" s="33">
         <v>5.8E-5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="L20" s="34">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="K20" s="35">
+      <c r="M20" s="35">
         <v>2.9E-5</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="35"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
       <c r="B21" s="31">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="48">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="D21" s="32">
         <v>65.217003000000005</v>
       </c>
-      <c r="D21" s="33">
+      <c r="E21" s="33">
         <v>3.9199999999999999E-4</v>
       </c>
-      <c r="E21" s="34">
+      <c r="F21" s="34">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="F21" s="35">
+      <c r="G21" s="35">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="G21" s="31">
+      <c r="H21" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H21" s="32">
+      <c r="I21" s="48">
+        <v>1.76E-4</v>
+      </c>
+      <c r="J21" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="I21" s="33">
+      <c r="K21" s="33">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="J21" s="34">
+      <c r="L21" s="34">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="K21" s="35">
+      <c r="M21" s="35">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="35"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
       <c r="B22" s="31">
         <v>7.1000000000000005E-5</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="48">
+        <v>3.1E-4</v>
+      </c>
+      <c r="D22" s="32">
         <v>131.35251400000001</v>
       </c>
-      <c r="D22" s="33">
+      <c r="E22" s="33">
         <v>4.3800000000000002E-4</v>
       </c>
-      <c r="E22" s="34">
+      <c r="F22" s="34">
         <v>5.8E-5</v>
       </c>
-      <c r="F22" s="35">
+      <c r="G22" s="35">
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="G22" s="31">
+      <c r="H22" s="31">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="H22" s="32">
+      <c r="I22" s="48">
+        <v>1.76E-4</v>
+      </c>
+      <c r="J22" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="I22" s="33">
+      <c r="K22" s="33">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="J22" s="34">
+      <c r="L22" s="34">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="K22" s="35">
+      <c r="M22" s="35">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="35"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
       <c r="B23" s="31">
         <v>7.1000000000000005E-5</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="48">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="D23" s="32">
         <v>261.96527099999997</v>
       </c>
-      <c r="D23" s="33">
+      <c r="E23" s="33">
         <v>4.37E-4</v>
       </c>
-      <c r="E23" s="34">
+      <c r="F23" s="34">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F23" s="35">
+      <c r="G23" s="35">
         <v>5.8E-5</v>
       </c>
-      <c r="G23" s="31">
+      <c r="H23" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H23" s="32">
+      <c r="I23" s="48">
+        <v>2.0599999999999999E-4</v>
+      </c>
+      <c r="J23" s="32">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="I23" s="33">
+      <c r="K23" s="33">
         <v>6.6000000000000005E-5</v>
       </c>
-      <c r="J23" s="34">
+      <c r="L23" s="34">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="K23" s="35">
+      <c r="M23" s="35">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="L23" s="31">
+      <c r="N23" s="31">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="M23" s="32">
+      <c r="O23" s="32">
         <v>306.167394</v>
       </c>
-      <c r="N23" s="33">
+      <c r="P23" s="33">
         <v>5.2800000000000004E-4</v>
       </c>
-      <c r="O23" s="34">
+      <c r="Q23" s="34">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="P23" s="35">
+      <c r="R23" s="35">
         <v>1.1E-4</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="S23" s="31">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="R23" s="32">
+      <c r="T23" s="32">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="S23" s="33">
+      <c r="U23" s="33">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="T23" s="34">
+      <c r="V23" s="34">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="U23" s="35">
+      <c r="W23" s="35">
         <v>3.8999999999999999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
       <c r="B24" s="31">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="48">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="D24" s="32">
         <v>521.41765599999997</v>
       </c>
-      <c r="D24" s="33">
+      <c r="E24" s="33">
         <v>4.4299999999999998E-4</v>
       </c>
-      <c r="E24" s="34">
+      <c r="F24" s="34">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="F24" s="35">
+      <c r="G24" s="35">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="G24" s="31">
+      <c r="H24" s="31">
         <v>1.8E-5</v>
       </c>
-      <c r="H24" s="32">
+      <c r="I24" s="48">
+        <v>2.22E-4</v>
+      </c>
+      <c r="J24" s="32">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="I24" s="33">
+      <c r="K24" s="33">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="J24" s="34">
+      <c r="L24" s="34">
         <v>6.3E-5</v>
       </c>
-      <c r="K24" s="35">
+      <c r="M24" s="35">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="35"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>32</v>
       </c>
       <c r="B25" s="31">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33">
+      <c r="C25" s="48">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33">
         <v>4.7899999999999999E-4</v>
       </c>
-      <c r="E25" s="34">
+      <c r="F25" s="34">
         <v>6.3999999999999997E-5</v>
       </c>
-      <c r="F25" s="35">
+      <c r="G25" s="35">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="G25" s="31">
+      <c r="H25" s="31">
         <v>1.7E-5</v>
       </c>
-      <c r="H25" s="32">
+      <c r="I25" s="48">
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="J25" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="I25" s="33">
+      <c r="K25" s="33">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="J25" s="34">
+      <c r="L25" s="34">
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="K25" s="35">
+      <c r="M25" s="35">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="35"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>50</v>
       </c>
       <c r="B26" s="31">
         <v>1.7100000000000001E-4</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33">
+      <c r="C26" s="48">
+        <v>1.196E-3</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33">
         <v>1.6789999999999999E-3</v>
       </c>
-      <c r="E26" s="34">
+      <c r="F26" s="34">
         <v>1.35E-4</v>
       </c>
-      <c r="F26" s="35">
+      <c r="G26" s="35">
         <v>1.3200000000000001E-4</v>
       </c>
-      <c r="G26" s="31">
+      <c r="H26" s="31">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H26" s="32">
+      <c r="I26" s="48">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="J26" s="32">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="I26" s="33">
+      <c r="K26" s="33">
         <v>1.2E-4</v>
       </c>
-      <c r="J26" s="34">
+      <c r="L26" s="34">
         <v>1.3300000000000001E-4</v>
       </c>
-      <c r="K26" s="35">
+      <c r="M26" s="35">
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="L26" s="31">
+      <c r="N26" s="31">
         <v>2.31E-4</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33">
+      <c r="O26" s="32"/>
+      <c r="P26" s="33">
         <v>2.2659999999999998E-3</v>
       </c>
-      <c r="O26" s="34">
+      <c r="Q26" s="34">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="P26" s="35">
+      <c r="R26" s="35">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="S26" s="31">
         <v>2.8E-5</v>
       </c>
-      <c r="R26" s="32">
+      <c r="T26" s="32">
         <v>3.4E-5</v>
       </c>
-      <c r="S26" s="33">
+      <c r="U26" s="33">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="T26" s="34">
+      <c r="V26" s="34">
         <v>1.85E-4</v>
       </c>
-      <c r="U26" s="35">
+      <c r="W26" s="35">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>100</v>
       </c>
       <c r="B27" s="31">
         <v>6.1600000000000001E-4</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33">
+      <c r="C27" s="48">
+        <v>6.2170000000000003E-3</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33">
         <v>1.093E-2</v>
       </c>
-      <c r="E27" s="34">
+      <c r="F27" s="34">
         <v>4.6799999999999999E-4</v>
       </c>
-      <c r="F27" s="35">
+      <c r="G27" s="35">
         <v>4.7899999999999999E-4</v>
       </c>
-      <c r="G27" s="31">
+      <c r="H27" s="31">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="H27" s="32">
+      <c r="I27" s="48">
+        <v>4.1330000000000004E-3</v>
+      </c>
+      <c r="J27" s="32">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="I27" s="33">
+      <c r="K27" s="33">
         <v>4.4900000000000002E-4</v>
       </c>
-      <c r="J27" s="34">
+      <c r="L27" s="34">
         <v>4.6900000000000002E-4</v>
       </c>
-      <c r="K27" s="35">
+      <c r="M27" s="35">
         <v>6.8999999999999997E-5</v>
       </c>
-      <c r="L27" s="31">
+      <c r="N27" s="31">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33">
+      <c r="O27" s="32"/>
+      <c r="P27" s="33">
         <v>1.3723000000000001E-2</v>
       </c>
-      <c r="O27" s="34">
+      <c r="Q27" s="34">
         <v>6.3699999999999998E-4</v>
       </c>
-      <c r="P27" s="35">
+      <c r="R27" s="35">
         <v>6.5799999999999995E-4</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="S27" s="31">
         <v>5.1E-5</v>
       </c>
-      <c r="R27" s="32">
+      <c r="T27" s="32">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="S27" s="33">
+      <c r="U27" s="33">
         <v>6.3599999999999996E-4</v>
       </c>
-      <c r="T27" s="34">
+      <c r="V27" s="34">
         <v>6.5499999999999998E-4</v>
       </c>
-      <c r="U27" s="35">
+      <c r="W27" s="35">
         <v>1.05E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>200</v>
       </c>
       <c r="B28" s="31">
         <v>2.1740000000000002E-3</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33">
+      <c r="C28" s="48">
+        <v>3.8492999999999999E-2</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33">
         <v>8.3535999999999999E-2</v>
       </c>
-      <c r="E28" s="34">
+      <c r="F28" s="34">
         <v>1.825E-3</v>
       </c>
-      <c r="F28" s="35">
+      <c r="G28" s="35">
         <v>2E-3</v>
       </c>
-      <c r="G28" s="31">
+      <c r="H28" s="31">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="H28" s="32">
+      <c r="I28" s="48">
+        <v>2.7709999999999999E-2</v>
+      </c>
+      <c r="J28" s="32">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="I28" s="33">
+      <c r="K28" s="33">
         <v>1.66E-3</v>
       </c>
-      <c r="J28" s="34">
+      <c r="L28" s="34">
         <v>1.7949999999999999E-3</v>
       </c>
-      <c r="K28" s="35">
+      <c r="M28" s="35">
         <v>1.5100000000000001E-4</v>
       </c>
-      <c r="L28" s="31">
+      <c r="N28" s="31">
         <v>3.2160000000000001E-3</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33">
+      <c r="O28" s="32"/>
+      <c r="P28" s="33">
         <v>8.8058999999999998E-2</v>
       </c>
-      <c r="O28" s="34">
+      <c r="Q28" s="34">
         <v>2.343E-3</v>
       </c>
-      <c r="P28" s="35">
+      <c r="R28" s="35">
         <v>2.382E-3</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="S28" s="31">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="R28" s="32">
+      <c r="T28" s="32">
         <v>1.36E-4</v>
       </c>
-      <c r="S28" s="33">
+      <c r="U28" s="33">
         <v>2.2230000000000001E-3</v>
       </c>
-      <c r="T28" s="34">
+      <c r="V28" s="34">
         <v>2.3809999999999999E-3</v>
       </c>
-      <c r="U28" s="35">
+      <c r="W28" s="35">
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>500</v>
       </c>
       <c r="B29" s="31">
         <v>1.3147000000000001E-2</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33">
+      <c r="C29" s="48">
+        <v>0.483097</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33">
         <v>1.315685</v>
       </c>
-      <c r="E29" s="34">
+      <c r="F29" s="34">
         <v>9.3430000000000006E-3</v>
       </c>
-      <c r="F29" s="35">
+      <c r="G29" s="35">
         <v>9.1730000000000006E-3</v>
       </c>
-      <c r="G29" s="31">
+      <c r="H29" s="31">
         <v>1.8699999999999999E-4</v>
       </c>
-      <c r="H29" s="32">
+      <c r="I29" s="48">
+        <v>0.33311600000000002</v>
+      </c>
+      <c r="J29" s="32">
         <v>2.61E-4</v>
       </c>
-      <c r="I29" s="33">
+      <c r="K29" s="33">
         <v>9.3390000000000001E-3</v>
       </c>
-      <c r="J29" s="34">
+      <c r="L29" s="34">
         <v>9.1629999999999993E-3</v>
       </c>
-      <c r="K29" s="35">
+      <c r="M29" s="35">
         <v>3.4200000000000002E-4</v>
       </c>
-      <c r="L29" s="31">
+      <c r="N29" s="31">
         <v>1.8371999999999999E-2</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33">
+      <c r="O29" s="32"/>
+      <c r="P29" s="33">
         <v>1.3161579999999999</v>
       </c>
-      <c r="O29" s="34">
+      <c r="Q29" s="34">
         <v>1.1082E-2</v>
       </c>
-      <c r="P29" s="35">
+      <c r="R29" s="35">
         <v>1.1736999999999999E-2</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="S29" s="31">
         <v>2.03E-4</v>
       </c>
-      <c r="R29" s="32">
+      <c r="T29" s="32">
         <v>2.8600000000000001E-4</v>
       </c>
-      <c r="S29" s="33">
+      <c r="U29" s="33">
         <v>1.1309E-2</v>
       </c>
-      <c r="T29" s="34">
+      <c r="V29" s="34">
         <v>1.1424E-2</v>
       </c>
-      <c r="U29" s="35">
+      <c r="W29" s="35">
         <v>5.3700000000000004E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>1000</v>
       </c>
       <c r="B30" s="31">
         <v>5.1124000000000003E-2</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33">
+      <c r="C30" s="48">
+        <v>3.4886210000000002</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33">
         <v>11.648507</v>
       </c>
-      <c r="E30" s="34">
+      <c r="F30" s="34">
         <v>3.3841000000000003E-2</v>
       </c>
-      <c r="F30" s="35">
+      <c r="G30" s="35">
         <v>3.3052999999999999E-2</v>
       </c>
-      <c r="G30" s="31">
+      <c r="H30" s="31">
         <v>3.2200000000000002E-4</v>
       </c>
-      <c r="H30" s="32">
+      <c r="I30" s="48">
+        <v>2.2992810000000001</v>
+      </c>
+      <c r="J30" s="32">
         <v>4.8799999999999999E-4</v>
       </c>
-      <c r="I30" s="33">
+      <c r="K30" s="33">
         <v>3.3485000000000001E-2</v>
       </c>
-      <c r="J30" s="34">
+      <c r="L30" s="34">
         <v>3.3334000000000003E-2</v>
       </c>
-      <c r="K30" s="35">
+      <c r="M30" s="35">
         <v>7.0899999999999999E-4</v>
       </c>
-      <c r="L30" s="31">
+      <c r="N30" s="31">
         <v>5.9317000000000002E-2</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33">
+      <c r="O30" s="32"/>
+      <c r="P30" s="33">
         <v>11.279191000000001</v>
       </c>
-      <c r="O30" s="34">
+      <c r="Q30" s="34">
         <v>3.5202999999999998E-2</v>
       </c>
-      <c r="P30" s="35">
+      <c r="R30" s="35">
         <v>3.7241999999999997E-2</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="S30" s="31">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="R30" s="32">
+      <c r="T30" s="32">
         <v>5.7200000000000003E-4</v>
       </c>
-      <c r="S30" s="33">
+      <c r="U30" s="33">
         <v>3.8273000000000001E-2</v>
       </c>
-      <c r="T30" s="34">
+      <c r="V30" s="34">
         <v>3.9696000000000002E-2</v>
       </c>
-      <c r="U30" s="35">
+      <c r="W30" s="35">
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1500</v>
       </c>
       <c r="B31" s="31">
         <v>0.111273</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33">
+      <c r="C31" s="48">
+        <v>11.680351</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33">
         <v>41.728200000000001</v>
       </c>
-      <c r="E31" s="34">
+      <c r="F31" s="34">
         <v>7.4177000000000007E-2</v>
       </c>
-      <c r="F31" s="35">
+      <c r="G31" s="35">
         <v>7.4701000000000004E-2</v>
       </c>
-      <c r="G31" s="31">
+      <c r="H31" s="31">
         <v>4.17E-4</v>
       </c>
-      <c r="H31" s="32">
+      <c r="I31" s="48">
+        <v>7.6496979999999999</v>
+      </c>
+      <c r="J31" s="32">
         <v>6.5600000000000001E-4</v>
       </c>
-      <c r="I31" s="33">
+      <c r="K31" s="33">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="J31" s="34">
+      <c r="L31" s="34">
         <v>7.4739E-2</v>
       </c>
-      <c r="K31" s="35">
+      <c r="M31" s="35">
         <v>9.7900000000000005E-4</v>
       </c>
-      <c r="L31" s="31">
+      <c r="N31" s="31">
         <v>0.13069500000000001</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33">
+      <c r="O31" s="32"/>
+      <c r="P31" s="33">
         <v>42.014606000000001</v>
       </c>
-      <c r="O31" s="34">
+      <c r="Q31" s="34">
         <v>7.8506000000000006E-2</v>
       </c>
-      <c r="P31" s="35">
+      <c r="R31" s="35">
         <v>7.6338000000000003E-2</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="S31" s="31">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="R31" s="32">
+      <c r="T31" s="32">
         <v>8.0900000000000004E-4</v>
       </c>
-      <c r="S31" s="33">
+      <c r="U31" s="33">
         <v>7.5379000000000002E-2</v>
       </c>
-      <c r="T31" s="34">
+      <c r="V31" s="34">
         <v>7.3265999999999998E-2</v>
       </c>
-      <c r="U31" s="35">
+      <c r="W31" s="35">
         <v>1.3359999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2000</v>
       </c>
       <c r="B32" s="31">
         <v>0.19788600000000001</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33">
+      <c r="C32" s="48">
+        <v>27.39339</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33">
         <v>102.043252</v>
       </c>
-      <c r="E32" s="34">
+      <c r="F32" s="34">
         <v>0.13009699999999999</v>
       </c>
-      <c r="F32" s="35">
+      <c r="G32" s="35">
         <v>0.12961400000000001</v>
       </c>
-      <c r="G32" s="31">
+      <c r="H32" s="31">
         <v>6.0099999999999997E-4</v>
       </c>
-      <c r="H32" s="32">
+      <c r="I32" s="48">
+        <v>17.980043999999999</v>
+      </c>
+      <c r="J32" s="32">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="I32" s="33">
+      <c r="K32" s="33">
         <v>0.12886500000000001</v>
       </c>
-      <c r="J32" s="34">
+      <c r="L32" s="34">
         <v>0.12984299999999999</v>
       </c>
-      <c r="K32" s="35">
+      <c r="M32" s="35">
         <v>1.361E-3</v>
       </c>
-      <c r="L32" s="31">
+      <c r="N32" s="31">
         <v>0.22454299999999999</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33">
+      <c r="O32" s="32"/>
+      <c r="P32" s="33">
         <v>104.487927</v>
       </c>
-      <c r="O32" s="34">
+      <c r="Q32" s="34">
         <v>0.12934499999999999</v>
       </c>
-      <c r="P32" s="35">
+      <c r="R32" s="35">
         <v>0.130025</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="S32" s="31">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="R32" s="32">
+      <c r="T32" s="32">
         <v>1.1440000000000001E-3</v>
       </c>
-      <c r="S32" s="33">
+      <c r="U32" s="33">
         <v>0.13262099999999999</v>
       </c>
-      <c r="T32" s="34">
+      <c r="V32" s="34">
         <v>0.129354</v>
       </c>
-      <c r="U32" s="35">
+      <c r="W32" s="35">
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2500</v>
       </c>
       <c r="B33" s="31">
         <v>0.30429499999999998</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33">
+      <c r="C33" s="48">
+        <v>54.111496000000002</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33">
         <v>205.760907</v>
       </c>
-      <c r="E33" s="34">
+      <c r="F33" s="34">
         <v>0.19530500000000001</v>
       </c>
-      <c r="F33" s="35">
+      <c r="G33" s="35">
         <v>0.19675100000000001</v>
       </c>
-      <c r="G33" s="31">
+      <c r="H33" s="31">
         <v>7.1199999999999996E-4</v>
       </c>
-      <c r="H33" s="32">
+      <c r="I33" s="48">
+        <v>35.364429999999999</v>
+      </c>
+      <c r="J33" s="32">
         <v>1.021E-3</v>
       </c>
-      <c r="I33" s="33">
+      <c r="K33" s="33">
         <v>0.20762</v>
       </c>
-      <c r="J33" s="34">
+      <c r="L33" s="34">
         <v>0.21649599999999999</v>
       </c>
-      <c r="K33" s="35">
+      <c r="M33" s="35">
         <v>2.9359999999999998E-3</v>
       </c>
-      <c r="L33" s="31">
+      <c r="N33" s="31">
         <v>0.35364499999999999</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33">
+      <c r="O33" s="32"/>
+      <c r="P33" s="33">
         <v>209.443647</v>
       </c>
-      <c r="O33" s="34">
+      <c r="Q33" s="34">
         <v>0.19637399999999999</v>
       </c>
-      <c r="P33" s="35">
+      <c r="R33" s="35">
         <v>0.20038600000000001</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="S33" s="31">
         <v>9.68E-4</v>
       </c>
-      <c r="R33" s="32">
+      <c r="T33" s="32">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="S33" s="33">
+      <c r="U33" s="33">
         <v>0.206875</v>
       </c>
-      <c r="T33" s="34">
+      <c r="V33" s="34">
         <v>0.20899400000000001</v>
       </c>
-      <c r="U33" s="35">
+      <c r="W33" s="35">
         <v>3.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>3000</v>
       </c>
       <c r="B34" s="31">
         <v>0.46050000000000002</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33">
+      <c r="C34" s="48">
+        <v>94.433209000000005</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33">
         <v>356.96037100000001</v>
       </c>
-      <c r="E34" s="34">
+      <c r="F34" s="34">
         <v>0.29874899999999999</v>
       </c>
-      <c r="F34" s="35">
+      <c r="G34" s="35">
         <v>0.29842200000000002</v>
       </c>
-      <c r="G34" s="31">
+      <c r="H34" s="31">
         <v>1.183E-3</v>
       </c>
-      <c r="H34" s="32">
+      <c r="I34" s="48">
+        <v>61.096786999999999</v>
+      </c>
+      <c r="J34" s="32">
         <v>1.72E-3</v>
       </c>
-      <c r="I34" s="33">
+      <c r="K34" s="33">
         <v>0.30975000000000003</v>
       </c>
-      <c r="J34" s="34">
+      <c r="L34" s="34">
         <v>0.32050000000000001</v>
       </c>
-      <c r="K34" s="35">
+      <c r="M34" s="35">
         <v>4.5580000000000004E-3</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N34" s="31"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="35"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>5000</v>
       </c>
       <c r="B35" s="31">
         <v>1.2506919999999999</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34">
+      <c r="C35" s="48">
+        <v>439.96412900000001</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34">
         <v>0.77774200000000004</v>
       </c>
-      <c r="F35" s="35">
+      <c r="G35" s="35">
         <v>0.77158899999999997</v>
       </c>
-      <c r="G35" s="31">
+      <c r="H35" s="31">
         <v>1.4519999999999999E-3</v>
       </c>
-      <c r="H35" s="32">
+      <c r="I35" s="48">
+        <v>290.04165599999999</v>
+      </c>
+      <c r="J35" s="32">
         <v>2.3990000000000001E-3</v>
       </c>
-      <c r="I35" s="33">
+      <c r="K35" s="33">
         <v>0.85408899999999999</v>
       </c>
-      <c r="J35" s="34">
+      <c r="L35" s="34">
         <v>0.84430000000000005</v>
       </c>
-      <c r="K35" s="35">
+      <c r="M35" s="35">
         <v>6.1120000000000002E-3</v>
       </c>
-      <c r="L35" s="31">
+      <c r="N35" s="31">
         <v>1.4324870000000001</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34">
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34">
         <v>0.76894600000000002</v>
       </c>
-      <c r="P35" s="35">
+      <c r="R35" s="35">
         <v>0.78488899999999995</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="S35" s="31">
         <v>1.939E-3</v>
       </c>
-      <c r="R35" s="32">
+      <c r="T35" s="32">
         <v>3.5409999999999999E-3</v>
       </c>
-      <c r="S35" s="33">
+      <c r="U35" s="33">
         <v>0.84693600000000002</v>
       </c>
-      <c r="T35" s="34">
+      <c r="V35" s="34">
         <v>0.83301099999999995</v>
       </c>
-      <c r="U35" s="35">
+      <c r="W35" s="35">
         <v>7.5430000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>10000</v>
       </c>
       <c r="B36" s="31">
         <v>5.0358309999999999</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34">
+      <c r="C36" s="48"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34">
         <v>3.1808689999999999</v>
       </c>
-      <c r="F36" s="35">
+      <c r="G36" s="35">
         <v>3.1654239999999998</v>
       </c>
-      <c r="G36" s="31">
+      <c r="H36" s="31">
         <v>2.931E-3</v>
       </c>
-      <c r="H36" s="32">
+      <c r="I36" s="48"/>
+      <c r="J36" s="32">
         <v>5.489E-3</v>
       </c>
-      <c r="I36" s="33">
+      <c r="K36" s="33">
         <v>3.6100150000000002</v>
       </c>
-      <c r="J36" s="34">
+      <c r="L36" s="34">
         <v>3.5315279999999998</v>
       </c>
-      <c r="K36" s="35">
+      <c r="M36" s="35">
         <v>1.0989000000000001E-2</v>
       </c>
-      <c r="L36" s="31">
+      <c r="N36" s="31">
         <v>5.7851239999999997</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="34">
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34">
         <v>3.2021199999999999</v>
       </c>
-      <c r="P36" s="35">
+      <c r="R36" s="35">
         <v>3.2389929999999998</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="S36" s="31">
         <v>3.852E-3</v>
       </c>
-      <c r="R36" s="32">
+      <c r="T36" s="32">
         <v>7.162E-3</v>
       </c>
-      <c r="S36" s="33">
+      <c r="U36" s="33">
         <v>3.567259</v>
       </c>
-      <c r="T36" s="34">
+      <c r="V36" s="34">
         <v>3.5445669999999998</v>
       </c>
-      <c r="U36" s="35">
+      <c r="W36" s="35">
         <v>1.3786E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>20000</v>
       </c>
       <c r="B37" s="31">
         <v>19.880227000000001</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34">
+      <c r="C37" s="48"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34">
         <v>13.671749</v>
       </c>
-      <c r="F37" s="35">
+      <c r="G37" s="35">
         <v>13.059431999999999</v>
       </c>
-      <c r="G37" s="31">
+      <c r="H37" s="31">
         <v>7.2789999999999999E-3</v>
       </c>
-      <c r="H37" s="32">
+      <c r="I37" s="48"/>
+      <c r="J37" s="32">
         <v>1.0331E-2</v>
       </c>
-      <c r="I37" s="33">
+      <c r="K37" s="33">
         <v>16.706415</v>
       </c>
-      <c r="J37" s="34">
+      <c r="L37" s="34">
         <v>16.998740999999999</v>
       </c>
-      <c r="K37" s="35">
+      <c r="M37" s="35">
         <v>2.7369000000000001E-2</v>
       </c>
-      <c r="L37" s="31">
+      <c r="N37" s="31">
         <v>23.226838000000001</v>
       </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="34">
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34">
         <v>13.479113999999999</v>
       </c>
-      <c r="P37" s="35">
+      <c r="R37" s="35">
         <v>14.220385</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="S37" s="31">
         <v>8.1370000000000001E-3</v>
       </c>
-      <c r="R37" s="32">
+      <c r="T37" s="32">
         <v>1.3244000000000001E-2</v>
       </c>
-      <c r="S37" s="33">
+      <c r="U37" s="33">
         <v>16.383706</v>
       </c>
-      <c r="T37" s="34">
+      <c r="V37" s="34">
         <v>16.299562000000002</v>
       </c>
-      <c r="U37" s="35">
+      <c r="W37" s="35">
         <v>3.1668000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>30000</v>
       </c>
       <c r="B38" s="31">
         <v>44.234560000000002</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34">
+      <c r="C38" s="48"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34">
         <v>31.779256</v>
       </c>
-      <c r="F38" s="35">
+      <c r="G38" s="35">
         <v>31.276799</v>
       </c>
-      <c r="G38" s="31">
+      <c r="H38" s="31">
         <v>1.1937E-2</v>
       </c>
-      <c r="H38" s="32">
+      <c r="I38" s="48"/>
+      <c r="J38" s="32">
         <v>1.5841000000000001E-2</v>
       </c>
-      <c r="I38" s="33">
+      <c r="K38" s="33">
         <v>39.664081000000003</v>
       </c>
-      <c r="J38" s="34">
+      <c r="L38" s="34">
         <v>41.588805000000001</v>
       </c>
-      <c r="K38" s="35">
+      <c r="M38" s="35">
         <v>5.4996999999999997E-2</v>
       </c>
-      <c r="L38" s="31">
+      <c r="N38" s="31">
         <v>52.748072000000001</v>
       </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="34">
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="34">
         <v>33.281880000000001</v>
       </c>
-      <c r="P38" s="35">
+      <c r="R38" s="35">
         <v>34.369891000000003</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="S38" s="31">
         <v>1.3747000000000001E-2</v>
       </c>
-      <c r="R38" s="32">
+      <c r="T38" s="32">
         <v>2.0348999999999999E-2</v>
       </c>
-      <c r="S38" s="33">
+      <c r="U38" s="33">
         <v>40.840294999999998</v>
       </c>
-      <c r="T38" s="34">
+      <c r="V38" s="34">
         <v>46.926304000000002</v>
       </c>
-      <c r="U38" s="35">
+      <c r="W38" s="35">
         <v>5.2180999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>40000</v>
       </c>
       <c r="B39" s="31">
         <v>81.585452000000004</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34">
+      <c r="C39" s="48"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34">
         <v>58.780343000000002</v>
       </c>
-      <c r="F39" s="35">
+      <c r="G39" s="35">
         <v>59.150472999999998</v>
       </c>
-      <c r="G39" s="31">
+      <c r="H39" s="31">
         <v>1.4222E-2</v>
       </c>
-      <c r="H39" s="32">
+      <c r="I39" s="48"/>
+      <c r="J39" s="32">
         <v>2.3293999999999999E-2</v>
       </c>
-      <c r="I39" s="33">
+      <c r="K39" s="33">
         <v>80.270517999999996</v>
       </c>
-      <c r="J39" s="34">
+      <c r="L39" s="34">
         <v>89.502830000000003</v>
       </c>
-      <c r="K39" s="35">
+      <c r="M39" s="35">
         <v>6.7183000000000007E-2</v>
       </c>
-      <c r="L39" s="31">
+      <c r="N39" s="31">
         <v>95.904543000000004</v>
       </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34">
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34">
         <v>66.772433000000007</v>
       </c>
-      <c r="P39" s="35">
+      <c r="R39" s="35">
         <v>66.522424999999998</v>
       </c>
-      <c r="Q39" s="31">
+      <c r="S39" s="31">
         <v>1.8932999999999998E-2</v>
       </c>
-      <c r="R39" s="32">
+      <c r="T39" s="32">
         <v>2.7401999999999999E-2</v>
       </c>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34">
+      <c r="U39" s="33"/>
+      <c r="V39" s="34">
         <v>92.836652000000001</v>
       </c>
-      <c r="U39" s="35">
+      <c r="W39" s="35">
         <v>7.4124999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>50000</v>
       </c>
       <c r="B40" s="31">
         <v>128.354026</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34">
+      <c r="C40" s="48"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34">
         <v>98.676973000000004</v>
       </c>
-      <c r="F40" s="35">
+      <c r="G40" s="35">
         <v>99.691267999999994</v>
       </c>
-      <c r="G40" s="31">
+      <c r="H40" s="31">
         <v>2.1718999999999999E-2</v>
       </c>
-      <c r="H40" s="32">
+      <c r="I40" s="48"/>
+      <c r="J40" s="32">
         <v>3.0970000000000001E-2</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="K40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="34">
+      <c r="L40" s="34">
         <v>150.53811300000001</v>
       </c>
-      <c r="K40" s="35">
+      <c r="M40" s="35">
         <v>8.9990000000000001E-2</v>
       </c>
-      <c r="L40" s="31">
+      <c r="N40" s="31">
         <v>149.20957200000001</v>
       </c>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="34">
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="34">
         <v>110.650992</v>
       </c>
-      <c r="P40" s="35">
+      <c r="R40" s="35">
         <v>112.161743</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="S40" s="31">
         <v>2.2712E-2</v>
       </c>
-      <c r="R40" s="32">
+      <c r="T40" s="32">
         <v>3.2217999999999997E-2</v>
       </c>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34">
+      <c r="U40" s="33"/>
+      <c r="V40" s="34">
         <v>159.119361</v>
       </c>
-      <c r="U40" s="35">
+      <c r="W40" s="35">
         <v>9.4209000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>60000</v>
       </c>
       <c r="B41" s="31">
         <v>179.97196199999999</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34">
+      <c r="C41" s="48"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34">
         <v>154.56404699999999</v>
       </c>
-      <c r="F41" s="35">
+      <c r="G41" s="35">
         <v>151.36726400000001</v>
       </c>
-      <c r="G41" s="31">
+      <c r="H41" s="31">
         <v>2.7900999999999999E-2</v>
       </c>
-      <c r="H41" s="32">
+      <c r="I41" s="48"/>
+      <c r="J41" s="32">
         <v>4.5385000000000002E-2</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="K41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="34">
+      <c r="L41" s="34">
         <v>245.564773</v>
       </c>
-      <c r="K41" s="35">
+      <c r="M41" s="35">
         <v>0.11550100000000001</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="35"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>70000</v>
       </c>
       <c r="B42" s="31">
         <v>248.349547</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34">
+      <c r="C42" s="48"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34">
         <v>229.23799600000001</v>
       </c>
-      <c r="F42" s="35">
+      <c r="G42" s="35">
         <v>218.051421</v>
       </c>
-      <c r="G42" s="31">
+      <c r="H42" s="31">
         <v>2.9814E-2</v>
       </c>
-      <c r="H42" s="32">
+      <c r="I42" s="48"/>
+      <c r="J42" s="32">
         <v>4.8825E-2</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="K42" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="L42" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="35">
+      <c r="M42" s="35">
         <v>0.135911</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N42" s="31"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="35"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>80000</v>
       </c>
       <c r="B43" s="31">
         <v>325.24204099999997</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34">
+      <c r="C43" s="48"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34">
         <v>319.111132</v>
       </c>
-      <c r="F43" s="35">
+      <c r="G43" s="35">
         <v>301.63765899999999</v>
       </c>
-      <c r="G43" s="31">
+      <c r="H43" s="31">
         <v>3.1233E-2</v>
       </c>
-      <c r="H43" s="32">
+      <c r="I43" s="48"/>
+      <c r="J43" s="32">
         <v>5.9379000000000001E-2</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="K43" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="L43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="35">
+      <c r="M43" s="35">
         <v>0.17094200000000001</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N43" s="31"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="35"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>90000</v>
       </c>
       <c r="B44" s="31">
         <v>412.088663</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="G44" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="31">
+      <c r="H44" s="31">
         <v>3.3169999999999998E-2</v>
       </c>
-      <c r="H44" s="32">
+      <c r="I44" s="48"/>
+      <c r="J44" s="32">
         <v>6.515E-2</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="K44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="L44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="35">
+      <c r="M44" s="35">
         <v>0.19337199999999999</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="35"/>
-    </row>
-    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="31"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="35"/>
+    </row>
+    <row r="45" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>100000</v>
       </c>
       <c r="B45" s="31">
         <v>509.88052900000002</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="36" t="s">
+      <c r="C45" s="48"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="G45" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="31">
+      <c r="H45" s="31">
         <v>4.0495999999999997E-2</v>
       </c>
-      <c r="H45" s="32">
+      <c r="I45" s="48"/>
+      <c r="J45" s="32">
         <v>7.4335999999999999E-2</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="K45" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="L45" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="37">
+      <c r="M45" s="37">
         <v>0.23258300000000001</v>
       </c>
-      <c r="L45" s="31">
+      <c r="N45" s="31">
         <v>618.711634</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="31">
+      <c r="O45" s="32"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="31">
         <v>4.7566999999999998E-2</v>
       </c>
-      <c r="R45" s="32">
+      <c r="T45" s="32">
         <v>7.9657000000000006E-2</v>
       </c>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="37">
+      <c r="U45" s="33"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="37">
         <v>0.21244199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="30">
+      <c r="C46" s="49"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="30">
         <v>80638</v>
       </c>
-      <c r="F46" s="29">
+      <c r="G46" s="29">
         <v>80638</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="H46" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="I46" s="49"/>
+      <c r="J46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="28">
+      <c r="K46" s="28">
         <v>43680</v>
       </c>
-      <c r="J46" s="30">
+      <c r="L46" s="30">
         <v>61665</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="M46" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="29"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="29"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
@@ -6982,9 +7467,10 @@
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G49" s="21"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -6999,13 +7485,14 @@
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
-      <c r="V49" s="22"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="22"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -7020,365 +7507,365 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="22"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="22"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
       <c r="R51" s="23"/>
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
-      <c r="V51" s="22"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="22"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
       <c r="R52" s="23"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
-      <c r="V52" s="22"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="22"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
-      <c r="V53" s="22"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="22"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
       <c r="R54" s="23"/>
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
-      <c r="V54" s="22"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="22"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
       <c r="R55" s="23"/>
       <c r="S55" s="23"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
-      <c r="V55" s="22"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="22"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
       <c r="R56" s="23"/>
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
-      <c r="V56" s="22"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="22"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K57" s="22"/>
       <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
       <c r="R57" s="23"/>
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
-      <c r="V57" s="22"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="22"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K58" s="22"/>
       <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
       <c r="R58" s="23"/>
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-      <c r="V58" s="22"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="22"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K59" s="22"/>
       <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+      <c r="M59" s="23"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
       <c r="R59" s="23"/>
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
-      <c r="V59" s="22"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="22"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K60" s="22"/>
       <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
+      <c r="M60" s="23"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
       <c r="R60" s="23"/>
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
-      <c r="V60" s="22"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="22"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K61" s="22"/>
       <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
+      <c r="M61" s="23"/>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
       <c r="R61" s="23"/>
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
-      <c r="V61" s="22"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="22"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K62" s="22"/>
       <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
+      <c r="M62" s="23"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
       <c r="R62" s="23"/>
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
-      <c r="V62" s="22"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="22"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K63" s="22"/>
       <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
+      <c r="M63" s="23"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
       <c r="R63" s="23"/>
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
-      <c r="V63" s="22"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="22"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K64" s="22"/>
       <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
       <c r="R64" s="23"/>
       <c r="S64" s="23"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
-      <c r="V64" s="22"/>
-    </row>
-    <row r="65" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="22"/>
+    </row>
+    <row r="65" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K65" s="22"/>
       <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
       <c r="R65" s="23"/>
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-      <c r="V65" s="22"/>
-    </row>
-    <row r="66" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="22"/>
+    </row>
+    <row r="66" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K66" s="22"/>
       <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
       <c r="R66" s="23"/>
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
-      <c r="V66" s="22"/>
-    </row>
-    <row r="67" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="22"/>
+    </row>
+    <row r="67" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K67" s="22"/>
       <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
+      <c r="M67" s="23"/>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
       <c r="R67" s="23"/>
       <c r="S67" s="23"/>
       <c r="T67" s="23"/>
       <c r="U67" s="23"/>
-      <c r="V67" s="22"/>
-    </row>
-    <row r="68" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="22"/>
+    </row>
+    <row r="68" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K68" s="22"/>
       <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
+      <c r="M68" s="23"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
       <c r="R68" s="23"/>
       <c r="S68" s="23"/>
       <c r="T68" s="23"/>
       <c r="U68" s="23"/>
-      <c r="V68" s="22"/>
-    </row>
-    <row r="69" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="22"/>
+    </row>
+    <row r="69" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
       <c r="T69" s="23"/>
       <c r="U69" s="23"/>
-      <c r="V69" s="22"/>
-    </row>
-    <row r="70" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I70" s="22"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="22"/>
+    </row>
+    <row r="70" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
-      <c r="V70" s="22"/>
-    </row>
-    <row r="71" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="22"/>
+    </row>
+    <row r="71" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
       <c r="R71" s="23"/>
       <c r="S71" s="23"/>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
-      <c r="V71" s="22"/>
-    </row>
-    <row r="72" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="22"/>
+    </row>
+    <row r="72" spans="11:24" x14ac:dyDescent="0.2">
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
@@ -7391,13 +7878,15 @@
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
       <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7405,11 +7894,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2667B4D-E282-404B-B770-A2490C193345}">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="109" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="109" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:F50"/>
+      <selection pane="topRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7417,7 +7906,7 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
@@ -7425,1034 +7914,1201 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3" s="31">
         <v>8.7000000000000001E-5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="48">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D3" s="32">
         <v>1.5070000000000001E-3</v>
       </c>
-      <c r="D3" s="33">
+      <c r="E3" s="33">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="E3" s="34">
+      <c r="F3" s="34">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="G3" s="35">
         <v>6.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
       <c r="B4" s="31">
         <v>1E-4</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="48">
+        <v>9.7E-5</v>
+      </c>
+      <c r="D4" s="32">
         <v>2.9499999999999999E-3</v>
       </c>
-      <c r="D4" s="33">
+      <c r="E4" s="33">
         <v>1.1E-4</v>
       </c>
-      <c r="E4" s="34">
+      <c r="F4" s="34">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="F4" s="35">
+      <c r="G4" s="35">
         <v>7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
       <c r="B5" s="31">
         <v>1.2E-4</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="48">
+        <v>1.02E-4</v>
+      </c>
+      <c r="D5" s="32">
         <v>5.2509999999999996E-3</v>
       </c>
-      <c r="D5" s="33">
+      <c r="E5" s="33">
         <v>1.37E-4</v>
       </c>
-      <c r="E5" s="34">
+      <c r="F5" s="34">
         <v>8.3999999999999995E-5</v>
       </c>
-      <c r="F5" s="35">
+      <c r="G5" s="35">
         <v>8.8999999999999995E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
       <c r="B6" s="31">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="48">
+        <v>1.11E-4</v>
+      </c>
+      <c r="D6" s="32">
         <v>9.0699999999999999E-3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="E6" s="33">
         <v>1.37E-4</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="34">
         <v>9.7E-5</v>
       </c>
-      <c r="F6" s="35">
+      <c r="G6" s="35">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
       <c r="B7" s="31">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="48">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="D7" s="32">
         <v>1.6471E-2</v>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33">
         <v>1.5899999999999999E-4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="F7" s="34">
         <v>1.01E-4</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>1.16E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
       <c r="B8" s="31">
         <v>1.7799999999999999E-4</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="48">
+        <v>1.34E-4</v>
+      </c>
+      <c r="D8" s="32">
         <v>2.7587E-2</v>
       </c>
-      <c r="D8" s="33">
+      <c r="E8" s="33">
         <v>1.84E-4</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="34">
         <v>1.2E-4</v>
       </c>
-      <c r="F8" s="35">
+      <c r="G8" s="35">
         <v>1.27E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
       <c r="B9" s="31">
         <v>1.94E-4</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="48">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D9" s="32">
         <v>5.2930999999999999E-2</v>
       </c>
-      <c r="D9" s="33">
+      <c r="E9" s="33">
         <v>1.8599999999999999E-4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="F9" s="34">
         <v>1.08E-4</v>
       </c>
-      <c r="F9" s="35">
+      <c r="G9" s="35">
         <v>1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
       <c r="B10" s="31">
         <v>2.02E-4</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="48">
+        <v>1.83E-4</v>
+      </c>
+      <c r="D10" s="32">
         <v>0.106054</v>
       </c>
-      <c r="D10" s="33">
+      <c r="E10" s="33">
         <v>2.0900000000000001E-4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="F10" s="34">
         <v>1.17E-4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="G10" s="35">
         <v>1.54E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
       <c r="B11" s="31">
         <v>2.34E-4</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="48">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="D11" s="32">
         <v>0.21479500000000001</v>
       </c>
-      <c r="D11" s="33">
+      <c r="E11" s="33">
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="E11" s="34">
+      <c r="F11" s="34">
         <v>1.35E-4</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
       <c r="B12" s="31">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="48">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="D12" s="32">
         <v>0.40877799999999997</v>
       </c>
-      <c r="D12" s="33">
+      <c r="E12" s="33">
         <v>2.7399999999999999E-4</v>
       </c>
-      <c r="E12" s="34">
+      <c r="F12" s="34">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="F12" s="35">
+      <c r="G12" s="35">
         <v>1.85E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="31">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="48">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="D13" s="32">
         <v>0.83068900000000001</v>
       </c>
-      <c r="D13" s="33">
+      <c r="E13" s="33">
         <v>3.2200000000000002E-4</v>
       </c>
-      <c r="E13" s="34">
+      <c r="F13" s="34">
         <v>1.5699999999999999E-4</v>
       </c>
-      <c r="F13" s="35">
+      <c r="G13" s="35">
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
       <c r="B14" s="31">
         <v>3.4299999999999999E-4</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="48">
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="D14" s="32">
         <v>1.669778</v>
       </c>
-      <c r="D14" s="33">
+      <c r="E14" s="33">
         <v>3.5799999999999997E-4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="F14" s="34">
         <v>1.75E-4</v>
       </c>
-      <c r="F14" s="35">
+      <c r="G14" s="35">
         <v>2.1800000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
       <c r="B15" s="31">
         <v>3.86E-4</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="48">
+        <v>2.43E-4</v>
+      </c>
+      <c r="D15" s="32">
         <v>3.2323</v>
       </c>
-      <c r="D15" s="33">
+      <c r="E15" s="33">
         <v>4.8799999999999999E-4</v>
       </c>
-      <c r="E15" s="34">
+      <c r="F15" s="34">
         <v>1.9799999999999999E-4</v>
       </c>
-      <c r="F15" s="35">
+      <c r="G15" s="35">
         <v>2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
       <c r="B16" s="31">
         <v>5.5800000000000001E-4</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="48">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="D16" s="32">
         <v>6.573976</v>
       </c>
-      <c r="D16" s="33">
+      <c r="E16" s="33">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="E16" s="34">
+      <c r="F16" s="34">
         <v>2.1499999999999999E-4</v>
       </c>
-      <c r="F16" s="35">
+      <c r="G16" s="35">
         <v>2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
       <c r="B17" s="31">
         <v>4.9299999999999995E-4</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="48">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="D17" s="32">
         <v>13.199204999999999</v>
       </c>
-      <c r="D17" s="33">
+      <c r="E17" s="33">
         <v>5.2099999999999998E-4</v>
       </c>
-      <c r="E17" s="34">
+      <c r="F17" s="34">
         <v>2.23E-4</v>
       </c>
-      <c r="F17" s="35">
+      <c r="G17" s="35">
         <v>2.61E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
       <c r="B18" s="31">
         <v>7.9500000000000003E-4</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="48">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="D18" s="32">
         <v>26.097432000000001</v>
       </c>
-      <c r="D18" s="33">
+      <c r="E18" s="33">
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="E18" s="34">
+      <c r="F18" s="34">
         <v>2.5300000000000002E-4</v>
       </c>
-      <c r="F18" s="35">
+      <c r="G18" s="35">
         <v>2.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
       <c r="B19" s="31">
         <v>6.0599999999999998E-4</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="48">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="D19" s="32">
         <v>52.617164000000002</v>
       </c>
-      <c r="D19" s="33">
+      <c r="E19" s="33">
         <v>7.8799999999999996E-4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="F19" s="34">
         <v>2.7900000000000001E-4</v>
       </c>
-      <c r="F19" s="35">
+      <c r="G19" s="35">
         <v>3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
       <c r="B20" s="31">
         <v>7.4700000000000005E-4</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="48">
+        <v>3.1500000000000001E-4</v>
+      </c>
+      <c r="D20" s="32">
         <v>103.960491</v>
       </c>
-      <c r="D20" s="33">
+      <c r="E20" s="33">
         <v>8.9400000000000005E-4</v>
       </c>
-      <c r="E20" s="34">
+      <c r="F20" s="34">
         <v>3.6499999999999998E-4</v>
       </c>
-      <c r="F20" s="35">
+      <c r="G20" s="35">
         <v>3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
       <c r="B21" s="31">
         <v>8.9800000000000004E-4</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="48">
+        <v>3.2600000000000001E-4</v>
+      </c>
+      <c r="D21" s="32">
         <v>210.829688</v>
       </c>
-      <c r="D21" s="33">
+      <c r="E21" s="33">
         <v>9.990000000000001E-4</v>
       </c>
-      <c r="E21" s="34">
+      <c r="F21" s="34">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="F21" s="35">
+      <c r="G21" s="35">
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
       <c r="B22" s="31">
         <v>9.9500000000000001E-4</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="48">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="D22" s="32">
         <v>422.41198500000002</v>
       </c>
-      <c r="D22" s="33">
+      <c r="E22" s="33">
         <v>1.005E-3</v>
       </c>
-      <c r="E22" s="34">
+      <c r="F22" s="34">
         <v>3.3799999999999998E-4</v>
       </c>
-      <c r="F22" s="35">
+      <c r="G22" s="35">
         <v>3.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
       <c r="B23" s="31">
         <v>8.8699999999999998E-4</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="48">
+        <v>3.6400000000000001E-4</v>
+      </c>
+      <c r="D23" s="32">
         <v>839.84382000000005</v>
       </c>
-      <c r="D23" s="33">
+      <c r="E23" s="33">
         <v>1.047E-3</v>
       </c>
-      <c r="E23" s="34">
+      <c r="F23" s="34">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="F23" s="35">
+      <c r="G23" s="35">
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
       <c r="B24" s="31">
         <v>9.810000000000001E-4</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="48">
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="D24" s="32">
         <v>1669.3900349999999</v>
       </c>
-      <c r="D24" s="33">
+      <c r="E24" s="33">
         <v>1.096E-3</v>
       </c>
-      <c r="E24" s="34">
+      <c r="F24" s="34">
         <v>3.8200000000000002E-4</v>
       </c>
-      <c r="F24" s="35">
+      <c r="G24" s="35">
         <v>3.68E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>50</v>
       </c>
       <c r="B25" s="31">
         <v>3.7450000000000001E-3</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33">
+      <c r="C25" s="48">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33">
         <v>5.4149999999999997E-3</v>
       </c>
-      <c r="E25" s="34">
+      <c r="F25" s="34">
         <v>1.0150000000000001E-3</v>
       </c>
-      <c r="F25" s="35">
+      <c r="G25" s="35">
         <v>1.013E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>100</v>
       </c>
       <c r="B26" s="31">
         <v>2.5101999999999999E-2</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33">
+      <c r="C26" s="48">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33">
         <v>5.6133000000000002E-2</v>
       </c>
-      <c r="E26" s="34">
+      <c r="F26" s="34">
         <v>5.6449999999999998E-3</v>
       </c>
-      <c r="F26" s="35">
+      <c r="G26" s="35">
         <v>5.8060000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>200</v>
       </c>
       <c r="B27" s="31">
         <v>0.18971199999999999</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33">
+      <c r="C27" s="48">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33">
         <v>0.80291699999999999</v>
       </c>
-      <c r="E27" s="34">
+      <c r="F27" s="34">
         <v>2.9419000000000001E-2</v>
       </c>
-      <c r="F27" s="35">
+      <c r="G27" s="35">
         <v>2.8844999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>300</v>
       </c>
       <c r="B28" s="31">
         <v>0.66096500000000002</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33">
+      <c r="C28" s="48">
+        <v>2.3564000000000002E-2</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33">
         <v>3.858644</v>
       </c>
-      <c r="E28" s="34">
+      <c r="F28" s="34">
         <v>8.3487000000000006E-2</v>
       </c>
-      <c r="F28" s="35">
+      <c r="G28" s="35">
         <v>8.6013999999999993E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>400</v>
       </c>
       <c r="B29" s="31">
         <v>1.6109629999999999</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33">
+      <c r="C29" s="48">
+        <v>3.9483999999999998E-2</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33">
         <v>11.656886</v>
       </c>
-      <c r="E29" s="34">
+      <c r="F29" s="34">
         <v>0.18509999999999999</v>
       </c>
-      <c r="F29" s="35">
+      <c r="G29" s="35">
         <v>0.18609300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>500</v>
       </c>
       <c r="B30" s="31">
         <v>2.866441</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33">
+      <c r="C30" s="48">
+        <v>6.2005999999999999E-2</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33">
         <v>27.810462999999999</v>
       </c>
-      <c r="E30" s="34">
+      <c r="F30" s="34">
         <v>0.34342600000000001</v>
       </c>
-      <c r="F30" s="35">
+      <c r="G30" s="35">
         <v>0.34356599999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>600</v>
       </c>
       <c r="B31" s="31">
         <v>4.9453829999999996</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33">
+      <c r="C31" s="48">
+        <v>8.9393E-2</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33">
         <v>57.154634999999999</v>
       </c>
-      <c r="E31" s="34">
+      <c r="F31" s="34">
         <v>0.56475900000000001</v>
       </c>
-      <c r="F31" s="35">
+      <c r="G31" s="35">
         <v>0.573577</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>700</v>
       </c>
       <c r="B32" s="31">
         <v>7.839461</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33">
+      <c r="C32" s="48">
+        <v>0.12270200000000001</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33">
         <v>107.534263</v>
       </c>
-      <c r="E32" s="34">
+      <c r="F32" s="34">
         <v>0.94322799999999996</v>
       </c>
-      <c r="F32" s="35">
+      <c r="G32" s="35">
         <v>0.90063899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>800</v>
       </c>
       <c r="B33" s="31">
         <v>12.228045</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33">
+      <c r="C33" s="48">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33">
         <v>184.694592</v>
       </c>
-      <c r="E33" s="34">
+      <c r="F33" s="34">
         <v>1.3360430000000001</v>
       </c>
-      <c r="F33" s="35">
+      <c r="G33" s="35">
         <v>1.278322</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>900</v>
       </c>
       <c r="B34" s="31">
         <v>17.304648</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33">
+      <c r="C34" s="48">
+        <v>0.20318</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33">
         <v>293.90905500000002</v>
       </c>
-      <c r="E34" s="34">
+      <c r="F34" s="34">
         <v>1.9742280000000001</v>
       </c>
-      <c r="F34" s="35">
+      <c r="G34" s="35">
         <v>1.7902819999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>1000</v>
       </c>
       <c r="B35" s="31">
         <v>23.83436</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33">
+      <c r="C35" s="48">
+        <v>0.24832899999999999</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33">
         <v>442.02523000000002</v>
       </c>
-      <c r="E35" s="34">
+      <c r="F35" s="34">
         <v>2.4134709999999999</v>
       </c>
-      <c r="F35" s="35">
+      <c r="G35" s="35">
         <v>2.4397669999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>1100</v>
       </c>
       <c r="B36" s="31">
         <v>34.130443</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33">
+      <c r="C36" s="48">
+        <v>0.30087799999999998</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33">
         <v>623.41987700000004</v>
       </c>
-      <c r="E36" s="34">
+      <c r="F36" s="34">
         <v>3.3645480000000001</v>
       </c>
-      <c r="F36" s="35">
+      <c r="G36" s="35">
         <v>3.19739</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>1200</v>
       </c>
       <c r="B37" s="31">
         <v>39.489030999999997</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33">
+      <c r="C37" s="48">
+        <v>0.37104599999999999</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33">
         <v>897.30282699999998</v>
       </c>
-      <c r="E37" s="34">
+      <c r="F37" s="34">
         <v>4.3351100000000002</v>
       </c>
-      <c r="F37" s="35">
+      <c r="G37" s="35">
         <v>4.196987</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>1300</v>
       </c>
       <c r="B38" s="31">
         <v>55.204082999999997</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33">
+      <c r="C38" s="48">
+        <v>0.41841200000000001</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33">
         <v>1225.0347770000001</v>
       </c>
-      <c r="E38" s="34">
+      <c r="F38" s="34">
         <v>5.2300820000000003</v>
       </c>
-      <c r="F38" s="35">
+      <c r="G38" s="35">
         <v>5.4860540000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>1400</v>
       </c>
       <c r="B39" s="31">
         <v>63.2667</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33">
+      <c r="C39" s="48">
+        <v>0.48522700000000002</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33">
         <v>1668.5790019999999</v>
       </c>
-      <c r="E39" s="34">
+      <c r="F39" s="34">
         <v>6.4716680000000002</v>
       </c>
-      <c r="F39" s="35">
+      <c r="G39" s="35">
         <v>6.7579200000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>1500</v>
       </c>
       <c r="B40" s="31">
         <v>80.420919999999995</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33">
+      <c r="C40" s="48">
+        <v>0.55691500000000005</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33">
         <v>2181.2324210000002</v>
       </c>
-      <c r="E40" s="34">
+      <c r="F40" s="34">
         <v>8.0553260000000009</v>
       </c>
-      <c r="F40" s="35">
+      <c r="G40" s="35">
         <v>8.1946290000000008</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>2000</v>
       </c>
       <c r="B41" s="31">
         <v>187.892188</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34">
+      <c r="C41" s="48">
+        <v>1.000421</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34">
         <v>19.013041999999999</v>
       </c>
-      <c r="F41" s="35">
+      <c r="G41" s="35">
         <v>19.602649</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>2500</v>
       </c>
       <c r="B42" s="31">
         <v>372.993157</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34">
+      <c r="C42" s="48">
+        <v>1.5836619999999999</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34">
         <v>39.820162000000003</v>
       </c>
-      <c r="F42" s="35">
+      <c r="G42" s="35">
         <v>39.404510000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>3000</v>
       </c>
       <c r="B43" s="31">
         <v>666.83173299999999</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34">
+      <c r="C43" s="48">
+        <v>2.3432780000000002</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34">
         <v>67.711551999999998</v>
       </c>
-      <c r="F43" s="35">
+      <c r="G43" s="35">
         <v>67.966812000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>3500</v>
       </c>
       <c r="B44" s="31">
         <v>1053.519554</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34">
+      <c r="C44" s="48">
+        <v>3.1953200000000002</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34">
         <v>109.319434</v>
       </c>
-      <c r="F44" s="35">
+      <c r="G44" s="35">
         <v>109.34219400000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>4000</v>
       </c>
       <c r="B45" s="31">
         <v>1596.8032000000001</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34">
+      <c r="C45" s="48">
+        <v>4.3022450000000001</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34">
         <v>169.11707100000001</v>
       </c>
-      <c r="F45" s="35">
+      <c r="G45" s="35">
         <v>168.96960999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>4500</v>
       </c>
       <c r="B46" s="31">
         <v>2307.7239880000002</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34">
+      <c r="C46" s="48">
+        <v>5.4018560000000004</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34">
         <v>244.82749999999999</v>
       </c>
-      <c r="F46" s="35">
+      <c r="G46" s="35">
         <v>244.915662</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>5000</v>
       </c>
       <c r="B47" s="31">
         <v>3213.4351919999999</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34">
+      <c r="C47" s="48">
+        <v>6.6002890000000001</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34">
         <v>342.76157599999999</v>
       </c>
-      <c r="F47" s="35">
+      <c r="G47" s="35">
         <v>340.10879999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>6000</v>
       </c>
       <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34">
+      <c r="C48" s="48">
+        <v>9.9807190000000006</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34">
         <v>598.46503399999995</v>
       </c>
-      <c r="F48" s="35">
+      <c r="G48" s="35">
         <v>599.92538100000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>7000</v>
       </c>
       <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34">
+      <c r="C49" s="48">
+        <v>14.302291</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34">
         <v>960.98487599999999</v>
       </c>
-      <c r="F49" s="35">
+      <c r="G49" s="35">
         <v>962.67481399999997</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>8000</v>
       </c>
       <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34">
+      <c r="C50" s="48">
+        <v>18.080445000000001</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34">
         <v>1484.0064130000001</v>
       </c>
-      <c r="F50" s="35">
+      <c r="G50" s="35">
         <v>1476.1766279999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>9000</v>
       </c>
       <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="48">
+        <v>23.792887</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>10000</v>
       </c>
       <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="48">
+        <v>29.346907999999999</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>20000</v>
       </c>
       <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="48">
+        <v>142.623774</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>30000</v>
       </c>
       <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>40000</v>
       </c>
       <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="48"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>50000</v>
       </c>
       <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="48"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>60000</v>
       </c>
       <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="48"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>70000</v>
       </c>
       <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="48"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>80000</v>
       </c>
       <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="48"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>90000</v>
       </c>
       <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="48"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>100000</v>
       </c>
       <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="48"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C62" s="50"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
@@ -8462,12 +9118,12 @@
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="21"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
@@ -8477,277 +9133,278 @@
       <c r="R67" s="20"/>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="20"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K68" s="23"/>
       <c r="L68" s="23"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="22"/>
       <c r="Q68" s="23"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="22"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R68" s="23"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="22"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K69" s="23"/>
       <c r="L69" s="23"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="22"/>
       <c r="Q69" s="23"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="22"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R69" s="23"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="22"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="23"/>
       <c r="L70" s="23"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="22"/>
       <c r="Q70" s="23"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="22"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R70" s="23"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="22"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="23"/>
       <c r="L71" s="23"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="22"/>
       <c r="Q71" s="23"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="22"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R71" s="23"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="22"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="23"/>
       <c r="L72" s="23"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="22"/>
       <c r="Q72" s="23"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="22"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K73" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="22"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L73" s="23"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="22"/>
       <c r="Q73" s="23"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="22"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K74" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="22"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L74" s="23"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="22"/>
       <c r="Q74" s="23"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="22"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K75" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="22"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L75" s="23"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="22"/>
       <c r="Q75" s="23"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="22"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K76" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="22"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L76" s="23"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="22"/>
       <c r="Q76" s="23"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="22"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K77" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="22"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L77" s="23"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="22"/>
       <c r="Q77" s="23"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="22"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K78" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="22"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L78" s="23"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="22"/>
       <c r="Q78" s="23"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="22"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K79" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="22"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L79" s="23"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="22"/>
       <c r="Q79" s="23"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="22"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K80" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="22"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L80" s="23"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="22"/>
       <c r="Q80" s="23"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="22"/>
-    </row>
-    <row r="81" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K81" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="22"/>
+    </row>
+    <row r="81" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L81" s="23"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="22"/>
       <c r="Q81" s="23"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="22"/>
-    </row>
-    <row r="82" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K82" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="22"/>
+    </row>
+    <row r="82" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L82" s="23"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="22"/>
       <c r="Q82" s="23"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="22"/>
-    </row>
-    <row r="83" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K83" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="22"/>
+    </row>
+    <row r="83" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L83" s="23"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="22"/>
       <c r="Q83" s="23"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="22"/>
-    </row>
-    <row r="84" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K84" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="22"/>
+    </row>
+    <row r="84" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L84" s="23"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="22"/>
       <c r="Q84" s="23"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="22"/>
-    </row>
-    <row r="85" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K85" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="22"/>
+    </row>
+    <row r="85" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L85" s="23"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="22"/>
       <c r="Q85" s="23"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="22"/>
-    </row>
-    <row r="86" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K86" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="22"/>
+    </row>
+    <row r="86" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L86" s="23"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="22"/>
       <c r="Q86" s="23"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="22"/>
-    </row>
-    <row r="87" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K87" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="22"/>
+    </row>
+    <row r="87" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L87" s="23"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="22"/>
       <c r="Q87" s="23"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="23"/>
-      <c r="T87" s="22"/>
-    </row>
-    <row r="88" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K88" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="22"/>
+    </row>
+    <row r="88" spans="12:21" x14ac:dyDescent="0.2">
       <c r="L88" s="23"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="22"/>
       <c r="Q88" s="23"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="23"/>
-      <c r="T88" s="22"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD70C89-40ED-5D40-B4C0-3ADD32CA3979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01D8F9-40EA-6448-B472-645683929DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20220" firstSheet="2" activeTab="2" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="33">
   <si>
     <t>nComp</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>bmapreplace [s]</t>
-  </si>
-  <si>
-    <t>kpg2 (old)</t>
-  </si>
-  <si>
-    <t>kpg2 (new) ???</t>
   </si>
 </sst>
 </file>
@@ -442,6 +436,9 @@
     <xf numFmtId="165" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,24 +787,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -2747,7 +2741,7 @@
       <c r="F44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="46">
         <v>43.229731000000001</v>
       </c>
       <c r="H44" s="37" t="s">
@@ -2768,7 +2762,7 @@
       <c r="M44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="53">
+      <c r="N44" s="46">
         <v>2.8056999999999999E-2</v>
       </c>
       <c r="O44" s="37">
@@ -3297,9 +3291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2176A5-75DF-A044-ABD9-8458655436F1}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3308,15 +3302,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -3371,13 +3365,13 @@
         <v>5.5000000000000002E-5</v>
       </c>
       <c r="F3" s="34">
-        <v>7.3999999999999996E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="G3" s="32">
         <v>5.5000000000000002E-5</v>
       </c>
       <c r="H3" s="35">
-        <v>7.6000000000000004E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
@@ -3401,13 +3395,13 @@
         <v>6.2000000000000003E-5</v>
       </c>
       <c r="F4" s="34">
-        <v>7.8999999999999996E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="G4" s="32">
         <v>6.8999999999999997E-5</v>
       </c>
       <c r="H4" s="35">
-        <v>7.7000000000000001E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -3431,13 +3425,13 @@
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="F5" s="34">
-        <v>8.6000000000000003E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="G5" s="32">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="H5" s="35">
-        <v>8.0000000000000007E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
@@ -3461,13 +3455,13 @@
         <v>9.6000000000000002E-5</v>
       </c>
       <c r="F6" s="34">
-        <v>9.7E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="G6" s="32">
         <v>7.6000000000000004E-5</v>
       </c>
       <c r="H6" s="35">
-        <v>9.0000000000000006E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
@@ -3491,13 +3485,13 @@
         <v>8.6000000000000003E-5</v>
       </c>
       <c r="F7" s="34">
-        <v>1.06E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="G7" s="32">
         <v>8.3999999999999995E-5</v>
       </c>
       <c r="H7" s="35">
-        <v>1.06E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
@@ -3521,13 +3515,13 @@
         <v>9.2999999999999997E-5</v>
       </c>
       <c r="F8" s="34">
-        <v>1.22E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="G8" s="32">
         <v>9.6000000000000002E-5</v>
       </c>
       <c r="H8" s="35">
-        <v>1.1400000000000001E-4</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
@@ -3551,13 +3545,13 @@
         <v>1E-4</v>
       </c>
       <c r="F9" s="34">
-        <v>1.27E-4</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="G9" s="32">
         <v>1.03E-4</v>
       </c>
       <c r="H9" s="35">
-        <v>1.18E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -3581,13 +3575,13 @@
         <v>1.08E-4</v>
       </c>
       <c r="F10" s="34">
-        <v>1.2899999999999999E-4</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="G10" s="32">
         <v>1.15E-4</v>
       </c>
       <c r="H10" s="35">
-        <v>1.3799999999999999E-4</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -3611,13 +3605,13 @@
         <v>1.16E-4</v>
       </c>
       <c r="F11" s="34">
-        <v>1.44E-4</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="G11" s="32">
         <v>1.18E-4</v>
       </c>
       <c r="H11" s="35">
-        <v>1.3899999999999999E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -3641,13 +3635,13 @@
         <v>1.4100000000000001E-4</v>
       </c>
       <c r="F12" s="34">
-        <v>1.47E-4</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="G12" s="32">
         <v>1.21E-4</v>
       </c>
       <c r="H12" s="35">
-        <v>1.4100000000000001E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -3671,13 +3665,13 @@
         <v>1.25E-4</v>
       </c>
       <c r="F13" s="34">
-        <v>1.6000000000000001E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G13" s="32">
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="H13" s="35">
-        <v>1.47E-4</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -3701,13 +3695,13 @@
         <v>1.4300000000000001E-4</v>
       </c>
       <c r="F14" s="34">
-        <v>1.74E-4</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="G14" s="32">
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="H14" s="35">
-        <v>1.6000000000000001E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
@@ -3731,13 +3725,13 @@
         <v>1.47E-4</v>
       </c>
       <c r="F15" s="34">
-        <v>1.7799999999999999E-4</v>
+        <v>6.3E-5</v>
       </c>
       <c r="G15" s="32">
         <v>1.5200000000000001E-4</v>
       </c>
       <c r="H15" s="35">
-        <v>1.7000000000000001E-4</v>
+        <v>7.6000000000000004E-5</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -3761,13 +3755,13 @@
         <v>1.5200000000000001E-4</v>
       </c>
       <c r="F16" s="34">
-        <v>1.92E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="G16" s="32">
         <v>1.5899999999999999E-4</v>
       </c>
       <c r="H16" s="35">
-        <v>1.7699999999999999E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -3791,13 +3785,13 @@
         <v>1.6100000000000001E-4</v>
       </c>
       <c r="F17" s="34">
-        <v>1.9900000000000001E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="G17" s="32">
         <v>1.66E-4</v>
       </c>
       <c r="H17" s="35">
-        <v>1.8599999999999999E-4</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3821,13 +3815,13 @@
         <v>1.76E-4</v>
       </c>
       <c r="F18" s="34">
-        <v>2.0900000000000001E-4</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="G18" s="32">
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="H18" s="35">
-        <v>1.9900000000000001E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3851,13 +3845,13 @@
         <v>1.9100000000000001E-4</v>
       </c>
       <c r="F19" s="34">
-        <v>2.23E-4</v>
+        <v>6.0999999999999999E-5</v>
       </c>
       <c r="G19" s="32">
         <v>1.9799999999999999E-4</v>
       </c>
       <c r="H19" s="35">
-        <v>2.1499999999999999E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3881,13 +3875,13 @@
         <v>1.9900000000000001E-4</v>
       </c>
       <c r="F20" s="34">
-        <v>2.41E-4</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="G20" s="32">
         <v>2.0100000000000001E-4</v>
       </c>
       <c r="H20" s="35">
-        <v>2.2900000000000001E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -3911,13 +3905,13 @@
         <v>2.12E-4</v>
       </c>
       <c r="F21" s="34">
-        <v>2.4899999999999998E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="G21" s="32">
         <v>2.2599999999999999E-4</v>
       </c>
       <c r="H21" s="35">
-        <v>2.4600000000000002E-4</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3941,13 +3935,13 @@
         <v>2.22E-4</v>
       </c>
       <c r="F22" s="34">
-        <v>2.34E-4</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="G22" s="32">
         <v>2.23E-4</v>
       </c>
       <c r="H22" s="35">
-        <v>2.6499999999999999E-4</v>
+        <v>7.1000000000000005E-5</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3971,13 +3965,13 @@
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="F23" s="34">
-        <v>2.5700000000000001E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="G23" s="32">
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H23" s="35">
-        <v>2.4399999999999999E-4</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -4001,13 +3995,13 @@
         <v>2.24E-4</v>
       </c>
       <c r="F24" s="34">
-        <v>2.8699999999999998E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="G24" s="32">
         <v>2.5900000000000001E-4</v>
       </c>
       <c r="H24" s="35">
-        <v>2.31E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -4031,13 +4025,13 @@
         <v>2.1800000000000001E-4</v>
       </c>
       <c r="F25" s="34">
-        <v>3.4600000000000001E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="G25" s="32">
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="H25" s="35">
-        <v>2.52E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -4061,13 +4055,13 @@
         <v>5.0500000000000002E-4</v>
       </c>
       <c r="F26" s="34">
-        <v>7.0500000000000001E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="G26" s="32">
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="H26" s="35">
-        <v>5.5199999999999997E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -4091,13 +4085,13 @@
         <v>1.9659999999999999E-3</v>
       </c>
       <c r="F27" s="34">
-        <v>2.4030000000000002E-3</v>
+        <v>2.04E-4</v>
       </c>
       <c r="G27" s="32">
         <v>2.3050000000000002E-3</v>
       </c>
       <c r="H27" s="35">
-        <v>2.0690000000000001E-3</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -4121,13 +4115,13 @@
         <v>6.7809999999999997E-3</v>
       </c>
       <c r="F28" s="34">
-        <v>6.8539999999999998E-3</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="G28" s="32">
         <v>8.0269999999999994E-3</v>
       </c>
       <c r="H28" s="35">
-        <v>7.4869999999999997E-3</v>
+        <v>4.3600000000000003E-4</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -4151,13 +4145,13 @@
         <v>3.7853999999999999E-2</v>
       </c>
       <c r="F29" s="34">
-        <v>4.0223000000000002E-2</v>
+        <v>1.013E-3</v>
       </c>
       <c r="G29" s="32">
         <v>3.7812999999999999E-2</v>
       </c>
       <c r="H29" s="35">
-        <v>3.8391000000000002E-2</v>
+        <v>1.049E-3</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -4181,13 +4175,13 @@
         <v>0.153921</v>
       </c>
       <c r="F30" s="34">
-        <v>0.16123899999999999</v>
+        <v>2.0709999999999999E-3</v>
       </c>
       <c r="G30" s="32">
         <v>0.153999</v>
       </c>
       <c r="H30" s="35">
-        <v>0.15942899999999999</v>
+        <v>2.1050000000000001E-3</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -4211,13 +4205,13 @@
         <v>0.33885900000000002</v>
       </c>
       <c r="F31" s="34">
-        <v>0.35604799999999998</v>
+        <v>4.0549999999999996E-3</v>
       </c>
       <c r="G31" s="32">
         <v>0.33807599999999999</v>
       </c>
       <c r="H31" s="35">
-        <v>0.348134</v>
+        <v>4.0350000000000004E-3</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4241,13 +4235,13 @@
         <v>0.62050899999999998</v>
       </c>
       <c r="F32" s="34">
-        <v>0.66625999999999996</v>
+        <v>5.7949999999999998E-3</v>
       </c>
       <c r="G32" s="32">
         <v>0.62852200000000003</v>
       </c>
       <c r="H32" s="35">
-        <v>0.64418900000000001</v>
+        <v>6.2490000000000002E-3</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -4271,13 +4265,13 @@
         <v>1.004059</v>
       </c>
       <c r="F33" s="34">
-        <v>1.0645290000000001</v>
+        <v>8.6049999999999998E-3</v>
       </c>
       <c r="G33" s="32">
         <v>0.99996499999999999</v>
       </c>
       <c r="H33" s="35">
-        <v>1.0464929999999999</v>
+        <v>8.2690000000000003E-3</v>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
@@ -4301,13 +4295,13 @@
         <v>1.6381429999999999</v>
       </c>
       <c r="F34" s="34">
-        <v>1.6802509999999999</v>
+        <v>1.0681E-2</v>
       </c>
       <c r="G34" s="32">
         <v>1.5231429999999999</v>
       </c>
       <c r="H34" s="35">
-        <v>1.561661</v>
+        <v>9.9100000000000004E-3</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -4331,13 +4325,13 @@
         <v>4.854133</v>
       </c>
       <c r="F35" s="34">
-        <v>5.403994</v>
+        <v>1.788E-2</v>
       </c>
       <c r="G35" s="32">
         <v>4.7965840000000002</v>
       </c>
       <c r="H35" s="35">
-        <v>5.0933679999999999</v>
+        <v>1.6431999999999999E-2</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -4361,13 +4355,13 @@
         <v>30.138971999999999</v>
       </c>
       <c r="F36" s="34">
-        <v>35.904749000000002</v>
+        <v>4.8915E-2</v>
       </c>
       <c r="G36" s="32">
         <v>30.722657999999999</v>
       </c>
       <c r="H36" s="35">
-        <v>35.060893999999998</v>
+        <v>4.1002999999999998E-2</v>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -4387,10 +4381,18 @@
         <v>0.10638400000000001</v>
       </c>
       <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="35"/>
+      <c r="E37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
@@ -4899,38 +4901,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="46" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -7618,7 +7620,7 @@
       <c r="F45" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="53"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="37" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8202,18 +8204,18 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -8236,13 +8238,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
@@ -8267,11 +8266,8 @@
       <c r="H3" s="35">
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="I3" s="1">
-        <v>1.7699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -8296,11 +8292,8 @@
       <c r="H4" s="35">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="I4" s="1">
-        <v>2.1800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -8325,11 +8318,8 @@
       <c r="H5" s="35">
         <v>8.8999999999999995E-5</v>
       </c>
-      <c r="I5" s="1">
-        <v>2.5700000000000001E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -8354,11 +8344,8 @@
       <c r="H6" s="35">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="1">
-        <v>3.1399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -8383,11 +8370,8 @@
       <c r="H7" s="35">
         <v>1.16E-4</v>
       </c>
-      <c r="I7" s="1">
-        <v>3.6900000000000002E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
@@ -8412,11 +8396,8 @@
       <c r="H8" s="35">
         <v>1.27E-4</v>
       </c>
-      <c r="I8" s="1">
-        <v>4.4200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
@@ -8441,11 +8422,8 @@
       <c r="H9" s="35">
         <v>1.4100000000000001E-4</v>
       </c>
-      <c r="I9" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -8470,11 +8448,8 @@
       <c r="H10" s="35">
         <v>1.54E-4</v>
       </c>
-      <c r="I10" s="1">
-        <v>5.8399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
@@ -8499,11 +8474,8 @@
       <c r="H11" s="35">
         <v>1.6799999999999999E-4</v>
       </c>
-      <c r="I11" s="1">
-        <v>6.5399999999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -8528,11 +8500,8 @@
       <c r="H12" s="35">
         <v>1.85E-4</v>
       </c>
-      <c r="I12" s="1">
-        <v>7.6999999999999996E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -8557,11 +8526,8 @@
       <c r="H13" s="35">
         <v>2.0100000000000001E-4</v>
       </c>
-      <c r="I13" s="1">
-        <v>9.0899999999999998E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
@@ -8586,11 +8552,8 @@
       <c r="H14" s="35">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="I14" s="1">
-        <v>9.8400000000000007E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
@@ -8615,11 +8578,8 @@
       <c r="H15" s="35">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="I15" s="1">
-        <v>1.109E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
@@ -8644,11 +8604,8 @@
       <c r="H16" s="35">
         <v>2.4800000000000001E-4</v>
       </c>
-      <c r="I16" s="1">
-        <v>1.268E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
@@ -8673,11 +8630,8 @@
       <c r="H17" s="35">
         <v>2.61E-4</v>
       </c>
-      <c r="I17" s="1">
-        <v>1.3760000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
@@ -8702,11 +8656,8 @@
       <c r="H18" s="35">
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.5430000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
@@ -8731,11 +8682,8 @@
       <c r="H19" s="35">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="I19" s="1">
-        <v>1.7489999999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
@@ -8760,11 +8708,8 @@
       <c r="H20" s="35">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="I20" s="1">
-        <v>1.9120000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
@@ -8789,11 +8734,8 @@
       <c r="H21" s="35">
         <v>3.5799999999999997E-4</v>
       </c>
-      <c r="I21" s="1">
-        <v>1.8710000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
@@ -8818,11 +8760,8 @@
       <c r="H22" s="35">
         <v>3.3599999999999998E-4</v>
       </c>
-      <c r="I22" s="1">
-        <v>2.039E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
@@ -8847,11 +8786,8 @@
       <c r="H23" s="35">
         <v>3.5E-4</v>
       </c>
-      <c r="I23" s="1">
-        <v>2.3089999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
@@ -8876,11 +8812,8 @@
       <c r="H24" s="35">
         <v>3.68E-4</v>
       </c>
-      <c r="I24" s="1">
-        <v>2.5119999999999999E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>50</v>
       </c>
@@ -8903,11 +8836,8 @@
       <c r="H25" s="35">
         <v>1.013E-3</v>
       </c>
-      <c r="I25" s="1">
-        <v>1.0791E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>100</v>
       </c>
@@ -8930,11 +8860,8 @@
       <c r="H26" s="35">
         <v>5.8060000000000004E-3</v>
       </c>
-      <c r="I26" s="1">
-        <v>0.111968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>200</v>
       </c>
@@ -8957,11 +8884,8 @@
       <c r="H27" s="35">
         <v>2.8844999999999999E-2</v>
       </c>
-      <c r="I27" s="1">
-        <v>1.4823029999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>300</v>
       </c>
@@ -8984,11 +8908,8 @@
       <c r="H28" s="35">
         <v>8.6013999999999993E-2</v>
       </c>
-      <c r="I28" s="1">
-        <v>6.9313690000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>400</v>
       </c>
@@ -9011,11 +8932,8 @@
       <c r="H29" s="35">
         <v>0.18609300000000001</v>
       </c>
-      <c r="I29" s="1">
-        <v>20.721575999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>500</v>
       </c>
@@ -9038,11 +8956,8 @@
       <c r="H30" s="35">
         <v>0.34356599999999998</v>
       </c>
-      <c r="I30" s="1">
-        <v>49.226171000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>600</v>
       </c>
@@ -9064,7 +8979,7 @@
         <v>0.573577</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>700</v>
       </c>
@@ -9932,9 +9847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3:D19"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9943,15 +9858,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -10008,13 +9923,13 @@
         <v>5.7000000000000003E-5</v>
       </c>
       <c r="F3" s="34">
-        <v>7.2999999999999999E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="G3" s="32">
         <v>5.7000000000000003E-5</v>
       </c>
       <c r="H3" s="35">
-        <v>6.7000000000000002E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
@@ -10040,13 +9955,13 @@
         <v>6.3E-5</v>
       </c>
       <c r="F4" s="34">
-        <v>7.7999999999999999E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="G4" s="32">
         <v>6.0999999999999999E-5</v>
       </c>
       <c r="H4" s="35">
-        <v>7.2000000000000002E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -10072,13 +9987,13 @@
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="F5" s="34">
-        <v>1.07E-4</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="G5" s="32">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="H5" s="35">
-        <v>8.2000000000000001E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
@@ -10104,13 +10019,13 @@
         <v>7.7999999999999999E-5</v>
       </c>
       <c r="F6" s="34">
-        <v>9.6000000000000002E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="G6" s="32">
         <v>7.4999999999999993E-5</v>
       </c>
       <c r="H6" s="35">
-        <v>9.2E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
@@ -10136,13 +10051,13 @@
         <v>8.7999999999999998E-5</v>
       </c>
       <c r="F7" s="34">
-        <v>1.05E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="G7" s="32">
         <v>8.2000000000000001E-5</v>
       </c>
       <c r="H7" s="35">
-        <v>9.8999999999999994E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
@@ -10168,13 +10083,13 @@
         <v>1.2899999999999999E-4</v>
       </c>
       <c r="F8" s="34">
-        <v>1.1400000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G8" s="32">
         <v>9.1000000000000003E-5</v>
       </c>
       <c r="H8" s="35">
-        <v>1.11E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
@@ -10200,13 +10115,13 @@
         <v>1.03E-4</v>
       </c>
       <c r="F9" s="34">
-        <v>1.3100000000000001E-4</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="G9" s="32">
         <v>1.02E-4</v>
       </c>
       <c r="H9" s="35">
-        <v>1.1400000000000001E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -10232,13 +10147,13 @@
         <v>1.08E-4</v>
       </c>
       <c r="F10" s="34">
-        <v>1.35E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="G10" s="32">
         <v>1.08E-4</v>
       </c>
       <c r="H10" s="35">
-        <v>1.2999999999999999E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -10264,13 +10179,13 @@
         <v>1.21E-4</v>
       </c>
       <c r="F11" s="34">
-        <v>1.46E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="G11" s="32">
         <v>1.22E-4</v>
       </c>
       <c r="H11" s="35">
-        <v>1.36E-4</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -10296,13 +10211,13 @@
         <v>1.22E-4</v>
       </c>
       <c r="F12" s="34">
-        <v>1.5200000000000001E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G12" s="32">
         <v>1.26E-4</v>
       </c>
       <c r="H12" s="35">
-        <v>1.47E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -10328,13 +10243,13 @@
         <v>1.3100000000000001E-4</v>
       </c>
       <c r="F13" s="34">
-        <v>1.66E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="G13" s="32">
         <v>1.34E-4</v>
       </c>
       <c r="H13" s="35">
-        <v>1.4999999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -10360,13 +10275,13 @@
         <v>1.3799999999999999E-4</v>
       </c>
       <c r="F14" s="34">
-        <v>1.7200000000000001E-4</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="G14" s="32">
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="H14" s="35">
-        <v>1.64E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
@@ -10392,13 +10307,13 @@
         <v>1.46E-4</v>
       </c>
       <c r="F15" s="34">
-        <v>1.8200000000000001E-4</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="G15" s="32">
         <v>1.47E-4</v>
       </c>
       <c r="H15" s="35">
-        <v>1.6899999999999999E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -10424,13 +10339,13 @@
         <v>1.6200000000000001E-4</v>
       </c>
       <c r="F16" s="34">
-        <v>1.9599999999999999E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="G16" s="32">
         <v>1.55E-4</v>
       </c>
       <c r="H16" s="35">
-        <v>1.8000000000000001E-4</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -10456,13 +10371,13 @@
         <v>1.64E-4</v>
       </c>
       <c r="F17" s="34">
-        <v>2.03E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="G17" s="32">
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H17" s="35">
-        <v>1.9100000000000001E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -10488,13 +10403,13 @@
         <v>1.7200000000000001E-4</v>
       </c>
       <c r="F18" s="34">
-        <v>2.0799999999999999E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="G18" s="32">
         <v>1.7200000000000001E-4</v>
       </c>
       <c r="H18" s="35">
-        <v>2.0000000000000001E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -10520,13 +10435,13 @@
         <v>1.9100000000000001E-4</v>
       </c>
       <c r="F19" s="34">
-        <v>2.4499999999999999E-4</v>
+        <v>6.7000000000000002E-5</v>
       </c>
       <c r="G19" s="32">
         <v>1.83E-4</v>
       </c>
       <c r="H19" s="35">
-        <v>2.0900000000000001E-4</v>
+        <v>6.0999999999999999E-5</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -10550,13 +10465,13 @@
         <v>1.9699999999999999E-4</v>
       </c>
       <c r="F20" s="34">
-        <v>2.43E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="G20" s="32">
         <v>1.9599999999999999E-4</v>
       </c>
       <c r="H20" s="35">
-        <v>2.31E-4</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
@@ -10580,13 +10495,13 @@
         <v>2.1900000000000001E-4</v>
       </c>
       <c r="F21" s="34">
-        <v>2.52E-4</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="G21" s="32">
         <v>1.8599999999999999E-4</v>
       </c>
       <c r="H21" s="35">
-        <v>2.34E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -10610,13 +10525,13 @@
         <v>2.0699999999999999E-4</v>
       </c>
       <c r="F22" s="34">
-        <v>2.7099999999999997E-4</v>
+        <v>7.1000000000000005E-5</v>
       </c>
       <c r="G22" s="32">
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="H22" s="35">
-        <v>2.7E-4</v>
+        <v>6.0999999999999999E-5</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -10640,13 +10555,13 @@
         <v>2.04E-4</v>
       </c>
       <c r="F23" s="34">
-        <v>2.8200000000000002E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="G23" s="32">
         <v>1.94E-4</v>
       </c>
       <c r="H23" s="35">
-        <v>2.7500000000000002E-4</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -10670,13 +10585,13 @@
         <v>2.13E-4</v>
       </c>
       <c r="F24" s="34">
-        <v>2.99E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="G24" s="32">
         <v>2.02E-4</v>
       </c>
       <c r="H24" s="35">
-        <v>2.8200000000000002E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -10700,13 +10615,13 @@
         <v>2.41E-4</v>
       </c>
       <c r="F25" s="34">
-        <v>3.1399999999999999E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="G25" s="32">
         <v>2.23E-4</v>
       </c>
       <c r="H25" s="35">
-        <v>3.0299999999999999E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -10730,13 +10645,13 @@
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="F26" s="34">
-        <v>6.9300000000000004E-4</v>
+        <v>9.8999999999999994E-5</v>
       </c>
       <c r="G26" s="32">
         <v>4.9700000000000005E-4</v>
       </c>
       <c r="H26" s="35">
-        <v>6.7000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -10760,13 +10675,13 @@
         <v>1.9449999999999999E-3</v>
       </c>
       <c r="F27" s="34">
-        <v>2.477E-3</v>
+        <v>2.1100000000000001E-4</v>
       </c>
       <c r="G27" s="32">
         <v>1.8469999999999999E-3</v>
       </c>
       <c r="H27" s="35">
-        <v>2.4009999999999999E-3</v>
+        <v>2.13E-4</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -10790,13 +10705,13 @@
         <v>6.7520000000000002E-3</v>
       </c>
       <c r="F28" s="34">
-        <v>7.9649999999999999E-3</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="G28" s="32">
         <v>6.6150000000000002E-3</v>
       </c>
       <c r="H28" s="35">
-        <v>6.8890000000000002E-3</v>
+        <v>4.0299999999999998E-4</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -10820,13 +10735,13 @@
         <v>3.9057000000000001E-2</v>
       </c>
       <c r="F29" s="34">
-        <v>4.0804E-2</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="G29" s="32">
         <v>3.9286000000000001E-2</v>
       </c>
       <c r="H29" s="35">
-        <v>4.0336999999999998E-2</v>
+        <v>9.9400000000000009E-4</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -10850,13 +10765,13 @@
         <v>0.153363</v>
       </c>
       <c r="F30" s="34">
-        <v>0.16098499999999999</v>
+        <v>2.1050000000000001E-3</v>
       </c>
       <c r="G30" s="32">
         <v>0.15382799999999999</v>
       </c>
       <c r="H30" s="35">
-        <v>0.160828</v>
+        <v>2.1380000000000001E-3</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -10880,13 +10795,13 @@
         <v>0.338204</v>
       </c>
       <c r="F31" s="34">
-        <v>0.34566799999999998</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="G31" s="32">
         <v>0.33998800000000001</v>
       </c>
       <c r="H31" s="35">
-        <v>0.34969800000000001</v>
+        <v>3.8739999999999998E-3</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -10910,13 +10825,13 @@
         <v>0.62710299999999997</v>
       </c>
       <c r="F32" s="34">
-        <v>0.64771199999999995</v>
+        <v>5.7970000000000001E-3</v>
       </c>
       <c r="G32" s="32">
         <v>0.62682599999999999</v>
       </c>
       <c r="H32" s="35">
-        <v>0.64329400000000003</v>
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
@@ -10940,13 +10855,13 @@
         <v>0.99151</v>
       </c>
       <c r="F33" s="34">
-        <v>1.036419</v>
+        <v>7.8720000000000005E-3</v>
       </c>
       <c r="G33" s="32">
         <v>1.0069250000000001</v>
       </c>
       <c r="H33" s="35">
-        <v>1.019903</v>
+        <v>8.8579999999999996E-3</v>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
@@ -10970,13 +10885,13 @@
         <v>1.488119</v>
       </c>
       <c r="F34" s="34">
-        <v>1.552557</v>
+        <v>9.4669999999999997E-3</v>
       </c>
       <c r="G34" s="32">
         <v>1.5081850000000001</v>
       </c>
       <c r="H34" s="35">
-        <v>1.5404009999999999</v>
+        <v>9.1900000000000003E-3</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -11000,13 +10915,13 @@
         <v>4.7911840000000003</v>
       </c>
       <c r="F35" s="34">
-        <v>5.7230730000000003</v>
+        <v>1.7256000000000001E-2</v>
       </c>
       <c r="G35" s="32">
         <v>4.3984449999999997</v>
       </c>
       <c r="H35" s="35">
-        <v>4.4438459999999997</v>
+        <v>1.8296E-2</v>
       </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
@@ -11030,13 +10945,13 @@
         <v>33.899818000000003</v>
       </c>
       <c r="F36" s="34">
-        <v>39.584784999999997</v>
+        <v>4.1429000000000001E-2</v>
       </c>
       <c r="G36" s="32">
         <v>31.583176999999999</v>
       </c>
       <c r="H36" s="35">
-        <v>31.749193000000002</v>
+        <v>4.5405000000000001E-2</v>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -11561,11 +11476,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F858619-4034-6D4B-AE88-CC326C3FA02F}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11578,38 +11493,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="46" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -11701,7 +11616,9 @@
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="35" t="s">
         <v>21</v>
       </c>
@@ -11711,12 +11628,20 @@
       <c r="J3" s="41">
         <v>4.4200000000000001E-4</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="32"/>
+      <c r="K3" s="32">
+        <v>3.3035000000000002E-2</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="32">
+        <v>1.2030000000000001E-3</v>
+      </c>
       <c r="O3" s="35">
-        <v>2.313E-3</v>
+        <v>7.7499999999999997E-4</v>
       </c>
       <c r="P3" s="31">
         <v>2.5999999999999998E-5</v>
@@ -11770,12 +11695,16 @@
       <c r="J4" s="41">
         <v>5.1599999999999997E-4</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="32">
+        <v>5.9811000000000003E-2</v>
+      </c>
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
-      <c r="N4" s="32"/>
+      <c r="N4" s="32">
+        <v>1.616E-3</v>
+      </c>
       <c r="O4" s="35">
-        <v>2.7910000000000001E-3</v>
+        <v>9.7099999999999997E-4</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="32"/>
@@ -11809,12 +11738,16 @@
       <c r="J5" s="41">
         <v>6.69E-4</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="32">
+        <v>0.116274</v>
+      </c>
       <c r="L5" s="33"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="32"/>
+      <c r="N5" s="32">
+        <v>2.1069999999999999E-3</v>
+      </c>
       <c r="O5" s="35">
-        <v>3.7680000000000001E-3</v>
+        <v>1.294E-3</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="32"/>
@@ -11848,12 +11781,16 @@
       <c r="J6" s="41">
         <v>7.45E-4</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="32">
+        <v>0.25215599999999999</v>
+      </c>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="32"/>
+      <c r="N6" s="32">
+        <v>2.6849999999999999E-3</v>
+      </c>
       <c r="O6" s="35">
-        <v>5.4070000000000003E-3</v>
+        <v>1.686E-3</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
@@ -11887,12 +11824,16 @@
       <c r="J7" s="41">
         <v>8.43E-4</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="32">
+        <v>0.54892799999999997</v>
+      </c>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="32"/>
+      <c r="N7" s="32">
+        <v>3.4810000000000002E-3</v>
+      </c>
       <c r="O7" s="35">
-        <v>6.2570000000000004E-3</v>
+        <v>2.101E-3</v>
       </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="32"/>
@@ -11926,12 +11867,16 @@
       <c r="J8" s="41">
         <v>1.0369999999999999E-3</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="32">
+        <v>1.230912</v>
+      </c>
       <c r="L8" s="33"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="32"/>
+      <c r="N8" s="32">
+        <v>4.8929999999999998E-3</v>
+      </c>
       <c r="O8" s="35">
-        <v>6.9290000000000003E-3</v>
+        <v>2.3860000000000001E-3</v>
       </c>
       <c r="P8" s="31">
         <v>3.4999999999999997E-5</v>
@@ -11985,12 +11930,16 @@
       <c r="J9" s="41">
         <v>1.175E-3</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="32">
+        <v>2.6077949999999999</v>
+      </c>
       <c r="L9" s="33"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="32"/>
+      <c r="N9" s="32">
+        <v>5.5339999999999999E-3</v>
+      </c>
       <c r="O9" s="35">
-        <v>8.1290000000000008E-3</v>
+        <v>2.8960000000000001E-3</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="32"/>
@@ -12024,12 +11973,16 @@
       <c r="J10" s="41">
         <v>1.402E-3</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="32">
+        <v>5.218064</v>
+      </c>
       <c r="L10" s="33"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="32"/>
+      <c r="N10" s="32">
+        <v>6.9020000000000001E-3</v>
+      </c>
       <c r="O10" s="35">
-        <v>9.4070000000000004E-3</v>
+        <v>3.663E-3</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="32"/>
@@ -12063,12 +12016,16 @@
       <c r="J11" s="41">
         <v>1.511E-3</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="32">
+        <v>11.195573</v>
+      </c>
       <c r="L11" s="33"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="32"/>
+      <c r="N11" s="32">
+        <v>7.8569999999999994E-3</v>
+      </c>
       <c r="O11" s="35">
-        <v>9.8119999999999995E-3</v>
+        <v>4.0130000000000001E-3</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
@@ -12102,12 +12059,16 @@
       <c r="J12" s="41">
         <v>1.689E-3</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="32">
+        <v>23.495379</v>
+      </c>
       <c r="L12" s="33"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="32"/>
+      <c r="N12" s="32">
+        <v>9.2069999999999999E-3</v>
+      </c>
       <c r="O12" s="35">
-        <v>1.2439E-2</v>
+        <v>4.7809999999999997E-3</v>
       </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
@@ -12144,9 +12105,11 @@
       <c r="K13" s="32"/>
       <c r="L13" s="33"/>
       <c r="M13" s="34"/>
-      <c r="N13" s="32"/>
+      <c r="N13" s="32">
+        <v>9.724E-3</v>
+      </c>
       <c r="O13" s="35">
-        <v>1.4759E-2</v>
+        <v>5.2480000000000001E-3</v>
       </c>
       <c r="P13" s="31">
         <v>5.1E-5</v>
@@ -12203,9 +12166,11 @@
       <c r="K14" s="32"/>
       <c r="L14" s="33"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="32"/>
+      <c r="N14" s="32">
+        <v>1.3032999999999999E-2</v>
+      </c>
       <c r="O14" s="35">
-        <v>1.7266E-2</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
@@ -12242,9 +12207,11 @@
       <c r="K15" s="32"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="32">
+        <v>1.3893000000000001E-2</v>
+      </c>
       <c r="O15" s="35">
-        <v>2.0178999999999999E-2</v>
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
@@ -12281,9 +12248,11 @@
       <c r="K16" s="32"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="32"/>
+      <c r="N16" s="32">
+        <v>1.5740000000000001E-2</v>
+      </c>
       <c r="O16" s="35">
-        <v>2.4035999999999998E-2</v>
+        <v>6.6410000000000002E-3</v>
       </c>
       <c r="P16" s="31"/>
       <c r="Q16" s="32"/>
@@ -12320,9 +12289,11 @@
       <c r="K17" s="32"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="32"/>
+      <c r="N17" s="32">
+        <v>1.8485000000000001E-2</v>
+      </c>
       <c r="O17" s="35">
-        <v>2.8093E-2</v>
+        <v>7.0689999999999998E-3</v>
       </c>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
@@ -12359,9 +12330,11 @@
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="32"/>
+      <c r="N18" s="32">
+        <v>2.1364000000000001E-2</v>
+      </c>
       <c r="O18" s="35">
-        <v>3.3147999999999997E-2</v>
+        <v>8.5360000000000002E-3</v>
       </c>
       <c r="P18" s="31">
         <v>6.9999999999999994E-5</v>
@@ -12418,9 +12391,11 @@
       <c r="K19" s="32"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="32"/>
+      <c r="N19" s="32">
+        <v>2.4752E-2</v>
+      </c>
       <c r="O19" s="35">
-        <v>3.8977999999999999E-2</v>
+        <v>9.4029999999999999E-3</v>
       </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="32"/>
@@ -12457,9 +12432,11 @@
       <c r="K20" s="32"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="32"/>
+      <c r="N20" s="32">
+        <v>2.8056999999999999E-2</v>
+      </c>
       <c r="O20" s="35">
-        <v>4.4954000000000001E-2</v>
+        <v>1.1468000000000001E-2</v>
       </c>
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
@@ -12496,9 +12473,11 @@
       <c r="K21" s="32"/>
       <c r="L21" s="33"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="32"/>
+      <c r="N21" s="32">
+        <v>3.4126999999999998E-2</v>
+      </c>
       <c r="O21" s="35">
-        <v>5.0717999999999999E-2</v>
+        <v>1.2629E-2</v>
       </c>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
@@ -12535,9 +12514,11 @@
       <c r="K22" s="32"/>
       <c r="L22" s="33"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="32"/>
+      <c r="N22" s="32">
+        <v>3.8848000000000001E-2</v>
+      </c>
       <c r="O22" s="35">
-        <v>5.9089999999999997E-2</v>
+        <v>1.3613E-2</v>
       </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
@@ -12574,9 +12555,11 @@
       <c r="K23" s="32"/>
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="32"/>
+      <c r="N23" s="32">
+        <v>4.3701999999999998E-2</v>
+      </c>
       <c r="O23" s="35">
-        <v>6.7311999999999997E-2</v>
+        <v>1.5349E-2</v>
       </c>
       <c r="P23" s="31">
         <v>9.2999999999999997E-5</v>
@@ -12633,9 +12616,11 @@
       <c r="K24" s="32"/>
       <c r="L24" s="33"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="32"/>
+      <c r="N24" s="32">
+        <v>4.9041000000000001E-2</v>
+      </c>
       <c r="O24" s="35">
-        <v>7.6780000000000001E-2</v>
+        <v>1.7219999999999999E-2</v>
       </c>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
@@ -12650,13 +12635,13 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B25" s="31">
-        <v>9.2813000000000007E-2</v>
+        <v>0.51972399999999996</v>
       </c>
       <c r="C25" s="41">
-        <v>6.5799999999999999E-3</v>
+        <v>2.0282999999999999E-2</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
@@ -12664,38 +12649,58 @@
       <c r="G25" s="32"/>
       <c r="H25" s="35"/>
       <c r="I25" s="31">
-        <v>4.2559E-2</v>
+        <v>0.22899600000000001</v>
       </c>
       <c r="J25" s="41">
-        <v>5.2339999999999999E-3</v>
+        <v>1.6490000000000001E-2</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="33"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="32"/>
+      <c r="N25" s="32">
+        <v>0.38505899999999998</v>
+      </c>
       <c r="O25" s="35">
-        <v>8.8202000000000003E-2</v>
-      </c>
-      <c r="P25" s="31"/>
+        <v>8.2033999999999996E-2</v>
+      </c>
+      <c r="P25" s="31">
+        <v>2.31E-4</v>
+      </c>
       <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="35"/>
+      <c r="R25" s="33">
+        <v>2.2659999999999998E-3</v>
+      </c>
+      <c r="S25" s="34">
+        <v>1.8599999999999999E-4</v>
+      </c>
+      <c r="T25" s="35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="U25" s="31">
+        <v>2.8E-5</v>
+      </c>
+      <c r="V25" s="32">
+        <v>3.4E-5</v>
+      </c>
+      <c r="W25" s="33">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="X25" s="34">
+        <v>1.85E-4</v>
+      </c>
+      <c r="Y25" s="35">
+        <v>6.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B26" s="31">
-        <v>0.51972399999999996</v>
+        <v>7.6490780000000003</v>
       </c>
       <c r="C26" s="41">
-        <v>2.0282999999999999E-2</v>
+        <v>0.124635</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
@@ -12703,56 +12708,58 @@
       <c r="G26" s="32"/>
       <c r="H26" s="35"/>
       <c r="I26" s="31">
-        <v>0.22899600000000001</v>
+        <v>3.3295349999999999</v>
       </c>
       <c r="J26" s="41">
-        <v>1.6490000000000001E-2</v>
+        <v>0.12381</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="32"/>
+      <c r="N26" s="32">
+        <v>8.9126910000000006</v>
+      </c>
       <c r="O26" s="35">
-        <v>0.52907599999999999</v>
+        <v>0.80606999999999995</v>
       </c>
       <c r="P26" s="31">
-        <v>2.31E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="Q26" s="32"/>
       <c r="R26" s="33">
-        <v>2.2659999999999998E-3</v>
+        <v>1.3723000000000001E-2</v>
       </c>
       <c r="S26" s="34">
-        <v>1.8599999999999999E-4</v>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="T26" s="35">
-        <v>2.0000000000000001E-4</v>
+        <v>6.5799999999999995E-4</v>
       </c>
       <c r="U26" s="31">
-        <v>2.8E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="V26" s="32">
-        <v>3.4E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="W26" s="33">
-        <v>1.7000000000000001E-4</v>
+        <v>6.3599999999999996E-4</v>
       </c>
       <c r="X26" s="34">
-        <v>1.85E-4</v>
+        <v>6.5499999999999998E-4</v>
       </c>
       <c r="Y26" s="35">
-        <v>6.0000000000000002E-5</v>
+        <v>1.05E-4</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27" s="31">
-        <v>7.6490780000000003</v>
+        <v>120.042945</v>
       </c>
       <c r="C27" s="41">
-        <v>0.124635</v>
+        <v>0.96290299999999995</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
@@ -12760,56 +12767,56 @@
       <c r="G27" s="32"/>
       <c r="H27" s="35"/>
       <c r="I27" s="31">
-        <v>3.3295349999999999</v>
+        <v>51.254257000000003</v>
       </c>
       <c r="J27" s="41">
-        <v>0.12381</v>
+        <v>0.95907500000000001</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
-      <c r="N27" s="32"/>
+      <c r="N27" s="32">
+        <v>246.241984</v>
+      </c>
       <c r="O27" s="35">
-        <v>11.241216</v>
+        <v>9.8366159999999994</v>
       </c>
       <c r="P27" s="31">
-        <v>8.3000000000000001E-4</v>
+        <v>3.2160000000000001E-3</v>
       </c>
       <c r="Q27" s="32"/>
       <c r="R27" s="33">
-        <v>1.3723000000000001E-2</v>
+        <v>8.8058999999999998E-2</v>
       </c>
       <c r="S27" s="34">
-        <v>6.3699999999999998E-4</v>
+        <v>2.343E-3</v>
       </c>
       <c r="T27" s="35">
-        <v>6.5799999999999995E-4</v>
+        <v>2.382E-3</v>
       </c>
       <c r="U27" s="31">
-        <v>5.1E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="V27" s="32">
-        <v>7.7999999999999999E-5</v>
+        <v>1.36E-4</v>
       </c>
       <c r="W27" s="33">
-        <v>6.3599999999999996E-4</v>
+        <v>2.2230000000000001E-3</v>
       </c>
       <c r="X27" s="34">
-        <v>6.5499999999999998E-4</v>
+        <v>2.3809999999999999E-3</v>
       </c>
       <c r="Y27" s="35">
-        <v>1.05E-4</v>
+        <v>2.2100000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>200</v>
-      </c>
-      <c r="B28" s="31">
-        <v>120.042945</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B28" s="31"/>
       <c r="C28" s="41">
-        <v>0.96290299999999995</v>
+        <v>3.5466009999999999</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
@@ -12817,65 +12824,63 @@
       <c r="G28" s="32"/>
       <c r="H28" s="35"/>
       <c r="I28" s="31">
-        <v>51.254257000000003</v>
+        <v>272.27429799999999</v>
       </c>
       <c r="J28" s="41">
-        <v>0.95907500000000001</v>
+        <v>3.8466990000000001</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="34"/>
       <c r="N28" s="32"/>
       <c r="O28" s="35">
-        <v>281.09063600000002</v>
+        <v>40.231332000000002</v>
       </c>
       <c r="P28" s="31">
-        <v>3.2160000000000001E-3</v>
+        <v>1.8371999999999999E-2</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="33">
-        <v>8.8058999999999998E-2</v>
+        <v>1.3161579999999999</v>
       </c>
       <c r="S28" s="34">
-        <v>2.343E-3</v>
+        <v>1.1082E-2</v>
       </c>
       <c r="T28" s="35">
-        <v>2.382E-3</v>
+        <v>1.1736999999999999E-2</v>
       </c>
       <c r="U28" s="31">
-        <v>7.7999999999999999E-5</v>
+        <v>2.03E-4</v>
       </c>
       <c r="V28" s="32">
-        <v>1.36E-4</v>
+        <v>2.8600000000000001E-4</v>
       </c>
       <c r="W28" s="33">
-        <v>2.2230000000000001E-3</v>
+        <v>1.1309E-2</v>
       </c>
       <c r="X28" s="34">
-        <v>2.3809999999999999E-3</v>
+        <v>1.1424E-2</v>
       </c>
       <c r="Y28" s="35">
-        <v>2.2100000000000001E-4</v>
+        <v>5.3700000000000004E-4</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="41">
-        <v>3.5466009999999999</v>
+        <v>8.276904</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35"/>
-      <c r="I29" s="31">
-        <v>272.27429799999999</v>
-      </c>
+      <c r="I29" s="31"/>
       <c r="J29" s="41">
-        <v>3.8466990000000001</v>
+        <v>8.4278840000000006</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="33"/>
@@ -12883,41 +12888,41 @@
       <c r="N29" s="32"/>
       <c r="O29" s="35"/>
       <c r="P29" s="31">
-        <v>1.8371999999999999E-2</v>
+        <v>5.9317000000000002E-2</v>
       </c>
       <c r="Q29" s="32"/>
       <c r="R29" s="33">
-        <v>1.3161579999999999</v>
+        <v>11.279191000000001</v>
       </c>
       <c r="S29" s="34">
-        <v>1.1082E-2</v>
+        <v>3.5202999999999998E-2</v>
       </c>
       <c r="T29" s="35">
-        <v>1.1736999999999999E-2</v>
+        <v>3.7241999999999997E-2</v>
       </c>
       <c r="U29" s="31">
-        <v>2.03E-4</v>
+        <v>4.1300000000000001E-4</v>
       </c>
       <c r="V29" s="32">
-        <v>2.8600000000000001E-4</v>
+        <v>5.7200000000000003E-4</v>
       </c>
       <c r="W29" s="33">
-        <v>1.1309E-2</v>
+        <v>3.8273000000000001E-2</v>
       </c>
       <c r="X29" s="34">
-        <v>1.1424E-2</v>
+        <v>3.9696000000000002E-2</v>
       </c>
       <c r="Y29" s="35">
-        <v>5.3700000000000004E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="41">
-        <v>8.276904</v>
+        <v>16.971371000000001</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
@@ -12926,7 +12931,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="31"/>
       <c r="J30" s="41">
-        <v>8.4278840000000006</v>
+        <v>16.979077</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="33"/>
@@ -12934,41 +12939,41 @@
       <c r="N30" s="32"/>
       <c r="O30" s="35"/>
       <c r="P30" s="31">
-        <v>5.9317000000000002E-2</v>
+        <v>0.13069500000000001</v>
       </c>
       <c r="Q30" s="32"/>
       <c r="R30" s="33">
-        <v>11.279191000000001</v>
+        <v>42.014606000000001</v>
       </c>
       <c r="S30" s="34">
-        <v>3.5202999999999998E-2</v>
+        <v>7.8506000000000006E-2</v>
       </c>
       <c r="T30" s="35">
-        <v>3.7241999999999997E-2</v>
+        <v>7.6338000000000003E-2</v>
       </c>
       <c r="U30" s="31">
-        <v>4.1300000000000001E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="V30" s="32">
-        <v>5.7200000000000003E-4</v>
+        <v>8.0900000000000004E-4</v>
       </c>
       <c r="W30" s="33">
-        <v>3.8273000000000001E-2</v>
+        <v>7.5379000000000002E-2</v>
       </c>
       <c r="X30" s="34">
-        <v>3.9696000000000002E-2</v>
+        <v>7.3265999999999998E-2</v>
       </c>
       <c r="Y30" s="35">
-        <v>9.7999999999999997E-4</v>
+        <v>1.3359999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="41">
-        <v>16.971371000000001</v>
+        <v>29.046769000000001</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
@@ -12977,7 +12982,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="31"/>
       <c r="J31" s="41">
-        <v>16.979077</v>
+        <v>30.385798000000001</v>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
@@ -12985,41 +12990,41 @@
       <c r="N31" s="32"/>
       <c r="O31" s="35"/>
       <c r="P31" s="31">
-        <v>0.13069500000000001</v>
+        <v>0.22454299999999999</v>
       </c>
       <c r="Q31" s="32"/>
       <c r="R31" s="33">
-        <v>42.014606000000001</v>
+        <v>104.487927</v>
       </c>
       <c r="S31" s="34">
-        <v>7.8506000000000006E-2</v>
+        <v>0.12934499999999999</v>
       </c>
       <c r="T31" s="35">
-        <v>7.6338000000000003E-2</v>
+        <v>0.130025</v>
       </c>
       <c r="U31" s="31">
-        <v>5.9699999999999998E-4</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="V31" s="32">
-        <v>8.0900000000000004E-4</v>
+        <v>1.1440000000000001E-3</v>
       </c>
       <c r="W31" s="33">
-        <v>7.5379000000000002E-2</v>
+        <v>0.13262099999999999</v>
       </c>
       <c r="X31" s="34">
-        <v>7.3265999999999998E-2</v>
+        <v>0.129354</v>
       </c>
       <c r="Y31" s="35">
-        <v>1.3359999999999999E-3</v>
+        <v>1.81E-3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="41">
-        <v>29.046769000000001</v>
+        <v>44.598782999999997</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
@@ -13028,7 +13033,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="31"/>
       <c r="J32" s="41">
-        <v>30.385798000000001</v>
+        <v>46.745635</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="33"/>
@@ -13036,41 +13041,41 @@
       <c r="N32" s="32"/>
       <c r="O32" s="35"/>
       <c r="P32" s="31">
-        <v>0.22454299999999999</v>
+        <v>0.35364499999999999</v>
       </c>
       <c r="Q32" s="32"/>
       <c r="R32" s="33">
-        <v>104.487927</v>
+        <v>209.443647</v>
       </c>
       <c r="S32" s="34">
-        <v>0.12934499999999999</v>
+        <v>0.19637399999999999</v>
       </c>
       <c r="T32" s="35">
-        <v>0.130025</v>
+        <v>0.20038600000000001</v>
       </c>
       <c r="U32" s="31">
-        <v>8.0999999999999996E-4</v>
+        <v>9.68E-4</v>
       </c>
       <c r="V32" s="32">
-        <v>1.1440000000000001E-3</v>
+        <v>1.5200000000000001E-3</v>
       </c>
       <c r="W32" s="33">
-        <v>0.13262099999999999</v>
+        <v>0.206875</v>
       </c>
       <c r="X32" s="34">
-        <v>0.129354</v>
+        <v>0.20899400000000001</v>
       </c>
       <c r="Y32" s="35">
-        <v>1.81E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="41">
-        <v>44.598782999999997</v>
+        <v>70.448982000000001</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
@@ -13079,49 +13084,31 @@
       <c r="H33" s="35"/>
       <c r="I33" s="31"/>
       <c r="J33" s="41">
-        <v>46.745635</v>
+        <v>68.285365999999996</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="33"/>
       <c r="M33" s="34"/>
       <c r="N33" s="32"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="31">
-        <v>0.35364499999999999</v>
-      </c>
+      <c r="P33" s="31"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="33">
-        <v>209.443647</v>
-      </c>
-      <c r="S33" s="34">
-        <v>0.19637399999999999</v>
-      </c>
-      <c r="T33" s="35">
-        <v>0.20038600000000001</v>
-      </c>
-      <c r="U33" s="31">
-        <v>9.68E-4</v>
-      </c>
-      <c r="V33" s="32">
-        <v>1.5200000000000001E-3</v>
-      </c>
-      <c r="W33" s="33">
-        <v>0.206875</v>
-      </c>
-      <c r="X33" s="34">
-        <v>0.20899400000000001</v>
-      </c>
-      <c r="Y33" s="35">
-        <v>3.9399999999999999E-3</v>
-      </c>
+      <c r="R33" s="33"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="35"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="41">
-        <v>70.448982000000001</v>
+        <v>99.572417999999999</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
@@ -13130,31 +13117,47 @@
       <c r="H34" s="35"/>
       <c r="I34" s="31"/>
       <c r="J34" s="41">
-        <v>68.285365999999996</v>
+        <v>103.047633</v>
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="33"/>
       <c r="M34" s="34"/>
       <c r="N34" s="32"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="31"/>
+      <c r="P34" s="31">
+        <v>1.4324870000000001</v>
+      </c>
       <c r="Q34" s="32"/>
       <c r="R34" s="33"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
+      <c r="S34" s="34">
+        <v>0.76894600000000002</v>
+      </c>
+      <c r="T34" s="35">
+        <v>0.78488899999999995</v>
+      </c>
+      <c r="U34" s="31">
+        <v>1.939E-3</v>
+      </c>
+      <c r="V34" s="32">
+        <v>3.5409999999999999E-3</v>
+      </c>
+      <c r="W34" s="33">
+        <v>0.84693600000000002</v>
+      </c>
+      <c r="X34" s="34">
+        <v>0.83301099999999995</v>
+      </c>
+      <c r="Y34" s="35">
+        <v>7.5430000000000002E-3</v>
+      </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="41">
-        <v>99.572417999999999</v>
+        <v>139.03720300000001</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
@@ -13163,7 +13166,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="31"/>
       <c r="J35" s="41">
-        <v>103.047633</v>
+        <v>137.947002</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="33"/>
@@ -13171,173 +13174,144 @@
       <c r="N35" s="32"/>
       <c r="O35" s="35"/>
       <c r="P35" s="31">
-        <v>1.4324870000000001</v>
+        <v>5.7851239999999997</v>
       </c>
       <c r="Q35" s="32"/>
       <c r="R35" s="33"/>
       <c r="S35" s="34">
-        <v>0.76894600000000002</v>
+        <v>3.2021199999999999</v>
       </c>
       <c r="T35" s="35">
-        <v>0.78488899999999995</v>
+        <v>3.2389929999999998</v>
       </c>
       <c r="U35" s="31">
-        <v>1.939E-3</v>
+        <v>3.852E-3</v>
       </c>
       <c r="V35" s="32">
-        <v>3.5409999999999999E-3</v>
+        <v>7.162E-3</v>
       </c>
       <c r="W35" s="33">
-        <v>0.84693600000000002</v>
+        <v>3.567259</v>
       </c>
       <c r="X35" s="34">
-        <v>0.83301099999999995</v>
+        <v>3.5445669999999998</v>
       </c>
       <c r="Y35" s="35">
-        <v>7.5430000000000002E-3</v>
+        <v>1.3786E-2</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="41">
-        <v>139.03720300000001</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="41">
-        <v>137.947002</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="31">
-        <v>5.7851239999999997</v>
-      </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="34">
-        <v>3.2021199999999999</v>
-      </c>
-      <c r="T36" s="35">
-        <v>3.2389929999999998</v>
-      </c>
-      <c r="U36" s="31">
-        <v>3.852E-3</v>
-      </c>
-      <c r="V36" s="32">
-        <v>7.162E-3</v>
-      </c>
-      <c r="W36" s="33">
-        <v>3.567259</v>
-      </c>
-      <c r="X36" s="34">
-        <v>3.5445669999999998</v>
-      </c>
-      <c r="Y36" s="35">
-        <v>1.3786E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A36" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="29"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
       <c r="Z39" s="22"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
       <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
       <c r="Z41" s="22"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
+      <c r="A42" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
@@ -13356,8 +13330,8 @@
       <c r="Z42" s="22"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>1</v>
+      <c r="A43" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
@@ -13376,8 +13350,8 @@
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>2</v>
+      <c r="A44" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -13396,8 +13370,8 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>8</v>
+      <c r="A45" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
@@ -13416,8 +13390,8 @@
       <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>7</v>
+      <c r="A46" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -13436,13 +13410,13 @@
       <c r="Z46" s="22"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>23</v>
+      <c r="A47" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
+      <c r="O47" s="23"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
@@ -13456,9 +13430,6 @@
       <c r="Z47" s="22"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -13667,8 +13638,8 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="23"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="23"/>
@@ -13681,8 +13652,8 @@
     </row>
     <row r="61" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
@@ -13715,37 +13686,20 @@
     </row>
     <row r="63" spans="12:26" x14ac:dyDescent="0.2">
       <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
-    </row>
-    <row r="64" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13763,8 +13717,8 @@
   <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O3" sqref="O3:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13777,38 +13731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="46" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -13902,13 +13856,13 @@
         <v>2.2900000000000001E-4</v>
       </c>
       <c r="F3" s="34">
-        <v>3.1500000000000001E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="G3" s="32">
         <v>2.3900000000000001E-4</v>
       </c>
       <c r="H3" s="35">
-        <v>3.59E-4</v>
+        <v>1.6100000000000001E-4</v>
       </c>
       <c r="I3" s="31">
         <v>8.7999999999999998E-5</v>
@@ -13923,13 +13877,13 @@
         <v>1.25E-4</v>
       </c>
       <c r="M3" s="34">
-        <v>3.1300000000000002E-4</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="N3" s="32">
         <v>1.21E-4</v>
       </c>
       <c r="O3" s="35">
-        <v>2.9500000000000001E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="P3" s="31">
         <v>2.5999999999999998E-5</v>
@@ -13977,13 +13931,13 @@
         <v>2.92E-4</v>
       </c>
       <c r="F4" s="34">
-        <v>3.7199999999999999E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="G4" s="32">
         <v>2.8899999999999998E-4</v>
       </c>
       <c r="H4" s="35">
-        <v>3.5399999999999999E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="I4" s="31">
         <v>1.1E-4</v>
@@ -13998,13 +13952,13 @@
         <v>1.37E-4</v>
       </c>
       <c r="M4" s="34">
-        <v>3.7800000000000003E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="N4" s="32">
         <v>1.3899999999999999E-4</v>
       </c>
       <c r="O4" s="35">
-        <v>3.5599999999999998E-4</v>
+        <v>1.56E-4</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="32"/>
@@ -14032,13 +13986,13 @@
         <v>3.7100000000000002E-4</v>
       </c>
       <c r="F5" s="34">
-        <v>4.6299999999999998E-4</v>
+        <v>1.85E-4</v>
       </c>
       <c r="G5" s="32">
         <v>3.7199999999999999E-4</v>
       </c>
       <c r="H5" s="35">
-        <v>4.3899999999999999E-4</v>
+        <v>1.83E-4</v>
       </c>
       <c r="I5" s="31">
         <v>1.15E-4</v>
@@ -14053,13 +14007,13 @@
         <v>1.5899999999999999E-4</v>
       </c>
       <c r="M5" s="34">
-        <v>4.5399999999999998E-4</v>
+        <v>1.95E-4</v>
       </c>
       <c r="N5" s="32">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="O5" s="35">
-        <v>4.4999999999999999E-4</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="32"/>
@@ -14087,13 +14041,13 @@
         <v>4.7899999999999999E-4</v>
       </c>
       <c r="F6" s="34">
-        <v>5.53E-4</v>
+        <v>2.14E-4</v>
       </c>
       <c r="G6" s="32">
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="H6" s="35">
-        <v>5.31E-4</v>
+        <v>2.13E-4</v>
       </c>
       <c r="I6" s="31">
         <v>1.4300000000000001E-4</v>
@@ -14108,13 +14062,13 @@
         <v>1.8799999999999999E-4</v>
       </c>
       <c r="M6" s="34">
-        <v>5.6700000000000001E-4</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="N6" s="32">
         <v>1.85E-4</v>
       </c>
       <c r="O6" s="35">
-        <v>5.2899999999999996E-4</v>
+        <v>2.1499999999999999E-4</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
@@ -14142,13 +14096,13 @@
         <v>5.6800000000000004E-4</v>
       </c>
       <c r="F7" s="34">
-        <v>6.8199999999999999E-4</v>
+        <v>2.5099999999999998E-4</v>
       </c>
       <c r="G7" s="32">
         <v>5.7600000000000001E-4</v>
       </c>
       <c r="H7" s="35">
-        <v>6.3400000000000001E-4</v>
+        <v>2.42E-4</v>
       </c>
       <c r="I7" s="31">
         <v>1.46E-4</v>
@@ -14163,13 +14117,13 @@
         <v>2.0900000000000001E-4</v>
       </c>
       <c r="M7" s="34">
-        <v>7.9699999999999997E-4</v>
+        <v>2.5300000000000002E-4</v>
       </c>
       <c r="N7" s="32">
         <v>2.7300000000000002E-4</v>
       </c>
       <c r="O7" s="35">
-        <v>6.3699999999999998E-4</v>
+        <v>2.33E-4</v>
       </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="32"/>
@@ -14197,13 +14151,13 @@
         <v>7.3200000000000001E-4</v>
       </c>
       <c r="F8" s="34">
-        <v>8.3199999999999995E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="G8" s="32">
         <v>6.8599999999999998E-4</v>
       </c>
       <c r="H8" s="35">
-        <v>7.3399999999999995E-4</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="I8" s="31">
         <v>1.6899999999999999E-4</v>
@@ -14218,13 +14172,13 @@
         <v>2.4499999999999999E-4</v>
       </c>
       <c r="M8" s="34">
-        <v>7.3399999999999995E-4</v>
+        <v>2.8699999999999998E-4</v>
       </c>
       <c r="N8" s="32">
         <v>2.5900000000000001E-4</v>
       </c>
       <c r="O8" s="35">
-        <v>8.1300000000000003E-4</v>
+        <v>2.5300000000000002E-4</v>
       </c>
       <c r="P8" s="31">
         <v>3.4999999999999997E-5</v>
@@ -14272,13 +14226,13 @@
         <v>9.1100000000000003E-4</v>
       </c>
       <c r="F9" s="34">
-        <v>8.8699999999999998E-4</v>
+        <v>3.3799999999999998E-4</v>
       </c>
       <c r="G9" s="32">
         <v>8.5599999999999999E-4</v>
       </c>
       <c r="H9" s="35">
-        <v>8.4699999999999999E-4</v>
+        <v>3.01E-4</v>
       </c>
       <c r="I9" s="31">
         <v>1.9000000000000001E-4</v>
@@ -14293,13 +14247,13 @@
         <v>2.7599999999999999E-4</v>
       </c>
       <c r="M9" s="34">
-        <v>9.1699999999999995E-4</v>
+        <v>3.2200000000000002E-4</v>
       </c>
       <c r="N9" s="32">
         <v>2.7300000000000002E-4</v>
       </c>
       <c r="O9" s="35">
-        <v>8.6600000000000002E-4</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="32"/>
@@ -14327,13 +14281,13 @@
         <v>9.9599999999999992E-4</v>
       </c>
       <c r="F10" s="34">
-        <v>9.8200000000000002E-4</v>
+        <v>3.5300000000000002E-4</v>
       </c>
       <c r="G10" s="32">
         <v>1.0859999999999999E-3</v>
       </c>
       <c r="H10" s="35">
-        <v>9.6900000000000003E-4</v>
+        <v>3.21E-4</v>
       </c>
       <c r="I10" s="31">
         <v>2.04E-4</v>
@@ -14348,13 +14302,13 @@
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="M10" s="34">
-        <v>1.0529999999999999E-3</v>
+        <v>3.5100000000000002E-4</v>
       </c>
       <c r="N10" s="32">
         <v>2.9799999999999998E-4</v>
       </c>
       <c r="O10" s="35">
-        <v>9.7099999999999997E-4</v>
+        <v>3.2600000000000001E-4</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="32"/>
@@ -14382,13 +14336,13 @@
         <v>1.137E-3</v>
       </c>
       <c r="F11" s="34">
-        <v>1.1529999999999999E-3</v>
+        <v>3.8200000000000002E-4</v>
       </c>
       <c r="G11" s="32">
         <v>1.189E-3</v>
       </c>
       <c r="H11" s="35">
-        <v>1.106E-3</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="I11" s="31">
         <v>2.2499999999999999E-4</v>
@@ -14403,13 +14357,13 @@
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="M11" s="34">
-        <v>1.1299999999999999E-3</v>
+        <v>3.7800000000000003E-4</v>
       </c>
       <c r="N11" s="32">
         <v>3.19E-4</v>
       </c>
       <c r="O11" s="35">
-        <v>1.091E-3</v>
+        <v>3.6600000000000001E-4</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
@@ -14437,13 +14391,13 @@
         <v>1.353E-3</v>
       </c>
       <c r="F12" s="34">
-        <v>1.271E-3</v>
+        <v>4.26E-4</v>
       </c>
       <c r="G12" s="32">
         <v>1.4170000000000001E-3</v>
       </c>
       <c r="H12" s="35">
-        <v>1.225E-3</v>
+        <v>4.1399999999999998E-4</v>
       </c>
       <c r="I12" s="31">
         <v>2.34E-4</v>
@@ -14458,13 +14412,13 @@
         <v>3.79E-4</v>
       </c>
       <c r="M12" s="34">
-        <v>1.286E-3</v>
+        <v>4.1800000000000002E-4</v>
       </c>
       <c r="N12" s="32">
         <v>3.4900000000000003E-4</v>
       </c>
       <c r="O12" s="35">
-        <v>1.2459999999999999E-3</v>
+        <v>3.9500000000000001E-4</v>
       </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
@@ -14492,13 +14446,13 @@
         <v>1.6260000000000001E-3</v>
       </c>
       <c r="F13" s="34">
-        <v>1.4499999999999999E-3</v>
+        <v>4.7699999999999999E-4</v>
       </c>
       <c r="G13" s="32">
         <v>1.604E-3</v>
       </c>
       <c r="H13" s="35">
-        <v>1.3810000000000001E-3</v>
+        <v>4.6299999999999998E-4</v>
       </c>
       <c r="I13" s="31">
         <v>2.7900000000000001E-4</v>
@@ -14513,13 +14467,13 @@
         <v>3.9300000000000001E-4</v>
       </c>
       <c r="M13" s="34">
-        <v>1.428E-3</v>
+        <v>4.6200000000000001E-4</v>
       </c>
       <c r="N13" s="32">
         <v>3.8499999999999998E-4</v>
       </c>
       <c r="O13" s="35">
-        <v>1.371E-3</v>
+        <v>4.3800000000000002E-4</v>
       </c>
       <c r="P13" s="31">
         <v>5.1E-5</v>
@@ -14567,13 +14521,13 @@
         <v>1.8600000000000001E-3</v>
       </c>
       <c r="F14" s="34">
-        <v>1.6069999999999999E-3</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="G14" s="32">
         <v>1.8990000000000001E-3</v>
       </c>
       <c r="H14" s="35">
-        <v>1.5150000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I14" s="31">
         <v>2.7900000000000001E-4</v>
@@ -14588,13 +14542,13 @@
         <v>4.2999999999999999E-4</v>
       </c>
       <c r="M14" s="34">
-        <v>1.5809999999999999E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="N14" s="32">
         <v>4.37E-4</v>
       </c>
       <c r="O14" s="35">
-        <v>1.614E-3</v>
+        <v>4.73E-4</v>
       </c>
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
@@ -14622,13 +14576,13 @@
         <v>2.16E-3</v>
       </c>
       <c r="F15" s="34">
-        <v>1.774E-3</v>
+        <v>5.7600000000000001E-4</v>
       </c>
       <c r="G15" s="32">
         <v>2.1480000000000002E-3</v>
       </c>
       <c r="H15" s="35">
-        <v>1.7390000000000001E-3</v>
+        <v>5.3700000000000004E-4</v>
       </c>
       <c r="I15" s="31">
         <v>2.9999999999999997E-4</v>
@@ -14643,13 +14597,13 @@
         <v>4.7600000000000002E-4</v>
       </c>
       <c r="M15" s="34">
-        <v>1.7960000000000001E-3</v>
+        <v>5.71E-4</v>
       </c>
       <c r="N15" s="32">
         <v>4.7199999999999998E-4</v>
       </c>
       <c r="O15" s="35">
-        <v>1.727E-3</v>
+        <v>5.4600000000000004E-4</v>
       </c>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
@@ -14677,13 +14631,13 @@
         <v>2.4970000000000001E-3</v>
       </c>
       <c r="F16" s="34">
-        <v>1.9859999999999999E-3</v>
+        <v>6.0700000000000001E-4</v>
       </c>
       <c r="G16" s="32">
         <v>2.4910000000000002E-3</v>
       </c>
       <c r="H16" s="35">
-        <v>1.928E-3</v>
+        <v>5.7200000000000003E-4</v>
       </c>
       <c r="I16" s="31">
         <v>3.3E-4</v>
@@ -14698,13 +14652,13 @@
         <v>5.1099999999999995E-4</v>
       </c>
       <c r="M16" s="34">
-        <v>2.026E-3</v>
+        <v>5.9599999999999996E-4</v>
       </c>
       <c r="N16" s="32">
         <v>5.04E-4</v>
       </c>
       <c r="O16" s="35">
-        <v>1.936E-3</v>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="P16" s="31"/>
       <c r="Q16" s="32"/>
@@ -14732,13 +14686,13 @@
         <v>2.8419999999999999E-3</v>
       </c>
       <c r="F17" s="34">
-        <v>1.9980000000000002E-3</v>
+        <v>6.6200000000000005E-4</v>
       </c>
       <c r="G17" s="32">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="H17" s="35">
-        <v>1.8649999999999999E-3</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="I17" s="31">
         <v>3.4000000000000002E-4</v>
@@ -14753,13 +14707,13 @@
         <v>5.5800000000000001E-4</v>
       </c>
       <c r="M17" s="34">
-        <v>2.2590000000000002E-3</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="N17" s="32">
         <v>5.5500000000000005E-4</v>
       </c>
       <c r="O17" s="35">
-        <v>2.0890000000000001E-3</v>
+        <v>5.2300000000000003E-4</v>
       </c>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
@@ -14787,13 +14741,13 @@
         <v>2.7880000000000001E-3</v>
       </c>
       <c r="F18" s="34">
-        <v>2.0500000000000002E-3</v>
+        <v>7.1100000000000004E-4</v>
       </c>
       <c r="G18" s="32">
         <v>3.2550000000000001E-3</v>
       </c>
       <c r="H18" s="35">
-        <v>2.0630000000000002E-3</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="I18" s="31">
         <v>3.6900000000000002E-4</v>
@@ -14808,13 +14762,13 @@
         <v>6.0700000000000001E-4</v>
       </c>
       <c r="M18" s="34">
-        <v>2.1450000000000002E-3</v>
+        <v>7.0600000000000003E-4</v>
       </c>
       <c r="N18" s="32">
         <v>6.0499999999999996E-4</v>
       </c>
       <c r="O18" s="35">
-        <v>2.006E-3</v>
+        <v>5.7499999999999999E-4</v>
       </c>
       <c r="P18" s="31">
         <v>6.9999999999999994E-5</v>
@@ -14862,13 +14816,13 @@
         <v>3.186E-3</v>
       </c>
       <c r="F19" s="34">
-        <v>2.3110000000000001E-3</v>
+        <v>7.7899999999999996E-4</v>
       </c>
       <c r="G19" s="32">
         <v>3.2130000000000001E-3</v>
       </c>
       <c r="H19" s="35">
-        <v>2.2920000000000002E-3</v>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="I19" s="31">
         <v>3.9399999999999998E-4</v>
@@ -14883,13 +14837,13 @@
         <v>6.6699999999999995E-4</v>
       </c>
       <c r="M19" s="34">
-        <v>2.369E-3</v>
+        <v>6.8099999999999996E-4</v>
       </c>
       <c r="N19" s="32">
         <v>6.6500000000000001E-4</v>
       </c>
       <c r="O19" s="35">
-        <v>2.2160000000000001E-3</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="32"/>
@@ -14917,13 +14871,13 @@
         <v>3.7130000000000002E-3</v>
       </c>
       <c r="F20" s="34">
-        <v>2.8679999999999999E-3</v>
+        <v>8.5700000000000001E-4</v>
       </c>
       <c r="G20" s="32">
         <v>3.7109999999999999E-3</v>
       </c>
       <c r="H20" s="35">
-        <v>2.4970000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I20" s="31">
         <v>4.2000000000000002E-4</v>
@@ -14938,13 +14892,13 @@
         <v>6.9700000000000003E-4</v>
       </c>
       <c r="M20" s="34">
-        <v>2.6220000000000002E-3</v>
+        <v>6.9700000000000003E-4</v>
       </c>
       <c r="N20" s="32">
         <v>7.1299999999999998E-4</v>
       </c>
       <c r="O20" s="35">
-        <v>2.653E-3</v>
+        <v>6.9099999999999999E-4</v>
       </c>
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
@@ -14972,13 +14926,13 @@
         <v>4.052E-3</v>
       </c>
       <c r="F21" s="34">
-        <v>2.8839999999999998E-3</v>
+        <v>8.61E-4</v>
       </c>
       <c r="G21" s="32">
         <v>4.1869999999999997E-3</v>
       </c>
       <c r="H21" s="35">
-        <v>2.8319999999999999E-3</v>
+        <v>7.67E-4</v>
       </c>
       <c r="I21" s="31">
         <v>5.13E-4</v>
@@ -14993,13 +14947,13 @@
         <v>6.6E-4</v>
       </c>
       <c r="M21" s="34">
-        <v>2.9009999999999999E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="N21" s="32">
         <v>7.8399999999999997E-4</v>
       </c>
       <c r="O21" s="35">
-        <v>2.7369999999999998E-3</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
@@ -15027,13 +14981,13 @@
         <v>4.6259999999999999E-3</v>
       </c>
       <c r="F22" s="34">
-        <v>3.3159999999999999E-3</v>
+        <v>8.3600000000000005E-4</v>
       </c>
       <c r="G22" s="32">
         <v>4.7210000000000004E-3</v>
       </c>
       <c r="H22" s="35">
-        <v>3.1589999999999999E-3</v>
+        <v>8.1400000000000005E-4</v>
       </c>
       <c r="I22" s="31">
         <v>4.1800000000000002E-4</v>
@@ -15048,13 +15002,13 @@
         <v>7.0600000000000003E-4</v>
       </c>
       <c r="M22" s="34">
-        <v>3.3990000000000001E-3</v>
+        <v>8.1499999999999997E-4</v>
       </c>
       <c r="N22" s="32">
         <v>8.4400000000000002E-4</v>
       </c>
       <c r="O22" s="35">
-        <v>3.1229999999999999E-3</v>
+        <v>8.1599999999999999E-4</v>
       </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
@@ -15082,13 +15036,13 @@
         <v>5.2059999999999997E-3</v>
       </c>
       <c r="F23" s="34">
-        <v>3.5140000000000002E-3</v>
+        <v>8.9800000000000004E-4</v>
       </c>
       <c r="G23" s="32">
         <v>5.3680000000000004E-3</v>
       </c>
       <c r="H23" s="35">
-        <v>3.5500000000000002E-3</v>
+        <v>8.5899999999999995E-4</v>
       </c>
       <c r="I23" s="31">
         <v>4.44E-4</v>
@@ -15103,13 +15057,13 @@
         <v>7.5500000000000003E-4</v>
       </c>
       <c r="M23" s="34">
-        <v>3.8800000000000002E-3</v>
+        <v>8.7699999999999996E-4</v>
       </c>
       <c r="N23" s="32">
         <v>9.1E-4</v>
       </c>
       <c r="O23" s="35">
-        <v>3.6960000000000001E-3</v>
+        <v>8.5800000000000004E-4</v>
       </c>
       <c r="P23" s="31">
         <v>9.2999999999999997E-5</v>
@@ -15157,13 +15111,13 @@
         <v>5.8329999999999996E-3</v>
       </c>
       <c r="F24" s="34">
-        <v>3.7569999999999999E-3</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="G24" s="32">
         <v>5.9699999999999996E-3</v>
       </c>
       <c r="H24" s="35">
-        <v>3.82E-3</v>
+        <v>9.2400000000000002E-4</v>
       </c>
       <c r="I24" s="31">
         <v>4.5600000000000003E-4</v>
@@ -15178,13 +15132,13 @@
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="M24" s="34">
-        <v>4.1099999999999999E-3</v>
+        <v>1.1640000000000001E-3</v>
       </c>
       <c r="N24" s="32">
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="O24" s="35">
-        <v>3.9459999999999999E-3</v>
+        <v>9.41E-4</v>
       </c>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
@@ -15212,13 +15166,13 @@
         <v>6.5560000000000002E-3</v>
       </c>
       <c r="F25" s="34">
-        <v>4.0159999999999996E-3</v>
+        <v>1.4430000000000001E-3</v>
       </c>
       <c r="G25" s="32">
         <v>6.6429999999999996E-3</v>
       </c>
       <c r="H25" s="35">
-        <v>4.0959999999999998E-3</v>
+        <v>1.2830000000000001E-3</v>
       </c>
       <c r="I25" s="31">
         <v>4.95E-4</v>
@@ -15233,13 +15187,13 @@
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="M25" s="34">
-        <v>4.3600000000000002E-3</v>
+        <v>1.011E-3</v>
       </c>
       <c r="N25" s="32">
         <v>1.0349999999999999E-3</v>
       </c>
       <c r="O25" s="35">
-        <v>4.1640000000000002E-3</v>
+        <v>9.9099999999999991E-4</v>
       </c>
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
@@ -15267,13 +15221,13 @@
         <v>3.2571999999999997E-2</v>
       </c>
       <c r="F26" s="34">
-        <v>1.2970000000000001E-2</v>
+        <v>1.7107000000000001E-2</v>
       </c>
       <c r="G26" s="32">
         <v>3.2670999999999999E-2</v>
       </c>
       <c r="H26" s="35">
-        <v>1.2744999999999999E-2</v>
+        <v>3.3409999999999998E-3</v>
       </c>
       <c r="I26" s="31">
         <v>1.1950000000000001E-3</v>
@@ -15288,13 +15242,13 @@
         <v>2.6830000000000001E-3</v>
       </c>
       <c r="M26" s="34">
-        <v>1.4973E-2</v>
+        <v>4.0990000000000002E-3</v>
       </c>
       <c r="N26" s="32">
         <v>2.5739999999999999E-3</v>
       </c>
       <c r="O26" s="35">
-        <v>1.3675E-2</v>
+        <v>3.2720000000000002E-3</v>
       </c>
       <c r="P26" s="31">
         <v>2.31E-4</v>
@@ -15340,13 +15294,13 @@
         <v>0.450627</v>
       </c>
       <c r="F27" s="34">
-        <v>9.2628000000000002E-2</v>
+        <v>1.7107000000000001E-2</v>
       </c>
       <c r="G27" s="32">
         <v>0.447467</v>
       </c>
       <c r="H27" s="35">
-        <v>9.3108999999999997E-2</v>
+        <v>1.7121000000000001E-2</v>
       </c>
       <c r="I27" s="31">
         <v>4.725E-3</v>
@@ -15361,13 +15315,13 @@
         <v>1.5559999999999999E-2</v>
       </c>
       <c r="M27" s="34">
-        <v>9.6728999999999996E-2</v>
+        <v>1.9351E-2</v>
       </c>
       <c r="N27" s="32">
         <v>1.5128000000000001E-2</v>
       </c>
       <c r="O27" s="35">
-        <v>9.5922999999999994E-2</v>
+        <v>1.7999000000000001E-2</v>
       </c>
       <c r="P27" s="31">
         <v>8.3000000000000001E-4</v>
@@ -15413,13 +15367,13 @@
         <v>7.0469099999999996</v>
       </c>
       <c r="F28" s="34">
-        <v>0.72351299999999996</v>
+        <v>0.10366300000000001</v>
       </c>
       <c r="G28" s="32">
         <v>6.9871160000000003</v>
       </c>
       <c r="H28" s="35">
-        <v>0.74201399999999995</v>
+        <v>0.101492</v>
       </c>
       <c r="I28" s="31">
         <v>1.7901E-2</v>
@@ -15434,13 +15388,13 @@
         <v>9.8545999999999995E-2</v>
       </c>
       <c r="M28" s="34">
-        <v>0.73349500000000001</v>
+        <v>0.12076000000000001</v>
       </c>
       <c r="N28" s="32">
         <v>9.8478999999999997E-2</v>
       </c>
       <c r="O28" s="35">
-        <v>0.71198799999999995</v>
+        <v>0.121249</v>
       </c>
       <c r="P28" s="31">
         <v>3.2160000000000001E-3</v>
@@ -15486,13 +15440,13 @@
         <v>257.48106000000001</v>
       </c>
       <c r="F29" s="34">
-        <v>11.670985</v>
+        <v>1.361488</v>
       </c>
       <c r="G29" s="32">
         <v>255.78967399999999</v>
       </c>
       <c r="H29" s="35">
-        <v>11.602684</v>
+        <v>1.363243</v>
       </c>
       <c r="I29" s="31">
         <v>0.111105</v>
@@ -15507,13 +15461,13 @@
         <v>1.3147740000000001</v>
       </c>
       <c r="M29" s="34">
-        <v>11.09361</v>
+        <v>1.4791799999999999</v>
       </c>
       <c r="N29" s="32">
         <v>1.302419</v>
       </c>
       <c r="O29" s="35">
-        <v>10.813309</v>
+        <v>1.437983</v>
       </c>
       <c r="P29" s="31">
         <v>1.8371999999999999E-2</v>
@@ -15557,11 +15511,11 @@
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34">
-        <v>93.575246000000007</v>
+        <v>10.352010999999999</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>92.871802000000002</v>
+        <v>9.9835999999999991</v>
       </c>
       <c r="I30" s="31">
         <v>0.45584200000000002</v>
@@ -15576,13 +15530,13 @@
         <v>9.8125929999999997</v>
       </c>
       <c r="M30" s="34">
-        <v>90.980959999999996</v>
+        <v>10.156864000000001</v>
       </c>
       <c r="N30" s="32">
         <v>9.530087</v>
       </c>
       <c r="O30" s="35">
-        <v>91.204905999999994</v>
+        <v>10.274464999999999</v>
       </c>
       <c r="P30" s="31">
         <v>5.9317000000000002E-2</v>
@@ -15623,9 +15577,13 @@
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="F31" s="34">
+        <v>35.085804000000003</v>
+      </c>
       <c r="G31" s="32"/>
-      <c r="H31" s="35"/>
+      <c r="H31" s="35">
+        <v>34.299027000000002</v>
+      </c>
       <c r="I31" s="31">
         <v>1.1376930000000001</v>
       </c>
@@ -15639,13 +15597,13 @@
         <v>31.130431000000002</v>
       </c>
       <c r="M31" s="34">
-        <v>318.70523400000002</v>
+        <v>33.631028000000001</v>
       </c>
       <c r="N31" s="32">
         <v>31.739343000000002</v>
       </c>
       <c r="O31" s="35">
-        <v>318.97043500000001</v>
+        <v>33.446750000000002</v>
       </c>
       <c r="P31" s="31">
         <v>0.13069500000000001</v>
@@ -15686,9 +15644,13 @@
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="F32" s="34">
+        <v>83.022670000000005</v>
+      </c>
       <c r="G32" s="32"/>
-      <c r="H32" s="35"/>
+      <c r="H32" s="35">
+        <v>82.545390999999995</v>
+      </c>
       <c r="I32" s="31">
         <v>1.9933639999999999</v>
       </c>
@@ -15701,11 +15663,15 @@
       <c r="L32" s="33">
         <v>73.682755</v>
       </c>
-      <c r="M32" s="34"/>
+      <c r="M32" s="34">
+        <v>81.574539999999999</v>
+      </c>
       <c r="N32" s="32">
         <v>75.049411000000006</v>
       </c>
-      <c r="O32" s="35"/>
+      <c r="O32" s="35">
+        <v>80.768172000000007</v>
+      </c>
       <c r="P32" s="31">
         <v>0.22454299999999999</v>
       </c>
@@ -15952,7 +15918,7 @@
         <v>394.14299299999999</v>
       </c>
       <c r="J37" s="41">
-        <v>455.86959899999999</v>
+        <v>355.86959899999999</v>
       </c>
       <c r="K37" s="32">
         <v>1150.62967</v>
@@ -16246,7 +16212,7 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="53"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="37"/>
       <c r="I45" s="31"/>
       <c r="J45" s="41"/>
@@ -16801,24 +16767,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -18741,7 +18707,7 @@
         <v>42.636409999999998</v>
       </c>
       <c r="F44" s="36"/>
-      <c r="G44" s="53">
+      <c r="G44" s="46">
         <v>42.091436999999999</v>
       </c>
       <c r="H44" s="37"/>
@@ -18756,7 +18722,7 @@
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="36"/>
-      <c r="N44" s="53">
+      <c r="N44" s="46">
         <v>4.1791000000000002E-2</v>
       </c>
       <c r="O44" s="37">
@@ -19267,9 +19233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D45FA-1B9E-5E40-A223-B3A4E3733245}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19278,24 +19244,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -19359,13 +19325,13 @@
         <v>2.3E-5</v>
       </c>
       <c r="F3" s="34">
-        <v>2.1999999999999999E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="G3" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="H3" s="35">
-        <v>2.4000000000000001E-5</v>
+        <v>1.8E-5</v>
       </c>
       <c r="I3" s="31">
         <v>2.0999999999999999E-5</v>
@@ -19380,13 +19346,13 @@
         <v>2.3E-5</v>
       </c>
       <c r="M3" s="34">
-        <v>2.3E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="N3" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="O3" s="35">
-        <v>2.3E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -19404,13 +19370,13 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="F4" s="34">
-        <v>2.1999999999999999E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="G4" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="H4" s="35">
-        <v>2.3E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="I4" s="31">
         <v>1.8E-5</v>
@@ -19425,13 +19391,13 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="M4" s="34">
-        <v>2.4000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="N4" s="32">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="O4" s="35">
-        <v>2.0999999999999999E-5</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -19449,7 +19415,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="F5" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G5" s="32">
         <v>2.5999999999999998E-5</v>
@@ -19470,13 +19436,13 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="M5" s="34">
-        <v>2.8E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="N5" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="O5" s="35">
-        <v>2.3E-5</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -19494,13 +19460,13 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="F6" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="G6" s="32">
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="H6" s="35">
-        <v>2.5999999999999998E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="I6" s="31">
         <v>2.0000000000000002E-5</v>
@@ -19515,7 +19481,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="M6" s="34">
-        <v>2.4000000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N6" s="32">
         <v>2.1999999999999999E-5</v>
@@ -19539,13 +19505,13 @@
         <v>2.8E-5</v>
       </c>
       <c r="F7" s="34">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="G7" s="32">
         <v>2.9E-5</v>
       </c>
       <c r="H7" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I7" s="31">
         <v>2.0999999999999999E-5</v>
@@ -19560,13 +19526,13 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="M7" s="34">
-        <v>3.0000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N7" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O7" s="35">
-        <v>2.4000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -19584,13 +19550,13 @@
         <v>2.9E-5</v>
       </c>
       <c r="F8" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="G8" s="32">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="H8" s="35">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I8" s="31">
         <v>2.3E-5</v>
@@ -19605,13 +19571,13 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="M8" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N8" s="32">
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="O8" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -19629,13 +19595,13 @@
         <v>2.9E-5</v>
       </c>
       <c r="F9" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="G9" s="32">
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="H9" s="35">
-        <v>2.8E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I9" s="31">
         <v>2.3E-5</v>
@@ -19650,13 +19616,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M9" s="34">
-        <v>2.8E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="N9" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O9" s="35">
-        <v>2.5999999999999998E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -19674,13 +19640,13 @@
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="F10" s="34">
-        <v>2.8E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G10" s="32">
         <v>2.9E-5</v>
       </c>
       <c r="H10" s="35">
-        <v>2.9E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I10" s="31">
         <v>2.0999999999999999E-5</v>
@@ -19695,13 +19661,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M10" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N10" s="32">
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="O10" s="35">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -19719,13 +19685,13 @@
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="F11" s="34">
-        <v>2.5999999999999998E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="G11" s="32">
         <v>2.9E-5</v>
       </c>
       <c r="H11" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="I11" s="31">
         <v>2.3E-5</v>
@@ -19740,13 +19706,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M11" s="34">
-        <v>2.6999999999999999E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N11" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="O11" s="35">
-        <v>2.8E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -19764,13 +19730,13 @@
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="F12" s="34">
-        <v>2.8E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="G12" s="32">
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="H12" s="35">
-        <v>2.8E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="I12" s="31">
         <v>2.0999999999999999E-5</v>
@@ -19785,13 +19751,13 @@
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="M12" s="34">
-        <v>2.8E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N12" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="O12" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -19809,13 +19775,13 @@
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="F13" s="34">
-        <v>2.8E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G13" s="32">
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="H13" s="35">
-        <v>2.8E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="I13" s="31">
         <v>2.3E-5</v>
@@ -19830,13 +19796,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M13" s="34">
-        <v>2.9E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N13" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O13" s="35">
-        <v>2.5999999999999998E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -19854,13 +19820,13 @@
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="F14" s="34">
-        <v>2.6999999999999999E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G14" s="32">
         <v>3.4E-5</v>
       </c>
       <c r="H14" s="35">
-        <v>2.9E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="I14" s="31">
         <v>2.1999999999999999E-5</v>
@@ -19875,13 +19841,13 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="M14" s="34">
-        <v>2.6999999999999999E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N14" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="O14" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -19899,13 +19865,13 @@
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="F15" s="34">
-        <v>2.9E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G15" s="32">
         <v>3.4E-5</v>
       </c>
       <c r="H15" s="35">
-        <v>2.8E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="I15" s="31">
         <v>2.1999999999999999E-5</v>
@@ -19920,13 +19886,13 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="M15" s="34">
-        <v>2.8E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N15" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O15" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -19944,13 +19910,13 @@
         <v>3.8000000000000002E-5</v>
       </c>
       <c r="F16" s="34">
-        <v>2.9E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G16" s="32">
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="H16" s="35">
-        <v>2.8E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="I16" s="31">
         <v>2.3E-5</v>
@@ -19965,13 +19931,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M16" s="34">
-        <v>3.0000000000000001E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="N16" s="32">
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="O16" s="35">
-        <v>2.8E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -19989,13 +19955,13 @@
         <v>3.8000000000000002E-5</v>
       </c>
       <c r="F17" s="34">
-        <v>2.8E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G17" s="32">
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="H17" s="35">
-        <v>3.0000000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="I17" s="31">
         <v>2.0999999999999999E-5</v>
@@ -20010,13 +19976,13 @@
         <v>2.5999999999999998E-5</v>
       </c>
       <c r="M17" s="34">
-        <v>2.9E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N17" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O17" s="35">
-        <v>2.9E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -20034,13 +20000,13 @@
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="F18" s="34">
-        <v>3.0000000000000001E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G18" s="32">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="H18" s="35">
-        <v>3.0000000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I18" s="31">
         <v>2.3E-5</v>
@@ -20055,13 +20021,13 @@
         <v>2.3E-5</v>
       </c>
       <c r="M18" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N18" s="32">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="O18" s="35">
-        <v>2.9E-5</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -20079,13 +20045,13 @@
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="F19" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G19" s="32">
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="H19" s="35">
-        <v>3.1999999999999999E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="I19" s="31">
         <v>2.1999999999999999E-5</v>
@@ -20100,13 +20066,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M19" s="34">
-        <v>3.1999999999999999E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="N19" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O19" s="35">
-        <v>2.9E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -20124,13 +20090,13 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="F20" s="34">
-        <v>2.9E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G20" s="32">
         <v>4.1E-5</v>
       </c>
       <c r="H20" s="35">
-        <v>3.1000000000000001E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="I20" s="31">
         <v>2.4000000000000001E-5</v>
@@ -20145,13 +20111,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M20" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N20" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="O20" s="35">
-        <v>2.9E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -20169,13 +20135,13 @@
         <v>4.1999999999999998E-5</v>
       </c>
       <c r="F21" s="34">
-        <v>2.9E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="G21" s="32">
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="H21" s="35">
-        <v>2.8E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I21" s="31">
         <v>2.4000000000000001E-5</v>
@@ -20190,13 +20156,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M21" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N21" s="32">
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="O21" s="35">
-        <v>2.6999999999999999E-5</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -20214,13 +20180,13 @@
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="F22" s="34">
-        <v>2.8E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="G22" s="32">
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="H22" s="35">
-        <v>2.8E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="I22" s="31">
         <v>2.4000000000000001E-5</v>
@@ -20235,13 +20201,13 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="M22" s="34">
-        <v>3.1999999999999999E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N22" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O22" s="35">
-        <v>2.5999999999999998E-5</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -20259,13 +20225,13 @@
         <v>4.6E-5</v>
       </c>
       <c r="F23" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G23" s="32">
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="H23" s="35">
-        <v>2.9E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="I23" s="31">
         <v>2.5999999999999998E-5</v>
@@ -20280,13 +20246,13 @@
         <v>2.3E-5</v>
       </c>
       <c r="M23" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N23" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O23" s="35">
-        <v>2.8E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -20304,13 +20270,13 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="F24" s="34">
-        <v>2.9E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="G24" s="32">
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="H24" s="35">
-        <v>2.9E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="I24" s="31">
         <v>2.5000000000000001E-5</v>
@@ -20325,13 +20291,13 @@
         <v>2.8E-5</v>
       </c>
       <c r="M24" s="34">
-        <v>3.1000000000000001E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
       <c r="N24" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O24" s="35">
-        <v>2.5999999999999998E-5</v>
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -20349,13 +20315,13 @@
         <v>4.1E-5</v>
       </c>
       <c r="F25" s="34">
-        <v>3.0000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="G25" s="32">
         <v>4.1E-5</v>
       </c>
       <c r="H25" s="35">
-        <v>3.1000000000000001E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="I25" s="31">
         <v>2.4000000000000001E-5</v>
@@ -20370,13 +20336,13 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="M25" s="34">
-        <v>3.0000000000000001E-5</v>
+        <v>2.3E-5</v>
       </c>
       <c r="N25" s="32">
         <v>2.3E-5</v>
       </c>
       <c r="O25" s="35">
-        <v>2.8E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -20394,13 +20360,13 @@
         <v>7.1000000000000005E-5</v>
       </c>
       <c r="F26" s="34">
-        <v>4.3000000000000002E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="G26" s="32">
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="H26" s="35">
-        <v>4.0000000000000003E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="I26" s="31">
         <v>3.1000000000000001E-5</v>
@@ -20415,13 +20381,13 @@
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="M26" s="34">
-        <v>4.3999999999999999E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="N26" s="32">
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="O26" s="35">
-        <v>3.6999999999999998E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -20439,13 +20405,13 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="F27" s="34">
-        <v>7.3999999999999996E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="G27" s="32">
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="H27" s="35">
-        <v>7.6000000000000004E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="I27" s="31">
         <v>5.1E-5</v>
@@ -20460,13 +20426,13 @@
         <v>5.5999999999999999E-5</v>
       </c>
       <c r="M27" s="34">
-        <v>7.3999999999999996E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="N27" s="32">
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="O27" s="35">
-        <v>6.7999999999999999E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -20484,13 +20450,13 @@
         <v>8.1599999999999999E-4</v>
       </c>
       <c r="F28" s="34">
-        <v>1.44E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="G28" s="32">
         <v>8.0999999999999996E-4</v>
       </c>
       <c r="H28" s="35">
-        <v>1.4200000000000001E-4</v>
+        <v>1.05E-4</v>
       </c>
       <c r="I28" s="31">
         <v>9.1000000000000003E-5</v>
@@ -20505,13 +20471,13 @@
         <v>1.03E-4</v>
       </c>
       <c r="M28" s="34">
-        <v>1.35E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="N28" s="32">
         <v>1.07E-4</v>
       </c>
       <c r="O28" s="35">
-        <v>1.2999999999999999E-4</v>
+        <v>1.06E-4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -20529,13 +20495,13 @@
         <v>4.6860000000000001E-3</v>
       </c>
       <c r="F29" s="34">
-        <v>3.4000000000000002E-4</v>
+        <v>2.81E-4</v>
       </c>
       <c r="G29" s="32">
         <v>4.6350000000000002E-3</v>
       </c>
       <c r="H29" s="35">
-        <v>3.4499999999999998E-4</v>
+        <v>4.7399999999999997E-4</v>
       </c>
       <c r="I29" s="31">
         <v>2.3599999999999999E-4</v>
@@ -20550,13 +20516,13 @@
         <v>2.5099999999999998E-4</v>
       </c>
       <c r="M29" s="34">
-        <v>3.4000000000000002E-4</v>
+        <v>2.72E-4</v>
       </c>
       <c r="N29" s="32">
         <v>2.72E-4</v>
       </c>
       <c r="O29" s="35">
-        <v>3.1799999999999998E-4</v>
+        <v>3.0299999999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -20574,13 +20540,13 @@
         <v>1.5436999999999999E-2</v>
       </c>
       <c r="F30" s="34">
-        <v>6.8900000000000005E-4</v>
+        <v>5.44E-4</v>
       </c>
       <c r="G30" s="32">
         <v>1.5710999999999999E-2</v>
       </c>
       <c r="H30" s="35">
-        <v>6.87E-4</v>
+        <v>5.3600000000000002E-4</v>
       </c>
       <c r="I30" s="31">
         <v>4.6099999999999998E-4</v>
@@ -20595,13 +20561,13 @@
         <v>5.2400000000000005E-4</v>
       </c>
       <c r="M30" s="34">
-        <v>6.96E-4</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="N30" s="32">
         <v>4.7800000000000002E-4</v>
       </c>
       <c r="O30" s="35">
-        <v>6.2399999999999999E-4</v>
+        <v>5.7899999999999998E-4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -20619,13 +20585,13 @@
         <v>3.3916000000000002E-2</v>
       </c>
       <c r="F31" s="34">
-        <v>1.0430000000000001E-3</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="G31" s="32">
         <v>3.3323999999999999E-2</v>
       </c>
       <c r="H31" s="35">
-        <v>1.0460000000000001E-3</v>
+        <v>8.4599999999999996E-4</v>
       </c>
       <c r="I31" s="31">
         <v>7.6099999999999996E-4</v>
@@ -20640,13 +20606,13 @@
         <v>7.67E-4</v>
       </c>
       <c r="M31" s="34">
-        <v>1.057E-3</v>
+        <v>8.4699999999999999E-4</v>
       </c>
       <c r="N31" s="32">
         <v>7.2099999999999996E-4</v>
       </c>
       <c r="O31" s="35">
-        <v>9.1699999999999995E-4</v>
+        <v>8.5099999999999998E-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -20664,13 +20630,13 @@
         <v>5.8173999999999997E-2</v>
       </c>
       <c r="F32" s="34">
-        <v>1.3749999999999999E-3</v>
+        <v>1.0740000000000001E-3</v>
       </c>
       <c r="G32" s="32">
         <v>5.8270000000000002E-2</v>
       </c>
       <c r="H32" s="35">
-        <v>1.3450000000000001E-3</v>
+        <v>1.075E-3</v>
       </c>
       <c r="I32" s="31">
         <v>9.4799999999999995E-4</v>
@@ -20685,13 +20651,13 @@
         <v>1.031E-3</v>
       </c>
       <c r="M32" s="34">
-        <v>1.366E-3</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="N32" s="32">
         <v>9.4300000000000004E-4</v>
       </c>
       <c r="O32" s="35">
-        <v>1.2080000000000001E-3</v>
+        <v>1.188E-3</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -20709,13 +20675,13 @@
         <v>9.0415999999999996E-2</v>
       </c>
       <c r="F33" s="34">
-        <v>1.6609999999999999E-3</v>
+        <v>1.317E-3</v>
       </c>
       <c r="G33" s="32">
         <v>9.0870999999999993E-2</v>
       </c>
       <c r="H33" s="35">
-        <v>1.6819999999999999E-3</v>
+        <v>1.3010000000000001E-3</v>
       </c>
       <c r="I33" s="31">
         <v>1.279E-3</v>
@@ -20730,13 +20696,13 @@
         <v>1.2130000000000001E-3</v>
       </c>
       <c r="M33" s="34">
-        <v>1.8079999999999999E-3</v>
+        <v>1.4239999999999999E-3</v>
       </c>
       <c r="N33" s="32">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="O33" s="35">
-        <v>1.9729999999999999E-3</v>
+        <v>1.348E-3</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -20754,13 +20720,13 @@
         <v>0.12981899999999999</v>
       </c>
       <c r="F34" s="34">
-        <v>2.153E-3</v>
+        <v>1.655E-3</v>
       </c>
       <c r="G34" s="32">
         <v>0.12689</v>
       </c>
       <c r="H34" s="35">
-        <v>2.0929999999999998E-3</v>
+        <v>1.6670000000000001E-3</v>
       </c>
       <c r="I34" s="31">
         <v>1.39E-3</v>
@@ -20775,13 +20741,13 @@
         <v>1.6169999999999999E-3</v>
       </c>
       <c r="M34" s="34">
-        <v>2.0560000000000001E-3</v>
+        <v>1.719E-3</v>
       </c>
       <c r="N34" s="32">
         <v>1.415E-3</v>
       </c>
       <c r="O34" s="35">
-        <v>1.8159999999999999E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -20799,13 +20765,13 @@
         <v>0.38431199999999999</v>
       </c>
       <c r="F35" s="34">
-        <v>4.1440000000000001E-3</v>
+        <v>3.2529999999999998E-3</v>
       </c>
       <c r="G35" s="32">
         <v>0.36555900000000002</v>
       </c>
       <c r="H35" s="35">
-        <v>4.261E-3</v>
+        <v>3.1440000000000001E-3</v>
       </c>
       <c r="I35" s="31">
         <v>2.2880000000000001E-3</v>
@@ -20820,13 +20786,13 @@
         <v>3.643E-3</v>
       </c>
       <c r="M35" s="34">
-        <v>5.3290000000000004E-3</v>
+        <v>4.359E-3</v>
       </c>
       <c r="N35" s="32">
         <v>3.784E-3</v>
       </c>
       <c r="O35" s="35">
-        <v>4.3E-3</v>
+        <v>3.9610000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -20842,13 +20808,13 @@
         <v>1.4958610000000001</v>
       </c>
       <c r="F36" s="34">
-        <v>8.5800000000000008E-3</v>
+        <v>6.7349999999999997E-3</v>
       </c>
       <c r="G36" s="32">
         <v>1.5153840000000001</v>
       </c>
       <c r="H36" s="35">
-        <v>8.5389999999999997E-3</v>
+        <v>6.7409999999999996E-3</v>
       </c>
       <c r="I36" s="31">
         <v>5.6439999999999997E-3</v>
@@ -20863,13 +20829,13 @@
         <v>7.4920000000000004E-3</v>
       </c>
       <c r="M36" s="34">
-        <v>9.6299999999999997E-3</v>
+        <v>8.7729999999999995E-3</v>
       </c>
       <c r="N36" s="32">
         <v>7.3229999999999996E-3</v>
       </c>
       <c r="O36" s="35">
-        <v>8.9490000000000004E-3</v>
+        <v>7.9600000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -20885,13 +20851,13 @@
         <v>6.4461180000000002</v>
       </c>
       <c r="F37" s="34">
-        <v>2.0962000000000001E-2</v>
+        <v>1.5927E-2</v>
       </c>
       <c r="G37" s="32">
         <v>6.3290519999999999</v>
       </c>
       <c r="H37" s="35">
-        <v>1.8088E-2</v>
+        <v>1.4923000000000001E-2</v>
       </c>
       <c r="I37" s="31">
         <v>1.1665E-2</v>
@@ -20906,13 +20872,13 @@
         <v>1.4515E-2</v>
       </c>
       <c r="M37" s="34">
-        <v>1.9309E-2</v>
+        <v>1.7135999999999998E-2</v>
       </c>
       <c r="N37" s="32">
         <v>1.4385E-2</v>
       </c>
       <c r="O37" s="35">
-        <v>1.9084E-2</v>
+        <v>1.4583E-2</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -20928,13 +20894,13 @@
         <v>14.645184</v>
       </c>
       <c r="F38" s="34">
-        <v>3.1780000000000003E-2</v>
+        <v>2.2676999999999999E-2</v>
       </c>
       <c r="G38" s="32">
         <v>14.594993000000001</v>
       </c>
       <c r="H38" s="35">
-        <v>2.6307000000000001E-2</v>
+        <v>2.3764E-2</v>
       </c>
       <c r="I38" s="31">
         <v>1.7239000000000001E-2</v>
@@ -20949,13 +20915,13 @@
         <v>2.6131000000000001E-2</v>
       </c>
       <c r="M38" s="34">
-        <v>3.5736999999999998E-2</v>
+        <v>3.2348000000000002E-2</v>
       </c>
       <c r="N38" s="32">
         <v>2.3786000000000002E-2</v>
       </c>
       <c r="O38" s="35">
-        <v>3.1097E-2</v>
+        <v>2.4553999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -20969,13 +20935,13 @@
         <v>27.160005999999999</v>
       </c>
       <c r="F39" s="34">
-        <v>3.8780000000000002E-2</v>
+        <v>3.3697999999999999E-2</v>
       </c>
       <c r="G39" s="32">
         <v>26.224601</v>
       </c>
       <c r="H39" s="35">
-        <v>3.7615999999999997E-2</v>
+        <v>3.347E-2</v>
       </c>
       <c r="I39" s="31">
         <v>2.4163E-2</v>
@@ -20990,13 +20956,13 @@
         <v>3.6278999999999999E-2</v>
       </c>
       <c r="M39" s="34">
-        <v>5.0519000000000001E-2</v>
+        <v>4.4705000000000002E-2</v>
       </c>
       <c r="N39" s="32">
         <v>3.5057999999999999E-2</v>
       </c>
       <c r="O39" s="35">
-        <v>4.6317999999999998E-2</v>
+        <v>3.7470999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -21010,13 +20976,13 @@
         <v>43.171143000000001</v>
       </c>
       <c r="F40" s="34">
-        <v>5.2594000000000002E-2</v>
+        <v>4.2213000000000001E-2</v>
       </c>
       <c r="G40" s="32">
         <v>43.309697</v>
       </c>
       <c r="H40" s="35">
-        <v>5.2929999999999998E-2</v>
+        <v>4.2245999999999999E-2</v>
       </c>
       <c r="I40" s="31">
         <v>2.9146999999999999E-2</v>
@@ -21031,13 +20997,13 @@
         <v>4.7660000000000001E-2</v>
       </c>
       <c r="M40" s="34">
-        <v>7.4103000000000002E-2</v>
+        <v>6.5444000000000002E-2</v>
       </c>
       <c r="N40" s="32">
         <v>4.3504000000000001E-2</v>
       </c>
       <c r="O40" s="35">
-        <v>5.5155000000000003E-2</v>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -21049,11 +21015,11 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="34">
-        <v>6.4808000000000004E-2</v>
+        <v>5.3452E-2</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="35">
-        <v>6.7306000000000005E-2</v>
+        <v>5.4358999999999998E-2</v>
       </c>
       <c r="I41" s="31">
         <v>3.8224000000000001E-2</v>
@@ -21068,13 +21034,13 @@
         <v>6.7150000000000001E-2</v>
       </c>
       <c r="M41" s="34">
-        <v>8.3709000000000006E-2</v>
+        <v>7.9459000000000002E-2</v>
       </c>
       <c r="N41" s="32">
         <v>5.4938000000000001E-2</v>
       </c>
       <c r="O41" s="35">
-        <v>7.1166999999999994E-2</v>
+        <v>6.1262999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -21086,11 +21052,11 @@
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34">
-        <v>7.8017000000000003E-2</v>
+        <v>6.8571999999999994E-2</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="35">
-        <v>7.7459E-2</v>
+        <v>6.8905999999999995E-2</v>
       </c>
       <c r="I42" s="31">
         <v>4.7669999999999997E-2</v>
@@ -21105,13 +21071,13 @@
         <v>7.9727000000000006E-2</v>
       </c>
       <c r="M42" s="34">
-        <v>0.114347</v>
+        <v>9.2192999999999997E-2</v>
       </c>
       <c r="N42" s="32">
         <v>7.1415000000000006E-2</v>
       </c>
       <c r="O42" s="35">
-        <v>8.8540999999999995E-2</v>
+        <v>7.8971E-2</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -21123,11 +21089,11 @@
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="34">
-        <v>9.5597000000000001E-2</v>
+        <v>8.5469000000000003E-2</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="35">
-        <v>9.4578999999999996E-2</v>
+        <v>8.5558999999999996E-2</v>
       </c>
       <c r="I43" s="31">
         <v>5.3841E-2</v>
@@ -21142,13 +21108,13 @@
         <v>8.9412000000000005E-2</v>
       </c>
       <c r="M43" s="34">
-        <v>0.140962</v>
+        <v>0.107805</v>
       </c>
       <c r="N43" s="32">
         <v>8.3987999999999993E-2</v>
       </c>
       <c r="O43" s="35">
-        <v>0.106992</v>
+        <v>8.8011000000000006E-2</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -21160,11 +21126,11 @@
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
       <c r="F44" s="34">
-        <v>0.106695</v>
+        <v>9.2332999999999998E-2</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="35">
-        <v>0.106394</v>
+        <v>9.2837000000000003E-2</v>
       </c>
       <c r="I44" s="31">
         <v>5.7016999999999998E-2</v>
@@ -21183,7 +21149,7 @@
         <v>9.4673999999999994E-2</v>
       </c>
       <c r="O44" s="35">
-        <v>0.122017</v>
+        <v>0.108374</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -21195,7 +21161,7 @@
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="53"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="37"/>
       <c r="I45" s="31">
         <v>6.7428000000000002E-2</v>
@@ -21208,11 +21174,11 @@
       </c>
       <c r="L45" s="33"/>
       <c r="M45" s="36"/>
-      <c r="N45" s="53">
+      <c r="N45" s="46">
         <v>0.109496</v>
       </c>
       <c r="O45" s="37">
-        <v>0.14643900000000001</v>
+        <v>0.12593399999999999</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -21719,7 +21685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5DB39-D8BE-B747-A405-E55FB17E9A9F}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="140" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A72" sqref="A72"/>
     </sheetView>
@@ -21730,15 +21696,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">

--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD1A37-D0D5-1D46-8A7A-013B03B13714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4035127-C2D3-874D-8B4C-F3EA612DB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="21140" activeTab="5" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="8" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -470,6 +470,9 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,9 +492,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,24 +821,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3336,24 +3336,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -5079,9 +5079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5DB39-D8BE-B747-A405-E55FB17E9A9F}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5090,15 +5090,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -6476,7 +6476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2176A5-75DF-A044-ABD9-8458655436F1}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H37" sqref="H37"/>
     </sheetView>
@@ -6487,15 +6487,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -6528,7 +6528,7 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="47" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="20"/>
@@ -7918,8 +7918,8 @@
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="223" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3:I30"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7932,38 +7932,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -9971,7 +9971,7 @@
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O3" sqref="O3:O30"/>
+      <selection pane="topRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9984,38 +9984,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -12022,38 +12022,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -15317,7 +15317,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H39"/>
+      <selection pane="topRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15330,38 +15330,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -18015,7 +18015,7 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G31" sqref="G31"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18024,15 +18024,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -19753,9 +19753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3:I37"/>
+      <selection pane="topRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19764,15 +19764,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -19805,7 +19805,7 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="47" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="20"/>
@@ -21454,9 +21454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EA6F00-B3AA-5742-96CF-096C6FB8E97D}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G39" sqref="G39"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21469,38 +21469,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -24505,24 +24505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -26332,38 +26332,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -28977,9 +28977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79D1C0E-9890-934F-96F9-5E1979AA3141}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3:J34"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28988,24 +28988,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -29062,7 +29062,7 @@
         <v>2.4399999999999999E-4</v>
       </c>
       <c r="C3" s="41">
-        <v>1.7000000000000001E-4</v>
+        <v>2.02E-4</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
@@ -29093,7 +29093,7 @@
         <v>3.0200000000000002E-4</v>
       </c>
       <c r="C4" s="41">
-        <v>1.8699999999999999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -29124,7 +29124,7 @@
         <v>3.4699999999999998E-4</v>
       </c>
       <c r="C5" s="41">
-        <v>2.2000000000000001E-4</v>
+        <v>2.42E-4</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
@@ -29155,7 +29155,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
       <c r="C6" s="41">
-        <v>2.3599999999999999E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
@@ -29186,7 +29186,7 @@
         <v>5.3499999999999999E-4</v>
       </c>
       <c r="C7" s="41">
-        <v>2.7900000000000001E-4</v>
+        <v>3.1399999999999999E-4</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
@@ -29217,7 +29217,7 @@
         <v>6.1399999999999996E-4</v>
       </c>
       <c r="C8" s="41">
-        <v>3.0800000000000001E-4</v>
+        <v>3.5799999999999997E-4</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
@@ -29248,7 +29248,7 @@
         <v>6.9300000000000004E-4</v>
       </c>
       <c r="C9" s="41">
-        <v>3.2600000000000001E-4</v>
+        <v>3.9899999999999999E-4</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
@@ -29279,7 +29279,7 @@
         <v>8.2600000000000002E-4</v>
       </c>
       <c r="C10" s="41">
-        <v>3.8299999999999999E-4</v>
+        <v>4.0099999999999999E-4</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
@@ -29310,7 +29310,7 @@
         <v>9.4700000000000003E-4</v>
       </c>
       <c r="C11" s="41">
-        <v>4.0900000000000002E-4</v>
+        <v>4.5100000000000001E-4</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -29341,7 +29341,7 @@
         <v>1.1039999999999999E-3</v>
       </c>
       <c r="C12" s="41">
-        <v>5.3700000000000004E-4</v>
+        <v>5.2800000000000004E-4</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
@@ -29372,7 +29372,7 @@
         <v>1.2459999999999999E-3</v>
       </c>
       <c r="C13" s="41">
-        <v>5.3700000000000004E-4</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
@@ -29403,7 +29403,7 @@
         <v>1.408E-3</v>
       </c>
       <c r="C14" s="41">
-        <v>5.3499999999999999E-4</v>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
@@ -29434,7 +29434,7 @@
         <v>1.5939999999999999E-3</v>
       </c>
       <c r="C15" s="41">
-        <v>5.6899999999999995E-4</v>
+        <v>6.4599999999999998E-4</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
@@ -29465,7 +29465,7 @@
         <v>1.797E-3</v>
       </c>
       <c r="C16" s="41">
-        <v>6.2600000000000004E-4</v>
+        <v>6.7299999999999999E-4</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
@@ -29496,7 +29496,7 @@
         <v>1.9910000000000001E-3</v>
       </c>
       <c r="C17" s="41">
-        <v>6.7900000000000002E-4</v>
+        <v>6.9800000000000005E-4</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -29527,7 +29527,7 @@
         <v>2.2669999999999999E-3</v>
       </c>
       <c r="C18" s="41">
-        <v>7.36E-4</v>
+        <v>1.1820000000000001E-3</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
@@ -29558,7 +29558,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
       <c r="C19" s="41">
-        <v>7.6400000000000003E-4</v>
+        <v>8.3699999999999996E-4</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
@@ -29589,7 +29589,7 @@
         <v>2.3270000000000001E-3</v>
       </c>
       <c r="C20" s="41">
-        <v>8.2899999999999998E-4</v>
+        <v>9.0300000000000005E-4</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
@@ -29620,7 +29620,7 @@
         <v>3.1120000000000002E-3</v>
       </c>
       <c r="C21" s="41">
-        <v>9.0700000000000004E-4</v>
+        <v>9.8400000000000007E-4</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
@@ -29651,7 +29651,7 @@
         <v>3.4629999999999999E-3</v>
       </c>
       <c r="C22" s="41">
-        <v>9.41E-4</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
@@ -29682,7 +29682,7 @@
         <v>3.8010000000000001E-3</v>
       </c>
       <c r="C23" s="41">
-        <v>1.072E-3</v>
+        <v>1.093E-3</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
@@ -29713,7 +29713,7 @@
         <v>4.169E-3</v>
       </c>
       <c r="C24" s="41">
-        <v>1.093E-3</v>
+        <v>1.175E-3</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
@@ -29744,7 +29744,7 @@
         <v>4.5319999999999996E-3</v>
       </c>
       <c r="C25" s="41">
-        <v>1.196E-3</v>
+        <v>1.242E-3</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
@@ -29775,7 +29775,7 @@
         <v>1.2737999999999999E-2</v>
       </c>
       <c r="C26" s="41">
-        <v>4.163E-3</v>
+        <v>3.019E-3</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
@@ -29806,7 +29806,7 @@
         <v>9.3204999999999996E-2</v>
       </c>
       <c r="C27" s="41">
-        <v>1.4531000000000001E-2</v>
+        <v>1.4238000000000001E-2</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
@@ -29837,7 +29837,7 @@
         <v>0.73162700000000003</v>
       </c>
       <c r="C28" s="41">
-        <v>6.7926E-2</v>
+        <v>6.0127E-2</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
@@ -29868,7 +29868,7 @@
         <v>11.078234999999999</v>
       </c>
       <c r="C29" s="41">
-        <v>0.726603</v>
+        <v>0.55214200000000002</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
@@ -29899,7 +29899,7 @@
         <v>90.841273000000001</v>
       </c>
       <c r="C30" s="41">
-        <v>5.01457</v>
+        <v>3.8451719999999998</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="41">
-        <v>17.227682000000001</v>
+        <v>13.308915000000001</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
@@ -29957,7 +29957,7 @@
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="41">
-        <v>41.741484999999997</v>
+        <v>32.721245000000003</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>

--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4035127-C2D3-874D-8B4C-F3EA612DB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEB493-24C9-2042-A291-AD84A4E5C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="8" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="comp_bsnoc" sheetId="12" r:id="rId6"/>
     <sheet name="comp_replace_nested_list" sheetId="13" r:id="rId7"/>
     <sheet name="comp_ptail_nested_list" sheetId="22" r:id="rId8"/>
-    <sheet name="comp_bsnoc_nested_list (n+1)" sheetId="19" r:id="rId9"/>
-    <sheet name="comp_bsnoc_nested_list 2001" sheetId="14" r:id="rId10"/>
-    <sheet name="breverse_nested_list" sheetId="17" r:id="rId11"/>
-    <sheet name="bmapreplace_nested_list" sheetId="18" r:id="rId12"/>
-    <sheet name="comp_breverse" sheetId="10" r:id="rId13"/>
-    <sheet name="comp_breverse_nested_list" sheetId="20" r:id="rId14"/>
+    <sheet name="comp_bsnoc_nested_list" sheetId="14" r:id="rId9"/>
+    <sheet name="breverse_nested_list" sheetId="17" r:id="rId10"/>
+    <sheet name="bmapreplace_nested_list" sheetId="18" r:id="rId11"/>
+    <sheet name="comp_breverse" sheetId="10" r:id="rId12"/>
+    <sheet name="comp_breverse_nested_list" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="40">
   <si>
     <t>nComp</t>
   </si>
@@ -143,12 +142,6 @@
   </si>
   <si>
     <t>bmapreplace [s]</t>
-  </si>
-  <si>
-    <t>kpg2 (+ fi_cond)</t>
-  </si>
-  <si>
-    <t>(kpg2 + fi_cond)</t>
   </si>
   <si>
     <t>kpg2 + fi_cond</t>
@@ -3322,12 +3315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D45FA-1B9E-5E40-A223-B3A4E3733245}">
-  <dimension ref="A1:Z72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5DB39-D8BE-B747-A405-E55FB17E9A9F}">
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O3" sqref="O3:O31"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3335,27 +3328,18 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3380,1033 +3364,604 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3" s="31">
-        <v>0.27593499999999999</v>
+        <v>1.37E-4</v>
       </c>
       <c r="C3" s="41">
-        <v>0.26244600000000001</v>
+        <v>1.8693999999999999E-2</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="35">
-        <v>0.65504899999999999</v>
-      </c>
-      <c r="I3" s="31">
-        <v>0.25343100000000002</v>
-      </c>
-      <c r="J3" s="41">
-        <v>0.25609399999999999</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="35">
-        <v>0.64616099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.1400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
       <c r="B4" s="31">
-        <v>0.248581</v>
+        <v>1.3100000000000001E-4</v>
       </c>
       <c r="C4" s="41">
-        <v>0.25125199999999998</v>
+        <v>2.4697E-2</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="32"/>
       <c r="H4" s="35">
-        <v>0.67049499999999995</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0.23510700000000001</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0.2344</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="35">
-        <v>0.65472399999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.0399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
       <c r="B5" s="31">
-        <v>0.26251200000000002</v>
+        <v>1.63E-4</v>
       </c>
       <c r="C5" s="41">
-        <v>0.24848799999999999</v>
+        <v>2.8792000000000002E-2</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="35">
-        <v>0.70892500000000003</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0.24379899999999999</v>
-      </c>
-      <c r="J5" s="41">
-        <v>0.23974699999999999</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="35">
-        <v>0.69698400000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.37E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
       <c r="B6" s="31">
-        <v>0.26147999999999999</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="C6" s="41">
-        <v>0.247195</v>
+        <v>3.3554E-2</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="32"/>
       <c r="H6" s="35">
-        <v>0.75400400000000001</v>
-      </c>
-      <c r="I6" s="31">
-        <v>0.24610399999999999</v>
-      </c>
-      <c r="J6" s="41">
-        <v>0.248087</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="35">
-        <v>0.73008899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.4300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
       <c r="B7" s="31">
-        <v>0.26941300000000001</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="C7" s="41">
-        <v>0.249338</v>
+        <v>4.3029999999999999E-2</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="32"/>
       <c r="H7" s="35">
-        <v>0.80477399999999999</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0.25391799999999998</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0.247368</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="35">
-        <v>0.82292699999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.6799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
       <c r="B8" s="31">
-        <v>0.27311299999999999</v>
+        <v>2.8600000000000001E-4</v>
       </c>
       <c r="C8" s="41">
-        <v>0.25437300000000002</v>
+        <v>5.3936999999999999E-2</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="32"/>
       <c r="H8" s="35">
-        <v>0.838225</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0.24393699999999999</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0.26833699999999999</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="35">
-        <v>0.83799299999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.7100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
       <c r="B9" s="31">
-        <v>0.29908400000000002</v>
+        <v>3.2499999999999999E-4</v>
       </c>
       <c r="C9" s="41">
-        <v>0.24718300000000001</v>
+        <v>6.429E-2</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="35">
-        <v>0.843414</v>
-      </c>
-      <c r="I9" s="31">
-        <v>0.25131199999999998</v>
-      </c>
-      <c r="J9" s="41">
-        <v>0.24313000000000001</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="35">
-        <v>0.939747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.9699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
       <c r="B10" s="31">
-        <v>0.32486100000000001</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="C10" s="41">
-        <v>0.254083</v>
+        <v>7.8317999999999999E-2</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32"/>
       <c r="H10" s="35">
-        <v>0.89363199999999998</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0.25021300000000002</v>
-      </c>
-      <c r="J10" s="41">
-        <v>0.25396999999999997</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="35">
-        <v>1.0115890000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.0799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
       <c r="B11" s="31">
-        <v>0.33104800000000001</v>
+        <v>4.3300000000000001E-4</v>
       </c>
       <c r="C11" s="41">
-        <v>0.254521</v>
+        <v>9.2548000000000005E-2</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
       <c r="G11" s="32"/>
       <c r="H11" s="35">
-        <v>0.96149399999999996</v>
-      </c>
-      <c r="I11" s="31">
-        <v>0.26452300000000001</v>
-      </c>
-      <c r="J11" s="41">
-        <v>0.25349100000000002</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="35">
-        <v>0.966858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.22E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
       <c r="B12" s="31">
-        <v>0.35625099999999998</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="C12" s="41">
-        <v>0.256496</v>
+        <v>0.109902</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="32"/>
       <c r="H12" s="35">
-        <v>0.98630200000000001</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0.25158199999999997</v>
-      </c>
-      <c r="J12" s="41">
-        <v>0.26088699999999998</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="35">
-        <v>1.02417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.4600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="31">
-        <v>0.36544399999999999</v>
+        <v>4.86E-4</v>
       </c>
       <c r="C13" s="41">
-        <v>0.25245000000000001</v>
+        <v>0.13042500000000001</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="35">
-        <v>1.001268</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0.26013399999999998</v>
-      </c>
-      <c r="J13" s="41">
-        <v>0.24446799999999999</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="35">
-        <v>1.024006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.6400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
       <c r="B14" s="31">
-        <v>0.39589600000000003</v>
+        <v>5.6599999999999999E-4</v>
       </c>
       <c r="C14" s="41">
-        <v>0.25054500000000002</v>
+        <v>0.15679199999999999</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="32"/>
       <c r="H14" s="35">
-        <v>1.064184</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0.25569199999999997</v>
-      </c>
-      <c r="J14" s="41">
-        <v>0.24723600000000001</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="35">
-        <v>1.0297879999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.2499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
       <c r="B15" s="31">
-        <v>0.388872</v>
+        <v>6.1899999999999998E-4</v>
       </c>
       <c r="C15" s="41">
-        <v>0.25540200000000002</v>
+        <v>0.18113899999999999</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35">
-        <v>1.067895</v>
-      </c>
-      <c r="I15" s="31">
-        <v>0.25172499999999998</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0.25115399999999999</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="35">
-        <v>1.0605579999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.3199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
       <c r="B16" s="31">
-        <v>0.37481100000000001</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="C16" s="41">
-        <v>0.26181399999999999</v>
+        <v>0.21731800000000001</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
       <c r="H16" s="35">
-        <v>1.1403509999999999</v>
-      </c>
-      <c r="I16" s="31">
-        <v>0.25622600000000001</v>
-      </c>
-      <c r="J16" s="41">
-        <v>0.24962899999999999</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="35">
-        <v>1.202037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.3100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
       <c r="B17" s="31">
-        <v>0.35280699999999998</v>
+        <v>8.0099999999999995E-4</v>
       </c>
       <c r="C17" s="41">
-        <v>0.26362000000000002</v>
+        <v>0.23716899999999999</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35">
-        <v>1.162768</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0.26330100000000001</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0.25570399999999999</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="35">
-        <v>1.2246889999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.7199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
       <c r="B18" s="31">
-        <v>0.39676099999999997</v>
+        <v>8.61E-4</v>
       </c>
       <c r="C18" s="41">
-        <v>0.261243</v>
+        <v>0.27135399999999998</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35">
-        <v>1.214642</v>
-      </c>
-      <c r="I18" s="31">
-        <v>0.252834</v>
-      </c>
-      <c r="J18" s="41">
-        <v>0.26215899999999998</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="35">
-        <v>1.2037439999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3.9800000000000002E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
       <c r="B19" s="31">
-        <v>0.39177899999999999</v>
+        <v>9.4600000000000001E-4</v>
       </c>
       <c r="C19" s="41">
-        <v>0.26860299999999998</v>
+        <v>0.302902</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35">
-        <v>1.235428</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0.246529</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0.25353500000000001</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="35">
-        <v>1.2464759999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.1199999999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <v>0.38561899999999999</v>
+        <v>1.0870000000000001E-3</v>
       </c>
       <c r="C20" s="41">
-        <v>0.265455</v>
+        <v>0.38416499999999998</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="32"/>
       <c r="H20" s="35">
-        <v>1.314586</v>
-      </c>
-      <c r="I20" s="31">
-        <v>0.32949200000000001</v>
-      </c>
-      <c r="J20" s="41">
-        <v>0.28178599999999998</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="35">
-        <v>1.2517579999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.5199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
       <c r="B21" s="31">
-        <v>0.39063100000000001</v>
+        <v>1.1689999999999999E-3</v>
       </c>
       <c r="C21" s="41">
-        <v>0.27809099999999998</v>
+        <v>0.408663</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
       <c r="H21" s="35">
-        <v>1.3038350000000001</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0.315446</v>
-      </c>
-      <c r="J21" s="41">
-        <v>0.266851</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="35">
-        <v>1.3376939999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
       <c r="B22" s="31">
-        <v>0.40657399999999999</v>
+        <v>1.225E-3</v>
       </c>
       <c r="C22" s="41">
-        <v>0.26937299999999997</v>
+        <v>0.41899500000000001</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="32"/>
       <c r="H22" s="35">
-        <v>1.339877</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0.28705900000000001</v>
-      </c>
-      <c r="J22" s="41">
-        <v>0.27779100000000001</v>
-      </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="35">
-        <v>1.4041129999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.2300000000000003E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
       <c r="B23" s="31">
-        <v>0.41930600000000001</v>
+        <v>1.1820000000000001E-3</v>
       </c>
       <c r="C23" s="41">
-        <v>0.27275899999999997</v>
+        <v>0.46820600000000001</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
       <c r="H23" s="35">
-        <v>1.385939</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0.264075</v>
-      </c>
-      <c r="J23" s="41">
-        <v>0.28279799999999999</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="35">
-        <v>1.4679340000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.6899999999999995E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
       <c r="B24" s="31">
-        <v>0.42099199999999998</v>
+        <v>1.299E-3</v>
       </c>
       <c r="C24" s="41">
-        <v>0.28111000000000003</v>
+        <v>0.50933499999999998</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
       <c r="H24" s="35">
-        <v>1.4443049999999999</v>
-      </c>
-      <c r="I24" s="31">
-        <v>0.25814500000000001</v>
-      </c>
-      <c r="J24" s="41">
-        <v>0.28891099999999997</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="35">
-        <v>1.4958990000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.1900000000000004E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B25" s="31">
-        <v>0.45132699999999998</v>
+        <v>5.117E-3</v>
       </c>
       <c r="C25" s="41">
-        <v>0.27261000000000002</v>
+        <v>2.2536710000000002</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
       <c r="H25" s="35">
-        <v>1.474307</v>
-      </c>
-      <c r="I25" s="31">
-        <v>0.25586199999999998</v>
-      </c>
-      <c r="J25" s="41">
-        <v>0.32048399999999999</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="35">
-        <v>1.4833130000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.505E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B26" s="31">
-        <v>0.71567999999999998</v>
+        <v>3.3465000000000002E-2</v>
       </c>
       <c r="C26" s="41">
-        <v>0.318606</v>
+        <v>17.585903999999999</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
       <c r="H26" s="35">
-        <v>2.133343</v>
-      </c>
-      <c r="I26" s="31">
-        <v>0.27708500000000003</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0.39114399999999999</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="35">
-        <v>2.2488069999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7.5630000000000003E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27" s="31">
-        <v>2.2131759999999998</v>
+        <v>0.26181700000000002</v>
       </c>
       <c r="C27" s="41">
-        <v>0.497253</v>
+        <v>135.96788900000001</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35">
-        <v>4.08141</v>
-      </c>
-      <c r="I27" s="31">
-        <v>0.33266600000000002</v>
-      </c>
-      <c r="J27" s="41">
-        <v>0.61058900000000005</v>
-      </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="35">
-        <v>4.1857309999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.0980999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B28" s="31">
-        <v>8.0704419999999999</v>
-      </c>
-      <c r="C28" s="41">
-        <v>1.0860160000000001</v>
-      </c>
+        <v>0.83933100000000005</v>
+      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="32"/>
       <c r="H28" s="35">
-        <v>8.0967079999999996</v>
-      </c>
-      <c r="I28" s="31">
-        <v>0.43648500000000001</v>
-      </c>
-      <c r="J28" s="41">
-        <v>1.149098</v>
-      </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="35">
-        <v>8.4054420000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.11917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B29" s="31">
-        <v>46.517080999999997</v>
-      </c>
-      <c r="C29" s="41">
-        <v>4.7433990000000001</v>
-      </c>
+        <v>2.097823</v>
+      </c>
+      <c r="C29" s="41"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35">
-        <v>20.232810000000001</v>
-      </c>
-      <c r="I29" s="31">
-        <v>0.724518</v>
-      </c>
-      <c r="J29" s="41">
-        <v>5.147799</v>
-      </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="35">
-        <v>20.839773000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.267766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="41">
-        <v>16.075503999999999</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B30" s="31">
+        <v>3.7976459999999999</v>
+      </c>
+      <c r="C30" s="41"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>40.196716000000002</v>
-      </c>
-      <c r="I30" s="31">
-        <v>1.323769</v>
-      </c>
-      <c r="J30" s="41">
-        <v>14.477964999999999</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="35">
-        <v>41.045696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.48745899999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="41">
-        <v>29.044815</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B31" s="31">
+        <v>6.6955460000000002</v>
+      </c>
+      <c r="C31" s="41"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="31">
-        <v>1.8881049999999999</v>
-      </c>
-      <c r="J31" s="41">
-        <v>24.271457999999999</v>
-      </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H31" s="35">
+        <v>0.89831700000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="41">
-        <v>41.047272999999997</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="B32" s="31">
+        <v>10.269451</v>
+      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="31">
-        <v>2.2373959999999999</v>
-      </c>
-      <c r="J32" s="41">
-        <v>30.11224</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="35"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H32" s="35">
+        <v>1.401643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B33" s="31"/>
+        <v>800</v>
+      </c>
+      <c r="B33" s="31">
+        <v>15.457246</v>
+      </c>
       <c r="C33" s="41"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="31">
-        <v>2.6227719999999999</v>
-      </c>
-      <c r="J33" s="41">
-        <v>37.035893000000002</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="35"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H33" s="35">
+        <v>1.8958820000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <v>3000</v>
-      </c>
-      <c r="B34" s="31"/>
+        <v>900</v>
+      </c>
+      <c r="B34" s="31">
+        <v>22.929352999999999</v>
+      </c>
       <c r="C34" s="41"/>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="31">
-        <v>3.2069930000000002</v>
-      </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="35"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H34" s="35">
+        <v>2.5619960000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B35" s="31"/>
+        <v>1000</v>
+      </c>
+      <c r="B35" s="31">
+        <v>30.747066</v>
+      </c>
       <c r="C35" s="41"/>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="31">
-        <v>5.3880530000000002</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="35"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H35" s="35">
+        <v>3.5539049999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B36" s="31"/>
+        <v>1100</v>
+      </c>
+      <c r="B36" s="31">
+        <v>42.341085</v>
+      </c>
       <c r="C36" s="41"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="31">
-        <v>10.132504000000001</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="35"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H36" s="35">
+        <v>4.8722070000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="41"/>
@@ -4414,18 +3969,13 @@
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
       <c r="G37" s="32"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H37" s="35">
+        <v>6.0028949999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <v>30000</v>
+        <v>1300</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="41"/>
@@ -4433,18 +3983,13 @@
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
       <c r="G38" s="32"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H38" s="35">
+        <v>7.451327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>40000</v>
+        <v>1400</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="41"/>
@@ -4452,18 +3997,13 @@
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
       <c r="G39" s="32"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="35"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H39" s="35">
+        <v>9.7141470000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <v>50000</v>
+        <v>1500</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="41"/>
@@ -4471,1420 +4011,8 @@
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
       <c r="G40" s="32"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="35"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>60000</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="35"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>70000</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="35"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>80000</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>90000</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>100000</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="37"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="29"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="22"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="22"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="22"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="22"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="22"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="22"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="22"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="22"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="22"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="22"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L57" s="22"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="22"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="22"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L59" s="22"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="22"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L60" s="22"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="22"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L61" s="22"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="22"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="22"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="22"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L64" s="22"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="22"/>
-    </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L65" s="22"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="22"/>
-    </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="22"/>
-    </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L67" s="22"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="22"/>
-    </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L68" s="22"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="22"/>
-    </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L69" s="22"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="22"/>
-    </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L70" s="22"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="22"/>
-    </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L71" s="22"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="23"/>
-      <c r="Z71" s="22"/>
-    </row>
-    <row r="72" spans="12:26" x14ac:dyDescent="0.2">
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5DB39-D8BE-B747-A405-E55FB17E9A9F}">
-  <dimension ref="A1:V89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="15.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>10</v>
-      </c>
-      <c r="B3" s="31">
-        <v>1.05E-4</v>
-      </c>
-      <c r="C3" s="41">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>11</v>
-      </c>
-      <c r="B4" s="31">
-        <v>1.35E-4</v>
-      </c>
-      <c r="C4" s="41">
-        <v>1.44E-4</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="35">
-        <v>1.03E-4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.6200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>12</v>
-      </c>
-      <c r="B5" s="31">
-        <v>1.6100000000000001E-4</v>
-      </c>
-      <c r="C5" s="41">
-        <v>1.84E-4</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="35">
-        <v>1.2E-4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.14E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>13</v>
-      </c>
-      <c r="B6" s="31">
-        <v>1.8900000000000001E-4</v>
-      </c>
-      <c r="C6" s="41">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="35">
-        <v>1.2400000000000001E-4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.2800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>14</v>
-      </c>
-      <c r="B7" s="31">
-        <v>2.6899999999999998E-4</v>
-      </c>
-      <c r="C7" s="41">
-        <v>3.4499999999999998E-4</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="35">
-        <v>1.4300000000000001E-4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.7099999999999997E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>15</v>
-      </c>
-      <c r="B8" s="31">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="C8" s="41">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="35">
-        <v>1.66E-4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.5399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>16</v>
-      </c>
-      <c r="B9" s="31">
-        <v>3.2200000000000002E-4</v>
-      </c>
-      <c r="C9" s="41">
-        <v>2.7900000000000001E-4</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="35">
-        <v>1.7799999999999999E-4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.4099999999999999E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>17</v>
-      </c>
-      <c r="B10" s="31">
-        <v>4.8700000000000002E-4</v>
-      </c>
-      <c r="C10" s="41">
-        <v>3.1599999999999998E-4</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="35">
-        <v>2.04E-4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.4099999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>18</v>
-      </c>
-      <c r="B11" s="31">
-        <v>3.9500000000000001E-4</v>
-      </c>
-      <c r="C11" s="41">
-        <v>4.06E-4</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35">
-        <v>2.6899999999999998E-4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4.9299999999999995E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31">
-        <v>4.6500000000000003E-4</v>
-      </c>
-      <c r="C12" s="41">
-        <v>3.6499999999999998E-4</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="35">
-        <v>2.4399999999999999E-4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5.1699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>20</v>
-      </c>
-      <c r="B13" s="31">
-        <v>4.8899999999999996E-4</v>
-      </c>
-      <c r="C13" s="41">
-        <v>3.9500000000000001E-4</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="35">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7.9100000000000004E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>21</v>
-      </c>
-      <c r="B14" s="31">
-        <v>5.5800000000000001E-4</v>
-      </c>
-      <c r="C14" s="41">
-        <v>4.26E-4</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="35">
-        <v>2.8600000000000001E-4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7.2199999999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>22</v>
-      </c>
-      <c r="B15" s="31">
-        <v>6.2799999999999998E-4</v>
-      </c>
-      <c r="C15" s="41">
-        <v>4.8700000000000002E-4</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="35">
-        <v>2.9599999999999998E-4</v>
-      </c>
-      <c r="I15" s="1">
-        <v>7.7899999999999996E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31">
-        <v>6.9700000000000003E-4</v>
-      </c>
-      <c r="C16" s="41">
-        <v>5.4199999999999995E-4</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="35">
-        <v>3.39E-4</v>
-      </c>
-      <c r="I16" s="1">
-        <v>9.6199999999999996E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>24</v>
-      </c>
-      <c r="B17" s="31">
-        <v>8.1300000000000003E-4</v>
-      </c>
-      <c r="C17" s="41">
-        <v>5.6800000000000004E-4</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="35">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="I17" s="1">
-        <v>9.9700000000000006E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>25</v>
-      </c>
-      <c r="B18" s="31">
-        <v>8.4699999999999999E-4</v>
-      </c>
-      <c r="C18" s="41">
-        <v>6.0300000000000002E-4</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="35">
-        <v>3.7300000000000001E-4</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.093E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>26</v>
-      </c>
-      <c r="B19" s="31">
-        <v>9.2699999999999998E-4</v>
-      </c>
-      <c r="C19" s="41">
-        <v>6.69E-4</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="35">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.377E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>27</v>
-      </c>
-      <c r="B20" s="31">
-        <v>1.067E-3</v>
-      </c>
-      <c r="C20" s="41">
-        <v>7.1400000000000001E-4</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="35">
-        <v>5.4500000000000002E-4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.377E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>28</v>
-      </c>
-      <c r="B21" s="31">
-        <v>1.096E-3</v>
-      </c>
-      <c r="C21" s="41">
-        <v>7.2400000000000003E-4</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="35">
-        <v>4.7800000000000002E-4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.523E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>29</v>
-      </c>
-      <c r="B22" s="31">
-        <v>1.0859999999999999E-3</v>
-      </c>
-      <c r="C22" s="41">
-        <v>8.6700000000000004E-4</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="35">
-        <v>4.9799999999999996E-4</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.72E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>30</v>
-      </c>
-      <c r="B23" s="31">
-        <v>1.193E-3</v>
-      </c>
-      <c r="C23" s="41">
-        <v>8.3600000000000005E-4</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="35">
-        <v>5.3300000000000005E-4</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.8619999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>31</v>
-      </c>
-      <c r="B24" s="31">
-        <v>1.2880000000000001E-3</v>
-      </c>
-      <c r="C24" s="41">
-        <v>9.3000000000000005E-4</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="35">
-        <v>5.6099999999999998E-4</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2.0409999999999998E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>50</v>
-      </c>
-      <c r="B25" s="31">
-        <v>5.0540000000000003E-3</v>
-      </c>
-      <c r="C25" s="41">
-        <v>2.6819999999999999E-3</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="35">
-        <v>1.611E-3</v>
-      </c>
-      <c r="I25" s="1">
-        <v>9.5499999999999995E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>100</v>
-      </c>
-      <c r="B26" s="31">
-        <v>3.3638000000000001E-2</v>
-      </c>
-      <c r="C26" s="41">
-        <v>1.4350999999999999E-2</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="35">
-        <v>1.0024E-2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>9.0746999999999994E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>200</v>
-      </c>
-      <c r="B27" s="31">
-        <v>0.25188700000000003</v>
-      </c>
-      <c r="C27" s="41">
-        <v>8.0065999999999998E-2</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="35">
-        <v>4.9181000000000002E-2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.1944090000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>300</v>
-      </c>
-      <c r="B28" s="31">
-        <v>0.80717399999999995</v>
-      </c>
-      <c r="C28" s="41">
-        <v>0.213535</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="35">
-        <v>0.12725400000000001</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5.8417630000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>400</v>
-      </c>
-      <c r="B29" s="31">
-        <v>1.925832</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0.45950000000000002</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="35">
-        <v>0.27346999999999999</v>
-      </c>
-      <c r="I29" s="1">
-        <v>18.369762999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>500</v>
-      </c>
-      <c r="B30" s="31">
-        <v>3.6897579999999999</v>
-      </c>
-      <c r="C30" s="41">
-        <v>0.878054</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="35">
-        <v>0.50815999999999995</v>
-      </c>
-      <c r="I30" s="1">
-        <v>44.338042000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>600</v>
-      </c>
-      <c r="B31" s="31">
-        <v>6.9132769999999999</v>
-      </c>
-      <c r="C31" s="41">
-        <v>1.455802</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="35">
-        <v>0.83060599999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>700</v>
-      </c>
-      <c r="B32" s="31">
-        <v>10.215277</v>
-      </c>
-      <c r="C32" s="41">
-        <v>2.2694529999999999</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="35">
-        <v>1.258284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>800</v>
-      </c>
-      <c r="B33" s="31">
-        <v>15.238072000000001</v>
-      </c>
-      <c r="C33" s="41">
-        <v>3.3541669999999999</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35">
-        <v>1.862716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>900</v>
-      </c>
-      <c r="B34" s="31">
-        <v>21.579481999999999</v>
-      </c>
-      <c r="C34" s="41">
-        <v>4.8051009999999996</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35">
-        <v>2.6048650000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B35" s="31">
-        <v>30.339016999999998</v>
-      </c>
-      <c r="C35" s="41">
-        <v>6.6195940000000002</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="35">
-        <v>3.4755090000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>1100</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="41">
-        <v>8.8251519999999992</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="35">
-        <v>4.6137430000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>1200</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="41">
-        <v>11.545897</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="35">
-        <v>5.8844849999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>1300</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="41">
-        <v>14.455833</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="35">
-        <v>7.5488759999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>1400</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="41">
-        <v>18.518139999999999</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="35">
-        <v>9.0879290000000008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="41">
-        <v>22.768948999999999</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32"/>
       <c r="H40" s="35">
-        <v>11.305922000000001</v>
+        <v>11.373620000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -6472,13 +4600,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2176A5-75DF-A044-ABD9-8458655436F1}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6528,9 +4656,7 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>34</v>
-      </c>
+      <c r="I2" s="47"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -6542,21 +4668,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="31">
-        <v>6.0999999999999999E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="C3" s="41">
-        <v>1.0399999999999999E-4</v>
+        <v>2.5301000000000001E-2</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="35">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6.9999999999999994E-5</v>
-      </c>
+        <v>5.1E-5</v>
+      </c>
+      <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
@@ -6568,21 +4692,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="31">
-        <v>6.8999999999999997E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="C4" s="41">
-        <v>2.42E-4</v>
+        <v>3.2339E-2</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="32"/>
       <c r="H4" s="35">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="I4" s="44">
-        <v>7.4999999999999993E-5</v>
-      </c>
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
@@ -6594,21 +4716,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="31">
-        <v>7.2999999999999999E-5</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="C5" s="41">
-        <v>1.5300000000000001E-4</v>
+        <v>3.671E-2</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="35">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="I5" s="44">
-        <v>8.7000000000000001E-5</v>
-      </c>
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="I5" s="44"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
@@ -6623,18 +4743,16 @@
         <v>7.7999999999999999E-5</v>
       </c>
       <c r="C6" s="41">
-        <v>1.7200000000000001E-4</v>
+        <v>4.9623E-2</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="32"/>
       <c r="H6" s="35">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="I6" s="44">
-        <v>9.2E-5</v>
-      </c>
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="I6" s="44"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
@@ -6646,21 +4764,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="31">
-        <v>8.8999999999999995E-5</v>
+        <v>8.2000000000000001E-5</v>
       </c>
       <c r="C7" s="41">
-        <v>2.1599999999999999E-4</v>
+        <v>6.9962999999999997E-2</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="32"/>
       <c r="H7" s="35">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="I7" s="44">
-        <v>1.02E-4</v>
-      </c>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
@@ -6672,21 +4788,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="31">
-        <v>1.15E-4</v>
+        <v>8.7999999999999998E-5</v>
       </c>
       <c r="C8" s="41">
-        <v>2.0799999999999999E-4</v>
+        <v>8.3166000000000004E-2</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="32"/>
       <c r="H8" s="35">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="I8" s="44">
-        <v>1.1400000000000001E-4</v>
-      </c>
+        <v>6.3E-5</v>
+      </c>
+      <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
@@ -6698,21 +4812,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="31">
-        <v>1.05E-4</v>
+        <v>9.7E-5</v>
       </c>
       <c r="C9" s="41">
-        <v>2.33E-4</v>
+        <v>0.100675</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="35">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="I9" s="44">
-        <v>1.2400000000000001E-4</v>
-      </c>
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
@@ -6724,21 +4836,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="31">
-        <v>1.13E-4</v>
+        <v>1.05E-4</v>
       </c>
       <c r="C10" s="41">
-        <v>2.7300000000000002E-4</v>
+        <v>0.126773</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32"/>
       <c r="H10" s="35">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="I10" s="44">
-        <v>1.2300000000000001E-4</v>
-      </c>
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -6750,21 +4860,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="31">
-        <v>1.25E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="C11" s="41">
-        <v>2.9E-4</v>
+        <v>0.152144</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
       <c r="G11" s="32"/>
       <c r="H11" s="35">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="I11" s="44">
-        <v>1.2999999999999999E-4</v>
-      </c>
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
@@ -6776,21 +4884,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="31">
-        <v>1.34E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="C12" s="41">
-        <v>3.1300000000000002E-4</v>
+        <v>0.20361799999999999</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="32"/>
       <c r="H12" s="35">
-        <v>1.16E-4</v>
-      </c>
-      <c r="I12" s="44">
-        <v>1.47E-4</v>
-      </c>
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
@@ -6802,21 +4908,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="31">
-        <v>1.3799999999999999E-4</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="C13" s="41">
-        <v>3.3399999999999999E-4</v>
+        <v>0.23338500000000001</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="35">
-        <v>7.7999999999999999E-5</v>
-      </c>
-      <c r="I13" s="44">
-        <v>1.5200000000000001E-4</v>
-      </c>
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
@@ -6828,21 +4932,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="31">
-        <v>1.5200000000000001E-4</v>
+        <v>1.4799999999999999E-4</v>
       </c>
       <c r="C14" s="41">
-        <v>3.6600000000000001E-4</v>
+        <v>0.26924500000000001</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="32"/>
       <c r="H14" s="35">
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="I14" s="44">
-        <v>1.66E-4</v>
-      </c>
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
@@ -6854,21 +4956,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="31">
-        <v>1.7899999999999999E-4</v>
+        <v>1.5300000000000001E-4</v>
       </c>
       <c r="C15" s="41">
-        <v>3.9199999999999999E-4</v>
+        <v>0.29666900000000002</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="I15" s="44">
-        <v>1.7699999999999999E-4</v>
-      </c>
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
@@ -6880,21 +4980,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="31">
-        <v>1.8000000000000001E-4</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="C16" s="41">
-        <v>4.6000000000000001E-4</v>
+        <v>0.36735800000000002</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
       <c r="H16" s="35">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="I16" s="44">
-        <v>1.92E-4</v>
-      </c>
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
@@ -6906,21 +5004,19 @@
         <v>24</v>
       </c>
       <c r="B17" s="31">
-        <v>1.9000000000000001E-4</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="C17" s="41">
-        <v>5.0299999999999997E-4</v>
+        <v>0.40201300000000001</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="I17" s="44">
-        <v>2.0100000000000001E-4</v>
-      </c>
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
@@ -6932,21 +5028,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="31">
-        <v>2.05E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="C18" s="41">
-        <v>5.3799999999999996E-4</v>
+        <v>0.46376099999999998</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="I18" s="44">
-        <v>1.95E-4</v>
-      </c>
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
@@ -6958,21 +5052,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="31">
-        <v>2.2000000000000001E-4</v>
+        <v>1.92E-4</v>
       </c>
       <c r="C19" s="41">
-        <v>5.7499999999999999E-4</v>
+        <v>0.54160900000000001</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35">
-        <v>1.12E-4</v>
-      </c>
-      <c r="I19" s="44">
-        <v>1.9900000000000001E-4</v>
-      </c>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
@@ -6984,21 +5076,19 @@
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <v>2.2699999999999999E-4</v>
+        <v>1.8699999999999999E-4</v>
       </c>
       <c r="C20" s="41">
-        <v>5.53E-4</v>
+        <v>0.62826599999999999</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="32"/>
       <c r="H20" s="35">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="I20" s="44">
-        <v>2.0699999999999999E-4</v>
-      </c>
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
@@ -7010,21 +5100,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="31">
-        <v>2.4499999999999999E-4</v>
+        <v>1.95E-4</v>
       </c>
       <c r="C21" s="41">
-        <v>5.7899999999999998E-4</v>
+        <v>0.69602799999999998</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
       <c r="H21" s="35">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="I21" s="44">
-        <v>2.1800000000000001E-4</v>
-      </c>
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
@@ -7036,21 +5124,19 @@
         <v>29</v>
       </c>
       <c r="B22" s="31">
-        <v>2.3699999999999999E-4</v>
+        <v>2.1900000000000001E-4</v>
       </c>
       <c r="C22" s="41">
-        <v>6.1700000000000004E-4</v>
+        <v>0.77300199999999997</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="32"/>
       <c r="H22" s="35">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="I22" s="44">
-        <v>2.3800000000000001E-4</v>
-      </c>
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
@@ -7062,21 +5148,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="31">
-        <v>2.3900000000000001E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="C23" s="41">
-        <v>6.6600000000000003E-4</v>
+        <v>0.83831800000000001</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
       <c r="H23" s="35">
-        <v>1.03E-4</v>
-      </c>
-      <c r="I23" s="44">
-        <v>2.4899999999999998E-4</v>
-      </c>
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="I23" s="44"/>
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
@@ -7088,21 +5172,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="31">
-        <v>2.41E-4</v>
+        <v>2.3900000000000001E-4</v>
       </c>
       <c r="C24" s="41">
-        <v>7.1100000000000004E-4</v>
+        <v>0.93367500000000003</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
       <c r="H24" s="35">
-        <v>1.06E-4</v>
-      </c>
-      <c r="I24" s="44">
-        <v>2.7E-4</v>
-      </c>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
@@ -7114,21 +5196,19 @@
         <v>32</v>
       </c>
       <c r="B25" s="31">
-        <v>2.5700000000000001E-4</v>
+        <v>2.7900000000000001E-4</v>
       </c>
       <c r="C25" s="41">
-        <v>7.6999999999999996E-4</v>
+        <v>1.0246580000000001</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
       <c r="H25" s="35">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="I25" s="44">
-        <v>2.7700000000000001E-4</v>
-      </c>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
@@ -7140,21 +5220,19 @@
         <v>50</v>
       </c>
       <c r="B26" s="31">
-        <v>7.4799999999999997E-4</v>
+        <v>5.5800000000000001E-4</v>
       </c>
       <c r="C26" s="41">
-        <v>2.2650000000000001E-3</v>
+        <v>4.0778559999999997</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
       <c r="H26" s="35">
-        <v>1.5799999999999999E-4</v>
-      </c>
-      <c r="I26" s="44">
-        <v>6.3000000000000003E-4</v>
-      </c>
+        <v>1.44E-4</v>
+      </c>
+      <c r="I26" s="44"/>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
@@ -7166,21 +5244,17 @@
         <v>100</v>
       </c>
       <c r="B27" s="31">
-        <v>2.372E-3</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1.3572000000000001E-2</v>
-      </c>
+        <v>2.1220000000000002E-3</v>
+      </c>
+      <c r="C27" s="41"/>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35">
-        <v>4.4799999999999999E-4</v>
-      </c>
-      <c r="I27" s="44">
-        <v>2.4020000000000001E-3</v>
-      </c>
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
@@ -7192,21 +5266,17 @@
         <v>200</v>
       </c>
       <c r="B28" s="31">
-        <v>1.1001E-2</v>
-      </c>
-      <c r="C28" s="41">
-        <v>8.1689999999999999E-2</v>
-      </c>
+        <v>8.1759999999999992E-3</v>
+      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="32"/>
       <c r="H28" s="35">
-        <v>3.372E-3</v>
-      </c>
-      <c r="I28" s="44">
-        <v>1.0204E-2</v>
-      </c>
+        <v>5.1199999999999998E-4</v>
+      </c>
+      <c r="I28" s="44"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
@@ -7218,21 +5288,17 @@
         <v>500</v>
       </c>
       <c r="B29" s="31">
-        <v>6.6217999999999999E-2</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0.81806900000000005</v>
-      </c>
+        <v>4.6063E-2</v>
+      </c>
+      <c r="C29" s="41"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35">
-        <v>2.0138E-2</v>
-      </c>
-      <c r="I29" s="44">
-        <v>6.2970999999999999E-2</v>
-      </c>
+        <v>1.433E-3</v>
+      </c>
+      <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
@@ -7244,21 +5310,17 @@
         <v>1000</v>
       </c>
       <c r="B30" s="31">
-        <v>0.29499799999999998</v>
-      </c>
-      <c r="C30" s="41">
-        <v>6.5473369999999997</v>
-      </c>
+        <v>0.18257300000000001</v>
+      </c>
+      <c r="C30" s="41"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>0.107669</v>
-      </c>
-      <c r="I30" s="44">
-        <v>0.26303300000000002</v>
-      </c>
+        <v>4.6470000000000001E-3</v>
+      </c>
+      <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -7270,21 +5332,17 @@
         <v>1500</v>
       </c>
       <c r="B31" s="31">
-        <v>0.67230000000000001</v>
-      </c>
-      <c r="C31" s="41">
-        <v>23.043672000000001</v>
-      </c>
+        <v>0.40516799999999997</v>
+      </c>
+      <c r="C31" s="41"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="32"/>
       <c r="H31" s="35">
-        <v>0.26543099999999997</v>
-      </c>
-      <c r="I31" s="44">
-        <v>0.60018199999999999</v>
-      </c>
+        <v>7.7850000000000003E-3</v>
+      </c>
+      <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
@@ -7296,21 +5354,17 @@
         <v>2000</v>
       </c>
       <c r="B32" s="31">
-        <v>1.2279640000000001</v>
-      </c>
-      <c r="C32" s="41">
-        <v>54.845061999999999</v>
-      </c>
+        <v>0.722827</v>
+      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
       <c r="G32" s="32"/>
       <c r="H32" s="35">
-        <v>0.48413200000000001</v>
-      </c>
-      <c r="I32" s="44">
-        <v>1.163044</v>
-      </c>
+        <v>1.1903E-2</v>
+      </c>
+      <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
@@ -7322,7 +5376,7 @@
         <v>2500</v>
       </c>
       <c r="B33" s="31">
-        <v>1.8975359999999999</v>
+        <v>1.2037530000000001</v>
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="32"/>
@@ -7330,11 +5384,9 @@
       <c r="F33" s="34"/>
       <c r="G33" s="32"/>
       <c r="H33" s="35">
-        <v>0.78661899999999996</v>
-      </c>
-      <c r="I33" s="44">
-        <v>1.761371</v>
-      </c>
+        <v>1.1854999999999999E-2</v>
+      </c>
+      <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
@@ -7346,7 +5398,7 @@
         <v>3000</v>
       </c>
       <c r="B34" s="31">
-        <v>2.7256860000000001</v>
+        <v>1.8822639999999999</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="32"/>
@@ -7354,11 +5406,9 @@
       <c r="F34" s="34"/>
       <c r="G34" s="32"/>
       <c r="H34" s="35">
-        <v>1.121691</v>
-      </c>
-      <c r="I34" s="44">
-        <v>2.8894570000000002</v>
-      </c>
+        <v>1.2096000000000001E-2</v>
+      </c>
+      <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
@@ -7370,7 +5420,7 @@
         <v>5000</v>
       </c>
       <c r="B35" s="31">
-        <v>8.2656740000000006</v>
+        <v>4.939832</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="32"/>
@@ -7378,11 +5428,9 @@
       <c r="F35" s="34"/>
       <c r="G35" s="32"/>
       <c r="H35" s="35">
-        <v>3.681603</v>
-      </c>
-      <c r="I35" s="44">
-        <v>9.8665489999999991</v>
-      </c>
+        <v>2.3064000000000001E-2</v>
+      </c>
+      <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
@@ -7393,20 +5441,16 @@
       <c r="A36" s="7">
         <v>10000</v>
       </c>
-      <c r="B36" s="31">
-        <v>36.083728999999998</v>
-      </c>
+      <c r="B36" s="31"/>
       <c r="C36" s="41"/>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
       <c r="G36" s="32"/>
       <c r="H36" s="35">
-        <v>13.890627</v>
-      </c>
-      <c r="I36" s="44">
-        <v>54.614002999999997</v>
-      </c>
+        <v>6.0235999999999998E-2</v>
+      </c>
+      <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
@@ -7913,7 +5957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F858619-4034-6D4B-AE88-CC326C3FA02F}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
@@ -9965,7 +8009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697EF572-D14E-D546-8A43-C4F9AFFCFBD5}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
@@ -9985,7 +8029,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -9994,7 +8038,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -12007,9 +10051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F1A3-C3C0-3C43-978B-5219F965718F}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H41" sqref="H41"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15317,7 +13361,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C38" sqref="C38"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15331,7 +13375,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -15340,7 +13384,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -18015,7 +16059,7 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C40" sqref="C40"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18023,7 +16067,7 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="54" t="s">
         <v>14</v>
       </c>
@@ -18034,7 +16078,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -18059,11 +16103,8 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
@@ -18088,11 +16129,8 @@
       <c r="H3" s="35">
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="I3" s="1">
-        <v>1.35E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -18117,11 +16155,8 @@
       <c r="H4" s="35">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="I4" s="1">
-        <v>1.6699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -18146,11 +16181,8 @@
       <c r="H5" s="35">
         <v>8.8999999999999995E-5</v>
       </c>
-      <c r="I5" s="1">
-        <v>1.9699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -18175,11 +16207,8 @@
       <c r="H6" s="35">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="1">
-        <v>2.24E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -18204,11 +16233,8 @@
       <c r="H7" s="35">
         <v>1.16E-4</v>
       </c>
-      <c r="I7" s="1">
-        <v>2.63E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
@@ -18233,11 +16259,8 @@
       <c r="H8" s="35">
         <v>1.27E-4</v>
       </c>
-      <c r="I8" s="1">
-        <v>3.1599999999999998E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
@@ -18262,11 +16285,8 @@
       <c r="H9" s="35">
         <v>1.4100000000000001E-4</v>
       </c>
-      <c r="I9" s="1">
-        <v>3.5300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -18291,11 +16311,8 @@
       <c r="H10" s="35">
         <v>1.54E-4</v>
       </c>
-      <c r="I10" s="1">
-        <v>4.4700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
@@ -18320,11 +16337,8 @@
       <c r="H11" s="35">
         <v>1.6799999999999999E-4</v>
       </c>
-      <c r="I11" s="1">
-        <v>4.4700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -18349,11 +16363,8 @@
       <c r="H12" s="35">
         <v>1.85E-4</v>
       </c>
-      <c r="I12" s="1">
-        <v>5.2700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -18378,11 +16389,8 @@
       <c r="H13" s="35">
         <v>2.0100000000000001E-4</v>
       </c>
-      <c r="I13" s="1">
-        <v>5.6499999999999996E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
@@ -18407,11 +16415,8 @@
       <c r="H14" s="35">
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="I14" s="1">
-        <v>6.7100000000000005E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
@@ -18436,11 +16441,8 @@
       <c r="H15" s="35">
         <v>2.2900000000000001E-4</v>
       </c>
-      <c r="I15" s="1">
-        <v>7.3700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
@@ -18465,11 +16467,8 @@
       <c r="H16" s="35">
         <v>2.4800000000000001E-4</v>
       </c>
-      <c r="I16" s="1">
-        <v>8.4199999999999998E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
@@ -18494,11 +16493,8 @@
       <c r="H17" s="35">
         <v>2.61E-4</v>
       </c>
-      <c r="I17" s="1">
-        <v>9.6699999999999998E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
@@ -18523,11 +16519,8 @@
       <c r="H18" s="35">
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.023E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
@@ -18552,11 +16545,8 @@
       <c r="H19" s="35">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="I19" s="1">
-        <v>1.1540000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
@@ -18581,11 +16571,8 @@
       <c r="H20" s="35">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="I20" s="1">
-        <v>1.3489999999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
@@ -18610,11 +16597,8 @@
       <c r="H21" s="35">
         <v>3.5799999999999997E-4</v>
       </c>
-      <c r="I21" s="1">
-        <v>1.428E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
@@ -18639,11 +16623,8 @@
       <c r="H22" s="35">
         <v>3.3599999999999998E-4</v>
       </c>
-      <c r="I22" s="1">
-        <v>1.5920000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
@@ -18668,11 +16649,8 @@
       <c r="H23" s="35">
         <v>3.5E-4</v>
       </c>
-      <c r="I23" s="1">
-        <v>1.598E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
@@ -18697,11 +16675,8 @@
       <c r="H24" s="35">
         <v>3.68E-4</v>
       </c>
-      <c r="I24" s="1">
-        <v>1.8240000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>50</v>
       </c>
@@ -18724,11 +16699,8 @@
       <c r="H25" s="35">
         <v>1.013E-3</v>
       </c>
-      <c r="I25" s="1">
-        <v>8.3529999999999993E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>100</v>
       </c>
@@ -18751,11 +16723,8 @@
       <c r="H26" s="35">
         <v>5.8060000000000004E-3</v>
       </c>
-      <c r="I26" s="1">
-        <v>8.7799000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>200</v>
       </c>
@@ -18778,11 +16747,8 @@
       <c r="H27" s="35">
         <v>2.8844999999999999E-2</v>
       </c>
-      <c r="I27" s="1">
-        <v>1.22519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>300</v>
       </c>
@@ -18805,11 +16771,8 @@
       <c r="H28" s="35">
         <v>8.6013999999999993E-2</v>
       </c>
-      <c r="I28" s="1">
-        <v>6.0634889999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>400</v>
       </c>
@@ -18832,11 +16795,8 @@
       <c r="H29" s="35">
         <v>0.18609300000000001</v>
       </c>
-      <c r="I29" s="1">
-        <v>18.597874000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>500</v>
       </c>
@@ -18859,11 +16819,8 @@
       <c r="H30" s="35">
         <v>0.34356599999999998</v>
       </c>
-      <c r="I30" s="1">
-        <v>44.379713000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>600</v>
       </c>
@@ -18885,7 +16842,7 @@
         <v>0.573577</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>700</v>
       </c>
@@ -19753,7 +17710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H36" sqref="H36"/>
     </sheetView>
@@ -19806,7 +17763,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -21456,7 +19413,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26319,7 +24276,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26333,7 +24290,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -26342,7 +24299,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -26447,30 +24404,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="31">
-        <v>2.9E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="C3" s="41">
-        <v>1.08E-4</v>
+        <v>2.0753000000000001E-2</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="35">
-        <v>3.8000000000000002E-5</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="I3" s="31">
-        <v>2.0000000000000002E-5</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="J3" s="41">
-        <v>8.3999999999999995E-5</v>
+        <v>1.5617000000000001E-2</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="33"/>
       <c r="M3" s="34"/>
       <c r="N3" s="32"/>
       <c r="O3" s="35">
-        <v>2.9E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="P3" s="31">
         <v>2.5999999999999998E-5</v>
@@ -26508,30 +24465,30 @@
         <v>11</v>
       </c>
       <c r="B4" s="31">
-        <v>3.3000000000000003E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C4" s="41">
-        <v>1.2E-4</v>
+        <v>2.6057E-2</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="32"/>
       <c r="H4" s="35">
-        <v>4.3000000000000002E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="I4" s="31">
-        <v>2.3E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J4" s="41">
-        <v>8.1000000000000004E-5</v>
+        <v>2.2041000000000002E-2</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
       <c r="N4" s="32"/>
       <c r="O4" s="35">
-        <v>3.0000000000000001E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="32"/>
@@ -26549,30 +24506,30 @@
         <v>12</v>
       </c>
       <c r="B5" s="31">
-        <v>4.1E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="C5" s="41">
-        <v>1.37E-4</v>
+        <v>3.1153E-2</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="35">
-        <v>5.3999999999999998E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="I5" s="31">
-        <v>2.0999999999999999E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="J5" s="41">
-        <v>8.1000000000000004E-5</v>
+        <v>2.6943999999999999E-2</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
       <c r="M5" s="34"/>
       <c r="N5" s="32"/>
       <c r="O5" s="35">
-        <v>3.1999999999999999E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="32"/>
@@ -26590,30 +24547,30 @@
         <v>13</v>
       </c>
       <c r="B6" s="31">
-        <v>3.8000000000000002E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="C6" s="41">
-        <v>1.54E-4</v>
+        <v>3.6437999999999998E-2</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="32"/>
       <c r="H6" s="35">
-        <v>4.8000000000000001E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I6" s="31">
-        <v>2.3E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="J6" s="41">
-        <v>8.7000000000000001E-5</v>
+        <v>3.0928000000000001E-2</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="32"/>
       <c r="O6" s="35">
-        <v>3.1999999999999999E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
@@ -26631,30 +24588,30 @@
         <v>14</v>
       </c>
       <c r="B7" s="31">
-        <v>4.6E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="C7" s="41">
-        <v>1.5899999999999999E-4</v>
+        <v>4.7260000000000003E-2</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="32"/>
       <c r="H7" s="35">
-        <v>5.3000000000000001E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I7" s="31">
-        <v>2.3E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J7" s="41">
-        <v>1E-4</v>
+        <v>4.0439999999999997E-2</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
       <c r="N7" s="32"/>
       <c r="O7" s="35">
-        <v>3.4E-5</v>
+        <v>6.3E-5</v>
       </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="32"/>
@@ -26672,30 +24629,30 @@
         <v>15</v>
       </c>
       <c r="B8" s="31">
-        <v>4.6E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="C8" s="41">
-        <v>1.6799999999999999E-4</v>
+        <v>5.9246E-2</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="32"/>
       <c r="H8" s="35">
-        <v>5.5000000000000002E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="I8" s="31">
-        <v>2.3E-5</v>
+        <v>2.6999999999999999E-5</v>
       </c>
       <c r="J8" s="41">
-        <v>1.1E-4</v>
+        <v>5.0652999999999997E-2</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="33"/>
       <c r="M8" s="34"/>
       <c r="N8" s="32"/>
       <c r="O8" s="35">
-        <v>3.6999999999999998E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="P8" s="31">
         <v>3.4999999999999997E-5</v>
@@ -26733,30 +24690,30 @@
         <v>16</v>
       </c>
       <c r="B9" s="31">
-        <v>4.8999999999999998E-5</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="C9" s="41">
-        <v>1.8000000000000001E-4</v>
+        <v>7.2359999999999994E-2</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="35">
-        <v>5.5999999999999999E-5</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="I9" s="31">
-        <v>2.5000000000000001E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J9" s="41">
-        <v>1.18E-4</v>
+        <v>6.2177999999999997E-2</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="33"/>
       <c r="M9" s="34"/>
       <c r="N9" s="32"/>
       <c r="O9" s="35">
-        <v>3.8000000000000002E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="32"/>
@@ -26774,30 +24731,30 @@
         <v>17</v>
       </c>
       <c r="B10" s="31">
-        <v>5.1999999999999997E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="C10" s="41">
-        <v>2.24E-4</v>
+        <v>8.5551000000000002E-2</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32"/>
       <c r="H10" s="35">
-        <v>6.3E-5</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="I10" s="31">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="J10" s="41">
-        <v>1.2999999999999999E-4</v>
+        <v>7.6452999999999993E-2</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="33"/>
       <c r="M10" s="34"/>
       <c r="N10" s="32"/>
       <c r="O10" s="35">
-        <v>3.8999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="32"/>
@@ -26815,10 +24772,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="31">
-        <v>5.8E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="C11" s="41">
-        <v>2.2599999999999999E-4</v>
+        <v>0.10066700000000001</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -26828,17 +24785,17 @@
         <v>6.6000000000000005E-5</v>
       </c>
       <c r="I11" s="31">
-        <v>2.5999999999999998E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J11" s="41">
-        <v>1.2899999999999999E-4</v>
+        <v>9.1572000000000001E-2</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
       <c r="M11" s="34"/>
       <c r="N11" s="32"/>
       <c r="O11" s="35">
-        <v>3.8999999999999999E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
@@ -26859,7 +24816,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
       <c r="C12" s="41">
-        <v>2.42E-4</v>
+        <v>0.115803</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
@@ -26869,17 +24826,17 @@
         <v>6.8999999999999997E-5</v>
       </c>
       <c r="I12" s="31">
-        <v>2.5999999999999998E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J12" s="41">
-        <v>1.46E-4</v>
+        <v>0.108621</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
       <c r="M12" s="34"/>
       <c r="N12" s="32"/>
       <c r="O12" s="35">
-        <v>3.8000000000000002E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
@@ -26897,30 +24854,30 @@
         <v>20</v>
       </c>
       <c r="B13" s="31">
-        <v>6.4999999999999994E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="C13" s="41">
-        <v>2.52E-4</v>
+        <v>0.14731</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="35">
-        <v>7.2000000000000002E-5</v>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="I13" s="31">
-        <v>2.6999999999999999E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="J13" s="41">
-        <v>1.5699999999999999E-4</v>
+        <v>0.12868299999999999</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="33"/>
       <c r="M13" s="34"/>
       <c r="N13" s="32"/>
       <c r="O13" s="35">
-        <v>4.0000000000000003E-5</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="P13" s="31">
         <v>5.1E-5</v>
@@ -26958,30 +24915,30 @@
         <v>21</v>
       </c>
       <c r="B14" s="31">
-        <v>6.8999999999999997E-5</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="C14" s="41">
-        <v>2.72E-4</v>
+        <v>0.167737</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="32"/>
       <c r="H14" s="35">
-        <v>7.7000000000000001E-5</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I14" s="31">
-        <v>2.6999999999999999E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="J14" s="41">
-        <v>1.6000000000000001E-4</v>
+        <v>0.153724</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="33"/>
       <c r="M14" s="34"/>
       <c r="N14" s="32"/>
       <c r="O14" s="35">
-        <v>4.5000000000000003E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
@@ -26999,30 +24956,30 @@
         <v>22</v>
       </c>
       <c r="B15" s="31">
-        <v>7.7000000000000001E-5</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="C15" s="41">
-        <v>2.8800000000000001E-4</v>
+        <v>0.197212</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35">
-        <v>8.5000000000000006E-5</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I15" s="31">
-        <v>2.9E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="J15" s="41">
-        <v>1.8200000000000001E-4</v>
+        <v>0.17472399999999999</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
       <c r="N15" s="32"/>
       <c r="O15" s="35">
-        <v>4.6999999999999997E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
@@ -27040,30 +24997,30 @@
         <v>23</v>
       </c>
       <c r="B16" s="31">
-        <v>7.7000000000000001E-5</v>
+        <v>8.1000000000000004E-5</v>
       </c>
       <c r="C16" s="41">
-        <v>3.0499999999999999E-4</v>
+        <v>0.222187</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
       <c r="H16" s="35">
-        <v>9.3999999999999994E-5</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I16" s="31">
-        <v>2.6999999999999999E-5</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="J16" s="41">
-        <v>1.94E-4</v>
+        <v>0.20586199999999999</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="35">
-        <v>4.6E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="P16" s="31"/>
       <c r="Q16" s="32"/>
@@ -27081,30 +25038,30 @@
         <v>24</v>
       </c>
       <c r="B17" s="31">
-        <v>8.1000000000000004E-5</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="C17" s="41">
-        <v>3.2699999999999998E-4</v>
+        <v>0.25505100000000003</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35">
-        <v>9.5000000000000005E-5</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="I17" s="31">
-        <v>3.0000000000000001E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="J17" s="41">
-        <v>2.0699999999999999E-4</v>
+        <v>0.24196599999999999</v>
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
       <c r="N17" s="32"/>
       <c r="O17" s="35">
-        <v>5.5000000000000002E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
@@ -27122,30 +25079,30 @@
         <v>25</v>
       </c>
       <c r="B18" s="31">
-        <v>8.7999999999999998E-5</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="C18" s="41">
-        <v>3.5799999999999997E-4</v>
+        <v>0.286186</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35">
-        <v>9.7999999999999997E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="I18" s="31">
-        <v>3.1999999999999999E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="J18" s="41">
-        <v>2.1599999999999999E-4</v>
+        <v>0.26037700000000003</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
       <c r="N18" s="32"/>
       <c r="O18" s="35">
-        <v>5.3999999999999998E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="P18" s="31">
         <v>6.9999999999999994E-5</v>
@@ -27183,30 +25140,30 @@
         <v>26</v>
       </c>
       <c r="B19" s="31">
-        <v>9.7E-5</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="C19" s="41">
-        <v>3.6000000000000002E-4</v>
+        <v>0.31402099999999999</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35">
-        <v>1.06E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="I19" s="31">
-        <v>3.3000000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="J19" s="41">
-        <v>2.3900000000000001E-4</v>
+        <v>0.306008</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="32"/>
       <c r="O19" s="35">
-        <v>5.3000000000000001E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="32"/>
@@ -27224,23 +25181,23 @@
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <v>9.7E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="C20" s="41">
-        <v>3.2899999999999997E-4</v>
+        <v>0.35872199999999999</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="32"/>
       <c r="H20" s="35">
-        <v>1.07E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="I20" s="31">
-        <v>3.4E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J20" s="41">
-        <v>2.5300000000000002E-4</v>
+        <v>0.33970299999999998</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="33"/>
@@ -27265,30 +25222,30 @@
         <v>28</v>
       </c>
       <c r="B21" s="31">
-        <v>1.01E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="C21" s="41">
-        <v>4.0999999999999999E-4</v>
+        <v>0.408167</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
       <c r="H21" s="35">
-        <v>1.11E-4</v>
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="I21" s="31">
-        <v>4.6E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J21" s="41">
-        <v>2.5300000000000002E-4</v>
+        <v>0.38247300000000001</v>
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="33"/>
       <c r="M21" s="34"/>
       <c r="N21" s="32"/>
       <c r="O21" s="35">
-        <v>5.5000000000000002E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
@@ -27306,30 +25263,30 @@
         <v>29</v>
       </c>
       <c r="B22" s="31">
-        <v>1.21E-4</v>
+        <v>1.12E-4</v>
       </c>
       <c r="C22" s="41">
-        <v>4.28E-4</v>
+        <v>0.48523699999999997</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="32"/>
       <c r="H22" s="35">
-        <v>1.18E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="I22" s="31">
-        <v>3.1000000000000001E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="J22" s="41">
-        <v>2.9399999999999999E-4</v>
+        <v>0.44001800000000002</v>
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="33"/>
       <c r="M22" s="34"/>
       <c r="N22" s="32"/>
       <c r="O22" s="35">
-        <v>7.6000000000000004E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
@@ -27350,27 +25307,27 @@
         <v>1.1400000000000001E-4</v>
       </c>
       <c r="C23" s="41">
-        <v>4.8999999999999998E-4</v>
+        <v>0.53520900000000005</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
       <c r="H23" s="35">
-        <v>1.2400000000000001E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="I23" s="31">
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="J23" s="41">
-        <v>2.8699999999999998E-4</v>
+        <v>0.48030200000000001</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
       <c r="N23" s="32"/>
       <c r="O23" s="35">
-        <v>6.2000000000000003E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P23" s="31">
         <v>9.2999999999999997E-5</v>
@@ -27408,30 +25365,30 @@
         <v>31</v>
       </c>
       <c r="B24" s="31">
-        <v>1.21E-4</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="C24" s="41">
-        <v>5.0000000000000001E-4</v>
+        <v>0.57610799999999995</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
       <c r="H24" s="35">
-        <v>1.45E-4</v>
+        <v>1.11E-4</v>
       </c>
       <c r="I24" s="31">
-        <v>3.1999999999999999E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J24" s="41">
-        <v>2.8200000000000002E-4</v>
+        <v>0.52786100000000002</v>
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="33"/>
       <c r="M24" s="34"/>
       <c r="N24" s="32"/>
       <c r="O24" s="35">
-        <v>6.3E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
@@ -27449,30 +25406,30 @@
         <v>32</v>
       </c>
       <c r="B25" s="31">
-        <v>1.27E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="C25" s="41">
-        <v>5.4600000000000004E-4</v>
+        <v>0.62027900000000002</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
       <c r="H25" s="35">
-        <v>1.2899999999999999E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="I25" s="31">
-        <v>3.4E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="J25" s="41">
-        <v>3.0400000000000002E-4</v>
+        <v>0.56066499999999997</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="33"/>
       <c r="M25" s="34"/>
       <c r="N25" s="32"/>
       <c r="O25" s="35">
-        <v>6.6000000000000005E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
@@ -27490,30 +25447,30 @@
         <v>50</v>
       </c>
       <c r="B26" s="31">
-        <v>2.8400000000000002E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="C26" s="41">
-        <v>1.2830000000000001E-3</v>
+        <v>2.3023980000000002</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
       <c r="H26" s="35">
-        <v>2.5799999999999998E-4</v>
+        <v>2.81E-4</v>
       </c>
       <c r="I26" s="31">
-        <v>6.2000000000000003E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="J26" s="41">
-        <v>8.3699999999999996E-4</v>
+        <v>2.2072859999999999</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
       <c r="N26" s="32"/>
       <c r="O26" s="35">
-        <v>1.1E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="P26" s="31">
         <v>2.31E-4</v>
@@ -27549,30 +25506,30 @@
         <v>100</v>
       </c>
       <c r="B27" s="31">
-        <v>1.065E-3</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="C27" s="41">
-        <v>6.4549999999999998E-3</v>
+        <v>18.335730999999999</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35">
-        <v>9.4300000000000004E-4</v>
+        <v>1.036E-3</v>
       </c>
       <c r="I27" s="31">
-        <v>1.8599999999999999E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J27" s="41">
-        <v>4.9090000000000002E-3</v>
+        <v>17.374324999999999</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
       <c r="N27" s="32"/>
       <c r="O27" s="35">
-        <v>2.9399999999999999E-4</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="P27" s="31">
         <v>8.3000000000000001E-4</v>
@@ -27608,30 +25565,28 @@
         <v>200</v>
       </c>
       <c r="B28" s="31">
-        <v>4.0350000000000004E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="C28" s="41">
-        <v>3.4328999999999998E-2</v>
+        <v>141.35496800000001</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="32"/>
       <c r="H28" s="35">
-        <v>4.5100000000000001E-3</v>
+        <v>4.0689999999999997E-3</v>
       </c>
       <c r="I28" s="31">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="J28" s="41">
-        <v>3.1788999999999998E-2</v>
-      </c>
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="J28" s="41"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="34"/>
       <c r="N28" s="32"/>
       <c r="O28" s="35">
-        <v>8.0800000000000002E-4</v>
+        <v>2.6699999999999998E-4</v>
       </c>
       <c r="P28" s="31">
         <v>3.2160000000000001E-3</v>
@@ -27667,30 +25622,26 @@
         <v>500</v>
       </c>
       <c r="B29" s="31">
-        <v>2.6379E-2</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0.41209299999999999</v>
-      </c>
+        <v>1.8022E-2</v>
+      </c>
+      <c r="C29" s="41"/>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35">
-        <v>2.4927999999999999E-2</v>
+        <v>1.8131999999999999E-2</v>
       </c>
       <c r="I29" s="31">
-        <v>7.3249999999999999E-3</v>
-      </c>
-      <c r="J29" s="41">
-        <v>0.39972099999999999</v>
-      </c>
+        <v>3.97E-4</v>
+      </c>
+      <c r="J29" s="41"/>
       <c r="K29" s="32"/>
       <c r="L29" s="33"/>
       <c r="M29" s="34"/>
       <c r="N29" s="32"/>
       <c r="O29" s="35">
-        <v>1.1109000000000001E-2</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="P29" s="31">
         <v>1.8371999999999999E-2</v>
@@ -27726,30 +25677,26 @@
         <v>1000</v>
       </c>
       <c r="B30" s="31">
-        <v>0.112944</v>
-      </c>
-      <c r="C30" s="41">
-        <v>3.2395710000000002</v>
-      </c>
+        <v>6.8340999999999999E-2</v>
+      </c>
+      <c r="C30" s="41"/>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>0.10710600000000001</v>
+        <v>6.4748E-2</v>
       </c>
       <c r="I30" s="31">
-        <v>4.4729999999999999E-2</v>
-      </c>
-      <c r="J30" s="41">
-        <v>3.2018930000000001</v>
-      </c>
+        <v>8.0800000000000002E-4</v>
+      </c>
+      <c r="J30" s="41"/>
       <c r="K30" s="32"/>
       <c r="L30" s="33"/>
       <c r="M30" s="34"/>
       <c r="N30" s="32"/>
       <c r="O30" s="35">
-        <v>4.5064E-2</v>
+        <v>1.3450000000000001E-3</v>
       </c>
       <c r="P30" s="31">
         <v>5.9317000000000002E-2</v>
@@ -27785,30 +25732,26 @@
         <v>1500</v>
       </c>
       <c r="B31" s="31">
-        <v>0.26586300000000002</v>
-      </c>
-      <c r="C31" s="41">
-        <v>11.592487</v>
-      </c>
+        <v>0.149617</v>
+      </c>
+      <c r="C31" s="41"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="32"/>
       <c r="H31" s="35">
-        <v>0.25650600000000001</v>
+        <v>0.13381799999999999</v>
       </c>
       <c r="I31" s="31">
-        <v>0.12083099999999999</v>
-      </c>
-      <c r="J31" s="41">
-        <v>11.343971</v>
-      </c>
+        <v>1.2149999999999999E-3</v>
+      </c>
+      <c r="J31" s="41"/>
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
       <c r="M31" s="34"/>
       <c r="N31" s="32"/>
       <c r="O31" s="35">
-        <v>0.122402</v>
+        <v>3.7190000000000001E-3</v>
       </c>
       <c r="P31" s="31">
         <v>0.13069500000000001</v>
@@ -27844,30 +25787,26 @@
         <v>2000</v>
       </c>
       <c r="B32" s="31">
-        <v>0.48736699999999999</v>
-      </c>
-      <c r="C32" s="41">
-        <v>27.952344</v>
-      </c>
+        <v>0.26052599999999998</v>
+      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
       <c r="G32" s="32"/>
       <c r="H32" s="35">
-        <v>0.47379700000000002</v>
+        <v>0.243144</v>
       </c>
       <c r="I32" s="31">
-        <v>0.22234699999999999</v>
-      </c>
-      <c r="J32" s="41">
-        <v>27.605307</v>
-      </c>
+        <v>1.663E-3</v>
+      </c>
+      <c r="J32" s="41"/>
       <c r="K32" s="32"/>
       <c r="L32" s="33"/>
       <c r="M32" s="34"/>
       <c r="N32" s="32"/>
       <c r="O32" s="35">
-        <v>0.22534199999999999</v>
+        <v>4.9870000000000001E-3</v>
       </c>
       <c r="P32" s="31">
         <v>0.22454299999999999</v>
@@ -27903,30 +25842,26 @@
         <v>2500</v>
       </c>
       <c r="B33" s="31">
-        <v>0.82198700000000002</v>
-      </c>
-      <c r="C33" s="41">
-        <v>54.908247000000003</v>
-      </c>
+        <v>0.44093100000000002</v>
+      </c>
+      <c r="C33" s="41"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
       <c r="G33" s="32"/>
       <c r="H33" s="35">
-        <v>0.85659200000000002</v>
+        <v>0.38444600000000001</v>
       </c>
       <c r="I33" s="31">
-        <v>0.37761699999999998</v>
-      </c>
-      <c r="J33" s="41">
-        <v>54.978977999999998</v>
-      </c>
+        <v>3.7450000000000001E-3</v>
+      </c>
+      <c r="J33" s="41"/>
       <c r="K33" s="32"/>
       <c r="L33" s="33"/>
       <c r="M33" s="34"/>
       <c r="N33" s="32"/>
       <c r="O33" s="35">
-        <v>0.370201</v>
+        <v>7.1630000000000001E-3</v>
       </c>
       <c r="P33" s="31">
         <v>0.35364499999999999</v>
@@ -27962,7 +25897,7 @@
         <v>3000</v>
       </c>
       <c r="B34" s="31">
-        <v>1.1856230000000001</v>
+        <v>0.61733199999999999</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="32"/>
@@ -27970,10 +25905,10 @@
       <c r="F34" s="34"/>
       <c r="G34" s="32"/>
       <c r="H34" s="35">
-        <v>1.215273</v>
+        <v>0.55565100000000001</v>
       </c>
       <c r="I34" s="31">
-        <v>0.53387399999999996</v>
+        <v>5.0020000000000004E-3</v>
       </c>
       <c r="J34" s="41"/>
       <c r="K34" s="32"/>
@@ -27981,7 +25916,7 @@
       <c r="M34" s="34"/>
       <c r="N34" s="32"/>
       <c r="O34" s="35">
-        <v>0.54760600000000004</v>
+        <v>9.0969999999999992E-3</v>
       </c>
       <c r="P34" s="31"/>
       <c r="Q34" s="32"/>
@@ -27999,7 +25934,7 @@
         <v>5000</v>
       </c>
       <c r="B35" s="31">
-        <v>3.4160379999999999</v>
+        <v>1.7948230000000001</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="32"/>
@@ -28007,10 +25942,10 @@
       <c r="F35" s="34"/>
       <c r="G35" s="32"/>
       <c r="H35" s="35">
-        <v>3.1973720000000001</v>
+        <v>1.4936469999999999</v>
       </c>
       <c r="I35" s="31">
-        <v>1.658798</v>
+        <v>6.2249999999999996E-3</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="32"/>
@@ -28018,7 +25953,7 @@
       <c r="M35" s="34"/>
       <c r="N35" s="32"/>
       <c r="O35" s="35">
-        <v>1.5842639999999999</v>
+        <v>1.5485000000000001E-2</v>
       </c>
       <c r="P35" s="31">
         <v>1.4324870000000001</v>
@@ -28052,7 +25987,7 @@
         <v>10000</v>
       </c>
       <c r="B36" s="31">
-        <v>13.88809</v>
+        <v>6.735773</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="32"/>
@@ -28060,10 +25995,10 @@
       <c r="F36" s="34"/>
       <c r="G36" s="32"/>
       <c r="H36" s="35">
-        <v>12.950834</v>
+        <v>5.9905150000000003</v>
       </c>
       <c r="I36" s="31">
-        <v>7.0829089999999999</v>
+        <v>1.4354E-2</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="32"/>
@@ -28071,7 +26006,7 @@
       <c r="M36" s="34"/>
       <c r="N36" s="32"/>
       <c r="O36" s="35">
-        <v>6.52902</v>
+        <v>3.1281999999999997E-2</v>
       </c>
       <c r="P36" s="31">
         <v>5.7851239999999997</v>
@@ -28105,7 +26040,7 @@
         <v>20000</v>
       </c>
       <c r="B37" s="31">
-        <v>65.830848000000003</v>
+        <v>28.987259000000002</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="32"/>
@@ -28113,10 +26048,10 @@
       <c r="F37" s="34"/>
       <c r="G37" s="32"/>
       <c r="H37" s="35">
-        <v>60.046509</v>
+        <v>25.656123000000001</v>
       </c>
       <c r="I37" s="31">
-        <v>26.530660000000001</v>
+        <v>3.3870999999999998E-2</v>
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="32"/>
@@ -28124,7 +26059,7 @@
       <c r="M37" s="34"/>
       <c r="N37" s="32"/>
       <c r="O37" s="35">
-        <v>26.277045000000001</v>
+        <v>7.3093000000000005E-2</v>
       </c>
       <c r="P37" s="31">
         <v>23.226838000000001</v>
@@ -28158,7 +26093,7 @@
         <v>30000</v>
       </c>
       <c r="B38" s="31">
-        <v>183.62351200000001</v>
+        <v>63.700564</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="32"/>
@@ -28166,10 +26101,10 @@
       <c r="F38" s="34"/>
       <c r="G38" s="32"/>
       <c r="H38" s="35">
-        <v>175.46397200000001</v>
+        <v>61.987915000000001</v>
       </c>
       <c r="I38" s="31">
-        <v>101.76612299999999</v>
+        <v>5.4906999999999997E-2</v>
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="32"/>
@@ -28177,7 +26112,7 @@
       <c r="M38" s="34"/>
       <c r="N38" s="32"/>
       <c r="O38" s="35">
-        <v>101.659533</v>
+        <v>0.114133</v>
       </c>
       <c r="P38" s="31">
         <v>52.748072000000001</v>
@@ -28217,13 +26152,17 @@
       <c r="F39" s="34"/>
       <c r="G39" s="32"/>
       <c r="H39" s="35"/>
-      <c r="I39" s="31"/>
+      <c r="I39" s="31">
+        <v>7.6067999999999997E-2</v>
+      </c>
       <c r="J39" s="41"/>
       <c r="K39" s="32"/>
       <c r="L39" s="33"/>
       <c r="M39" s="34"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="35"/>
+      <c r="O39" s="35">
+        <v>0.15049699999999999</v>
+      </c>
       <c r="P39" s="31">
         <v>95.904543000000004</v>
       </c>
@@ -28260,13 +26199,17 @@
       <c r="F40" s="34"/>
       <c r="G40" s="32"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="31"/>
+      <c r="I40" s="31">
+        <v>0.101405</v>
+      </c>
       <c r="J40" s="41"/>
       <c r="K40" s="32"/>
       <c r="L40" s="33"/>
       <c r="M40" s="34"/>
       <c r="N40" s="32"/>
-      <c r="O40" s="35"/>
+      <c r="O40" s="35">
+        <v>0.21596599999999999</v>
+      </c>
       <c r="P40" s="31">
         <v>149.20957200000001</v>
       </c>
@@ -28974,12 +26917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79D1C0E-9890-934F-96F9-5E1979AA3141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D45FA-1B9E-5E40-A223-B3A4E3733245}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29059,30 +27002,30 @@
         <v>10</v>
       </c>
       <c r="B3" s="31">
-        <v>2.4399999999999999E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="C3" s="41">
-        <v>2.02E-4</v>
+        <v>6.783E-3</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="35">
-        <v>1.7200000000000001E-4</v>
+        <v>1.44E-4</v>
       </c>
       <c r="I3" s="31">
-        <v>8.8999999999999995E-5</v>
+        <v>8.7999999999999998E-5</v>
       </c>
       <c r="J3" s="41">
-        <v>1.25E-4</v>
+        <v>6.5030000000000001E-3</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="33"/>
       <c r="M3" s="34"/>
       <c r="N3" s="32"/>
       <c r="O3" s="35">
-        <v>1.7100000000000001E-4</v>
+        <v>1.6699999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -29090,30 +27033,30 @@
         <v>11</v>
       </c>
       <c r="B4" s="31">
-        <v>3.0200000000000002E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="C4" s="41">
-        <v>2.0799999999999999E-4</v>
+        <v>7.9699999999999997E-3</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="32"/>
       <c r="H4" s="35">
-        <v>2.03E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="I4" s="31">
-        <v>1.17E-4</v>
+        <v>1.08E-4</v>
       </c>
       <c r="J4" s="41">
-        <v>1.5899999999999999E-4</v>
+        <v>7.5859999999999999E-3</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
       <c r="N4" s="32"/>
       <c r="O4" s="35">
-        <v>2.2599999999999999E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -29121,30 +27064,30 @@
         <v>12</v>
       </c>
       <c r="B5" s="31">
-        <v>3.4699999999999998E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="C5" s="41">
-        <v>2.42E-4</v>
+        <v>8.933E-3</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="35">
-        <v>2.5799999999999998E-4</v>
+        <v>1.92E-4</v>
       </c>
       <c r="I5" s="31">
         <v>1.16E-4</v>
       </c>
       <c r="J5" s="41">
-        <v>1.66E-4</v>
+        <v>8.9510000000000006E-3</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="33"/>
       <c r="M5" s="34"/>
       <c r="N5" s="32"/>
       <c r="O5" s="35">
-        <v>2.2699999999999999E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -29152,30 +27095,30 @@
         <v>13</v>
       </c>
       <c r="B6" s="31">
-        <v>4.4499999999999997E-4</v>
+        <v>4.08E-4</v>
       </c>
       <c r="C6" s="41">
-        <v>2.7E-4</v>
+        <v>9.861E-3</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="32"/>
       <c r="H6" s="35">
-        <v>2.8899999999999998E-4</v>
+        <v>2.34E-4</v>
       </c>
       <c r="I6" s="31">
         <v>1.2899999999999999E-4</v>
       </c>
       <c r="J6" s="41">
-        <v>1.9699999999999999E-4</v>
+        <v>9.6989999999999993E-3</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="32"/>
       <c r="O6" s="35">
-        <v>2.7500000000000002E-4</v>
+        <v>2.2100000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -29183,30 +27126,30 @@
         <v>14</v>
       </c>
       <c r="B7" s="31">
-        <v>5.3499999999999999E-4</v>
+        <v>5.0100000000000003E-4</v>
       </c>
       <c r="C7" s="41">
-        <v>3.1399999999999999E-4</v>
+        <v>1.1131E-2</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="32"/>
       <c r="H7" s="35">
-        <v>3.0699999999999998E-4</v>
+        <v>2.5500000000000002E-4</v>
       </c>
       <c r="I7" s="31">
-        <v>1.7000000000000001E-4</v>
+        <v>1.55E-4</v>
       </c>
       <c r="J7" s="41">
-        <v>2.12E-4</v>
+        <v>1.1039999999999999E-2</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
       <c r="N7" s="32"/>
       <c r="O7" s="35">
-        <v>3.4600000000000001E-4</v>
+        <v>2.5900000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -29214,30 +27157,30 @@
         <v>15</v>
       </c>
       <c r="B8" s="31">
-        <v>6.1399999999999996E-4</v>
+        <v>5.9500000000000004E-4</v>
       </c>
       <c r="C8" s="41">
-        <v>3.5799999999999997E-4</v>
+        <v>1.2009000000000001E-2</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="32"/>
       <c r="H8" s="35">
-        <v>3.88E-4</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="I8" s="31">
-        <v>1.7100000000000001E-4</v>
+        <v>1.6200000000000001E-4</v>
       </c>
       <c r="J8" s="41">
-        <v>2.3599999999999999E-4</v>
+        <v>1.0599000000000001E-2</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="33"/>
       <c r="M8" s="34"/>
       <c r="N8" s="32"/>
       <c r="O8" s="35">
-        <v>3.5399999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -29245,30 +27188,30 @@
         <v>16</v>
       </c>
       <c r="B9" s="31">
-        <v>6.9300000000000004E-4</v>
+        <v>6.8199999999999999E-4</v>
       </c>
       <c r="C9" s="41">
-        <v>3.9899999999999999E-4</v>
+        <v>1.2392E-2</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="35">
-        <v>4.1100000000000002E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="I9" s="31">
         <v>1.9699999999999999E-4</v>
       </c>
       <c r="J9" s="41">
-        <v>2.6699999999999998E-4</v>
+        <v>1.2658000000000001E-2</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="33"/>
       <c r="M9" s="34"/>
       <c r="N9" s="32"/>
       <c r="O9" s="35">
-        <v>4.0000000000000002E-4</v>
+        <v>3.4699999999999998E-4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -29276,30 +27219,30 @@
         <v>17</v>
       </c>
       <c r="B10" s="31">
-        <v>8.2600000000000002E-4</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="C10" s="41">
-        <v>4.0099999999999999E-4</v>
+        <v>1.3932999999999999E-2</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32"/>
       <c r="H10" s="35">
-        <v>4.66E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="I10" s="31">
-        <v>1.94E-4</v>
+        <v>2.1499999999999999E-4</v>
       </c>
       <c r="J10" s="41">
-        <v>3.0800000000000001E-4</v>
+        <v>1.4182E-2</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="33"/>
       <c r="M10" s="34"/>
       <c r="N10" s="32"/>
       <c r="O10" s="35">
-        <v>4.3300000000000001E-4</v>
+        <v>3.6900000000000002E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -29307,30 +27250,30 @@
         <v>18</v>
       </c>
       <c r="B11" s="31">
-        <v>9.4700000000000003E-4</v>
+        <v>8.8199999999999997E-4</v>
       </c>
       <c r="C11" s="41">
-        <v>4.5100000000000001E-4</v>
+        <v>1.6664999999999999E-2</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
       <c r="G11" s="32"/>
       <c r="H11" s="35">
-        <v>4.73E-4</v>
+        <v>4.4099999999999999E-4</v>
       </c>
       <c r="I11" s="31">
-        <v>2.1599999999999999E-4</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="J11" s="41">
-        <v>3.1399999999999999E-4</v>
+        <v>1.5469E-2</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
       <c r="M11" s="34"/>
       <c r="N11" s="32"/>
       <c r="O11" s="35">
-        <v>4.9299999999999995E-4</v>
+        <v>4.08E-4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -29338,30 +27281,30 @@
         <v>19</v>
       </c>
       <c r="B12" s="31">
-        <v>1.1039999999999999E-3</v>
+        <v>1.0330000000000001E-3</v>
       </c>
       <c r="C12" s="41">
-        <v>5.2800000000000004E-4</v>
+        <v>1.9387000000000001E-2</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="32"/>
       <c r="H12" s="35">
-        <v>5.1999999999999995E-4</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="I12" s="31">
-        <v>2.34E-4</v>
+        <v>2.4499999999999999E-4</v>
       </c>
       <c r="J12" s="41">
-        <v>3.3399999999999999E-4</v>
+        <v>1.7271000000000002E-2</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
       <c r="M12" s="34"/>
       <c r="N12" s="32"/>
       <c r="O12" s="35">
-        <v>5.5699999999999999E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -29369,30 +27312,30 @@
         <v>20</v>
       </c>
       <c r="B13" s="31">
-        <v>1.2459999999999999E-3</v>
+        <v>1.196E-3</v>
       </c>
       <c r="C13" s="41">
-        <v>5.2700000000000002E-4</v>
+        <v>2.2412000000000001E-2</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="35">
-        <v>5.5800000000000001E-4</v>
+        <v>4.8700000000000002E-4</v>
       </c>
       <c r="I13" s="31">
-        <v>2.5500000000000002E-4</v>
+        <v>2.4800000000000001E-4</v>
       </c>
       <c r="J13" s="41">
-        <v>3.6000000000000002E-4</v>
+        <v>1.9189000000000001E-2</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="33"/>
       <c r="M13" s="34"/>
       <c r="N13" s="32"/>
       <c r="O13" s="35">
-        <v>5.9000000000000003E-4</v>
+        <v>5.0799999999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -29400,30 +27343,30 @@
         <v>21</v>
       </c>
       <c r="B14" s="31">
-        <v>1.408E-3</v>
+        <v>1.354E-3</v>
       </c>
       <c r="C14" s="41">
-        <v>5.9100000000000005E-4</v>
+        <v>2.6357999999999999E-2</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="32"/>
       <c r="H14" s="35">
-        <v>6.2299999999999996E-4</v>
+        <v>5.3600000000000002E-4</v>
       </c>
       <c r="I14" s="31">
-        <v>2.7700000000000001E-4</v>
+        <v>2.7900000000000001E-4</v>
       </c>
       <c r="J14" s="41">
-        <v>4.0999999999999999E-4</v>
+        <v>2.1596000000000001E-2</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="33"/>
       <c r="M14" s="34"/>
       <c r="N14" s="32"/>
       <c r="O14" s="35">
-        <v>6.3199999999999997E-4</v>
+        <v>5.4199999999999995E-4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -29431,30 +27374,30 @@
         <v>22</v>
       </c>
       <c r="B15" s="31">
-        <v>1.5939999999999999E-3</v>
+        <v>1.5430000000000001E-3</v>
       </c>
       <c r="C15" s="41">
-        <v>6.4599999999999998E-4</v>
+        <v>3.1673E-2</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35">
-        <v>6.9499999999999998E-4</v>
+        <v>5.8600000000000004E-4</v>
       </c>
       <c r="I15" s="31">
-        <v>3.01E-4</v>
+        <v>2.9E-4</v>
       </c>
       <c r="J15" s="41">
-        <v>4.5399999999999998E-4</v>
+        <v>2.3380999999999999E-2</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="33"/>
       <c r="M15" s="34"/>
       <c r="N15" s="32"/>
       <c r="O15" s="35">
-        <v>7.0299999999999996E-4</v>
+        <v>5.8900000000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -29462,30 +27405,30 @@
         <v>23</v>
       </c>
       <c r="B16" s="31">
-        <v>1.797E-3</v>
+        <v>1.7110000000000001E-3</v>
       </c>
       <c r="C16" s="41">
-        <v>6.7299999999999999E-4</v>
+        <v>3.5770000000000003E-2</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
       <c r="H16" s="35">
-        <v>7.3800000000000005E-4</v>
+        <v>6.4400000000000004E-4</v>
       </c>
       <c r="I16" s="31">
-        <v>3.19E-4</v>
+        <v>3.1799999999999998E-4</v>
       </c>
       <c r="J16" s="41">
-        <v>4.7100000000000001E-4</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
       <c r="N16" s="32"/>
       <c r="O16" s="35">
-        <v>7.2599999999999997E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -29493,30 +27436,30 @@
         <v>24</v>
       </c>
       <c r="B17" s="31">
-        <v>1.9910000000000001E-3</v>
+        <v>1.9189999999999999E-3</v>
       </c>
       <c r="C17" s="41">
-        <v>6.9800000000000005E-4</v>
+        <v>4.1422E-2</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35">
-        <v>8.0099999999999995E-4</v>
+        <v>7.0299999999999996E-4</v>
       </c>
       <c r="I17" s="31">
-        <v>3.4400000000000001E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J17" s="41">
-        <v>5.1900000000000004E-4</v>
+        <v>2.7755999999999999E-2</v>
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
       <c r="N17" s="32"/>
       <c r="O17" s="35">
-        <v>8.0800000000000002E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -29524,30 +27467,30 @@
         <v>25</v>
       </c>
       <c r="B18" s="31">
-        <v>2.2669999999999999E-3</v>
+        <v>2.2130000000000001E-3</v>
       </c>
       <c r="C18" s="41">
-        <v>1.1820000000000001E-3</v>
+        <v>4.8836999999999998E-2</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35">
-        <v>8.6600000000000002E-4</v>
+        <v>7.6099999999999996E-4</v>
       </c>
       <c r="I18" s="31">
-        <v>3.8900000000000002E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J18" s="41">
-        <v>5.5099999999999995E-4</v>
+        <v>3.0969E-2</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
       <c r="N18" s="32"/>
       <c r="O18" s="35">
-        <v>8.7100000000000003E-4</v>
+        <v>7.54E-4</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -29555,30 +27498,30 @@
         <v>26</v>
       </c>
       <c r="B19" s="31">
-        <v>2.4529999999999999E-3</v>
+        <v>2.3709999999999998E-3</v>
       </c>
       <c r="C19" s="41">
-        <v>8.3699999999999996E-4</v>
+        <v>5.1580000000000001E-2</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35">
-        <v>9.68E-4</v>
+        <v>8.1300000000000003E-4</v>
       </c>
       <c r="I19" s="31">
-        <v>3.7100000000000002E-4</v>
+        <v>3.21E-4</v>
       </c>
       <c r="J19" s="41">
-        <v>6.0400000000000004E-4</v>
+        <v>3.2646000000000001E-2</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="32"/>
       <c r="O19" s="35">
-        <v>9.5100000000000002E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -29586,30 +27529,30 @@
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <v>2.3270000000000001E-3</v>
+        <v>2.2469999999999999E-3</v>
       </c>
       <c r="C20" s="41">
-        <v>9.0300000000000005E-4</v>
+        <v>5.8098999999999998E-2</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="32"/>
       <c r="H20" s="35">
-        <v>1.031E-3</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="I20" s="31">
-        <v>3.6499999999999998E-4</v>
+        <v>3.4299999999999999E-4</v>
       </c>
       <c r="J20" s="41">
-        <v>6.6799999999999997E-4</v>
+        <v>3.5226E-2</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
       <c r="N20" s="32"/>
       <c r="O20" s="35">
-        <v>1.024E-3</v>
+        <v>9.0700000000000004E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -29617,30 +27560,30 @@
         <v>28</v>
       </c>
       <c r="B21" s="31">
-        <v>3.1120000000000002E-3</v>
+        <v>2.7360000000000002E-3</v>
       </c>
       <c r="C21" s="41">
-        <v>9.8400000000000007E-4</v>
+        <v>6.4047000000000007E-2</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
       <c r="H21" s="35">
-        <v>1.0529999999999999E-3</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="I21" s="31">
-        <v>3.8699999999999997E-4</v>
+        <v>3.6699999999999998E-4</v>
       </c>
       <c r="J21" s="41">
-        <v>7.0500000000000001E-4</v>
+        <v>3.8004000000000003E-2</v>
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="33"/>
       <c r="M21" s="34"/>
       <c r="N21" s="32"/>
       <c r="O21" s="35">
-        <v>9.7900000000000005E-4</v>
+        <v>9.5200000000000005E-4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -29648,30 +27591,30 @@
         <v>29</v>
       </c>
       <c r="B22" s="31">
-        <v>3.4629999999999999E-3</v>
+        <v>2.8019999999999998E-3</v>
       </c>
       <c r="C22" s="41">
-        <v>9.7999999999999997E-4</v>
+        <v>7.3287000000000005E-2</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="32"/>
       <c r="H22" s="35">
-        <v>1.1000000000000001E-3</v>
+        <v>1.024E-3</v>
       </c>
       <c r="I22" s="31">
-        <v>4.2999999999999999E-4</v>
+        <v>3.9500000000000001E-4</v>
       </c>
       <c r="J22" s="41">
-        <v>7.5500000000000003E-4</v>
+        <v>3.9163000000000003E-2</v>
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="33"/>
       <c r="M22" s="34"/>
       <c r="N22" s="32"/>
       <c r="O22" s="35">
-        <v>1.109E-3</v>
+        <v>1.065E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -29679,30 +27622,30 @@
         <v>30</v>
       </c>
       <c r="B23" s="31">
-        <v>3.8010000000000001E-3</v>
+        <v>3.0990000000000002E-3</v>
       </c>
       <c r="C23" s="41">
-        <v>1.093E-3</v>
+        <v>8.1406000000000006E-2</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
       <c r="H23" s="35">
-        <v>1.305E-3</v>
+        <v>1.016E-3</v>
       </c>
       <c r="I23" s="31">
-        <v>4.4299999999999998E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="J23" s="41">
-        <v>9.5600000000000004E-4</v>
+        <v>4.3408000000000002E-2</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
       <c r="N23" s="32"/>
       <c r="O23" s="35">
-        <v>1.1850000000000001E-3</v>
+        <v>1.114E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -29710,30 +27653,30 @@
         <v>31</v>
       </c>
       <c r="B24" s="31">
-        <v>4.169E-3</v>
+        <v>3.3930000000000002E-3</v>
       </c>
       <c r="C24" s="41">
-        <v>1.175E-3</v>
+        <v>9.5852000000000007E-2</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
       <c r="H24" s="35">
-        <v>1.451E-3</v>
+        <v>1.0169999999999999E-3</v>
       </c>
       <c r="I24" s="31">
-        <v>4.75E-4</v>
+        <v>4.8299999999999998E-4</v>
       </c>
       <c r="J24" s="41">
-        <v>8.7900000000000001E-4</v>
+        <v>4.5261000000000003E-2</v>
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="33"/>
       <c r="M24" s="34"/>
       <c r="N24" s="32"/>
       <c r="O24" s="35">
-        <v>1.4139999999999999E-3</v>
+        <v>1.1950000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29741,30 +27684,30 @@
         <v>32</v>
       </c>
       <c r="B25" s="31">
-        <v>4.5319999999999996E-3</v>
+        <v>3.7490000000000002E-3</v>
       </c>
       <c r="C25" s="41">
-        <v>1.242E-3</v>
+        <v>0.104448</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
       <c r="H25" s="35">
-        <v>1.5120000000000001E-3</v>
+        <v>1.0870000000000001E-3</v>
       </c>
       <c r="I25" s="31">
-        <v>4.9799999999999996E-4</v>
+        <v>4.9899999999999999E-4</v>
       </c>
       <c r="J25" s="41">
-        <v>9.7999999999999997E-4</v>
+        <v>4.8682000000000003E-2</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="33"/>
       <c r="M25" s="34"/>
       <c r="N25" s="32"/>
       <c r="O25" s="35">
-        <v>1.521E-3</v>
+        <v>1.274E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -29772,30 +27715,30 @@
         <v>50</v>
       </c>
       <c r="B26" s="31">
-        <v>1.2737999999999999E-2</v>
+        <v>1.2739E-2</v>
       </c>
       <c r="C26" s="41">
-        <v>3.019E-3</v>
+        <v>0.27885300000000002</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
       <c r="H26" s="35">
-        <v>4.7679999999999997E-3</v>
+        <v>3.5469999999999998E-3</v>
       </c>
       <c r="I26" s="31">
-        <v>1.1850000000000001E-3</v>
+        <v>1.2310000000000001E-3</v>
       </c>
       <c r="J26" s="41">
-        <v>2.3370000000000001E-3</v>
+        <v>0.120877</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
       <c r="N26" s="32"/>
       <c r="O26" s="35">
-        <v>5.0099999999999997E-3</v>
+        <v>5.0920000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -29803,30 +27746,30 @@
         <v>100</v>
       </c>
       <c r="B27" s="31">
-        <v>9.3204999999999996E-2</v>
+        <v>9.3726000000000004E-2</v>
       </c>
       <c r="C27" s="41">
-        <v>1.4238000000000001E-2</v>
+        <v>1.8111699999999999</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35">
-        <v>2.2023000000000001E-2</v>
+        <v>1.7068E-2</v>
       </c>
       <c r="I27" s="31">
-        <v>4.9420000000000002E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="J27" s="41">
-        <v>1.1523E-2</v>
+        <v>0.49220799999999998</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
       <c r="N27" s="32"/>
       <c r="O27" s="35">
-        <v>2.1291000000000001E-2</v>
+        <v>2.2536E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -29834,30 +27777,30 @@
         <v>200</v>
       </c>
       <c r="B28" s="31">
-        <v>0.73162700000000003</v>
+        <v>0.71938299999999999</v>
       </c>
       <c r="C28" s="41">
-        <v>6.0127E-2</v>
+        <v>6.8773020000000002</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="32"/>
       <c r="H28" s="35">
-        <v>0.112718</v>
+        <v>0.1037</v>
       </c>
       <c r="I28" s="31">
-        <v>1.8879E-2</v>
+        <v>1.8415000000000001E-2</v>
       </c>
       <c r="J28" s="41">
-        <v>5.0777999999999997E-2</v>
+        <v>1.9571689999999999</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="34"/>
       <c r="N28" s="32"/>
       <c r="O28" s="35">
-        <v>0.113415</v>
+        <v>0.12177200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -29865,30 +27808,30 @@
         <v>500</v>
       </c>
       <c r="B29" s="31">
-        <v>11.078234999999999</v>
+        <v>10.849323</v>
       </c>
       <c r="C29" s="41">
-        <v>0.55214200000000002</v>
+        <v>32.102502000000001</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35">
-        <v>1.369156</v>
+        <v>1.2981780000000001</v>
       </c>
       <c r="I29" s="31">
-        <v>0.124512</v>
+        <v>0.11491999999999999</v>
       </c>
       <c r="J29" s="41">
-        <v>0.50698699999999997</v>
+        <v>12.319701999999999</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="33"/>
       <c r="M29" s="34"/>
       <c r="N29" s="32"/>
       <c r="O29" s="35">
-        <v>1.3665069999999999</v>
+        <v>1.3536090000000001</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -29896,30 +27839,30 @@
         <v>1000</v>
       </c>
       <c r="B30" s="31">
-        <v>90.841273000000001</v>
+        <v>95.537847999999997</v>
       </c>
       <c r="C30" s="41">
-        <v>3.8451719999999998</v>
+        <v>111.165424</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>9.9496859999999998</v>
+        <v>9.8111789999999992</v>
       </c>
       <c r="I30" s="31">
-        <v>0.50171699999999997</v>
+        <v>0.45014300000000002</v>
       </c>
       <c r="J30" s="41">
-        <v>3.6539459999999999</v>
+        <v>50.355212000000002</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="33"/>
       <c r="M30" s="34"/>
       <c r="N30" s="32"/>
       <c r="O30" s="35">
-        <v>9.7956219999999998</v>
+        <v>9.8685580000000002</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -29927,28 +27870,26 @@
         <v>1500</v>
       </c>
       <c r="B31" s="31"/>
-      <c r="C31" s="41">
-        <v>13.308915000000001</v>
-      </c>
+      <c r="C31" s="41"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="32"/>
       <c r="H31" s="35">
-        <v>33.518492000000002</v>
+        <v>33.769553000000002</v>
       </c>
       <c r="I31" s="31">
-        <v>1.1914009999999999</v>
+        <v>1.0384640000000001</v>
       </c>
       <c r="J31" s="41">
-        <v>12.375533000000001</v>
+        <v>113.200592</v>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
       <c r="M31" s="34"/>
       <c r="N31" s="32"/>
       <c r="O31" s="35">
-        <v>33.175480999999998</v>
+        <v>33.338144999999997</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -29956,28 +27897,24 @@
         <v>2000</v>
       </c>
       <c r="B32" s="31"/>
-      <c r="C32" s="41">
-        <v>32.721245000000003</v>
-      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
       <c r="G32" s="32"/>
       <c r="H32" s="35">
-        <v>82.238844</v>
+        <v>86.754211999999995</v>
       </c>
       <c r="I32" s="31">
-        <v>2.1466090000000002</v>
-      </c>
-      <c r="J32" s="41">
-        <v>29.429085000000001</v>
-      </c>
+        <v>2.0584880000000001</v>
+      </c>
+      <c r="J32" s="41"/>
       <c r="K32" s="32"/>
       <c r="L32" s="33"/>
       <c r="M32" s="34"/>
       <c r="N32" s="32"/>
       <c r="O32" s="35">
-        <v>81.186942999999999</v>
+        <v>81.925915000000003</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -29992,11 +27929,9 @@
       <c r="G33" s="32"/>
       <c r="H33" s="35"/>
       <c r="I33" s="31">
-        <v>3.4408449999999999</v>
-      </c>
-      <c r="J33" s="41">
-        <v>57.883791000000002</v>
-      </c>
+        <v>3.0634899999999998</v>
+      </c>
+      <c r="J33" s="41"/>
       <c r="K33" s="32"/>
       <c r="L33" s="33"/>
       <c r="M33" s="34"/>
@@ -30015,7 +27950,7 @@
       <c r="G34" s="32"/>
       <c r="H34" s="35"/>
       <c r="I34" s="31">
-        <v>4.9727949999999996</v>
+        <v>4.693473</v>
       </c>
       <c r="J34" s="41"/>
       <c r="K34" s="32"/>
@@ -30036,7 +27971,7 @@
       <c r="G35" s="32"/>
       <c r="H35" s="35"/>
       <c r="I35" s="31">
-        <v>15.143102000000001</v>
+        <v>13.926318</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="32"/>
@@ -30057,7 +27992,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="35"/>
       <c r="I36" s="31">
-        <v>68.975385000000003</v>
+        <v>64.090892999999994</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="32"/>

--- a/result/eval_time.xlsx
+++ b/result/eval_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEB493-24C9-2042-A291-AD84A4E5C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A65548-E28C-6446-8CEB-B844A19BE15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="10" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="39">
   <si>
     <t>nComp</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>bmapreplace [s]</t>
-  </si>
-  <si>
-    <t>kpg2 + fi_cond</t>
   </si>
   <si>
     <t>lassoc_comp_breverse_nested_list [s]</t>
@@ -803,9 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3:H43"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +885,7 @@
         <v>1.5E-5</v>
       </c>
       <c r="C3" s="41">
-        <v>2.5999999999999998E-5</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="D3" s="32">
         <v>1.13E-4</v>
@@ -935,7 +932,7 @@
         <v>1.8E-5</v>
       </c>
       <c r="C4" s="41">
-        <v>2.6999999999999999E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="D4" s="32">
         <v>2.1900000000000001E-4</v>
@@ -982,7 +979,7 @@
         <v>1.7E-5</v>
       </c>
       <c r="C5" s="41">
-        <v>2.9E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="D5" s="32">
         <v>4.0499999999999998E-4</v>
@@ -1029,7 +1026,7 @@
         <v>1.8E-5</v>
       </c>
       <c r="C6" s="41">
-        <v>3.1000000000000001E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="D6" s="32">
         <v>7.8700000000000005E-4</v>
@@ -1076,7 +1073,7 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="C7" s="41">
-        <v>3.4E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="D7" s="32">
         <v>1.634E-3</v>
@@ -1123,7 +1120,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="C8" s="41">
-        <v>3.3000000000000003E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="D8" s="32">
         <v>3.238E-3</v>
@@ -1170,7 +1167,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C9" s="41">
-        <v>3.8999999999999999E-5</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="D9" s="32">
         <v>5.274E-3</v>
@@ -1217,7 +1214,7 @@
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="C10" s="41">
-        <v>3.8000000000000002E-5</v>
+        <v>6.0999999999999999E-5</v>
       </c>
       <c r="D10" s="32">
         <v>9.1610000000000007E-3</v>
@@ -1264,7 +1261,7 @@
         <v>1.8E-5</v>
       </c>
       <c r="C11" s="41">
-        <v>4.0000000000000003E-5</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="D11" s="32">
         <v>1.6546000000000002E-2</v>
@@ -1311,7 +1308,7 @@
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="C12" s="41">
-        <v>4.5000000000000003E-5</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="D12" s="32">
         <v>2.8253E-2</v>
@@ -1358,7 +1355,7 @@
         <v>1.9000000000000001E-5</v>
       </c>
       <c r="C13" s="41">
-        <v>4.8000000000000001E-5</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="D13" s="32">
         <v>5.2623000000000003E-2</v>
@@ -1405,7 +1402,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C14" s="41">
-        <v>5.0000000000000002E-5</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="D14" s="32">
         <v>0.104531</v>
@@ -1452,7 +1449,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="C15" s="41">
-        <v>5.5999999999999999E-5</v>
+        <v>7.2000000000000002E-5</v>
       </c>
       <c r="D15" s="32">
         <v>0.211225</v>
@@ -1499,7 +1496,7 @@
         <v>2.0999999999999999E-5</v>
       </c>
       <c r="C16" s="41">
-        <v>6.2000000000000003E-5</v>
+        <v>7.6000000000000004E-5</v>
       </c>
       <c r="D16" s="32">
         <v>0.42589100000000002</v>
@@ -1546,7 +1543,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="C17" s="41">
-        <v>6.7000000000000002E-5</v>
+        <v>7.8999999999999996E-5</v>
       </c>
       <c r="D17" s="32">
         <v>0.85639100000000001</v>
@@ -1593,7 +1590,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="C18" s="41">
-        <v>7.1000000000000005E-5</v>
+        <v>8.2000000000000001E-5</v>
       </c>
       <c r="D18" s="32">
         <v>1.7145490000000001</v>
@@ -1640,7 +1637,7 @@
         <v>2.3E-5</v>
       </c>
       <c r="C19" s="41">
-        <v>7.7000000000000001E-5</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="D19" s="32">
         <v>3.463889</v>
@@ -1687,7 +1684,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="C20" s="41">
-        <v>8.2999999999999998E-5</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="D20" s="32">
         <v>6.8275800000000002</v>
@@ -1734,7 +1731,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="C21" s="41">
-        <v>8.0000000000000007E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D21" s="32">
         <v>13.340272000000001</v>
@@ -1781,7 +1778,7 @@
         <v>2.3E-5</v>
       </c>
       <c r="C22" s="41">
-        <v>8.1000000000000004E-5</v>
+        <v>9.1000000000000003E-5</v>
       </c>
       <c r="D22" s="32">
         <v>26.941932999999999</v>
@@ -1875,7 +1872,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="C24" s="41">
-        <v>9.5000000000000005E-5</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="D24" s="32">
         <v>104.913524</v>
@@ -1922,7 +1919,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="C25" s="41">
-        <v>1.02E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="D25" s="32">
         <v>209.92964499999999</v>
@@ -1969,7 +1966,7 @@
         <v>4.6E-5</v>
       </c>
       <c r="C26" s="41">
-        <v>3.2000000000000003E-4</v>
+        <v>1.5899999999999999E-4</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33">
@@ -2014,7 +2011,7 @@
         <v>1.4899999999999999E-4</v>
       </c>
       <c r="C27" s="41">
-        <v>2.0079999999999998E-3</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33">
@@ -2059,7 +2056,7 @@
         <v>5.3300000000000005E-4</v>
       </c>
       <c r="C28" s="41">
-        <v>1.4630000000000001E-2</v>
+        <v>1.469E-3</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33">
@@ -2104,7 +2101,7 @@
         <v>3.3409999999999998E-3</v>
       </c>
       <c r="C29" s="41">
-        <v>0.18803400000000001</v>
+        <v>7.4530000000000004E-3</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33">
@@ -2149,7 +2146,7 @@
         <v>1.3181E-2</v>
       </c>
       <c r="C30" s="41">
-        <v>1.366862</v>
+        <v>2.5572999999999999E-2</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33">
@@ -2194,7 +2191,7 @@
         <v>3.0245999999999999E-2</v>
       </c>
       <c r="C31" s="41">
-        <v>4.5900840000000001</v>
+        <v>4.9845E-2</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33">
@@ -2239,7 +2236,7 @@
         <v>5.2839999999999998E-2</v>
       </c>
       <c r="C32" s="41">
-        <v>10.637556999999999</v>
+        <v>8.6052000000000003E-2</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33">
@@ -2284,7 +2281,7 @@
         <v>8.4138000000000004E-2</v>
       </c>
       <c r="C33" s="41">
-        <v>20.978601999999999</v>
+        <v>0.13165099999999999</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33">
@@ -2329,7 +2326,7 @@
         <v>0.32829700000000001</v>
       </c>
       <c r="C34" s="41">
-        <v>172.40483399999999</v>
+        <v>0.51679799999999998</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33">
@@ -2373,7 +2370,9 @@
       <c r="B35" s="31">
         <v>1.308851</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="41">
+        <v>2.2097479999999998</v>
+      </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33">
         <v>0.45364199999999999</v>
@@ -2416,7 +2415,9 @@
       <c r="B36" s="31">
         <v>5.3511759999999997</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="41">
+        <v>9.1069279999999999</v>
+      </c>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
         <v>1.793031</v>
@@ -2459,7 +2460,9 @@
       <c r="B37" s="31">
         <v>11.777378000000001</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="41">
+        <v>19.803684000000001</v>
+      </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33">
         <v>3.8456769999999998</v>
@@ -2502,7 +2505,9 @@
       <c r="B38" s="31">
         <v>20.231997</v>
       </c>
-      <c r="C38" s="41"/>
+      <c r="C38" s="41">
+        <v>35.884129999999999</v>
+      </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33">
         <v>6.8360450000000004</v>
@@ -2545,7 +2550,9 @@
       <c r="B39" s="31">
         <v>32.008606999999998</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="41">
+        <v>57.682471</v>
+      </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33">
         <v>10.543677000000001</v>
@@ -4604,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2176A5-75DF-A044-ABD9-8458655436F1}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:H36"/>
     </sheetView>
@@ -8029,7 +8036,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -8038,7 +8045,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -10051,7 +10058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16F1A3-C3C0-3C43-978B-5219F965718F}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
@@ -13375,7 +13382,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -13384,7 +13391,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -17708,11 +17715,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H36" sqref="H36"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17720,7 +17727,7 @@
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="54" t="s">
         <v>32</v>
       </c>
@@ -17735,9 +17742,8 @@
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -17762,16 +17768,13 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47" t="s">
-        <v>33</v>
-      </c>
+      <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>10</v>
       </c>
@@ -17779,7 +17782,7 @@
         <v>5.3000000000000001E-5</v>
       </c>
       <c r="C3" s="41">
-        <v>5.8E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="D3" s="32">
         <v>1.536E-3</v>
@@ -17794,18 +17797,15 @@
         <v>5.7000000000000003E-5</v>
       </c>
       <c r="H3" s="35">
-        <v>3.8000000000000002E-5</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6.7000000000000002E-5</v>
-      </c>
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="I3" s="44"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>5.8E-5</v>
       </c>
       <c r="C4" s="41">
-        <v>6.2000000000000003E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D4" s="32">
         <v>3.3270000000000001E-3</v>
@@ -17828,18 +17828,15 @@
         <v>6.0999999999999999E-5</v>
       </c>
       <c r="H4" s="35">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="I4" s="44">
-        <v>7.7000000000000001E-5</v>
-      </c>
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -17847,7 +17844,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
       <c r="C5" s="41">
-        <v>7.6000000000000004E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="D5" s="32">
         <v>5.7730000000000004E-3</v>
@@ -17862,18 +17859,15 @@
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="H5" s="35">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="I5" s="44">
-        <v>7.7999999999999999E-5</v>
-      </c>
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="I5" s="44"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -17881,7 +17875,7 @@
         <v>7.4999999999999993E-5</v>
       </c>
       <c r="C6" s="41">
-        <v>7.7999999999999999E-5</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="D6" s="32">
         <v>1.0748000000000001E-2</v>
@@ -17896,18 +17890,15 @@
         <v>7.4999999999999993E-5</v>
       </c>
       <c r="H6" s="35">
-        <v>4.6E-5</v>
-      </c>
-      <c r="I6" s="44">
-        <v>9.2E-5</v>
-      </c>
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="I6" s="44"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>14</v>
       </c>
@@ -17915,7 +17906,7 @@
         <v>8.2000000000000001E-5</v>
       </c>
       <c r="C7" s="41">
-        <v>8.2000000000000001E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D7" s="32">
         <v>1.8270999999999999E-2</v>
@@ -17930,18 +17921,15 @@
         <v>8.2000000000000001E-5</v>
       </c>
       <c r="H7" s="35">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="I7" s="44">
-        <v>9.5000000000000005E-5</v>
-      </c>
+        <v>6.3E-5</v>
+      </c>
+      <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>15</v>
       </c>
@@ -17949,7 +17937,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="C8" s="41">
-        <v>8.7999999999999998E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="D8" s="32">
         <v>3.1149E-2</v>
@@ -17964,18 +17952,15 @@
         <v>9.1000000000000003E-5</v>
       </c>
       <c r="H8" s="35">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="I8" s="44">
-        <v>1.08E-4</v>
-      </c>
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>16</v>
       </c>
@@ -17983,7 +17968,7 @@
         <v>1E-4</v>
       </c>
       <c r="C9" s="41">
-        <v>1.01E-4</v>
+        <v>1.05E-4</v>
       </c>
       <c r="D9" s="32">
         <v>5.7062000000000002E-2</v>
@@ -17998,18 +17983,15 @@
         <v>1.02E-4</v>
       </c>
       <c r="H9" s="35">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="I9" s="44">
-        <v>1.08E-4</v>
-      </c>
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>17</v>
       </c>
@@ -18017,7 +17999,7 @@
         <v>1.05E-4</v>
       </c>
       <c r="C10" s="41">
-        <v>9.7E-5</v>
+        <v>1.0399999999999999E-4</v>
       </c>
       <c r="D10" s="32">
         <v>0.11377900000000001</v>
@@ -18032,18 +18014,15 @@
         <v>1.08E-4</v>
       </c>
       <c r="H10" s="35">
-        <v>5.7000000000000003E-5</v>
-      </c>
-      <c r="I10" s="44">
-        <v>1.21E-4</v>
-      </c>
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>18</v>
       </c>
@@ -18051,7 +18030,7 @@
         <v>1.11E-4</v>
       </c>
       <c r="C11" s="41">
-        <v>1.06E-4</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="D11" s="32">
         <v>0.22658800000000001</v>
@@ -18066,18 +18045,15 @@
         <v>1.22E-4</v>
       </c>
       <c r="H11" s="35">
-        <v>5.3999999999999998E-5</v>
-      </c>
-      <c r="I11" s="44">
-        <v>1.2400000000000001E-4</v>
-      </c>
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>19</v>
       </c>
@@ -18085,7 +18061,7 @@
         <v>1.18E-4</v>
       </c>
       <c r="C12" s="41">
-        <v>1.02E-4</v>
+        <v>1.05E-4</v>
       </c>
       <c r="D12" s="32">
         <v>0.45527800000000002</v>
@@ -18100,18 +18076,15 @@
         <v>1.26E-4</v>
       </c>
       <c r="H12" s="35">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="I12" s="44">
-        <v>1.3100000000000001E-4</v>
-      </c>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -18134,18 +18107,15 @@
         <v>1.34E-4</v>
       </c>
       <c r="H13" s="35">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="I13" s="44">
-        <v>1.37E-4</v>
-      </c>
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>21</v>
       </c>
@@ -18168,18 +18138,15 @@
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="H14" s="35">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="I14" s="44">
-        <v>1.4999999999999999E-4</v>
-      </c>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>22</v>
       </c>
@@ -18187,7 +18154,7 @@
         <v>1.46E-4</v>
       </c>
       <c r="C15" s="41">
-        <v>1.12E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="D15" s="32">
         <v>3.7175799999999999</v>
@@ -18202,18 +18169,15 @@
         <v>1.47E-4</v>
       </c>
       <c r="H15" s="35">
-        <v>5.7000000000000003E-5</v>
-      </c>
-      <c r="I15" s="44">
-        <v>1.6100000000000001E-4</v>
-      </c>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>23</v>
       </c>
@@ -18221,7 +18185,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
       <c r="C16" s="41">
-        <v>1.2799999999999999E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="D16" s="32">
         <v>7.2312909999999997</v>
@@ -18236,18 +18200,15 @@
         <v>1.55E-4</v>
       </c>
       <c r="H16" s="35">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="I16" s="44">
-        <v>1.7799999999999999E-4</v>
-      </c>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>24</v>
       </c>
@@ -18255,7 +18216,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
       <c r="C17" s="41">
-        <v>1.2899999999999999E-4</v>
+        <v>1.36E-4</v>
       </c>
       <c r="D17" s="32">
         <v>14.31325</v>
@@ -18270,18 +18231,15 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H17" s="35">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="I17" s="44">
-        <v>1.8699999999999999E-4</v>
-      </c>
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>25</v>
       </c>
@@ -18289,7 +18247,7 @@
         <v>1.7200000000000001E-4</v>
       </c>
       <c r="C18" s="41">
-        <v>1.37E-4</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="D18" s="32">
         <v>28.965609000000001</v>
@@ -18304,18 +18262,15 @@
         <v>1.7200000000000001E-4</v>
       </c>
       <c r="H18" s="35">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="I18" s="44">
-        <v>1.9599999999999999E-4</v>
-      </c>
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>26</v>
       </c>
@@ -18323,7 +18278,7 @@
         <v>1.65E-4</v>
       </c>
       <c r="C19" s="41">
-        <v>1.36E-4</v>
+        <v>1.47E-4</v>
       </c>
       <c r="D19" s="32">
         <v>57.661036000000003</v>
@@ -18338,18 +18293,15 @@
         <v>1.83E-4</v>
       </c>
       <c r="H19" s="35">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="I19" s="44">
-        <v>2.3800000000000001E-4</v>
-      </c>
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>27</v>
       </c>
@@ -18357,7 +18309,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
       <c r="C20" s="41">
-        <v>1.3899999999999999E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33">
@@ -18370,18 +18322,15 @@
         <v>1.9599999999999999E-4</v>
       </c>
       <c r="H20" s="35">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="I20" s="44">
-        <v>2.23E-4</v>
-      </c>
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>28</v>
       </c>
@@ -18389,7 +18338,7 @@
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="C21" s="41">
-        <v>1.4300000000000001E-4</v>
+        <v>1.5200000000000001E-4</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33">
@@ -18402,18 +18351,15 @@
         <v>1.8599999999999999E-4</v>
       </c>
       <c r="H21" s="35">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="I21" s="44">
-        <v>2.1000000000000001E-4</v>
-      </c>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>29</v>
       </c>
@@ -18421,7 +18367,7 @@
         <v>1.93E-4</v>
       </c>
       <c r="C22" s="41">
-        <v>1.4799999999999999E-4</v>
+        <v>1.54E-4</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33">
@@ -18434,18 +18380,15 @@
         <v>1.8200000000000001E-4</v>
       </c>
       <c r="H22" s="35">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="I22" s="44">
-        <v>2.0799999999999999E-4</v>
-      </c>
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>30</v>
       </c>
@@ -18453,7 +18396,7 @@
         <v>2.0699999999999999E-4</v>
       </c>
       <c r="C23" s="41">
-        <v>1.4300000000000001E-4</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33">
@@ -18466,18 +18409,15 @@
         <v>1.94E-4</v>
       </c>
       <c r="H23" s="35">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="I23" s="44">
-        <v>2.1900000000000001E-4</v>
-      </c>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I23" s="44"/>
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>31</v>
       </c>
@@ -18485,7 +18425,7 @@
         <v>2.1599999999999999E-4</v>
       </c>
       <c r="C24" s="41">
-        <v>1.2899999999999999E-4</v>
+        <v>1.36E-4</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33">
@@ -18498,18 +18438,15 @@
         <v>2.02E-4</v>
       </c>
       <c r="H24" s="35">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="I24" s="44">
-        <v>2.4699999999999999E-4</v>
-      </c>
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>32</v>
       </c>
@@ -18517,7 +18454,7 @@
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="C25" s="41">
-        <v>1.3300000000000001E-4</v>
+        <v>1.4100000000000001E-4</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33">
@@ -18530,18 +18467,15 @@
         <v>2.23E-4</v>
       </c>
       <c r="H25" s="35">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="I25" s="44">
-        <v>2.5099999999999998E-4</v>
-      </c>
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>50</v>
       </c>
@@ -18549,7 +18483,7 @@
         <v>5.3799999999999996E-4</v>
       </c>
       <c r="C26" s="41">
-        <v>2.2000000000000001E-4</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33">
@@ -18562,18 +18496,15 @@
         <v>4.9700000000000005E-4</v>
       </c>
       <c r="H26" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="I26" s="44">
-        <v>5.5900000000000004E-4</v>
-      </c>
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="I26" s="44"/>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>100</v>
       </c>
@@ -18581,7 +18512,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
       <c r="C27" s="41">
-        <v>4.84E-4</v>
+        <v>4.6299999999999998E-4</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33">
@@ -18594,18 +18525,15 @@
         <v>1.8469999999999999E-3</v>
       </c>
       <c r="H27" s="35">
-        <v>2.13E-4</v>
-      </c>
-      <c r="I27" s="44">
-        <v>2.1210000000000001E-3</v>
-      </c>
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>200</v>
       </c>
@@ -18613,7 +18541,7 @@
         <v>7.8860000000000006E-3</v>
       </c>
       <c r="C28" s="41">
-        <v>9.0600000000000001E-4</v>
+        <v>9.2299999999999999E-4</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33">
@@ -18626,18 +18554,15 @@
         <v>6.6150000000000002E-3</v>
       </c>
       <c r="H28" s="35">
-        <v>4.0299999999999998E-4</v>
-      </c>
-      <c r="I28" s="44">
-        <v>6.9769999999999997E-3</v>
-      </c>
+        <v>5.31E-4</v>
+      </c>
+      <c r="I28" s="44"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>500</v>
       </c>
@@ -18645,7 +18570,7 @@
         <v>4.5746000000000002E-2</v>
       </c>
       <c r="C29" s="41">
-        <v>2.1069999999999999E-3</v>
+        <v>2.2139999999999998E-3</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33">
@@ -18658,18 +18583,15 @@
         <v>3.9286000000000001E-2</v>
       </c>
       <c r="H29" s="35">
-        <v>9.9400000000000009E-4</v>
-      </c>
-      <c r="I29" s="44">
-        <v>4.0605000000000002E-2</v>
-      </c>
+        <v>1.426E-3</v>
+      </c>
+      <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>1000</v>
       </c>
@@ -18677,7 +18599,7 @@
         <v>0.179225</v>
       </c>
       <c r="C30" s="41">
-        <v>4.2079999999999999E-3</v>
+        <v>4.4289999999999998E-3</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33">
@@ -18690,18 +18612,15 @@
         <v>0.15382799999999999</v>
       </c>
       <c r="H30" s="35">
-        <v>2.1380000000000001E-3</v>
-      </c>
-      <c r="I30" s="44">
-        <v>0.156278</v>
-      </c>
+        <v>3.637E-3</v>
+      </c>
+      <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1500</v>
       </c>
@@ -18709,7 +18628,7 @@
         <v>0.40684999999999999</v>
       </c>
       <c r="C31" s="41">
-        <v>6.8240000000000002E-3</v>
+        <v>7.0889999999999998E-3</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33">
@@ -18722,18 +18641,15 @@
         <v>0.33998800000000001</v>
       </c>
       <c r="H31" s="35">
-        <v>3.8739999999999998E-3</v>
-      </c>
-      <c r="I31" s="44">
-        <v>0.34078399999999998</v>
-      </c>
+        <v>4.9459999999999999E-3</v>
+      </c>
+      <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2000</v>
       </c>
@@ -18741,7 +18657,7 @@
         <v>0.72748400000000002</v>
       </c>
       <c r="C32" s="41">
-        <v>8.5000000000000006E-3</v>
+        <v>9.103E-3</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33">
@@ -18754,18 +18670,15 @@
         <v>0.62682599999999999</v>
       </c>
       <c r="H32" s="35">
-        <v>5.6049999999999997E-3</v>
-      </c>
-      <c r="I32" s="44">
-        <v>0.70856699999999995</v>
-      </c>
+        <v>7.4180000000000001E-3</v>
+      </c>
+      <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
       <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>2500</v>
       </c>
@@ -18773,7 +18686,7 @@
         <v>1.159286</v>
       </c>
       <c r="C33" s="41">
-        <v>1.0194999999999999E-2</v>
+        <v>1.2545000000000001E-2</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33">
@@ -18786,18 +18699,15 @@
         <v>1.0069250000000001</v>
       </c>
       <c r="H33" s="35">
-        <v>8.8579999999999996E-3</v>
-      </c>
-      <c r="I33" s="44">
-        <v>1.06609</v>
-      </c>
+        <v>9.5119999999999996E-3</v>
+      </c>
+      <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
       <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>3000</v>
       </c>
@@ -18805,7 +18715,7 @@
         <v>1.7674129999999999</v>
       </c>
       <c r="C34" s="41">
-        <v>1.575E-2</v>
+        <v>1.9049E-2</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33">
@@ -18818,18 +18728,15 @@
         <v>1.5081850000000001</v>
       </c>
       <c r="H34" s="35">
-        <v>9.1900000000000003E-3</v>
-      </c>
-      <c r="I34" s="44">
-        <v>1.765385</v>
-      </c>
+        <v>9.8189999999999996E-3</v>
+      </c>
+      <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
       <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>5000</v>
       </c>
@@ -18837,7 +18744,7 @@
         <v>5.1500269999999997</v>
       </c>
       <c r="C35" s="41">
-        <v>2.3605999999999999E-2</v>
+        <v>3.1428999999999999E-2</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33">
@@ -18850,18 +18757,15 @@
         <v>4.3984449999999997</v>
       </c>
       <c r="H35" s="35">
-        <v>1.8296E-2</v>
-      </c>
-      <c r="I35" s="44">
-        <v>5.317329</v>
-      </c>
+        <v>1.9251999999999998E-2</v>
+      </c>
+      <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
       <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>10000</v>
       </c>
@@ -18869,7 +18773,7 @@
         <v>23.346927000000001</v>
       </c>
       <c r="C36" s="41">
-        <v>4.7646000000000001E-2</v>
+        <v>5.3596999999999999E-2</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="33">
@@ -18882,18 +18786,15 @@
         <v>31.583176999999999</v>
       </c>
       <c r="H36" s="35">
-        <v>4.5405000000000001E-2</v>
-      </c>
-      <c r="I36" s="44">
-        <v>34.186042999999998</v>
-      </c>
+        <v>4.4274000000000001E-2</v>
+      </c>
+      <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>20000</v>
       </c>
@@ -18901,7 +18802,7 @@
         <v>111.146433</v>
       </c>
       <c r="C37" s="41">
-        <v>0.10918</v>
+        <v>0.121602</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33" t="s">
@@ -18913,24 +18814,19 @@
       <c r="G37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="35" t="s">
-        <v>4</v>
-      </c>
+      <c r="H37" s="35"/>
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>30000</v>
       </c>
       <c r="B38" s="31"/>
-      <c r="C38" s="41" t="s">
-        <v>4</v>
-      </c>
+      <c r="C38" s="41"/>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
@@ -18941,9 +18837,8 @@
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>40000</v>
       </c>
@@ -18959,9 +18854,8 @@
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
       <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>50000</v>
       </c>
@@ -18977,9 +18871,8 @@
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
       <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>60000</v>
       </c>
@@ -18995,9 +18888,8 @@
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
       <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>70000</v>
       </c>
@@ -19013,9 +18905,8 @@
       <c r="K42" s="44"/>
       <c r="L42" s="44"/>
       <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>80000</v>
       </c>
@@ -19031,9 +18922,8 @@
       <c r="K43" s="44"/>
       <c r="L43" s="44"/>
       <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>90000</v>
       </c>
@@ -19049,9 +18939,8 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
       <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>100000</v>
       </c>
@@ -19067,9 +18956,8 @@
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
       <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>4</v>
       </c>
@@ -19085,12 +18973,12 @@
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
@@ -19100,12 +18988,12 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
@@ -19115,289 +19003,288 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="M52" s="23"/>
       <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="23"/>
       <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="22"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T52" s="22"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="22"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="M53" s="23"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="23"/>
       <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="22"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T53" s="22"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="22"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="M54" s="23"/>
       <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="23"/>
       <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="22"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T54" s="22"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="22"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="M55" s="23"/>
       <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="23"/>
       <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="22"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T55" s="22"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="22"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M56" s="23"/>
       <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="23"/>
       <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="22"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T56" s="22"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="22"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="M57" s="23"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="23"/>
       <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="22"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T57" s="22"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="22"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M58" s="23"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="23"/>
       <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="22"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T58" s="22"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="22"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M59" s="23"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="23"/>
       <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="22"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T59" s="22"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="22"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M60" s="23"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="23"/>
       <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="22"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T60" s="22"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="22"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M61" s="23"/>
       <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="23"/>
       <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="22"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T61" s="22"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="22"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M62" s="23"/>
       <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="23"/>
       <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="22"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T62" s="22"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="22"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M63" s="23"/>
       <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="23"/>
       <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="22"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T63" s="22"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="22"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M64" s="23"/>
       <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="23"/>
       <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="22"/>
-    </row>
-    <row r="65" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T64" s="22"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="22"/>
+    </row>
+    <row r="65" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M65" s="23"/>
       <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="23"/>
       <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="22"/>
-    </row>
-    <row r="66" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T65" s="22"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="22"/>
+    </row>
+    <row r="66" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M66" s="23"/>
       <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="23"/>
       <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="22"/>
-    </row>
-    <row r="67" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T66" s="22"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="22"/>
+    </row>
+    <row r="67" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M67" s="23"/>
       <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="23"/>
       <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="22"/>
-    </row>
-    <row r="68" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T67" s="22"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="22"/>
+    </row>
+    <row r="68" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M68" s="23"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="23"/>
       <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="22"/>
-    </row>
-    <row r="69" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T68" s="22"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="22"/>
+    </row>
+    <row r="69" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M69" s="23"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="23"/>
       <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="22"/>
-    </row>
-    <row r="70" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T69" s="22"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="22"/>
+    </row>
+    <row r="70" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M70" s="23"/>
       <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="23"/>
       <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="22"/>
-    </row>
-    <row r="71" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T70" s="22"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="22"/>
+    </row>
+    <row r="71" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M71" s="23"/>
       <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="23"/>
       <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="22"/>
-    </row>
-    <row r="72" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T71" s="22"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="22"/>
+    </row>
+    <row r="72" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M72" s="23"/>
       <c r="N72" s="23"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="23"/>
       <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="22"/>
-    </row>
-    <row r="73" spans="14:23" x14ac:dyDescent="0.2">
+      <c r="T72" s="22"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="22"/>
+    </row>
+    <row r="73" spans="13:22" x14ac:dyDescent="0.2">
+      <c r="M73" s="23"/>
       <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="23"/>
       <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22453,7 +22340,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22533,17 +22420,17 @@
         <v>10</v>
       </c>
       <c r="B3" s="31">
-        <v>1.1100000000000001E-3</v>
+        <v>2.3E-5</v>
       </c>
       <c r="C3" s="41">
-        <v>1.2160000000000001E-3</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="35">
-        <v>1.0640000000000001E-3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I3" s="31">
         <v>1.1069999999999999E-3</v>
@@ -22564,17 +22451,17 @@
         <v>11</v>
       </c>
       <c r="B4" s="31">
-        <v>1.096E-3</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C4" s="41">
-        <v>1.15E-3</v>
+        <v>1.7100000000000001E-4</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="32"/>
       <c r="H4" s="35">
-        <v>1.0859999999999999E-3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I4" s="31">
         <v>1.021E-3</v>
@@ -22595,17 +22482,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="31">
-        <v>1.026E-3</v>
+        <v>2.8E-5</v>
       </c>
       <c r="C5" s="41">
-        <v>1.0820000000000001E-3</v>
+        <v>1.08E-4</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="32"/>
       <c r="H5" s="35">
-        <v>1.09E-3</v>
+        <v>2.8E-5</v>
       </c>
       <c r="I5" s="31">
         <v>1.0690000000000001E-3</v>
@@ -22626,17 +22513,17 @@
         <v>13</v>
       </c>
       <c r="B6" s="31">
-        <v>1.0169999999999999E-3</v>
+        <v>2.9E-5</v>
       </c>
       <c r="C6" s="41">
-        <v>1.093E-3</v>
+        <v>1.17E-4</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="32"/>
       <c r="H6" s="35">
-        <v>1.0480000000000001E-3</v>
+        <v>2.9E-5</v>
       </c>
       <c r="I6" s="31">
         <v>1.005E-3</v>
@@ -22657,17 +22544,17 @@
         <v>14</v>
       </c>
       <c r="B7" s="31">
-        <v>1.018E-3</v>
+        <v>3.4E-5</v>
       </c>
       <c r="C7" s="41">
-        <v>1.088E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="32"/>
       <c r="H7" s="35">
-        <v>1.039E-3</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="I7" s="31">
         <v>1.021E-3</v>
@@ -22688,17 +22575,17 @@
         <v>15</v>
       </c>
       <c r="B8" s="31">
-        <v>1.003E-3</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="C8" s="41">
-        <v>1.075E-3</v>
+        <v>1.17E-4</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="32"/>
       <c r="H8" s="35">
-        <v>9.9500000000000001E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="I8" s="31">
         <v>1.0889999999999999E-3</v>
@@ -22719,17 +22606,17 @@
         <v>16</v>
       </c>
       <c r="B9" s="31">
-        <v>9.8400000000000007E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="C9" s="41">
-        <v>1.0889999999999999E-3</v>
+        <v>1.2400000000000001E-4</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="35">
-        <v>9.6900000000000003E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="I9" s="31">
         <v>1.0059999999999999E-3</v>
@@ -22750,17 +22637,17 @@
         <v>17</v>
       </c>
       <c r="B10" s="31">
-        <v>9.7499999999999996E-4</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C10" s="41">
-        <v>1.096E-3</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="32"/>
       <c r="H10" s="35">
-        <v>9.1500000000000001E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="I10" s="31">
         <v>1.0139999999999999E-3</v>
@@ -22781,17 +22668,17 @@
         <v>18</v>
       </c>
       <c r="B11" s="31">
-        <v>9.4700000000000003E-4</v>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="C11" s="41">
-        <v>1.024E-3</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
       <c r="G11" s="32"/>
       <c r="H11" s="35">
-        <v>9.3700000000000001E-4</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I11" s="31">
         <v>9.6199999999999996E-4</v>
@@ -22812,17 +22699,17 @@
         <v>19</v>
       </c>
       <c r="B12" s="31">
-        <v>9.0600000000000001E-4</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="C12" s="41">
-        <v>1.124E-3</v>
+        <v>1.34E-4</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="32"/>
       <c r="H12" s="35">
-        <v>9.5399999999999999E-4</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="I12" s="31">
         <v>9.68E-4</v>
@@ -22843,17 +22730,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="31">
-        <v>9.1500000000000001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C13" s="41">
-        <v>1.07E-3</v>
+        <v>1.35E-4</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="32"/>
       <c r="H13" s="35">
-        <v>9.5799999999999998E-4</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="I13" s="31">
         <v>1.031E-3</v>
@@ -22874,17 +22761,17 @@
         <v>21</v>
       </c>
       <c r="B14" s="31">
-        <v>9.7300000000000002E-4</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="C14" s="41">
-        <v>1.0579999999999999E-3</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="32"/>
       <c r="H14" s="35">
-        <v>9.1200000000000005E-4</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="I14" s="31">
         <v>9.6599999999999995E-4</v>
@@ -22905,17 +22792,17 @@
         <v>22</v>
       </c>
       <c r="B15" s="31">
-        <v>9.3899999999999995E-4</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="C15" s="41">
-        <v>1.024E-3</v>
+        <v>1.5200000000000001E-4</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="35">
-        <v>9.1500000000000001E-4</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="I15" s="31">
         <v>9.2599999999999996E-4</v>
@@ -22936,17 +22823,17 @@
         <v>23</v>
       </c>
       <c r="B16" s="31">
-        <v>9.3099999999999997E-4</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="C16" s="41">
-        <v>1.005E-3</v>
+        <v>1.5899999999999999E-4</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
       <c r="H16" s="35">
-        <v>9.0499999999999999E-4</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="I16" s="31">
         <v>9.3000000000000005E-4</v>
@@ -22967,17 +22854,17 @@
         <v>24</v>
       </c>
       <c r="B17" s="31">
-        <v>9.0300000000000005E-4</v>
+        <v>4.1E-5</v>
       </c>
       <c r="C17" s="41">
-        <v>1.0480000000000001E-3</v>
+        <v>1.5699999999999999E-4</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35">
-        <v>8.8000000000000003E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="I17" s="31">
         <v>9.5600000000000004E-4</v>
@@ -22998,17 +22885,17 @@
         <v>25</v>
       </c>
       <c r="B18" s="31">
-        <v>9.2500000000000004E-4</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="C18" s="41">
-        <v>1.036E-3</v>
+        <v>1.66E-4</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35">
-        <v>8.8999999999999995E-4</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="I18" s="31">
         <v>9.0300000000000005E-4</v>
@@ -23029,17 +22916,17 @@
         <v>26</v>
       </c>
       <c r="B19" s="31">
-        <v>9.1200000000000005E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="C19" s="41">
-        <v>1.024E-3</v>
+        <v>1.7200000000000001E-4</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="34"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35">
-        <v>8.0699999999999999E-4</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="I19" s="31">
         <v>9.5399999999999999E-4</v>
@@ -23060,17 +22947,17 @@
         <v>27</v>
       </c>
       <c r="B20" s="31">
-        <v>8.7500000000000002E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C20" s="41">
-        <v>9.990000000000001E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
       <c r="G20" s="32"/>
       <c r="H20" s="35">
-        <v>7.7300000000000003E-4</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="I20" s="31">
         <v>9.0899999999999998E-4</v>
@@ -23091,17 +22978,17 @@
         <v>28</v>
       </c>
       <c r="B21" s="31">
-        <v>9.0700000000000004E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C21" s="41">
-        <v>1.026E-3</v>
+        <v>2.23E-4</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
       <c r="H21" s="35">
-        <v>7.2599999999999997E-4</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="I21" s="31">
         <v>8.7699999999999996E-4</v>
@@ -23122,17 +23009,17 @@
         <v>29</v>
       </c>
       <c r="B22" s="31">
-        <v>8.9899999999999995E-4</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="C22" s="41">
-        <v>1.0200000000000001E-3</v>
+        <v>1.94E-4</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
       <c r="G22" s="32"/>
       <c r="H22" s="35">
-        <v>7.7999999999999999E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="I22" s="31">
         <v>8.8900000000000003E-4</v>
@@ -23153,17 +23040,17 @@
         <v>30</v>
       </c>
       <c r="B23" s="31">
-        <v>8.8599999999999996E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="C23" s="41">
-        <v>1.005E-3</v>
+        <v>2.03E-4</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
       <c r="H23" s="35">
-        <v>7.3800000000000005E-4</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="I23" s="31">
         <v>9.1100000000000003E-4</v>
@@ -23184,17 +23071,17 @@
         <v>31</v>
       </c>
       <c r="B24" s="31">
-        <v>9.2199999999999997E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="C24" s="41">
-        <v>1.016E-3</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
       <c r="H24" s="35">
-        <v>7.4100000000000001E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="I24" s="31">
         <v>9.0700000000000004E-4</v>
@@ -23215,17 +23102,17 @@
         <v>32</v>
       </c>
       <c r="B25" s="31">
-        <v>8.8400000000000002E-4</v>
+        <v>4.6E-5</v>
       </c>
       <c r="C25" s="41">
-        <v>9.9200000000000004E-4</v>
+        <v>2.22E-4</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
       <c r="H25" s="35">
-        <v>7.4899999999999999E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="I25" s="31">
         <v>9.2000000000000003E-4</v>
@@ -23246,17 +23133,17 @@
         <v>50</v>
       </c>
       <c r="B26" s="31">
-        <v>8.7900000000000001E-4</v>
+        <v>7.8999999999999996E-5</v>
       </c>
       <c r="C26" s="41">
-        <v>1.106E-3</v>
+        <v>3.68E-4</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
       <c r="H26" s="35">
-        <v>7.5900000000000002E-4</v>
+        <v>6.3E-5</v>
       </c>
       <c r="I26" s="31">
         <v>9.3099999999999997E-4</v>
@@ -23277,17 +23164,17 @@
         <v>100</v>
       </c>
       <c r="B27" s="31">
-        <v>8.8500000000000004E-4</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="C27" s="41">
-        <v>1.3500000000000001E-3</v>
+        <v>8.4800000000000001E-4</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
       <c r="H27" s="35">
-        <v>7.3899999999999997E-4</v>
+        <v>1.17E-4</v>
       </c>
       <c r="I27" s="31">
         <v>8.9099999999999997E-4</v>
@@ -23308,17 +23195,17 @@
         <v>200</v>
       </c>
       <c r="B28" s="31">
-        <v>1.3240000000000001E-3</v>
+        <v>6.7199999999999996E-4</v>
       </c>
       <c r="C28" s="41">
-        <v>2.3509999999999998E-3</v>
+        <v>2.1710000000000002E-3</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="32"/>
       <c r="H28" s="35">
-        <v>7.6999999999999996E-4</v>
+        <v>2.2599999999999999E-4</v>
       </c>
       <c r="I28" s="31">
         <v>8.7399999999999999E-4</v>
@@ -23339,17 +23226,17 @@
         <v>500</v>
       </c>
       <c r="B29" s="31">
-        <v>3.9870000000000001E-3</v>
+        <v>3.555E-3</v>
       </c>
       <c r="C29" s="41">
-        <v>7.9150000000000002E-3</v>
+        <v>9.7920000000000004E-3</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="32"/>
       <c r="H29" s="35">
-        <v>8.0099999999999995E-4</v>
+        <v>5.3200000000000003E-4</v>
       </c>
       <c r="I29" s="31">
         <v>7.9900000000000001E-4</v>
@@ -23370,17 +23257,17 @@
         <v>1000</v>
       </c>
       <c r="B30" s="31">
-        <v>1.4024E-2</v>
+        <v>1.3431E-2</v>
       </c>
       <c r="C30" s="41">
-        <v>2.5225000000000001E-2</v>
+        <v>3.0678E-2</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
       <c r="G30" s="32"/>
       <c r="H30" s="35">
-        <v>9.5100000000000002E-4</v>
+        <v>9.3899999999999995E-4</v>
       </c>
       <c r="I30" s="31">
         <v>8.3199999999999995E-4</v>
@@ -23401,17 +23288,17 @@
         <v>1500</v>
       </c>
       <c r="B31" s="31">
-        <v>3.0928000000000001E-2</v>
+        <v>3.0391000000000001E-2</v>
       </c>
       <c r="C31" s="41">
-        <v>5.4580999999999998E-2</v>
+        <v>5.6461999999999998E-2</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="32"/>
       <c r="H31" s="35">
-        <v>9.9299999999999996E-4</v>
+        <v>3.8630000000000001E-3</v>
       </c>
       <c r="I31" s="31">
         <v>8.6600000000000002E-4</v>
@@ -23432,17 +23319,17 @@
         <v>2000</v>
       </c>
       <c r="B32" s="31">
-        <v>5.2406000000000001E-2</v>
+        <v>5.6461999999999998E-2</v>
       </c>
       <c r="C32" s="41">
-        <v>9.3287999999999996E-2</v>
+        <v>9.4612000000000002E-2</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="34"/>
       <c r="G32" s="32"/>
       <c r="H32" s="35">
-        <v>1.225E-3</v>
+        <v>4.4019999999999997E-3</v>
       </c>
       <c r="I32" s="31">
         <v>8.8900000000000003E-4</v>
@@ -23463,17 +23350,17 @@
         <v>2500</v>
       </c>
       <c r="B33" s="31">
-        <v>8.0239000000000005E-2</v>
+        <v>8.3535999999999999E-2</v>
       </c>
       <c r="C33" s="41">
-        <v>0.14021800000000001</v>
+        <v>0.146647</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
       <c r="G33" s="32"/>
       <c r="H33" s="35">
-        <v>1.3290000000000001E-3</v>
+        <v>4.7229999999999998E-3</v>
       </c>
       <c r="I33" s="31">
         <v>1.0280000000000001E-3</v>
@@ -23494,17 +23381,17 @@
         <v>5000</v>
       </c>
       <c r="B34" s="31">
-        <v>0.32545299999999999</v>
+        <v>0.33501500000000001</v>
       </c>
       <c r="C34" s="41">
-        <v>0.55376599999999998</v>
+        <v>0.53937100000000004</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
       <c r="G34" s="32"/>
       <c r="H34" s="35">
-        <v>1.807E-3</v>
+        <v>1.0980999999999999E-2</v>
       </c>
       <c r="I34" s="31">
         <v>1.067E-3</v>
@@ -23525,17 +23412,17 @@
         <v>10000</v>
       </c>
       <c r="B35" s="31">
-        <v>1.3117840000000001</v>
+        <v>1.2789299999999999</v>
       </c>
       <c r="C35" s="41">
-        <v>2.246</v>
+        <v>2.26553</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
       <c r="G35" s="32"/>
       <c r="H35" s="35">
-        <v>4.6280000000000002E-3</v>
+        <v>2.8652E-2</v>
       </c>
       <c r="I35" s="31">
         <v>1.6739999999999999E-3</v>
@@ -23556,17 +23443,17 @@
         <v>20000</v>
       </c>
       <c r="B36" s="31">
-        <v>5.0392570000000001</v>
+        <v>5.3461790000000002</v>
       </c>
       <c r="C36" s="41">
-        <v>8.7627050000000004</v>
+        <v>9.6585999999999999</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
       <c r="G36" s="32"/>
       <c r="H36" s="35">
-        <v>8.7150000000000005E-3</v>
+        <v>6.4096E-2</v>
       </c>
       <c r="I36" s="31">
         <v>2.8670000000000002E-3</v>
@@ -23587,17 +23474,17 @@
         <v>30000</v>
       </c>
       <c r="B37" s="31">
-        <v>11.962857</v>
+        <v>12.795745</v>
       </c>
       <c r="C37" s="41">
-        <v>19.352063000000001</v>
+        <v>20.059473000000001</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
       <c r="G37" s="32"/>
       <c r="H37" s="35">
-        <v>1.1431999999999999E-2</v>
+        <v>0.100523</v>
       </c>
       <c r="I37" s="31">
         <v>4.5459999999999997E-3</v>
@@ -23618,17 +23505,17 @@
         <v>40000</v>
       </c>
       <c r="B38" s="31">
-        <v>20.429576999999998</v>
+        <v>22.261482000000001</v>
       </c>
       <c r="C38" s="41">
-        <v>35.314757</v>
+        <v>36.508553999999997</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
       <c r="G38" s="32"/>
       <c r="H38" s="35">
-        <v>1.4711999999999999E-2</v>
+        <v>0.13483400000000001</v>
       </c>
       <c r="I38" s="31">
         <v>5.2680000000000001E-3</v>
@@ -23649,17 +23536,17 @@
         <v>50000</v>
       </c>
       <c r="B39" s="31">
-        <v>33.108294999999998</v>
+        <v>36.279274999999998</v>
       </c>
       <c r="C39" s="41">
-        <v>53.302705000000003</v>
+        <v>54.648324000000002</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
       <c r="G39" s="32"/>
       <c r="H39" s="35">
-        <v>1.7330999999999999E-2</v>
+        <v>0.19148200000000001</v>
       </c>
       <c r="I39" s="31">
         <v>9.1339999999999998E-3</v>
@@ -24290,7 +24177,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -24299,7 +24186,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="50"/>
       <c r="I1" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
